--- a/documentacao/excel/mechspot_ata.xlsx
+++ b/documentacao/excel/mechspot_ata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\projeto-pi-sprint-2\documentacao\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A281EFE2-E309-4335-BDF0-9AEE5CFB6052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E801DDB3-684D-4C67-B9CE-A1B106AFD129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4545F592-9151-46FC-8F7A-0131C129BBC9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="264">
   <si>
     <t>OK</t>
   </si>
@@ -1464,6 +1464,15 @@
   <si>
     <t>Ajustar a dashboard</t>
   </si>
+  <si>
+    <t>Melhorias do projeto após a sprint</t>
+  </si>
+  <si>
+    <t>Tirar às KPIS redundantes</t>
+  </si>
+  <si>
+    <t>Novo diagrama aprovado</t>
+  </si>
 </sst>
 </file>
 
@@ -1993,9 +2002,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2032,50 +2038,11 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2089,6 +2056,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2100,6 +2070,45 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3754,6 +3763,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>415917</xdr:colOff>
+      <xdr:row>972</xdr:row>
+      <xdr:rowOff>35593</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1573013" cy="1611635"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagem 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D74BB0-DB84-4617-91FC-9B5C7FFB8432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1101717" y="190599093"/>
+          <a:ext cx="1573013" cy="1611635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4074,10 +4128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5446F9-8A09-4B91-82C6-8FD7102DEAC7}">
-  <dimension ref="A1:Y969"/>
+  <dimension ref="A1:Y997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A941" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H969" sqref="H969"/>
+    <sheetView tabSelected="1" topLeftCell="A971" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I999" sqref="I999"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4301,16 +4355,16 @@
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
@@ -4399,17 +4453,17 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" ht="15.6" customHeight="1" thickTop="1" thickBot="1">
@@ -4423,23 +4477,23 @@
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42" t="s">
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42" t="s">
+      <c r="K17" s="41"/>
+      <c r="L17" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42" t="s">
+      <c r="M17" s="41"/>
+      <c r="N17" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O17" s="42"/>
+      <c r="O17" s="41"/>
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16" ht="15.6" customHeight="1" thickTop="1" thickBot="1">
@@ -4871,16 +4925,16 @@
       <c r="P37" s="5"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="37" t="s">
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6" t="s">
@@ -4969,17 +5023,17 @@
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="38" t="s">
+      <c r="G42" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -4993,23 +5047,23 @@
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="39" t="s">
+      <c r="G43" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="40"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42" t="s">
+      <c r="H43" s="39"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42" t="s">
+      <c r="K43" s="41"/>
+      <c r="L43" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42" t="s">
+      <c r="M43" s="41"/>
+      <c r="N43" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O43" s="42"/>
+      <c r="O43" s="41"/>
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -5433,16 +5487,16 @@
       <c r="P63" s="5"/>
     </row>
     <row r="64" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="37" t="s">
+      <c r="B64" s="34"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="35"/>
-      <c r="F64" s="36"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="35"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6" t="s">
@@ -5531,17 +5585,17 @@
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
       <c r="P68" s="5"/>
     </row>
     <row r="69" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -5551,23 +5605,23 @@
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="39" t="s">
+      <c r="G69" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="40"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="42" t="s">
+      <c r="H69" s="39"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42" t="s">
+      <c r="K69" s="41"/>
+      <c r="L69" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42" t="s">
+      <c r="M69" s="41"/>
+      <c r="N69" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O69" s="42"/>
+      <c r="O69" s="41"/>
       <c r="P69" s="5"/>
     </row>
     <row r="70" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -5955,16 +6009,16 @@
       <c r="P89" s="5"/>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A90" s="34" t="s">
+      <c r="A90" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="35"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="37" t="s">
+      <c r="B90" s="34"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="35"/>
-      <c r="F90" s="36"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="35"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6" t="s">
@@ -6053,17 +6107,17 @@
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
-      <c r="G94" s="38" t="s">
+      <c r="G94" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="38"/>
-      <c r="O94" s="38"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="37"/>
+      <c r="O94" s="37"/>
       <c r="P94" s="5"/>
     </row>
     <row r="95" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -6077,23 +6131,23 @@
       </c>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
-      <c r="G95" s="39" t="s">
+      <c r="G95" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H95" s="40"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="42" t="s">
+      <c r="H95" s="39"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K95" s="42"/>
-      <c r="L95" s="42" t="s">
+      <c r="K95" s="41"/>
+      <c r="L95" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M95" s="42"/>
-      <c r="N95" s="42" t="s">
+      <c r="M95" s="41"/>
+      <c r="N95" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O95" s="42"/>
+      <c r="O95" s="41"/>
       <c r="P95" s="5"/>
     </row>
     <row r="96" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -6468,7 +6522,7 @@
       </c>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
-      <c r="L114" s="33" t="s">
+      <c r="L114" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M114" s="32"/>
@@ -6499,16 +6553,16 @@
       <c r="P115" s="5"/>
     </row>
     <row r="116" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A116" s="34" t="s">
+      <c r="A116" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="35"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="37" t="s">
+      <c r="B116" s="34"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E116" s="35"/>
-      <c r="F116" s="36"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="35"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6" t="s">
@@ -6564,7 +6618,7 @@
       </c>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
-      <c r="L118" s="33" t="s">
+      <c r="L118" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M118" s="32"/>
@@ -6597,17 +6651,17 @@
       <c r="D120" s="17"/>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
-      <c r="G120" s="38" t="s">
+      <c r="G120" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H120" s="38"/>
-      <c r="I120" s="38"/>
-      <c r="J120" s="38"/>
-      <c r="K120" s="38"/>
-      <c r="L120" s="38"/>
-      <c r="M120" s="38"/>
-      <c r="N120" s="38"/>
-      <c r="O120" s="38"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="37"/>
+      <c r="L120" s="37"/>
+      <c r="M120" s="37"/>
+      <c r="N120" s="37"/>
+      <c r="O120" s="37"/>
       <c r="P120" s="5"/>
     </row>
     <row r="121" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -6621,23 +6675,23 @@
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
-      <c r="G121" s="39" t="s">
+      <c r="G121" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H121" s="40"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="42" t="s">
+      <c r="H121" s="39"/>
+      <c r="I121" s="40"/>
+      <c r="J121" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K121" s="42"/>
-      <c r="L121" s="42" t="s">
+      <c r="K121" s="41"/>
+      <c r="L121" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M121" s="42"/>
-      <c r="N121" s="42" t="s">
+      <c r="M121" s="41"/>
+      <c r="N121" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O121" s="42"/>
+      <c r="O121" s="41"/>
       <c r="P121" s="5"/>
     </row>
     <row r="122" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -7033,16 +7087,16 @@
       <c r="P141" s="5"/>
     </row>
     <row r="142" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A142" s="34" t="s">
+      <c r="A142" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B142" s="35"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="37" t="s">
+      <c r="B142" s="34"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E142" s="35"/>
-      <c r="F142" s="36"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="35"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6" t="s">
@@ -7131,17 +7185,17 @@
       <c r="D146" s="17"/>
       <c r="E146" s="17"/>
       <c r="F146" s="17"/>
-      <c r="G146" s="38" t="s">
+      <c r="G146" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H146" s="38"/>
-      <c r="I146" s="38"/>
-      <c r="J146" s="38"/>
-      <c r="K146" s="38"/>
-      <c r="L146" s="38"/>
-      <c r="M146" s="38"/>
-      <c r="N146" s="38"/>
-      <c r="O146" s="38"/>
+      <c r="H146" s="37"/>
+      <c r="I146" s="37"/>
+      <c r="J146" s="37"/>
+      <c r="K146" s="37"/>
+      <c r="L146" s="37"/>
+      <c r="M146" s="37"/>
+      <c r="N146" s="37"/>
+      <c r="O146" s="37"/>
       <c r="P146" s="5"/>
     </row>
     <row r="147" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -7155,23 +7209,23 @@
       </c>
       <c r="E147" s="17"/>
       <c r="F147" s="17"/>
-      <c r="G147" s="39" t="s">
+      <c r="G147" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H147" s="40"/>
-      <c r="I147" s="41"/>
-      <c r="J147" s="42" t="s">
+      <c r="H147" s="39"/>
+      <c r="I147" s="40"/>
+      <c r="J147" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K147" s="42"/>
-      <c r="L147" s="42" t="s">
+      <c r="K147" s="41"/>
+      <c r="L147" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M147" s="42"/>
-      <c r="N147" s="42" t="s">
+      <c r="M147" s="41"/>
+      <c r="N147" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O147" s="42"/>
+      <c r="O147" s="41"/>
       <c r="P147" s="5"/>
     </row>
     <row r="148" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -7563,16 +7617,16 @@
       <c r="P167" s="5"/>
     </row>
     <row r="168" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A168" s="34" t="s">
+      <c r="A168" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B168" s="35"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="37" t="s">
+      <c r="B168" s="34"/>
+      <c r="C168" s="35"/>
+      <c r="D168" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E168" s="35"/>
-      <c r="F168" s="36"/>
+      <c r="E168" s="34"/>
+      <c r="F168" s="35"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
       <c r="I168" s="6" t="s">
@@ -7606,12 +7660,12 @@
       </c>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
-      <c r="L169" s="33" t="s">
+      <c r="L169" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M169" s="33"/>
-      <c r="N169" s="33"/>
-      <c r="O169" s="33"/>
+      <c r="M169" s="45"/>
+      <c r="N169" s="45"/>
+      <c r="O169" s="45"/>
       <c r="P169" s="5"/>
     </row>
     <row r="170" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
@@ -7661,17 +7715,17 @@
       <c r="D172" s="17"/>
       <c r="E172" s="17"/>
       <c r="F172" s="17"/>
-      <c r="G172" s="38" t="s">
+      <c r="G172" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="38"/>
-      <c r="I172" s="38"/>
-      <c r="J172" s="38"/>
-      <c r="K172" s="38"/>
-      <c r="L172" s="38"/>
-      <c r="M172" s="38"/>
-      <c r="N172" s="38"/>
-      <c r="O172" s="38"/>
+      <c r="H172" s="37"/>
+      <c r="I172" s="37"/>
+      <c r="J172" s="37"/>
+      <c r="K172" s="37"/>
+      <c r="L172" s="37"/>
+      <c r="M172" s="37"/>
+      <c r="N172" s="37"/>
+      <c r="O172" s="37"/>
       <c r="P172" s="5"/>
     </row>
     <row r="173" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -7685,23 +7739,23 @@
       </c>
       <c r="E173" s="17"/>
       <c r="F173" s="17"/>
-      <c r="G173" s="39" t="s">
+      <c r="G173" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H173" s="40"/>
-      <c r="I173" s="41"/>
-      <c r="J173" s="42" t="s">
+      <c r="H173" s="39"/>
+      <c r="I173" s="40"/>
+      <c r="J173" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K173" s="42"/>
-      <c r="L173" s="42" t="s">
+      <c r="K173" s="41"/>
+      <c r="L173" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M173" s="42"/>
-      <c r="N173" s="42" t="s">
+      <c r="M173" s="41"/>
+      <c r="N173" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O173" s="42"/>
+      <c r="O173" s="41"/>
       <c r="P173" s="5"/>
     </row>
     <row r="174" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -8125,16 +8179,16 @@
       <c r="P194" s="5"/>
     </row>
     <row r="195" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A195" s="34" t="s">
+      <c r="A195" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B195" s="35"/>
-      <c r="C195" s="36"/>
-      <c r="D195" s="37" t="s">
+      <c r="B195" s="34"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E195" s="35"/>
-      <c r="F195" s="36"/>
+      <c r="E195" s="34"/>
+      <c r="F195" s="35"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
       <c r="I195" s="6" t="s">
@@ -8223,17 +8277,17 @@
       <c r="D199" s="17"/>
       <c r="E199" s="17"/>
       <c r="F199" s="17"/>
-      <c r="G199" s="38" t="s">
+      <c r="G199" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H199" s="38"/>
-      <c r="I199" s="38"/>
-      <c r="J199" s="38"/>
-      <c r="K199" s="38"/>
-      <c r="L199" s="38"/>
-      <c r="M199" s="38"/>
-      <c r="N199" s="38"/>
-      <c r="O199" s="38"/>
+      <c r="H199" s="37"/>
+      <c r="I199" s="37"/>
+      <c r="J199" s="37"/>
+      <c r="K199" s="37"/>
+      <c r="L199" s="37"/>
+      <c r="M199" s="37"/>
+      <c r="N199" s="37"/>
+      <c r="O199" s="37"/>
       <c r="P199" s="5"/>
     </row>
     <row r="200" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -8247,23 +8301,23 @@
       </c>
       <c r="E200" s="17"/>
       <c r="F200" s="17"/>
-      <c r="G200" s="39" t="s">
+      <c r="G200" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H200" s="40"/>
-      <c r="I200" s="41"/>
-      <c r="J200" s="42" t="s">
+      <c r="H200" s="39"/>
+      <c r="I200" s="40"/>
+      <c r="J200" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K200" s="42"/>
-      <c r="L200" s="42" t="s">
+      <c r="K200" s="41"/>
+      <c r="L200" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M200" s="42"/>
-      <c r="N200" s="42" t="s">
+      <c r="M200" s="41"/>
+      <c r="N200" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O200" s="42"/>
+      <c r="O200" s="41"/>
       <c r="P200" s="5"/>
     </row>
     <row r="201" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -8640,12 +8694,12 @@
       </c>
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
-      <c r="L219" s="33" t="s">
+      <c r="L219" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M219" s="33"/>
-      <c r="N219" s="33"/>
-      <c r="O219" s="33"/>
+      <c r="M219" s="45"/>
+      <c r="N219" s="45"/>
+      <c r="O219" s="45"/>
       <c r="P219" s="5"/>
     </row>
     <row r="220" spans="1:16" ht="15.75" thickBot="1">
@@ -8662,25 +8716,25 @@
       </c>
       <c r="J220" s="6"/>
       <c r="K220" s="6"/>
-      <c r="L220" s="33" t="s">
+      <c r="L220" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M220" s="33"/>
-      <c r="N220" s="33"/>
-      <c r="O220" s="33"/>
+      <c r="M220" s="45"/>
+      <c r="N220" s="45"/>
+      <c r="O220" s="45"/>
       <c r="P220" s="5"/>
     </row>
     <row r="221" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A221" s="34" t="s">
+      <c r="A221" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B221" s="35"/>
-      <c r="C221" s="36"/>
-      <c r="D221" s="37" t="s">
+      <c r="B221" s="34"/>
+      <c r="C221" s="35"/>
+      <c r="D221" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E221" s="35"/>
-      <c r="F221" s="36"/>
+      <c r="E221" s="34"/>
+      <c r="F221" s="35"/>
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
       <c r="I221" s="6" t="s">
@@ -8769,17 +8823,17 @@
       <c r="D225" s="17"/>
       <c r="E225" s="17"/>
       <c r="F225" s="17"/>
-      <c r="G225" s="38" t="s">
+      <c r="G225" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H225" s="38"/>
-      <c r="I225" s="38"/>
-      <c r="J225" s="38"/>
-      <c r="K225" s="38"/>
-      <c r="L225" s="38"/>
-      <c r="M225" s="38"/>
-      <c r="N225" s="38"/>
-      <c r="O225" s="38"/>
+      <c r="H225" s="37"/>
+      <c r="I225" s="37"/>
+      <c r="J225" s="37"/>
+      <c r="K225" s="37"/>
+      <c r="L225" s="37"/>
+      <c r="M225" s="37"/>
+      <c r="N225" s="37"/>
+      <c r="O225" s="37"/>
       <c r="P225" s="5"/>
     </row>
     <row r="226" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -8793,23 +8847,23 @@
       </c>
       <c r="E226" s="17"/>
       <c r="F226" s="17"/>
-      <c r="G226" s="39" t="s">
+      <c r="G226" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H226" s="40"/>
-      <c r="I226" s="41"/>
-      <c r="J226" s="42" t="s">
+      <c r="H226" s="39"/>
+      <c r="I226" s="40"/>
+      <c r="J226" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K226" s="42"/>
-      <c r="L226" s="42" t="s">
+      <c r="K226" s="41"/>
+      <c r="L226" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M226" s="42"/>
-      <c r="N226" s="42" t="s">
+      <c r="M226" s="41"/>
+      <c r="N226" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O226" s="42"/>
+      <c r="O226" s="41"/>
       <c r="P226" s="5"/>
     </row>
     <row r="227" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -9215,16 +9269,16 @@
       <c r="P246" s="5"/>
     </row>
     <row r="247" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A247" s="34" t="s">
+      <c r="A247" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B247" s="35"/>
-      <c r="C247" s="36"/>
-      <c r="D247" s="37" t="s">
+      <c r="B247" s="34"/>
+      <c r="C247" s="35"/>
+      <c r="D247" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E247" s="35"/>
-      <c r="F247" s="36"/>
+      <c r="E247" s="34"/>
+      <c r="F247" s="35"/>
       <c r="G247" s="6"/>
       <c r="H247" s="6"/>
       <c r="I247" s="6" t="s">
@@ -9313,17 +9367,17 @@
       <c r="D251" s="17"/>
       <c r="E251" s="17"/>
       <c r="F251" s="17"/>
-      <c r="G251" s="38" t="s">
+      <c r="G251" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H251" s="38"/>
-      <c r="I251" s="38"/>
-      <c r="J251" s="38"/>
-      <c r="K251" s="38"/>
-      <c r="L251" s="38"/>
-      <c r="M251" s="38"/>
-      <c r="N251" s="38"/>
-      <c r="O251" s="38"/>
+      <c r="H251" s="37"/>
+      <c r="I251" s="37"/>
+      <c r="J251" s="37"/>
+      <c r="K251" s="37"/>
+      <c r="L251" s="37"/>
+      <c r="M251" s="37"/>
+      <c r="N251" s="37"/>
+      <c r="O251" s="37"/>
       <c r="P251" s="5"/>
     </row>
     <row r="252" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -9337,23 +9391,23 @@
       </c>
       <c r="E252" s="17"/>
       <c r="F252" s="17"/>
-      <c r="G252" s="39" t="s">
+      <c r="G252" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H252" s="40"/>
-      <c r="I252" s="41"/>
-      <c r="J252" s="42" t="s">
+      <c r="H252" s="39"/>
+      <c r="I252" s="40"/>
+      <c r="J252" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K252" s="42"/>
-      <c r="L252" s="42" t="s">
+      <c r="K252" s="41"/>
+      <c r="L252" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M252" s="42"/>
-      <c r="N252" s="42" t="s">
+      <c r="M252" s="41"/>
+      <c r="N252" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O252" s="42"/>
+      <c r="O252" s="41"/>
       <c r="P252" s="5"/>
     </row>
     <row r="253" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -9739,13 +9793,13 @@
       <c r="N269" s="7"/>
       <c r="O269" s="7"/>
       <c r="P269" s="5"/>
-      <c r="Q269" s="50" t="s">
+      <c r="Q269" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="R269" s="50"/>
-      <c r="S269" s="50"/>
-      <c r="T269" s="50"/>
-      <c r="U269" s="50"/>
+      <c r="R269" s="66"/>
+      <c r="S269" s="66"/>
+      <c r="T269" s="66"/>
+      <c r="U269" s="66"/>
       <c r="V269" s="1"/>
     </row>
     <row r="270" spans="1:22" ht="15">
@@ -9762,18 +9816,18 @@
       </c>
       <c r="J270" s="6"/>
       <c r="K270" s="6"/>
-      <c r="L270" s="53" t="s">
+      <c r="L270" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="M270" s="53"/>
-      <c r="N270" s="53"/>
-      <c r="O270" s="53"/>
+      <c r="M270" s="60"/>
+      <c r="N270" s="60"/>
+      <c r="O270" s="60"/>
       <c r="P270" s="5"/>
-      <c r="Q270" s="51"/>
-      <c r="R270" s="51"/>
-      <c r="S270" s="51"/>
-      <c r="T270" s="51"/>
-      <c r="U270" s="51"/>
+      <c r="Q270" s="67"/>
+      <c r="R270" s="67"/>
+      <c r="S270" s="67"/>
+      <c r="T270" s="67"/>
+      <c r="U270" s="67"/>
       <c r="V270" s="1"/>
     </row>
     <row r="271" spans="1:22" ht="15">
@@ -9790,18 +9844,18 @@
       </c>
       <c r="J271" s="6"/>
       <c r="K271" s="6"/>
-      <c r="L271" s="53" t="s">
+      <c r="L271" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="M271" s="53"/>
-      <c r="N271" s="53"/>
-      <c r="O271" s="53"/>
+      <c r="M271" s="60"/>
+      <c r="N271" s="60"/>
+      <c r="O271" s="60"/>
       <c r="P271" s="5"/>
-      <c r="Q271" s="51"/>
-      <c r="R271" s="51"/>
-      <c r="S271" s="51"/>
-      <c r="T271" s="51"/>
-      <c r="U271" s="51"/>
+      <c r="Q271" s="67"/>
+      <c r="R271" s="67"/>
+      <c r="S271" s="67"/>
+      <c r="T271" s="67"/>
+      <c r="U271" s="67"/>
       <c r="V271" s="1"/>
     </row>
     <row r="272" spans="1:22" ht="15">
@@ -9818,33 +9872,33 @@
       </c>
       <c r="J272" s="6"/>
       <c r="K272" s="6"/>
-      <c r="L272" s="54" t="s">
+      <c r="L272" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="M272" s="54"/>
-      <c r="N272" s="54"/>
-      <c r="O272" s="54"/>
+      <c r="M272" s="58"/>
+      <c r="N272" s="58"/>
+      <c r="O272" s="58"/>
       <c r="P272" s="5"/>
-      <c r="Q272" s="51" t="s">
+      <c r="Q272" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="R272" s="51"/>
-      <c r="S272" s="51"/>
-      <c r="T272" s="51"/>
-      <c r="U272" s="51"/>
+      <c r="R272" s="67"/>
+      <c r="S272" s="67"/>
+      <c r="T272" s="67"/>
+      <c r="U272" s="67"/>
       <c r="V272" s="1"/>
     </row>
     <row r="273" spans="1:22" ht="15">
-      <c r="A273" s="57" t="s">
+      <c r="A273" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B273" s="58"/>
-      <c r="C273" s="58"/>
-      <c r="D273" s="58" t="s">
+      <c r="B273" s="57"/>
+      <c r="C273" s="57"/>
+      <c r="D273" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E273" s="58"/>
-      <c r="F273" s="58"/>
+      <c r="E273" s="57"/>
+      <c r="F273" s="57"/>
       <c r="G273" s="6"/>
       <c r="H273" s="6"/>
       <c r="I273" s="6" t="s">
@@ -9852,31 +9906,31 @@
       </c>
       <c r="J273" s="6"/>
       <c r="K273" s="6"/>
-      <c r="L273" s="54" t="s">
+      <c r="L273" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="M273" s="54"/>
-      <c r="N273" s="54"/>
-      <c r="O273" s="54"/>
+      <c r="M273" s="58"/>
+      <c r="N273" s="58"/>
+      <c r="O273" s="58"/>
       <c r="P273" s="5"/>
-      <c r="Q273" s="51"/>
-      <c r="R273" s="51"/>
-      <c r="S273" s="51"/>
-      <c r="T273" s="51"/>
-      <c r="U273" s="51"/>
+      <c r="Q273" s="67"/>
+      <c r="R273" s="67"/>
+      <c r="S273" s="67"/>
+      <c r="T273" s="67"/>
+      <c r="U273" s="67"/>
       <c r="V273" s="1"/>
     </row>
     <row r="274" spans="1:22" ht="15">
-      <c r="A274" s="55" t="s">
+      <c r="A274" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="B274" s="56"/>
-      <c r="C274" s="56"/>
-      <c r="D274" s="56" t="s">
+      <c r="B274" s="51"/>
+      <c r="C274" s="51"/>
+      <c r="D274" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="E274" s="56"/>
-      <c r="F274" s="56"/>
+      <c r="E274" s="51"/>
+      <c r="F274" s="51"/>
       <c r="G274" s="6"/>
       <c r="H274" s="6"/>
       <c r="I274" s="6" t="s">
@@ -9884,27 +9938,27 @@
       </c>
       <c r="J274" s="6"/>
       <c r="K274" s="6"/>
-      <c r="L274" s="54" t="s">
+      <c r="L274" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="M274" s="54"/>
-      <c r="N274" s="54"/>
-      <c r="O274" s="54"/>
+      <c r="M274" s="58"/>
+      <c r="N274" s="58"/>
+      <c r="O274" s="58"/>
       <c r="P274" s="5"/>
-      <c r="Q274" s="51"/>
-      <c r="R274" s="51"/>
-      <c r="S274" s="51"/>
-      <c r="T274" s="51"/>
-      <c r="U274" s="51"/>
+      <c r="Q274" s="67"/>
+      <c r="R274" s="67"/>
+      <c r="S274" s="67"/>
+      <c r="T274" s="67"/>
+      <c r="U274" s="67"/>
       <c r="V274" s="1"/>
     </row>
     <row r="275" spans="1:22" ht="15">
-      <c r="A275" s="55"/>
-      <c r="B275" s="56"/>
-      <c r="C275" s="56"/>
-      <c r="D275" s="56"/>
-      <c r="E275" s="56"/>
-      <c r="F275" s="56"/>
+      <c r="A275" s="59"/>
+      <c r="B275" s="51"/>
+      <c r="C275" s="51"/>
+      <c r="D275" s="51"/>
+      <c r="E275" s="51"/>
+      <c r="F275" s="51"/>
       <c r="G275" s="6"/>
       <c r="H275" s="6"/>
       <c r="I275" s="6" t="s">
@@ -9912,29 +9966,29 @@
       </c>
       <c r="J275" s="6"/>
       <c r="K275" s="6"/>
-      <c r="L275" s="53" t="s">
+      <c r="L275" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="M275" s="53"/>
-      <c r="N275" s="53"/>
-      <c r="O275" s="53"/>
+      <c r="M275" s="60"/>
+      <c r="N275" s="60"/>
+      <c r="O275" s="60"/>
       <c r="P275" s="5"/>
-      <c r="Q275" s="51" t="s">
+      <c r="Q275" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="R275" s="51"/>
-      <c r="S275" s="51"/>
-      <c r="T275" s="51"/>
-      <c r="U275" s="51"/>
+      <c r="R275" s="67"/>
+      <c r="S275" s="67"/>
+      <c r="T275" s="67"/>
+      <c r="U275" s="67"/>
       <c r="V275" s="1"/>
     </row>
     <row r="276" spans="1:22" ht="15">
-      <c r="A276" s="55"/>
-      <c r="B276" s="56"/>
-      <c r="C276" s="56"/>
-      <c r="D276" s="56"/>
-      <c r="E276" s="56"/>
-      <c r="F276" s="56"/>
+      <c r="A276" s="59"/>
+      <c r="B276" s="51"/>
+      <c r="C276" s="51"/>
+      <c r="D276" s="51"/>
+      <c r="E276" s="51"/>
+      <c r="F276" s="51"/>
       <c r="G276" s="6"/>
       <c r="H276" s="6"/>
       <c r="I276" s="6"/>
@@ -9945,449 +9999,449 @@
       <c r="N276" s="6"/>
       <c r="O276" s="6"/>
       <c r="P276" s="5"/>
-      <c r="Q276" s="51"/>
-      <c r="R276" s="51"/>
-      <c r="S276" s="51"/>
-      <c r="T276" s="51"/>
-      <c r="U276" s="51"/>
+      <c r="Q276" s="67"/>
+      <c r="R276" s="67"/>
+      <c r="S276" s="67"/>
+      <c r="T276" s="67"/>
+      <c r="U276" s="67"/>
       <c r="V276" s="1"/>
     </row>
     <row r="277" spans="1:22">
-      <c r="A277" s="55"/>
-      <c r="B277" s="56"/>
-      <c r="C277" s="56"/>
-      <c r="D277" s="56"/>
-      <c r="E277" s="56"/>
-      <c r="F277" s="56"/>
-      <c r="G277" s="59" t="s">
+      <c r="A277" s="59"/>
+      <c r="B277" s="51"/>
+      <c r="C277" s="51"/>
+      <c r="D277" s="51"/>
+      <c r="E277" s="51"/>
+      <c r="F277" s="51"/>
+      <c r="G277" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H277" s="59"/>
-      <c r="I277" s="59"/>
-      <c r="J277" s="59"/>
-      <c r="K277" s="59"/>
-      <c r="L277" s="59"/>
-      <c r="M277" s="59"/>
-      <c r="N277" s="59"/>
-      <c r="O277" s="59"/>
+      <c r="H277" s="61"/>
+      <c r="I277" s="61"/>
+      <c r="J277" s="61"/>
+      <c r="K277" s="61"/>
+      <c r="L277" s="61"/>
+      <c r="M277" s="61"/>
+      <c r="N277" s="61"/>
+      <c r="O277" s="61"/>
       <c r="P277" s="5"/>
-      <c r="Q277" s="51"/>
-      <c r="R277" s="51"/>
-      <c r="S277" s="51"/>
-      <c r="T277" s="51"/>
-      <c r="U277" s="51"/>
+      <c r="Q277" s="67"/>
+      <c r="R277" s="67"/>
+      <c r="S277" s="67"/>
+      <c r="T277" s="67"/>
+      <c r="U277" s="67"/>
       <c r="V277" s="1"/>
     </row>
     <row r="278" spans="1:22">
-      <c r="A278" s="55" t="s">
+      <c r="A278" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B278" s="56"/>
-      <c r="C278" s="56"/>
-      <c r="D278" s="56" t="s">
+      <c r="B278" s="51"/>
+      <c r="C278" s="51"/>
+      <c r="D278" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E278" s="56"/>
-      <c r="F278" s="56"/>
-      <c r="G278" s="60" t="s">
+      <c r="E278" s="51"/>
+      <c r="F278" s="51"/>
+      <c r="G278" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H278" s="60"/>
-      <c r="I278" s="60"/>
-      <c r="J278" s="60" t="s">
+      <c r="H278" s="62"/>
+      <c r="I278" s="62"/>
+      <c r="J278" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K278" s="60"/>
-      <c r="L278" s="60" t="s">
+      <c r="K278" s="62"/>
+      <c r="L278" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="M278" s="60"/>
-      <c r="N278" s="60" t="s">
+      <c r="M278" s="62"/>
+      <c r="N278" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="O278" s="60"/>
+      <c r="O278" s="62"/>
       <c r="P278" s="5"/>
-      <c r="Q278" s="51" t="s">
+      <c r="Q278" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="R278" s="51"/>
-      <c r="S278" s="51"/>
-      <c r="T278" s="51"/>
-      <c r="U278" s="51"/>
+      <c r="R278" s="67"/>
+      <c r="S278" s="67"/>
+      <c r="T278" s="67"/>
+      <c r="U278" s="67"/>
       <c r="V278" s="1"/>
     </row>
     <row r="279" spans="1:22">
-      <c r="A279" s="55"/>
-      <c r="B279" s="56"/>
-      <c r="C279" s="56"/>
-      <c r="D279" s="56"/>
-      <c r="E279" s="56"/>
-      <c r="F279" s="56"/>
-      <c r="G279" s="48" t="s">
+      <c r="A279" s="59"/>
+      <c r="B279" s="51"/>
+      <c r="C279" s="51"/>
+      <c r="D279" s="51"/>
+      <c r="E279" s="51"/>
+      <c r="F279" s="51"/>
+      <c r="G279" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H279" s="48"/>
-      <c r="I279" s="48"/>
-      <c r="J279" s="49">
+      <c r="H279" s="63"/>
+      <c r="I279" s="63"/>
+      <c r="J279" s="64">
         <v>45568</v>
       </c>
-      <c r="K279" s="48"/>
-      <c r="L279" s="48" t="s">
+      <c r="K279" s="63"/>
+      <c r="L279" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="M279" s="48"/>
-      <c r="N279" s="48" t="s">
+      <c r="M279" s="63"/>
+      <c r="N279" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="O279" s="48"/>
+      <c r="O279" s="63"/>
       <c r="P279" s="5"/>
-      <c r="Q279" s="51"/>
-      <c r="R279" s="51"/>
-      <c r="S279" s="51"/>
-      <c r="T279" s="51"/>
-      <c r="U279" s="51"/>
+      <c r="Q279" s="67"/>
+      <c r="R279" s="67"/>
+      <c r="S279" s="67"/>
+      <c r="T279" s="67"/>
+      <c r="U279" s="67"/>
       <c r="V279" s="1"/>
     </row>
     <row r="280" spans="1:22">
-      <c r="A280" s="55"/>
-      <c r="B280" s="56"/>
-      <c r="C280" s="56"/>
-      <c r="D280" s="56"/>
-      <c r="E280" s="56"/>
-      <c r="F280" s="56"/>
-      <c r="G280" s="48" t="s">
+      <c r="A280" s="59"/>
+      <c r="B280" s="51"/>
+      <c r="C280" s="51"/>
+      <c r="D280" s="51"/>
+      <c r="E280" s="51"/>
+      <c r="F280" s="51"/>
+      <c r="G280" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="H280" s="48"/>
-      <c r="I280" s="48"/>
-      <c r="J280" s="49">
+      <c r="H280" s="63"/>
+      <c r="I280" s="63"/>
+      <c r="J280" s="64">
         <v>45568</v>
       </c>
-      <c r="K280" s="48"/>
-      <c r="L280" s="48" t="s">
+      <c r="K280" s="63"/>
+      <c r="L280" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="M280" s="48"/>
-      <c r="N280" s="48" t="s">
+      <c r="M280" s="63"/>
+      <c r="N280" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="O280" s="48"/>
+      <c r="O280" s="63"/>
       <c r="P280" s="5"/>
-      <c r="Q280" s="51"/>
-      <c r="R280" s="51"/>
-      <c r="S280" s="51"/>
-      <c r="T280" s="51"/>
-      <c r="U280" s="51"/>
+      <c r="Q280" s="67"/>
+      <c r="R280" s="67"/>
+      <c r="S280" s="67"/>
+      <c r="T280" s="67"/>
+      <c r="U280" s="67"/>
       <c r="V280" s="1"/>
     </row>
     <row r="281" spans="1:22">
-      <c r="A281" s="55"/>
-      <c r="B281" s="56"/>
-      <c r="C281" s="56"/>
-      <c r="D281" s="56"/>
-      <c r="E281" s="56"/>
-      <c r="F281" s="56"/>
-      <c r="G281" s="48" t="s">
+      <c r="A281" s="59"/>
+      <c r="B281" s="51"/>
+      <c r="C281" s="51"/>
+      <c r="D281" s="51"/>
+      <c r="E281" s="51"/>
+      <c r="F281" s="51"/>
+      <c r="G281" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="H281" s="48"/>
-      <c r="I281" s="48"/>
-      <c r="J281" s="49">
+      <c r="H281" s="63"/>
+      <c r="I281" s="63"/>
+      <c r="J281" s="64">
         <v>45568</v>
       </c>
-      <c r="K281" s="48"/>
-      <c r="L281" s="48" t="s">
+      <c r="K281" s="63"/>
+      <c r="L281" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="M281" s="48"/>
-      <c r="N281" s="48" t="s">
+      <c r="M281" s="63"/>
+      <c r="N281" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="O281" s="48"/>
+      <c r="O281" s="63"/>
       <c r="P281" s="5"/>
-      <c r="Q281" s="51"/>
-      <c r="R281" s="51"/>
-      <c r="S281" s="51"/>
-      <c r="T281" s="51"/>
-      <c r="U281" s="51"/>
+      <c r="Q281" s="67"/>
+      <c r="R281" s="67"/>
+      <c r="S281" s="67"/>
+      <c r="T281" s="67"/>
+      <c r="U281" s="67"/>
       <c r="V281" s="1"/>
     </row>
     <row r="282" spans="1:22">
-      <c r="A282" s="55" t="s">
+      <c r="A282" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B282" s="56"/>
-      <c r="C282" s="56"/>
-      <c r="D282" s="56" t="s">
+      <c r="B282" s="51"/>
+      <c r="C282" s="51"/>
+      <c r="D282" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="E282" s="56"/>
-      <c r="F282" s="56"/>
-      <c r="G282" s="48" t="s">
+      <c r="E282" s="51"/>
+      <c r="F282" s="51"/>
+      <c r="G282" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="H282" s="48"/>
-      <c r="I282" s="48"/>
-      <c r="J282" s="49">
+      <c r="H282" s="63"/>
+      <c r="I282" s="63"/>
+      <c r="J282" s="64">
         <v>45568</v>
       </c>
-      <c r="K282" s="48"/>
-      <c r="L282" s="48" t="s">
+      <c r="K282" s="63"/>
+      <c r="L282" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="M282" s="48"/>
-      <c r="N282" s="48" t="s">
+      <c r="M282" s="63"/>
+      <c r="N282" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="O282" s="48"/>
+      <c r="O282" s="63"/>
       <c r="P282" s="5"/>
-      <c r="Q282" s="51"/>
-      <c r="R282" s="51"/>
-      <c r="S282" s="51"/>
-      <c r="T282" s="51"/>
-      <c r="U282" s="51"/>
+      <c r="Q282" s="67"/>
+      <c r="R282" s="67"/>
+      <c r="S282" s="67"/>
+      <c r="T282" s="67"/>
+      <c r="U282" s="67"/>
       <c r="V282" s="1"/>
     </row>
     <row r="283" spans="1:22" ht="15">
-      <c r="A283" s="55"/>
-      <c r="B283" s="56"/>
-      <c r="C283" s="56"/>
-      <c r="D283" s="56"/>
-      <c r="E283" s="56"/>
-      <c r="F283" s="56"/>
-      <c r="G283" s="47"/>
-      <c r="H283" s="47"/>
-      <c r="I283" s="47"/>
-      <c r="J283" s="48"/>
-      <c r="K283" s="48"/>
-      <c r="L283" s="48"/>
-      <c r="M283" s="48"/>
-      <c r="N283" s="48"/>
-      <c r="O283" s="48"/>
+      <c r="A283" s="59"/>
+      <c r="B283" s="51"/>
+      <c r="C283" s="51"/>
+      <c r="D283" s="51"/>
+      <c r="E283" s="51"/>
+      <c r="F283" s="51"/>
+      <c r="G283" s="65"/>
+      <c r="H283" s="65"/>
+      <c r="I283" s="65"/>
+      <c r="J283" s="63"/>
+      <c r="K283" s="63"/>
+      <c r="L283" s="63"/>
+      <c r="M283" s="63"/>
+      <c r="N283" s="63"/>
+      <c r="O283" s="63"/>
       <c r="P283" s="5"/>
-      <c r="Q283" s="51"/>
-      <c r="R283" s="51"/>
-      <c r="S283" s="51"/>
-      <c r="T283" s="51"/>
-      <c r="U283" s="51"/>
+      <c r="Q283" s="67"/>
+      <c r="R283" s="67"/>
+      <c r="S283" s="67"/>
+      <c r="T283" s="67"/>
+      <c r="U283" s="67"/>
       <c r="V283" s="1"/>
     </row>
     <row r="284" spans="1:22">
-      <c r="A284" s="55"/>
-      <c r="B284" s="56"/>
-      <c r="C284" s="56"/>
-      <c r="D284" s="56"/>
-      <c r="E284" s="56"/>
-      <c r="F284" s="56"/>
-      <c r="G284" s="48"/>
-      <c r="H284" s="48"/>
-      <c r="I284" s="48"/>
-      <c r="J284" s="49"/>
-      <c r="K284" s="48"/>
-      <c r="L284" s="48"/>
-      <c r="M284" s="48"/>
-      <c r="N284" s="48"/>
-      <c r="O284" s="48"/>
+      <c r="A284" s="59"/>
+      <c r="B284" s="51"/>
+      <c r="C284" s="51"/>
+      <c r="D284" s="51"/>
+      <c r="E284" s="51"/>
+      <c r="F284" s="51"/>
+      <c r="G284" s="63"/>
+      <c r="H284" s="63"/>
+      <c r="I284" s="63"/>
+      <c r="J284" s="64"/>
+      <c r="K284" s="63"/>
+      <c r="L284" s="63"/>
+      <c r="M284" s="63"/>
+      <c r="N284" s="63"/>
+      <c r="O284" s="63"/>
       <c r="P284" s="5"/>
-      <c r="Q284" s="51"/>
-      <c r="R284" s="51"/>
-      <c r="S284" s="51"/>
-      <c r="T284" s="51"/>
-      <c r="U284" s="51"/>
+      <c r="Q284" s="67"/>
+      <c r="R284" s="67"/>
+      <c r="S284" s="67"/>
+      <c r="T284" s="67"/>
+      <c r="U284" s="67"/>
       <c r="V284" s="1"/>
     </row>
     <row r="285" spans="1:22">
-      <c r="A285" s="55"/>
-      <c r="B285" s="56"/>
-      <c r="C285" s="56"/>
-      <c r="D285" s="56"/>
-      <c r="E285" s="56"/>
-      <c r="F285" s="56"/>
-      <c r="G285" s="48"/>
-      <c r="H285" s="48"/>
-      <c r="I285" s="48"/>
-      <c r="J285" s="49"/>
-      <c r="K285" s="48"/>
-      <c r="L285" s="48"/>
-      <c r="M285" s="48"/>
-      <c r="N285" s="48"/>
-      <c r="O285" s="48"/>
+      <c r="A285" s="59"/>
+      <c r="B285" s="51"/>
+      <c r="C285" s="51"/>
+      <c r="D285" s="51"/>
+      <c r="E285" s="51"/>
+      <c r="F285" s="51"/>
+      <c r="G285" s="63"/>
+      <c r="H285" s="63"/>
+      <c r="I285" s="63"/>
+      <c r="J285" s="64"/>
+      <c r="K285" s="63"/>
+      <c r="L285" s="63"/>
+      <c r="M285" s="63"/>
+      <c r="N285" s="63"/>
+      <c r="O285" s="63"/>
       <c r="P285" s="5"/>
-      <c r="Q285" s="51"/>
-      <c r="R285" s="51"/>
-      <c r="S285" s="51"/>
-      <c r="T285" s="51"/>
-      <c r="U285" s="51"/>
+      <c r="Q285" s="67"/>
+      <c r="R285" s="67"/>
+      <c r="S285" s="67"/>
+      <c r="T285" s="67"/>
+      <c r="U285" s="67"/>
       <c r="V285" s="1"/>
     </row>
     <row r="286" spans="1:22" ht="15">
-      <c r="A286" s="55" t="s">
+      <c r="A286" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B286" s="56"/>
-      <c r="C286" s="56"/>
-      <c r="D286" s="56" t="s">
+      <c r="B286" s="51"/>
+      <c r="C286" s="51"/>
+      <c r="D286" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="E286" s="56"/>
-      <c r="F286" s="56"/>
-      <c r="G286" s="47"/>
-      <c r="H286" s="47"/>
-      <c r="I286" s="47"/>
-      <c r="J286" s="48"/>
-      <c r="K286" s="48"/>
-      <c r="L286" s="48"/>
-      <c r="M286" s="48"/>
-      <c r="N286" s="48"/>
-      <c r="O286" s="48"/>
+      <c r="E286" s="51"/>
+      <c r="F286" s="51"/>
+      <c r="G286" s="65"/>
+      <c r="H286" s="65"/>
+      <c r="I286" s="65"/>
+      <c r="J286" s="63"/>
+      <c r="K286" s="63"/>
+      <c r="L286" s="63"/>
+      <c r="M286" s="63"/>
+      <c r="N286" s="63"/>
+      <c r="O286" s="63"/>
       <c r="P286" s="5"/>
-      <c r="Q286" s="51"/>
-      <c r="R286" s="51"/>
-      <c r="S286" s="51"/>
-      <c r="T286" s="51"/>
-      <c r="U286" s="51"/>
+      <c r="Q286" s="67"/>
+      <c r="R286" s="67"/>
+      <c r="S286" s="67"/>
+      <c r="T286" s="67"/>
+      <c r="U286" s="67"/>
       <c r="V286" s="1"/>
     </row>
     <row r="287" spans="1:22">
-      <c r="A287" s="55"/>
-      <c r="B287" s="56"/>
-      <c r="C287" s="56"/>
-      <c r="D287" s="56"/>
-      <c r="E287" s="56"/>
-      <c r="F287" s="56"/>
-      <c r="G287" s="48"/>
-      <c r="H287" s="48"/>
-      <c r="I287" s="48"/>
-      <c r="J287" s="49"/>
-      <c r="K287" s="48"/>
-      <c r="L287" s="48"/>
-      <c r="M287" s="48"/>
-      <c r="N287" s="48"/>
-      <c r="O287" s="48"/>
+      <c r="A287" s="59"/>
+      <c r="B287" s="51"/>
+      <c r="C287" s="51"/>
+      <c r="D287" s="51"/>
+      <c r="E287" s="51"/>
+      <c r="F287" s="51"/>
+      <c r="G287" s="63"/>
+      <c r="H287" s="63"/>
+      <c r="I287" s="63"/>
+      <c r="J287" s="64"/>
+      <c r="K287" s="63"/>
+      <c r="L287" s="63"/>
+      <c r="M287" s="63"/>
+      <c r="N287" s="63"/>
+      <c r="O287" s="63"/>
       <c r="P287" s="5"/>
-      <c r="Q287" s="51"/>
-      <c r="R287" s="51"/>
-      <c r="S287" s="51"/>
-      <c r="T287" s="51"/>
-      <c r="U287" s="51"/>
+      <c r="Q287" s="67"/>
+      <c r="R287" s="67"/>
+      <c r="S287" s="67"/>
+      <c r="T287" s="67"/>
+      <c r="U287" s="67"/>
       <c r="V287" s="1"/>
     </row>
     <row r="288" spans="1:22">
-      <c r="A288" s="55"/>
-      <c r="B288" s="56"/>
-      <c r="C288" s="56"/>
-      <c r="D288" s="56"/>
-      <c r="E288" s="56"/>
-      <c r="F288" s="56"/>
-      <c r="G288" s="48"/>
-      <c r="H288" s="48"/>
-      <c r="I288" s="48"/>
-      <c r="J288" s="49"/>
-      <c r="K288" s="48"/>
-      <c r="L288" s="48"/>
-      <c r="M288" s="48"/>
-      <c r="N288" s="48"/>
-      <c r="O288" s="48"/>
+      <c r="A288" s="59"/>
+      <c r="B288" s="51"/>
+      <c r="C288" s="51"/>
+      <c r="D288" s="51"/>
+      <c r="E288" s="51"/>
+      <c r="F288" s="51"/>
+      <c r="G288" s="63"/>
+      <c r="H288" s="63"/>
+      <c r="I288" s="63"/>
+      <c r="J288" s="64"/>
+      <c r="K288" s="63"/>
+      <c r="L288" s="63"/>
+      <c r="M288" s="63"/>
+      <c r="N288" s="63"/>
+      <c r="O288" s="63"/>
       <c r="P288" s="5"/>
-      <c r="Q288" s="51"/>
-      <c r="R288" s="51"/>
-      <c r="S288" s="51"/>
-      <c r="T288" s="51"/>
-      <c r="U288" s="51"/>
+      <c r="Q288" s="67"/>
+      <c r="R288" s="67"/>
+      <c r="S288" s="67"/>
+      <c r="T288" s="67"/>
+      <c r="U288" s="67"/>
       <c r="V288" s="1"/>
     </row>
     <row r="289" spans="1:22" ht="15">
-      <c r="A289" s="55"/>
-      <c r="B289" s="56"/>
-      <c r="C289" s="56"/>
-      <c r="D289" s="56"/>
-      <c r="E289" s="56"/>
-      <c r="F289" s="56"/>
-      <c r="G289" s="47"/>
-      <c r="H289" s="47"/>
-      <c r="I289" s="47"/>
-      <c r="J289" s="48"/>
-      <c r="K289" s="48"/>
-      <c r="L289" s="48"/>
-      <c r="M289" s="48"/>
-      <c r="N289" s="48"/>
-      <c r="O289" s="48"/>
+      <c r="A289" s="59"/>
+      <c r="B289" s="51"/>
+      <c r="C289" s="51"/>
+      <c r="D289" s="51"/>
+      <c r="E289" s="51"/>
+      <c r="F289" s="51"/>
+      <c r="G289" s="65"/>
+      <c r="H289" s="65"/>
+      <c r="I289" s="65"/>
+      <c r="J289" s="63"/>
+      <c r="K289" s="63"/>
+      <c r="L289" s="63"/>
+      <c r="M289" s="63"/>
+      <c r="N289" s="63"/>
+      <c r="O289" s="63"/>
       <c r="P289" s="5"/>
-      <c r="Q289" s="51"/>
-      <c r="R289" s="51"/>
-      <c r="S289" s="51"/>
-      <c r="T289" s="51"/>
-      <c r="U289" s="51"/>
+      <c r="Q289" s="67"/>
+      <c r="R289" s="67"/>
+      <c r="S289" s="67"/>
+      <c r="T289" s="67"/>
+      <c r="U289" s="67"/>
       <c r="V289" s="1"/>
     </row>
     <row r="290" spans="1:22">
-      <c r="A290" s="55" t="s">
+      <c r="A290" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B290" s="56"/>
-      <c r="C290" s="56"/>
-      <c r="D290" s="56" t="s">
+      <c r="B290" s="51"/>
+      <c r="C290" s="51"/>
+      <c r="D290" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="E290" s="56"/>
-      <c r="F290" s="56"/>
-      <c r="G290" s="48"/>
-      <c r="H290" s="48"/>
-      <c r="I290" s="48"/>
-      <c r="J290" s="49"/>
-      <c r="K290" s="48"/>
-      <c r="L290" s="48"/>
-      <c r="M290" s="48"/>
-      <c r="N290" s="48"/>
-      <c r="O290" s="48"/>
+      <c r="E290" s="51"/>
+      <c r="F290" s="51"/>
+      <c r="G290" s="63"/>
+      <c r="H290" s="63"/>
+      <c r="I290" s="63"/>
+      <c r="J290" s="64"/>
+      <c r="K290" s="63"/>
+      <c r="L290" s="63"/>
+      <c r="M290" s="63"/>
+      <c r="N290" s="63"/>
+      <c r="O290" s="63"/>
       <c r="P290" s="5"/>
-      <c r="Q290" s="51"/>
-      <c r="R290" s="51"/>
-      <c r="S290" s="51"/>
-      <c r="T290" s="51"/>
-      <c r="U290" s="51"/>
+      <c r="Q290" s="67"/>
+      <c r="R290" s="67"/>
+      <c r="S290" s="67"/>
+      <c r="T290" s="67"/>
+      <c r="U290" s="67"/>
       <c r="V290" s="1"/>
     </row>
     <row r="291" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A291" s="55"/>
-      <c r="B291" s="56"/>
-      <c r="C291" s="56"/>
-      <c r="D291" s="56"/>
-      <c r="E291" s="56"/>
-      <c r="F291" s="56"/>
-      <c r="G291" s="47"/>
-      <c r="H291" s="47"/>
-      <c r="I291" s="47"/>
-      <c r="J291" s="48"/>
-      <c r="K291" s="48"/>
-      <c r="L291" s="48"/>
-      <c r="M291" s="48"/>
-      <c r="N291" s="48"/>
-      <c r="O291" s="48"/>
+      <c r="A291" s="59"/>
+      <c r="B291" s="51"/>
+      <c r="C291" s="51"/>
+      <c r="D291" s="51"/>
+      <c r="E291" s="51"/>
+      <c r="F291" s="51"/>
+      <c r="G291" s="65"/>
+      <c r="H291" s="65"/>
+      <c r="I291" s="65"/>
+      <c r="J291" s="63"/>
+      <c r="K291" s="63"/>
+      <c r="L291" s="63"/>
+      <c r="M291" s="63"/>
+      <c r="N291" s="63"/>
+      <c r="O291" s="63"/>
       <c r="P291" s="5"/>
-      <c r="Q291" s="52"/>
-      <c r="R291" s="52"/>
-      <c r="S291" s="52"/>
-      <c r="T291" s="52"/>
-      <c r="U291" s="52"/>
+      <c r="Q291" s="68"/>
+      <c r="R291" s="68"/>
+      <c r="S291" s="68"/>
+      <c r="T291" s="68"/>
+      <c r="U291" s="68"/>
       <c r="V291" s="1"/>
     </row>
     <row r="292" spans="1:22">
-      <c r="A292" s="55"/>
-      <c r="B292" s="56"/>
-      <c r="C292" s="56"/>
-      <c r="D292" s="56"/>
-      <c r="E292" s="56"/>
-      <c r="F292" s="56"/>
-      <c r="G292" s="48"/>
-      <c r="H292" s="48"/>
-      <c r="I292" s="48"/>
-      <c r="J292" s="49"/>
-      <c r="K292" s="48"/>
-      <c r="L292" s="48"/>
-      <c r="M292" s="48"/>
-      <c r="N292" s="48"/>
-      <c r="O292" s="48"/>
+      <c r="A292" s="59"/>
+      <c r="B292" s="51"/>
+      <c r="C292" s="51"/>
+      <c r="D292" s="51"/>
+      <c r="E292" s="51"/>
+      <c r="F292" s="51"/>
+      <c r="G292" s="63"/>
+      <c r="H292" s="63"/>
+      <c r="I292" s="63"/>
+      <c r="J292" s="64"/>
+      <c r="K292" s="63"/>
+      <c r="L292" s="63"/>
+      <c r="M292" s="63"/>
+      <c r="N292" s="63"/>
+      <c r="O292" s="63"/>
       <c r="P292" s="5"/>
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
@@ -10397,21 +10451,21 @@
       <c r="V292" s="1"/>
     </row>
     <row r="293" spans="1:22" ht="15">
-      <c r="A293" s="55"/>
-      <c r="B293" s="56"/>
-      <c r="C293" s="56"/>
-      <c r="D293" s="56"/>
-      <c r="E293" s="56"/>
-      <c r="F293" s="56"/>
-      <c r="G293" s="47"/>
-      <c r="H293" s="47"/>
-      <c r="I293" s="47"/>
-      <c r="J293" s="48"/>
-      <c r="K293" s="48"/>
-      <c r="L293" s="48"/>
-      <c r="M293" s="48"/>
-      <c r="N293" s="48"/>
-      <c r="O293" s="48"/>
+      <c r="A293" s="59"/>
+      <c r="B293" s="51"/>
+      <c r="C293" s="51"/>
+      <c r="D293" s="51"/>
+      <c r="E293" s="51"/>
+      <c r="F293" s="51"/>
+      <c r="G293" s="65"/>
+      <c r="H293" s="65"/>
+      <c r="I293" s="65"/>
+      <c r="J293" s="63"/>
+      <c r="K293" s="63"/>
+      <c r="L293" s="63"/>
+      <c r="M293" s="63"/>
+      <c r="N293" s="63"/>
+      <c r="O293" s="63"/>
       <c r="P293" s="5"/>
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
@@ -10671,16 +10725,16 @@
       <c r="P306" s="5"/>
     </row>
     <row r="307" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A307" s="34" t="s">
+      <c r="A307" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B307" s="35"/>
-      <c r="C307" s="36"/>
-      <c r="D307" s="37" t="s">
+      <c r="B307" s="34"/>
+      <c r="C307" s="35"/>
+      <c r="D307" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E307" s="35"/>
-      <c r="F307" s="36"/>
+      <c r="E307" s="34"/>
+      <c r="F307" s="35"/>
       <c r="G307" s="6"/>
       <c r="H307" s="6"/>
       <c r="I307" s="6" t="s">
@@ -10769,17 +10823,17 @@
       <c r="D311" s="17"/>
       <c r="E311" s="17"/>
       <c r="F311" s="17"/>
-      <c r="G311" s="38" t="s">
+      <c r="G311" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H311" s="38"/>
-      <c r="I311" s="38"/>
-      <c r="J311" s="38"/>
-      <c r="K311" s="38"/>
-      <c r="L311" s="38"/>
-      <c r="M311" s="38"/>
-      <c r="N311" s="38"/>
-      <c r="O311" s="38"/>
+      <c r="H311" s="37"/>
+      <c r="I311" s="37"/>
+      <c r="J311" s="37"/>
+      <c r="K311" s="37"/>
+      <c r="L311" s="37"/>
+      <c r="M311" s="37"/>
+      <c r="N311" s="37"/>
+      <c r="O311" s="37"/>
       <c r="P311" s="5"/>
     </row>
     <row r="312" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -10793,23 +10847,23 @@
       </c>
       <c r="E312" s="17"/>
       <c r="F312" s="17"/>
-      <c r="G312" s="39" t="s">
+      <c r="G312" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H312" s="40"/>
-      <c r="I312" s="41"/>
-      <c r="J312" s="42" t="s">
+      <c r="H312" s="39"/>
+      <c r="I312" s="40"/>
+      <c r="J312" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K312" s="42"/>
-      <c r="L312" s="42" t="s">
+      <c r="K312" s="41"/>
+      <c r="L312" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M312" s="42"/>
-      <c r="N312" s="42" t="s">
+      <c r="M312" s="41"/>
+      <c r="N312" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O312" s="42"/>
+      <c r="O312" s="41"/>
       <c r="P312" s="5"/>
     </row>
     <row r="313" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -11225,16 +11279,16 @@
       <c r="P332" s="5"/>
     </row>
     <row r="333" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A333" s="34" t="s">
+      <c r="A333" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B333" s="35"/>
-      <c r="C333" s="36"/>
-      <c r="D333" s="37" t="s">
+      <c r="B333" s="34"/>
+      <c r="C333" s="35"/>
+      <c r="D333" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E333" s="35"/>
-      <c r="F333" s="36"/>
+      <c r="E333" s="34"/>
+      <c r="F333" s="35"/>
       <c r="G333" s="6"/>
       <c r="H333" s="6"/>
       <c r="I333" s="6" t="s">
@@ -11323,17 +11377,17 @@
       <c r="D337" s="17"/>
       <c r="E337" s="17"/>
       <c r="F337" s="17"/>
-      <c r="G337" s="38" t="s">
+      <c r="G337" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H337" s="38"/>
-      <c r="I337" s="38"/>
-      <c r="J337" s="38"/>
-      <c r="K337" s="38"/>
-      <c r="L337" s="38"/>
-      <c r="M337" s="38"/>
-      <c r="N337" s="38"/>
-      <c r="O337" s="38"/>
+      <c r="H337" s="37"/>
+      <c r="I337" s="37"/>
+      <c r="J337" s="37"/>
+      <c r="K337" s="37"/>
+      <c r="L337" s="37"/>
+      <c r="M337" s="37"/>
+      <c r="N337" s="37"/>
+      <c r="O337" s="37"/>
       <c r="P337" s="5"/>
     </row>
     <row r="338" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -11347,23 +11401,23 @@
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
-      <c r="G338" s="39" t="s">
+      <c r="G338" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H338" s="40"/>
-      <c r="I338" s="41"/>
-      <c r="J338" s="42" t="s">
+      <c r="H338" s="39"/>
+      <c r="I338" s="40"/>
+      <c r="J338" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K338" s="42"/>
-      <c r="L338" s="42" t="s">
+      <c r="K338" s="41"/>
+      <c r="L338" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M338" s="42"/>
-      <c r="N338" s="42" t="s">
+      <c r="M338" s="41"/>
+      <c r="N338" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O338" s="42"/>
+      <c r="O338" s="41"/>
       <c r="P338" s="5"/>
     </row>
     <row r="339" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -11779,16 +11833,16 @@
       <c r="P358" s="5"/>
     </row>
     <row r="359" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A359" s="34" t="s">
+      <c r="A359" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B359" s="35"/>
-      <c r="C359" s="36"/>
-      <c r="D359" s="37" t="s">
+      <c r="B359" s="34"/>
+      <c r="C359" s="35"/>
+      <c r="D359" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E359" s="35"/>
-      <c r="F359" s="36"/>
+      <c r="E359" s="34"/>
+      <c r="F359" s="35"/>
       <c r="G359" s="6"/>
       <c r="H359" s="6"/>
       <c r="I359" s="6" t="s">
@@ -11877,17 +11931,17 @@
       <c r="D363" s="17"/>
       <c r="E363" s="17"/>
       <c r="F363" s="17"/>
-      <c r="G363" s="38" t="s">
+      <c r="G363" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H363" s="38"/>
-      <c r="I363" s="38"/>
-      <c r="J363" s="38"/>
-      <c r="K363" s="38"/>
-      <c r="L363" s="38"/>
-      <c r="M363" s="38"/>
-      <c r="N363" s="38"/>
-      <c r="O363" s="38"/>
+      <c r="H363" s="37"/>
+      <c r="I363" s="37"/>
+      <c r="J363" s="37"/>
+      <c r="K363" s="37"/>
+      <c r="L363" s="37"/>
+      <c r="M363" s="37"/>
+      <c r="N363" s="37"/>
+      <c r="O363" s="37"/>
       <c r="P363" s="5"/>
     </row>
     <row r="364" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -11901,23 +11955,23 @@
       </c>
       <c r="E364" s="17"/>
       <c r="F364" s="17"/>
-      <c r="G364" s="39" t="s">
+      <c r="G364" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H364" s="40"/>
-      <c r="I364" s="41"/>
-      <c r="J364" s="42" t="s">
+      <c r="H364" s="39"/>
+      <c r="I364" s="40"/>
+      <c r="J364" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K364" s="42"/>
-      <c r="L364" s="42" t="s">
+      <c r="K364" s="41"/>
+      <c r="L364" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M364" s="42"/>
-      <c r="N364" s="42" t="s">
+      <c r="M364" s="41"/>
+      <c r="N364" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O364" s="42"/>
+      <c r="O364" s="41"/>
       <c r="P364" s="5"/>
     </row>
     <row r="365" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -12333,16 +12387,16 @@
       <c r="P384" s="5"/>
     </row>
     <row r="385" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A385" s="34" t="s">
+      <c r="A385" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B385" s="35"/>
-      <c r="C385" s="36"/>
-      <c r="D385" s="37" t="s">
+      <c r="B385" s="34"/>
+      <c r="C385" s="35"/>
+      <c r="D385" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E385" s="35"/>
-      <c r="F385" s="36"/>
+      <c r="E385" s="34"/>
+      <c r="F385" s="35"/>
       <c r="G385" s="6"/>
       <c r="H385" s="6"/>
       <c r="I385" s="6" t="s">
@@ -12431,17 +12485,17 @@
       <c r="D389" s="17"/>
       <c r="E389" s="17"/>
       <c r="F389" s="17"/>
-      <c r="G389" s="38" t="s">
+      <c r="G389" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H389" s="38"/>
-      <c r="I389" s="38"/>
-      <c r="J389" s="38"/>
-      <c r="K389" s="38"/>
-      <c r="L389" s="38"/>
-      <c r="M389" s="38"/>
-      <c r="N389" s="38"/>
-      <c r="O389" s="38"/>
+      <c r="H389" s="37"/>
+      <c r="I389" s="37"/>
+      <c r="J389" s="37"/>
+      <c r="K389" s="37"/>
+      <c r="L389" s="37"/>
+      <c r="M389" s="37"/>
+      <c r="N389" s="37"/>
+      <c r="O389" s="37"/>
       <c r="P389" s="5"/>
     </row>
     <row r="390" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -12453,23 +12507,23 @@
       <c r="D390" s="17"/>
       <c r="E390" s="17"/>
       <c r="F390" s="17"/>
-      <c r="G390" s="39" t="s">
+      <c r="G390" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H390" s="40"/>
-      <c r="I390" s="41"/>
-      <c r="J390" s="42" t="s">
+      <c r="H390" s="39"/>
+      <c r="I390" s="40"/>
+      <c r="J390" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K390" s="42"/>
-      <c r="L390" s="42" t="s">
+      <c r="K390" s="41"/>
+      <c r="L390" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M390" s="42"/>
-      <c r="N390" s="42" t="s">
+      <c r="M390" s="41"/>
+      <c r="N390" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O390" s="42"/>
+      <c r="O390" s="41"/>
       <c r="P390" s="5"/>
     </row>
     <row r="391" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -12883,16 +12937,16 @@
       <c r="P410" s="5"/>
     </row>
     <row r="411" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A411" s="34" t="s">
+      <c r="A411" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B411" s="35"/>
-      <c r="C411" s="36"/>
-      <c r="D411" s="37" t="s">
+      <c r="B411" s="34"/>
+      <c r="C411" s="35"/>
+      <c r="D411" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E411" s="35"/>
-      <c r="F411" s="36"/>
+      <c r="E411" s="34"/>
+      <c r="F411" s="35"/>
       <c r="G411" s="6"/>
       <c r="H411" s="6"/>
       <c r="I411" s="6" t="s">
@@ -12981,17 +13035,17 @@
       <c r="D415" s="17"/>
       <c r="E415" s="17"/>
       <c r="F415" s="17"/>
-      <c r="G415" s="38" t="s">
+      <c r="G415" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H415" s="38"/>
-      <c r="I415" s="38"/>
-      <c r="J415" s="38"/>
-      <c r="K415" s="38"/>
-      <c r="L415" s="38"/>
-      <c r="M415" s="38"/>
-      <c r="N415" s="38"/>
-      <c r="O415" s="38"/>
+      <c r="H415" s="37"/>
+      <c r="I415" s="37"/>
+      <c r="J415" s="37"/>
+      <c r="K415" s="37"/>
+      <c r="L415" s="37"/>
+      <c r="M415" s="37"/>
+      <c r="N415" s="37"/>
+      <c r="O415" s="37"/>
       <c r="P415" s="5"/>
     </row>
     <row r="416" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -13005,23 +13059,23 @@
       </c>
       <c r="E416" s="17"/>
       <c r="F416" s="17"/>
-      <c r="G416" s="39" t="s">
+      <c r="G416" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H416" s="40"/>
-      <c r="I416" s="41"/>
-      <c r="J416" s="42" t="s">
+      <c r="H416" s="39"/>
+      <c r="I416" s="40"/>
+      <c r="J416" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K416" s="42"/>
-      <c r="L416" s="42" t="s">
+      <c r="K416" s="41"/>
+      <c r="L416" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M416" s="42"/>
-      <c r="N416" s="42" t="s">
+      <c r="M416" s="41"/>
+      <c r="N416" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O416" s="42"/>
+      <c r="O416" s="41"/>
       <c r="P416" s="5"/>
     </row>
     <row r="417" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -13437,16 +13491,16 @@
       <c r="P436" s="5"/>
     </row>
     <row r="437" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A437" s="34" t="s">
+      <c r="A437" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B437" s="35"/>
-      <c r="C437" s="36"/>
-      <c r="D437" s="37" t="s">
+      <c r="B437" s="34"/>
+      <c r="C437" s="35"/>
+      <c r="D437" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E437" s="35"/>
-      <c r="F437" s="36"/>
+      <c r="E437" s="34"/>
+      <c r="F437" s="35"/>
       <c r="G437" s="6"/>
       <c r="H437" s="6"/>
       <c r="I437" s="6" t="s">
@@ -13535,17 +13589,17 @@
       <c r="D441" s="17"/>
       <c r="E441" s="17"/>
       <c r="F441" s="17"/>
-      <c r="G441" s="38" t="s">
+      <c r="G441" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H441" s="38"/>
-      <c r="I441" s="38"/>
-      <c r="J441" s="38"/>
-      <c r="K441" s="38"/>
-      <c r="L441" s="38"/>
-      <c r="M441" s="38"/>
-      <c r="N441" s="38"/>
-      <c r="O441" s="38"/>
+      <c r="H441" s="37"/>
+      <c r="I441" s="37"/>
+      <c r="J441" s="37"/>
+      <c r="K441" s="37"/>
+      <c r="L441" s="37"/>
+      <c r="M441" s="37"/>
+      <c r="N441" s="37"/>
+      <c r="O441" s="37"/>
       <c r="P441" s="5"/>
     </row>
     <row r="442" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -13559,23 +13613,23 @@
       </c>
       <c r="E442" s="17"/>
       <c r="F442" s="17"/>
-      <c r="G442" s="39" t="s">
+      <c r="G442" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H442" s="40"/>
-      <c r="I442" s="41"/>
-      <c r="J442" s="42" t="s">
+      <c r="H442" s="39"/>
+      <c r="I442" s="40"/>
+      <c r="J442" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K442" s="42"/>
-      <c r="L442" s="42" t="s">
+      <c r="K442" s="41"/>
+      <c r="L442" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M442" s="42"/>
-      <c r="N442" s="42" t="s">
+      <c r="M442" s="41"/>
+      <c r="N442" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O442" s="42"/>
+      <c r="O442" s="41"/>
       <c r="P442" s="5"/>
     </row>
     <row r="443" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -13989,16 +14043,16 @@
       <c r="P462" s="5"/>
     </row>
     <row r="463" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A463" s="34" t="s">
+      <c r="A463" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B463" s="35"/>
-      <c r="C463" s="36"/>
-      <c r="D463" s="37" t="s">
+      <c r="B463" s="34"/>
+      <c r="C463" s="35"/>
+      <c r="D463" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E463" s="35"/>
-      <c r="F463" s="36"/>
+      <c r="E463" s="34"/>
+      <c r="F463" s="35"/>
       <c r="G463" s="6"/>
       <c r="H463" s="6"/>
       <c r="I463" s="6" t="s">
@@ -14087,17 +14141,17 @@
       <c r="D467" s="17"/>
       <c r="E467" s="17"/>
       <c r="F467" s="17"/>
-      <c r="G467" s="38" t="s">
+      <c r="G467" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H467" s="38"/>
-      <c r="I467" s="38"/>
-      <c r="J467" s="38"/>
-      <c r="K467" s="38"/>
-      <c r="L467" s="38"/>
-      <c r="M467" s="38"/>
-      <c r="N467" s="38"/>
-      <c r="O467" s="38"/>
+      <c r="H467" s="37"/>
+      <c r="I467" s="37"/>
+      <c r="J467" s="37"/>
+      <c r="K467" s="37"/>
+      <c r="L467" s="37"/>
+      <c r="M467" s="37"/>
+      <c r="N467" s="37"/>
+      <c r="O467" s="37"/>
       <c r="P467" s="5"/>
     </row>
     <row r="468" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -14111,23 +14165,23 @@
       </c>
       <c r="E468" s="17"/>
       <c r="F468" s="17"/>
-      <c r="G468" s="39" t="s">
+      <c r="G468" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H468" s="40"/>
-      <c r="I468" s="41"/>
-      <c r="J468" s="42" t="s">
+      <c r="H468" s="39"/>
+      <c r="I468" s="40"/>
+      <c r="J468" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K468" s="42"/>
-      <c r="L468" s="42" t="s">
+      <c r="K468" s="41"/>
+      <c r="L468" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M468" s="42"/>
-      <c r="N468" s="42" t="s">
+      <c r="M468" s="41"/>
+      <c r="N468" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O468" s="42"/>
+      <c r="O468" s="41"/>
       <c r="P468" s="5"/>
     </row>
     <row r="469" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -14539,16 +14593,16 @@
       <c r="P488" s="5"/>
     </row>
     <row r="489" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A489" s="34" t="s">
+      <c r="A489" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B489" s="35"/>
-      <c r="C489" s="36"/>
-      <c r="D489" s="37" t="s">
+      <c r="B489" s="34"/>
+      <c r="C489" s="35"/>
+      <c r="D489" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E489" s="35"/>
-      <c r="F489" s="36"/>
+      <c r="E489" s="34"/>
+      <c r="F489" s="35"/>
       <c r="G489" s="6"/>
       <c r="H489" s="6"/>
       <c r="I489" s="6" t="s">
@@ -14637,17 +14691,17 @@
       <c r="D493" s="17"/>
       <c r="E493" s="17"/>
       <c r="F493" s="17"/>
-      <c r="G493" s="38" t="s">
+      <c r="G493" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H493" s="38"/>
-      <c r="I493" s="38"/>
-      <c r="J493" s="38"/>
-      <c r="K493" s="38"/>
-      <c r="L493" s="38"/>
-      <c r="M493" s="38"/>
-      <c r="N493" s="38"/>
-      <c r="O493" s="38"/>
+      <c r="H493" s="37"/>
+      <c r="I493" s="37"/>
+      <c r="J493" s="37"/>
+      <c r="K493" s="37"/>
+      <c r="L493" s="37"/>
+      <c r="M493" s="37"/>
+      <c r="N493" s="37"/>
+      <c r="O493" s="37"/>
       <c r="P493" s="5"/>
     </row>
     <row r="494" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -14661,23 +14715,23 @@
       </c>
       <c r="E494" s="17"/>
       <c r="F494" s="17"/>
-      <c r="G494" s="39" t="s">
+      <c r="G494" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H494" s="40"/>
-      <c r="I494" s="41"/>
-      <c r="J494" s="42" t="s">
+      <c r="H494" s="39"/>
+      <c r="I494" s="40"/>
+      <c r="J494" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K494" s="42"/>
-      <c r="L494" s="42" t="s">
+      <c r="K494" s="41"/>
+      <c r="L494" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M494" s="42"/>
-      <c r="N494" s="42" t="s">
+      <c r="M494" s="41"/>
+      <c r="N494" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O494" s="42"/>
+      <c r="O494" s="41"/>
       <c r="P494" s="5"/>
     </row>
     <row r="495" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -15080,7 +15134,7 @@
       </c>
       <c r="J514" s="6"/>
       <c r="K514" s="6"/>
-      <c r="L514" s="33" t="s">
+      <c r="L514" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M514" s="32"/>
@@ -15089,16 +15143,16 @@
       <c r="P514" s="5"/>
     </row>
     <row r="515" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A515" s="34" t="s">
+      <c r="A515" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B515" s="35"/>
-      <c r="C515" s="36"/>
-      <c r="D515" s="37" t="s">
+      <c r="B515" s="34"/>
+      <c r="C515" s="35"/>
+      <c r="D515" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E515" s="35"/>
-      <c r="F515" s="36"/>
+      <c r="E515" s="34"/>
+      <c r="F515" s="35"/>
       <c r="G515" s="6"/>
       <c r="H515" s="6"/>
       <c r="I515" s="6" t="s">
@@ -15187,17 +15241,17 @@
       <c r="D519" s="17"/>
       <c r="E519" s="17"/>
       <c r="F519" s="17"/>
-      <c r="G519" s="38" t="s">
+      <c r="G519" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H519" s="38"/>
-      <c r="I519" s="38"/>
-      <c r="J519" s="38"/>
-      <c r="K519" s="38"/>
-      <c r="L519" s="38"/>
-      <c r="M519" s="38"/>
-      <c r="N519" s="38"/>
-      <c r="O519" s="38"/>
+      <c r="H519" s="37"/>
+      <c r="I519" s="37"/>
+      <c r="J519" s="37"/>
+      <c r="K519" s="37"/>
+      <c r="L519" s="37"/>
+      <c r="M519" s="37"/>
+      <c r="N519" s="37"/>
+      <c r="O519" s="37"/>
       <c r="P519" s="5"/>
     </row>
     <row r="520" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -15211,23 +15265,23 @@
       </c>
       <c r="E520" s="17"/>
       <c r="F520" s="17"/>
-      <c r="G520" s="39" t="s">
+      <c r="G520" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H520" s="40"/>
-      <c r="I520" s="41"/>
-      <c r="J520" s="42" t="s">
+      <c r="H520" s="39"/>
+      <c r="I520" s="40"/>
+      <c r="J520" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K520" s="42"/>
-      <c r="L520" s="42" t="s">
+      <c r="K520" s="41"/>
+      <c r="L520" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M520" s="42"/>
-      <c r="N520" s="42" t="s">
+      <c r="M520" s="41"/>
+      <c r="N520" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O520" s="42"/>
+      <c r="O520" s="41"/>
       <c r="P520" s="5"/>
     </row>
     <row r="521" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -15634,7 +15688,7 @@
       </c>
       <c r="J540" s="6"/>
       <c r="K540" s="6"/>
-      <c r="L540" s="33" t="s">
+      <c r="L540" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M540" s="32"/>
@@ -15643,16 +15697,16 @@
       <c r="P540" s="5"/>
     </row>
     <row r="541" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A541" s="34" t="s">
+      <c r="A541" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B541" s="35"/>
-      <c r="C541" s="36"/>
-      <c r="D541" s="37" t="s">
+      <c r="B541" s="34"/>
+      <c r="C541" s="35"/>
+      <c r="D541" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E541" s="35"/>
-      <c r="F541" s="36"/>
+      <c r="E541" s="34"/>
+      <c r="F541" s="35"/>
       <c r="G541" s="6"/>
       <c r="H541" s="6"/>
       <c r="I541" s="6" t="s">
@@ -15674,9 +15728,9 @@
       </c>
       <c r="B542" s="17"/>
       <c r="C542" s="17"/>
-      <c r="D542" s="61"/>
-      <c r="E542" s="62"/>
-      <c r="F542" s="63"/>
+      <c r="D542" s="47"/>
+      <c r="E542" s="48"/>
+      <c r="F542" s="49"/>
       <c r="G542" s="6"/>
       <c r="H542" s="6"/>
       <c r="I542" s="6" t="s">
@@ -15696,9 +15750,9 @@
       <c r="A543" s="16"/>
       <c r="B543" s="17"/>
       <c r="C543" s="17"/>
-      <c r="D543" s="64"/>
-      <c r="E543" s="56"/>
-      <c r="F543" s="65"/>
+      <c r="D543" s="50"/>
+      <c r="E543" s="51"/>
+      <c r="F543" s="52"/>
       <c r="G543" s="6"/>
       <c r="H543" s="6"/>
       <c r="I543" s="6" t="s">
@@ -15718,9 +15772,9 @@
       <c r="A544" s="16"/>
       <c r="B544" s="17"/>
       <c r="C544" s="17"/>
-      <c r="D544" s="64"/>
-      <c r="E544" s="56"/>
-      <c r="F544" s="65"/>
+      <c r="D544" s="50"/>
+      <c r="E544" s="51"/>
+      <c r="F544" s="52"/>
       <c r="G544" s="6"/>
       <c r="H544" s="6"/>
       <c r="I544" s="6"/>
@@ -15736,20 +15790,20 @@
       <c r="A545" s="16"/>
       <c r="B545" s="17"/>
       <c r="C545" s="17"/>
-      <c r="D545" s="66"/>
-      <c r="E545" s="67"/>
-      <c r="F545" s="68"/>
-      <c r="G545" s="38" t="s">
+      <c r="D545" s="53"/>
+      <c r="E545" s="54"/>
+      <c r="F545" s="55"/>
+      <c r="G545" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H545" s="38"/>
-      <c r="I545" s="38"/>
-      <c r="J545" s="38"/>
-      <c r="K545" s="38"/>
-      <c r="L545" s="38"/>
-      <c r="M545" s="38"/>
-      <c r="N545" s="38"/>
-      <c r="O545" s="38"/>
+      <c r="H545" s="37"/>
+      <c r="I545" s="37"/>
+      <c r="J545" s="37"/>
+      <c r="K545" s="37"/>
+      <c r="L545" s="37"/>
+      <c r="M545" s="37"/>
+      <c r="N545" s="37"/>
+      <c r="O545" s="37"/>
       <c r="P545" s="5"/>
     </row>
     <row r="546" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -15763,23 +15817,23 @@
       </c>
       <c r="E546" s="17"/>
       <c r="F546" s="17"/>
-      <c r="G546" s="39" t="s">
+      <c r="G546" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H546" s="40"/>
-      <c r="I546" s="41"/>
-      <c r="J546" s="42" t="s">
+      <c r="H546" s="39"/>
+      <c r="I546" s="40"/>
+      <c r="J546" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K546" s="42"/>
-      <c r="L546" s="42" t="s">
+      <c r="K546" s="41"/>
+      <c r="L546" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M546" s="42"/>
-      <c r="N546" s="42" t="s">
+      <c r="M546" s="41"/>
+      <c r="N546" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O546" s="42"/>
+      <c r="O546" s="41"/>
       <c r="P546" s="5"/>
     </row>
     <row r="547" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -16164,7 +16218,7 @@
       </c>
       <c r="J565" s="6"/>
       <c r="K565" s="6"/>
-      <c r="L565" s="33" t="s">
+      <c r="L565" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M565" s="32"/>
@@ -16186,7 +16240,7 @@
       </c>
       <c r="J566" s="6"/>
       <c r="K566" s="6"/>
-      <c r="L566" s="33" t="s">
+      <c r="L566" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M566" s="32"/>
@@ -16195,16 +16249,16 @@
       <c r="P566" s="5"/>
     </row>
     <row r="567" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A567" s="34" t="s">
+      <c r="A567" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B567" s="35"/>
-      <c r="C567" s="36"/>
-      <c r="D567" s="37" t="s">
+      <c r="B567" s="34"/>
+      <c r="C567" s="35"/>
+      <c r="D567" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E567" s="35"/>
-      <c r="F567" s="36"/>
+      <c r="E567" s="34"/>
+      <c r="F567" s="35"/>
       <c r="G567" s="6"/>
       <c r="H567" s="6"/>
       <c r="I567" s="6" t="s">
@@ -16260,7 +16314,7 @@
       </c>
       <c r="J569" s="6"/>
       <c r="K569" s="6"/>
-      <c r="L569" s="33" t="s">
+      <c r="L569" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M569" s="32"/>
@@ -16367,17 +16421,17 @@
       <c r="D575" s="17"/>
       <c r="E575" s="17"/>
       <c r="F575" s="17"/>
-      <c r="G575" s="38" t="s">
+      <c r="G575" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H575" s="38"/>
-      <c r="I575" s="38"/>
-      <c r="J575" s="38"/>
-      <c r="K575" s="38"/>
-      <c r="L575" s="38"/>
-      <c r="M575" s="38"/>
-      <c r="N575" s="38"/>
-      <c r="O575" s="38"/>
+      <c r="H575" s="37"/>
+      <c r="I575" s="37"/>
+      <c r="J575" s="37"/>
+      <c r="K575" s="37"/>
+      <c r="L575" s="37"/>
+      <c r="M575" s="37"/>
+      <c r="N575" s="37"/>
+      <c r="O575" s="37"/>
       <c r="P575" s="5"/>
     </row>
     <row r="576" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -16391,23 +16445,23 @@
       </c>
       <c r="E576" s="17"/>
       <c r="F576" s="17"/>
-      <c r="G576" s="39" t="s">
+      <c r="G576" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H576" s="40"/>
-      <c r="I576" s="41"/>
-      <c r="J576" s="42" t="s">
+      <c r="H576" s="39"/>
+      <c r="I576" s="40"/>
+      <c r="J576" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K576" s="42"/>
-      <c r="L576" s="42" t="s">
+      <c r="K576" s="41"/>
+      <c r="L576" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M576" s="42"/>
-      <c r="N576" s="42" t="s">
+      <c r="M576" s="41"/>
+      <c r="N576" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O576" s="42"/>
+      <c r="O576" s="41"/>
       <c r="P576" s="5"/>
     </row>
     <row r="577" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -16806,7 +16860,7 @@
       </c>
       <c r="J596" s="6"/>
       <c r="K596" s="6"/>
-      <c r="L596" s="33" t="s">
+      <c r="L596" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M596" s="32"/>
@@ -16815,16 +16869,16 @@
       <c r="P596" s="5"/>
     </row>
     <row r="597" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A597" s="34" t="s">
+      <c r="A597" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B597" s="35"/>
-      <c r="C597" s="36"/>
-      <c r="D597" s="37" t="s">
+      <c r="B597" s="34"/>
+      <c r="C597" s="35"/>
+      <c r="D597" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E597" s="35"/>
-      <c r="F597" s="36"/>
+      <c r="E597" s="34"/>
+      <c r="F597" s="35"/>
       <c r="G597" s="6"/>
       <c r="H597" s="6"/>
       <c r="I597" s="6" t="s">
@@ -16880,7 +16934,7 @@
       </c>
       <c r="J599" s="6"/>
       <c r="K599" s="6"/>
-      <c r="L599" s="33" t="s">
+      <c r="L599" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M599" s="32"/>
@@ -16922,17 +16976,17 @@
       <c r="D601" s="17"/>
       <c r="E601" s="17"/>
       <c r="F601" s="17"/>
-      <c r="G601" s="38" t="s">
+      <c r="G601" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H601" s="38"/>
-      <c r="I601" s="38"/>
-      <c r="J601" s="38"/>
-      <c r="K601" s="38"/>
-      <c r="L601" s="38"/>
-      <c r="M601" s="38"/>
-      <c r="N601" s="38"/>
-      <c r="O601" s="38"/>
+      <c r="H601" s="37"/>
+      <c r="I601" s="37"/>
+      <c r="J601" s="37"/>
+      <c r="K601" s="37"/>
+      <c r="L601" s="37"/>
+      <c r="M601" s="37"/>
+      <c r="N601" s="37"/>
+      <c r="O601" s="37"/>
       <c r="P601" s="5"/>
       <c r="Q601" s="14"/>
       <c r="R601" s="14"/>
@@ -16955,23 +17009,23 @@
       </c>
       <c r="E602" s="17"/>
       <c r="F602" s="17"/>
-      <c r="G602" s="39" t="s">
+      <c r="G602" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H602" s="40"/>
-      <c r="I602" s="41"/>
-      <c r="J602" s="42" t="s">
+      <c r="H602" s="39"/>
+      <c r="I602" s="40"/>
+      <c r="J602" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K602" s="42"/>
-      <c r="L602" s="42" t="s">
+      <c r="K602" s="41"/>
+      <c r="L602" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M602" s="42"/>
-      <c r="N602" s="42" t="s">
+      <c r="M602" s="41"/>
+      <c r="N602" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O602" s="42"/>
+      <c r="O602" s="41"/>
       <c r="P602" s="5"/>
       <c r="Q602" s="14"/>
       <c r="R602" s="14"/>
@@ -17384,7 +17438,7 @@
       </c>
       <c r="J622" s="6"/>
       <c r="K622" s="6"/>
-      <c r="L622" s="33" t="s">
+      <c r="L622" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M622" s="32"/>
@@ -17393,16 +17447,16 @@
       <c r="P622" s="5"/>
     </row>
     <row r="623" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A623" s="34" t="s">
+      <c r="A623" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B623" s="35"/>
-      <c r="C623" s="36"/>
-      <c r="D623" s="37" t="s">
+      <c r="B623" s="34"/>
+      <c r="C623" s="35"/>
+      <c r="D623" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E623" s="35"/>
-      <c r="F623" s="36"/>
+      <c r="E623" s="34"/>
+      <c r="F623" s="35"/>
       <c r="G623" s="6"/>
       <c r="H623" s="6"/>
       <c r="I623" s="6" t="s">
@@ -17456,7 +17510,7 @@
       </c>
       <c r="J625" s="6"/>
       <c r="K625" s="6"/>
-      <c r="L625" s="33" t="s">
+      <c r="L625" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M625" s="32"/>
@@ -17489,17 +17543,17 @@
       <c r="D627" s="17"/>
       <c r="E627" s="17"/>
       <c r="F627" s="17"/>
-      <c r="G627" s="38" t="s">
+      <c r="G627" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H627" s="38"/>
-      <c r="I627" s="38"/>
-      <c r="J627" s="38"/>
-      <c r="K627" s="38"/>
-      <c r="L627" s="38"/>
-      <c r="M627" s="38"/>
-      <c r="N627" s="38"/>
-      <c r="O627" s="38"/>
+      <c r="H627" s="37"/>
+      <c r="I627" s="37"/>
+      <c r="J627" s="37"/>
+      <c r="K627" s="37"/>
+      <c r="L627" s="37"/>
+      <c r="M627" s="37"/>
+      <c r="N627" s="37"/>
+      <c r="O627" s="37"/>
       <c r="P627" s="5"/>
     </row>
     <row r="628" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -17511,23 +17565,23 @@
       <c r="D628" s="17"/>
       <c r="E628" s="17"/>
       <c r="F628" s="17"/>
-      <c r="G628" s="39" t="s">
+      <c r="G628" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H628" s="40"/>
-      <c r="I628" s="41"/>
-      <c r="J628" s="42" t="s">
+      <c r="H628" s="39"/>
+      <c r="I628" s="40"/>
+      <c r="J628" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K628" s="42"/>
-      <c r="L628" s="42" t="s">
+      <c r="K628" s="41"/>
+      <c r="L628" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M628" s="42"/>
-      <c r="N628" s="42" t="s">
+      <c r="M628" s="41"/>
+      <c r="N628" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O628" s="42"/>
+      <c r="O628" s="41"/>
       <c r="P628" s="5"/>
     </row>
     <row r="629" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -17922,7 +17976,7 @@
       </c>
       <c r="J648" s="6"/>
       <c r="K648" s="6"/>
-      <c r="L648" s="33" t="s">
+      <c r="L648" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M648" s="32"/>
@@ -17931,16 +17985,16 @@
       <c r="P648" s="5"/>
     </row>
     <row r="649" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A649" s="34" t="s">
+      <c r="A649" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B649" s="35"/>
-      <c r="C649" s="36"/>
-      <c r="D649" s="37" t="s">
+      <c r="B649" s="34"/>
+      <c r="C649" s="35"/>
+      <c r="D649" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E649" s="35"/>
-      <c r="F649" s="36"/>
+      <c r="E649" s="34"/>
+      <c r="F649" s="35"/>
       <c r="G649" s="6"/>
       <c r="H649" s="6"/>
       <c r="I649" s="6" t="s">
@@ -17994,7 +18048,7 @@
       </c>
       <c r="J651" s="6"/>
       <c r="K651" s="6"/>
-      <c r="L651" s="33" t="s">
+      <c r="L651" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M651" s="32"/>
@@ -18027,17 +18081,17 @@
       <c r="D653" s="17"/>
       <c r="E653" s="17"/>
       <c r="F653" s="17"/>
-      <c r="G653" s="38" t="s">
+      <c r="G653" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H653" s="38"/>
-      <c r="I653" s="38"/>
-      <c r="J653" s="38"/>
-      <c r="K653" s="38"/>
-      <c r="L653" s="38"/>
-      <c r="M653" s="38"/>
-      <c r="N653" s="38"/>
-      <c r="O653" s="38"/>
+      <c r="H653" s="37"/>
+      <c r="I653" s="37"/>
+      <c r="J653" s="37"/>
+      <c r="K653" s="37"/>
+      <c r="L653" s="37"/>
+      <c r="M653" s="37"/>
+      <c r="N653" s="37"/>
+      <c r="O653" s="37"/>
       <c r="P653" s="5"/>
     </row>
     <row r="654" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -18049,23 +18103,23 @@
       <c r="D654" s="17"/>
       <c r="E654" s="17"/>
       <c r="F654" s="17"/>
-      <c r="G654" s="39" t="s">
+      <c r="G654" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H654" s="40"/>
-      <c r="I654" s="41"/>
-      <c r="J654" s="42" t="s">
+      <c r="H654" s="39"/>
+      <c r="I654" s="40"/>
+      <c r="J654" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K654" s="42"/>
-      <c r="L654" s="42" t="s">
+      <c r="K654" s="41"/>
+      <c r="L654" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M654" s="42"/>
-      <c r="N654" s="42" t="s">
+      <c r="M654" s="41"/>
+      <c r="N654" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O654" s="42"/>
+      <c r="O654" s="41"/>
       <c r="P654" s="5"/>
     </row>
     <row r="655" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -18462,7 +18516,7 @@
       </c>
       <c r="J674" s="6"/>
       <c r="K674" s="6"/>
-      <c r="L674" s="33" t="s">
+      <c r="L674" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M674" s="32"/>
@@ -18471,16 +18525,16 @@
       <c r="P674" s="5"/>
     </row>
     <row r="675" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A675" s="34" t="s">
+      <c r="A675" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B675" s="35"/>
-      <c r="C675" s="36"/>
-      <c r="D675" s="37" t="s">
+      <c r="B675" s="34"/>
+      <c r="C675" s="35"/>
+      <c r="D675" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E675" s="35"/>
-      <c r="F675" s="36"/>
+      <c r="E675" s="34"/>
+      <c r="F675" s="35"/>
       <c r="G675" s="6"/>
       <c r="H675" s="6"/>
       <c r="I675" s="6" t="s">
@@ -18536,7 +18590,7 @@
       </c>
       <c r="J677" s="6"/>
       <c r="K677" s="6"/>
-      <c r="L677" s="33" t="s">
+      <c r="L677" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M677" s="32"/>
@@ -18569,17 +18623,17 @@
       <c r="D679" s="17"/>
       <c r="E679" s="17"/>
       <c r="F679" s="17"/>
-      <c r="G679" s="38" t="s">
+      <c r="G679" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H679" s="38"/>
-      <c r="I679" s="38"/>
-      <c r="J679" s="38"/>
-      <c r="K679" s="38"/>
-      <c r="L679" s="38"/>
-      <c r="M679" s="38"/>
-      <c r="N679" s="38"/>
-      <c r="O679" s="38"/>
+      <c r="H679" s="37"/>
+      <c r="I679" s="37"/>
+      <c r="J679" s="37"/>
+      <c r="K679" s="37"/>
+      <c r="L679" s="37"/>
+      <c r="M679" s="37"/>
+      <c r="N679" s="37"/>
+      <c r="O679" s="37"/>
       <c r="P679" s="5"/>
     </row>
     <row r="680" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -18593,23 +18647,23 @@
       </c>
       <c r="E680" s="17"/>
       <c r="F680" s="17"/>
-      <c r="G680" s="39" t="s">
+      <c r="G680" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H680" s="40"/>
-      <c r="I680" s="41"/>
-      <c r="J680" s="42" t="s">
+      <c r="H680" s="39"/>
+      <c r="I680" s="40"/>
+      <c r="J680" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K680" s="42"/>
-      <c r="L680" s="42" t="s">
+      <c r="K680" s="41"/>
+      <c r="L680" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M680" s="42"/>
-      <c r="N680" s="42" t="s">
+      <c r="M680" s="41"/>
+      <c r="N680" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O680" s="42"/>
+      <c r="O680" s="41"/>
       <c r="P680" s="5"/>
     </row>
     <row r="681" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -19042,7 +19096,7 @@
       </c>
       <c r="J702" s="6"/>
       <c r="K702" s="6"/>
-      <c r="L702" s="33" t="s">
+      <c r="L702" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M702" s="32"/>
@@ -19051,16 +19105,16 @@
       <c r="P702" s="5"/>
     </row>
     <row r="703" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A703" s="34" t="s">
+      <c r="A703" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B703" s="35"/>
-      <c r="C703" s="36"/>
-      <c r="D703" s="37" t="s">
+      <c r="B703" s="34"/>
+      <c r="C703" s="35"/>
+      <c r="D703" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E703" s="35"/>
-      <c r="F703" s="36"/>
+      <c r="E703" s="34"/>
+      <c r="F703" s="35"/>
       <c r="G703" s="6"/>
       <c r="H703" s="6"/>
       <c r="I703" s="6" t="s">
@@ -19068,7 +19122,7 @@
       </c>
       <c r="J703" s="6"/>
       <c r="K703" s="6"/>
-      <c r="L703" s="33" t="s">
+      <c r="L703" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M703" s="32"/>
@@ -19116,7 +19170,7 @@
       </c>
       <c r="J705" s="6"/>
       <c r="K705" s="6"/>
-      <c r="L705" s="33" t="s">
+      <c r="L705" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M705" s="32"/>
@@ -19149,17 +19203,17 @@
       <c r="D707" s="17"/>
       <c r="E707" s="17"/>
       <c r="F707" s="17"/>
-      <c r="G707" s="38" t="s">
+      <c r="G707" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H707" s="38"/>
-      <c r="I707" s="38"/>
-      <c r="J707" s="38"/>
-      <c r="K707" s="38"/>
-      <c r="L707" s="38"/>
-      <c r="M707" s="38"/>
-      <c r="N707" s="38"/>
-      <c r="O707" s="38"/>
+      <c r="H707" s="37"/>
+      <c r="I707" s="37"/>
+      <c r="J707" s="37"/>
+      <c r="K707" s="37"/>
+      <c r="L707" s="37"/>
+      <c r="M707" s="37"/>
+      <c r="N707" s="37"/>
+      <c r="O707" s="37"/>
       <c r="P707" s="5"/>
     </row>
     <row r="708" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -19171,23 +19225,23 @@
       <c r="D708" s="17"/>
       <c r="E708" s="17"/>
       <c r="F708" s="17"/>
-      <c r="G708" s="39" t="s">
+      <c r="G708" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H708" s="40"/>
-      <c r="I708" s="41"/>
-      <c r="J708" s="42" t="s">
+      <c r="H708" s="39"/>
+      <c r="I708" s="40"/>
+      <c r="J708" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K708" s="42"/>
-      <c r="L708" s="42" t="s">
+      <c r="K708" s="41"/>
+      <c r="L708" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M708" s="42"/>
-      <c r="N708" s="42" t="s">
+      <c r="M708" s="41"/>
+      <c r="N708" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O708" s="42"/>
+      <c r="O708" s="41"/>
       <c r="P708" s="5"/>
     </row>
     <row r="709" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -19610,7 +19664,7 @@
       </c>
       <c r="J730" s="6"/>
       <c r="K730" s="6"/>
-      <c r="L730" s="33" t="s">
+      <c r="L730" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M730" s="32"/>
@@ -19619,16 +19673,16 @@
       <c r="P730" s="5"/>
     </row>
     <row r="731" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A731" s="34" t="s">
+      <c r="A731" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B731" s="35"/>
-      <c r="C731" s="36"/>
-      <c r="D731" s="37" t="s">
+      <c r="B731" s="34"/>
+      <c r="C731" s="35"/>
+      <c r="D731" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E731" s="35"/>
-      <c r="F731" s="36"/>
+      <c r="E731" s="34"/>
+      <c r="F731" s="35"/>
       <c r="G731" s="6"/>
       <c r="H731" s="6"/>
       <c r="I731" s="6" t="s">
@@ -19684,7 +19738,7 @@
       </c>
       <c r="J733" s="6"/>
       <c r="K733" s="6"/>
-      <c r="L733" s="33" t="s">
+      <c r="L733" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M733" s="32"/>
@@ -19717,17 +19771,17 @@
       <c r="D735" s="17"/>
       <c r="E735" s="17"/>
       <c r="F735" s="17"/>
-      <c r="G735" s="38" t="s">
+      <c r="G735" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H735" s="38"/>
-      <c r="I735" s="38"/>
-      <c r="J735" s="38"/>
-      <c r="K735" s="38"/>
-      <c r="L735" s="38"/>
-      <c r="M735" s="38"/>
-      <c r="N735" s="38"/>
-      <c r="O735" s="38"/>
+      <c r="H735" s="37"/>
+      <c r="I735" s="37"/>
+      <c r="J735" s="37"/>
+      <c r="K735" s="37"/>
+      <c r="L735" s="37"/>
+      <c r="M735" s="37"/>
+      <c r="N735" s="37"/>
+      <c r="O735" s="37"/>
       <c r="P735" s="5"/>
     </row>
     <row r="736" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -19737,23 +19791,23 @@
       <c r="D736" s="17"/>
       <c r="E736" s="17"/>
       <c r="F736" s="17"/>
-      <c r="G736" s="39" t="s">
+      <c r="G736" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H736" s="40"/>
-      <c r="I736" s="41"/>
-      <c r="J736" s="42" t="s">
+      <c r="H736" s="39"/>
+      <c r="I736" s="40"/>
+      <c r="J736" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K736" s="42"/>
-      <c r="L736" s="42" t="s">
+      <c r="K736" s="41"/>
+      <c r="L736" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M736" s="42"/>
-      <c r="N736" s="42" t="s">
+      <c r="M736" s="41"/>
+      <c r="N736" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O736" s="42"/>
+      <c r="O736" s="41"/>
       <c r="P736" s="5"/>
     </row>
     <row r="737" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -20185,16 +20239,16 @@
       <c r="P758" s="5"/>
     </row>
     <row r="759" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A759" s="34" t="s">
+      <c r="A759" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B759" s="35"/>
-      <c r="C759" s="36"/>
-      <c r="D759" s="37" t="s">
+      <c r="B759" s="34"/>
+      <c r="C759" s="35"/>
+      <c r="D759" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E759" s="35"/>
-      <c r="F759" s="36"/>
+      <c r="E759" s="34"/>
+      <c r="F759" s="35"/>
       <c r="G759" s="6"/>
       <c r="H759" s="6"/>
       <c r="I759" s="6" t="s">
@@ -20250,7 +20304,7 @@
       </c>
       <c r="J761" s="6"/>
       <c r="K761" s="6"/>
-      <c r="L761" s="33" t="s">
+      <c r="L761" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M761" s="32"/>
@@ -20283,17 +20337,17 @@
       <c r="D763" s="17"/>
       <c r="E763" s="17"/>
       <c r="F763" s="17"/>
-      <c r="G763" s="38" t="s">
+      <c r="G763" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H763" s="38"/>
-      <c r="I763" s="38"/>
-      <c r="J763" s="38"/>
-      <c r="K763" s="38"/>
-      <c r="L763" s="38"/>
-      <c r="M763" s="38"/>
-      <c r="N763" s="38"/>
-      <c r="O763" s="38"/>
+      <c r="H763" s="37"/>
+      <c r="I763" s="37"/>
+      <c r="J763" s="37"/>
+      <c r="K763" s="37"/>
+      <c r="L763" s="37"/>
+      <c r="M763" s="37"/>
+      <c r="N763" s="37"/>
+      <c r="O763" s="37"/>
       <c r="P763" s="5"/>
     </row>
     <row r="764" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -20307,23 +20361,23 @@
       </c>
       <c r="E764" s="17"/>
       <c r="F764" s="17"/>
-      <c r="G764" s="39" t="s">
+      <c r="G764" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H764" s="40"/>
-      <c r="I764" s="41"/>
-      <c r="J764" s="42" t="s">
+      <c r="H764" s="39"/>
+      <c r="I764" s="40"/>
+      <c r="J764" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K764" s="42"/>
-      <c r="L764" s="42" t="s">
+      <c r="K764" s="41"/>
+      <c r="L764" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M764" s="42"/>
-      <c r="N764" s="42" t="s">
+      <c r="M764" s="41"/>
+      <c r="N764" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O764" s="42"/>
+      <c r="O764" s="41"/>
       <c r="P764" s="5"/>
     </row>
     <row r="765" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -20783,16 +20837,16 @@
       <c r="P786" s="5"/>
     </row>
     <row r="787" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A787" s="34" t="s">
+      <c r="A787" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B787" s="35"/>
-      <c r="C787" s="36"/>
-      <c r="D787" s="37" t="s">
+      <c r="B787" s="34"/>
+      <c r="C787" s="35"/>
+      <c r="D787" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E787" s="35"/>
-      <c r="F787" s="36"/>
+      <c r="E787" s="34"/>
+      <c r="F787" s="35"/>
       <c r="G787" s="6"/>
       <c r="H787" s="6"/>
       <c r="I787" s="6" t="s">
@@ -20881,17 +20935,17 @@
       <c r="D791" s="17"/>
       <c r="E791" s="17"/>
       <c r="F791" s="17"/>
-      <c r="G791" s="38" t="s">
+      <c r="G791" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H791" s="38"/>
-      <c r="I791" s="38"/>
-      <c r="J791" s="38"/>
-      <c r="K791" s="38"/>
-      <c r="L791" s="38"/>
-      <c r="M791" s="38"/>
-      <c r="N791" s="38"/>
-      <c r="O791" s="38"/>
+      <c r="H791" s="37"/>
+      <c r="I791" s="37"/>
+      <c r="J791" s="37"/>
+      <c r="K791" s="37"/>
+      <c r="L791" s="37"/>
+      <c r="M791" s="37"/>
+      <c r="N791" s="37"/>
+      <c r="O791" s="37"/>
       <c r="P791" s="5"/>
     </row>
     <row r="792" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -20901,23 +20955,23 @@
       <c r="D792" s="17"/>
       <c r="E792" s="17"/>
       <c r="F792" s="17"/>
-      <c r="G792" s="39" t="s">
+      <c r="G792" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H792" s="40"/>
-      <c r="I792" s="41"/>
-      <c r="J792" s="42" t="s">
+      <c r="H792" s="39"/>
+      <c r="I792" s="40"/>
+      <c r="J792" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K792" s="42"/>
-      <c r="L792" s="42" t="s">
+      <c r="K792" s="41"/>
+      <c r="L792" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M792" s="42"/>
-      <c r="N792" s="42" t="s">
+      <c r="M792" s="41"/>
+      <c r="N792" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O792" s="42"/>
+      <c r="O792" s="41"/>
       <c r="P792" s="5"/>
     </row>
     <row r="793" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -21341,16 +21395,16 @@
       <c r="P814" s="5"/>
     </row>
     <row r="815" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A815" s="34" t="s">
+      <c r="A815" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B815" s="35"/>
-      <c r="C815" s="36"/>
-      <c r="D815" s="37" t="s">
+      <c r="B815" s="34"/>
+      <c r="C815" s="35"/>
+      <c r="D815" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E815" s="35"/>
-      <c r="F815" s="36"/>
+      <c r="E815" s="34"/>
+      <c r="F815" s="35"/>
       <c r="G815" s="6"/>
       <c r="H815" s="6"/>
       <c r="I815" s="6" t="s">
@@ -21358,7 +21412,7 @@
       </c>
       <c r="J815" s="6"/>
       <c r="K815" s="6"/>
-      <c r="L815" s="33" t="s">
+      <c r="L815" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M815" s="32"/>
@@ -21439,17 +21493,17 @@
       <c r="D819" s="17"/>
       <c r="E819" s="17"/>
       <c r="F819" s="17"/>
-      <c r="G819" s="38" t="s">
+      <c r="G819" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H819" s="38"/>
-      <c r="I819" s="38"/>
-      <c r="J819" s="38"/>
-      <c r="K819" s="38"/>
-      <c r="L819" s="38"/>
-      <c r="M819" s="38"/>
-      <c r="N819" s="38"/>
-      <c r="O819" s="38"/>
+      <c r="H819" s="37"/>
+      <c r="I819" s="37"/>
+      <c r="J819" s="37"/>
+      <c r="K819" s="37"/>
+      <c r="L819" s="37"/>
+      <c r="M819" s="37"/>
+      <c r="N819" s="37"/>
+      <c r="O819" s="37"/>
       <c r="P819" s="5"/>
     </row>
     <row r="820" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -21463,23 +21517,23 @@
       </c>
       <c r="E820" s="17"/>
       <c r="F820" s="17"/>
-      <c r="G820" s="39" t="s">
+      <c r="G820" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H820" s="40"/>
-      <c r="I820" s="41"/>
-      <c r="J820" s="42" t="s">
+      <c r="H820" s="39"/>
+      <c r="I820" s="40"/>
+      <c r="J820" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K820" s="42"/>
-      <c r="L820" s="42" t="s">
+      <c r="K820" s="41"/>
+      <c r="L820" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M820" s="42"/>
-      <c r="N820" s="42" t="s">
+      <c r="M820" s="41"/>
+      <c r="N820" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O820" s="42"/>
+      <c r="O820" s="41"/>
       <c r="P820" s="5"/>
     </row>
     <row r="821" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -21905,16 +21959,16 @@
       <c r="P842" s="5"/>
     </row>
     <row r="843" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A843" s="34" t="s">
+      <c r="A843" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B843" s="35"/>
-      <c r="C843" s="36"/>
-      <c r="D843" s="37" t="s">
+      <c r="B843" s="34"/>
+      <c r="C843" s="35"/>
+      <c r="D843" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E843" s="35"/>
-      <c r="F843" s="36"/>
+      <c r="E843" s="34"/>
+      <c r="F843" s="35"/>
       <c r="G843" s="6"/>
       <c r="H843" s="6"/>
       <c r="I843" s="6" t="s">
@@ -22003,17 +22057,17 @@
       <c r="D847" s="17"/>
       <c r="E847" s="17"/>
       <c r="F847" s="17"/>
-      <c r="G847" s="38" t="s">
+      <c r="G847" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H847" s="38"/>
-      <c r="I847" s="38"/>
-      <c r="J847" s="38"/>
-      <c r="K847" s="38"/>
-      <c r="L847" s="38"/>
-      <c r="M847" s="38"/>
-      <c r="N847" s="38"/>
-      <c r="O847" s="38"/>
+      <c r="H847" s="37"/>
+      <c r="I847" s="37"/>
+      <c r="J847" s="37"/>
+      <c r="K847" s="37"/>
+      <c r="L847" s="37"/>
+      <c r="M847" s="37"/>
+      <c r="N847" s="37"/>
+      <c r="O847" s="37"/>
       <c r="P847" s="5"/>
     </row>
     <row r="848" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -22025,23 +22079,23 @@
       <c r="D848" s="17"/>
       <c r="E848" s="17"/>
       <c r="F848" s="17"/>
-      <c r="G848" s="39" t="s">
+      <c r="G848" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H848" s="40"/>
-      <c r="I848" s="41"/>
-      <c r="J848" s="42" t="s">
+      <c r="H848" s="39"/>
+      <c r="I848" s="40"/>
+      <c r="J848" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K848" s="42"/>
-      <c r="L848" s="42" t="s">
+      <c r="K848" s="41"/>
+      <c r="L848" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M848" s="42"/>
-      <c r="N848" s="42" t="s">
+      <c r="M848" s="41"/>
+      <c r="N848" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O848" s="42"/>
+      <c r="O848" s="41"/>
       <c r="P848" s="5"/>
     </row>
     <row r="849" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -22491,16 +22545,16 @@
       <c r="P870" s="5"/>
     </row>
     <row r="871" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A871" s="34" t="s">
+      <c r="A871" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B871" s="35"/>
-      <c r="C871" s="36"/>
-      <c r="D871" s="37" t="s">
+      <c r="B871" s="34"/>
+      <c r="C871" s="35"/>
+      <c r="D871" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E871" s="35"/>
-      <c r="F871" s="36"/>
+      <c r="E871" s="34"/>
+      <c r="F871" s="35"/>
       <c r="G871" s="6"/>
       <c r="H871" s="6"/>
       <c r="I871" s="6" t="s">
@@ -22589,17 +22643,17 @@
       <c r="D875" s="17"/>
       <c r="E875" s="17"/>
       <c r="F875" s="17"/>
-      <c r="G875" s="38" t="s">
+      <c r="G875" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H875" s="38"/>
-      <c r="I875" s="38"/>
-      <c r="J875" s="38"/>
-      <c r="K875" s="38"/>
-      <c r="L875" s="38"/>
-      <c r="M875" s="38"/>
-      <c r="N875" s="38"/>
-      <c r="O875" s="38"/>
+      <c r="H875" s="37"/>
+      <c r="I875" s="37"/>
+      <c r="J875" s="37"/>
+      <c r="K875" s="37"/>
+      <c r="L875" s="37"/>
+      <c r="M875" s="37"/>
+      <c r="N875" s="37"/>
+      <c r="O875" s="37"/>
       <c r="P875" s="5"/>
     </row>
     <row r="876" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -22613,23 +22667,23 @@
       </c>
       <c r="E876" s="17"/>
       <c r="F876" s="17"/>
-      <c r="G876" s="39" t="s">
+      <c r="G876" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H876" s="40"/>
-      <c r="I876" s="41"/>
-      <c r="J876" s="42" t="s">
+      <c r="H876" s="39"/>
+      <c r="I876" s="40"/>
+      <c r="J876" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K876" s="42"/>
-      <c r="L876" s="42" t="s">
+      <c r="K876" s="41"/>
+      <c r="L876" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M876" s="42"/>
-      <c r="N876" s="42" t="s">
+      <c r="M876" s="41"/>
+      <c r="N876" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O876" s="42"/>
+      <c r="O876" s="41"/>
       <c r="P876" s="5"/>
     </row>
     <row r="877" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -23079,16 +23133,16 @@
       <c r="P898" s="5"/>
     </row>
     <row r="899" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A899" s="34" t="s">
+      <c r="A899" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B899" s="35"/>
-      <c r="C899" s="36"/>
-      <c r="D899" s="37" t="s">
+      <c r="B899" s="34"/>
+      <c r="C899" s="35"/>
+      <c r="D899" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E899" s="35"/>
-      <c r="F899" s="36"/>
+      <c r="E899" s="34"/>
+      <c r="F899" s="35"/>
       <c r="G899" s="6"/>
       <c r="H899" s="6"/>
       <c r="I899" s="6" t="s">
@@ -23177,17 +23231,17 @@
       <c r="D903" s="17"/>
       <c r="E903" s="17"/>
       <c r="F903" s="17"/>
-      <c r="G903" s="38" t="s">
+      <c r="G903" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H903" s="38"/>
-      <c r="I903" s="38"/>
-      <c r="J903" s="38"/>
-      <c r="K903" s="38"/>
-      <c r="L903" s="38"/>
-      <c r="M903" s="38"/>
-      <c r="N903" s="38"/>
-      <c r="O903" s="38"/>
+      <c r="H903" s="37"/>
+      <c r="I903" s="37"/>
+      <c r="J903" s="37"/>
+      <c r="K903" s="37"/>
+      <c r="L903" s="37"/>
+      <c r="M903" s="37"/>
+      <c r="N903" s="37"/>
+      <c r="O903" s="37"/>
       <c r="P903" s="5"/>
     </row>
     <row r="904" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -23201,23 +23255,23 @@
       </c>
       <c r="E904" s="17"/>
       <c r="F904" s="17"/>
-      <c r="G904" s="39" t="s">
+      <c r="G904" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H904" s="40"/>
-      <c r="I904" s="41"/>
-      <c r="J904" s="42" t="s">
+      <c r="H904" s="39"/>
+      <c r="I904" s="40"/>
+      <c r="J904" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K904" s="42"/>
-      <c r="L904" s="42" t="s">
+      <c r="K904" s="41"/>
+      <c r="L904" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M904" s="42"/>
-      <c r="N904" s="42" t="s">
+      <c r="M904" s="41"/>
+      <c r="N904" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O904" s="42"/>
+      <c r="O904" s="41"/>
       <c r="P904" s="5"/>
     </row>
     <row r="905" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -23227,11 +23281,11 @@
       <c r="D905" s="17"/>
       <c r="E905" s="17"/>
       <c r="F905" s="17"/>
-      <c r="G905" s="43" t="s">
+      <c r="G905" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="H905" s="44"/>
-      <c r="I905" s="45"/>
+      <c r="H905" s="43"/>
+      <c r="I905" s="44"/>
       <c r="J905" s="21">
         <v>45593</v>
       </c>
@@ -23638,7 +23692,7 @@
       </c>
       <c r="J925" s="6"/>
       <c r="K925" s="6"/>
-      <c r="L925" s="33" t="s">
+      <c r="L925" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M925" s="32"/>
@@ -23669,16 +23723,16 @@
       <c r="P926" s="5"/>
     </row>
     <row r="927" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A927" s="34" t="s">
+      <c r="A927" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B927" s="35"/>
-      <c r="C927" s="36"/>
-      <c r="D927" s="37" t="s">
+      <c r="B927" s="34"/>
+      <c r="C927" s="35"/>
+      <c r="D927" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E927" s="35"/>
-      <c r="F927" s="36"/>
+      <c r="E927" s="34"/>
+      <c r="F927" s="35"/>
       <c r="G927" s="6"/>
       <c r="H927" s="6"/>
       <c r="I927" s="6" t="s">
@@ -23686,7 +23740,7 @@
       </c>
       <c r="J927" s="6"/>
       <c r="K927" s="6"/>
-      <c r="L927" s="33" t="s">
+      <c r="L927" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M927" s="32"/>
@@ -23712,7 +23766,7 @@
       </c>
       <c r="J928" s="6"/>
       <c r="K928" s="6"/>
-      <c r="L928" s="33" t="s">
+      <c r="L928" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M928" s="32"/>
@@ -23734,7 +23788,7 @@
       </c>
       <c r="J929" s="6"/>
       <c r="K929" s="6"/>
-      <c r="L929" s="33" t="s">
+      <c r="L929" s="45" t="s">
         <v>11</v>
       </c>
       <c r="M929" s="32"/>
@@ -23767,17 +23821,17 @@
       <c r="D931" s="17"/>
       <c r="E931" s="17"/>
       <c r="F931" s="17"/>
-      <c r="G931" s="38" t="s">
+      <c r="G931" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H931" s="38"/>
-      <c r="I931" s="38"/>
-      <c r="J931" s="38"/>
-      <c r="K931" s="38"/>
-      <c r="L931" s="38"/>
-      <c r="M931" s="38"/>
-      <c r="N931" s="38"/>
-      <c r="O931" s="38"/>
+      <c r="H931" s="37"/>
+      <c r="I931" s="37"/>
+      <c r="J931" s="37"/>
+      <c r="K931" s="37"/>
+      <c r="L931" s="37"/>
+      <c r="M931" s="37"/>
+      <c r="N931" s="37"/>
+      <c r="O931" s="37"/>
       <c r="P931" s="5"/>
     </row>
     <row r="932" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -23789,23 +23843,23 @@
       </c>
       <c r="E932" s="17"/>
       <c r="F932" s="17"/>
-      <c r="G932" s="39" t="s">
+      <c r="G932" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H932" s="40"/>
-      <c r="I932" s="41"/>
-      <c r="J932" s="42" t="s">
+      <c r="H932" s="39"/>
+      <c r="I932" s="40"/>
+      <c r="J932" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K932" s="42"/>
-      <c r="L932" s="42" t="s">
+      <c r="K932" s="41"/>
+      <c r="L932" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M932" s="42"/>
-      <c r="N932" s="42" t="s">
+      <c r="M932" s="41"/>
+      <c r="N932" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O932" s="42"/>
+      <c r="O932" s="41"/>
       <c r="P932" s="5"/>
     </row>
     <row r="933" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -23815,11 +23869,11 @@
       <c r="D933" s="17"/>
       <c r="E933" s="17"/>
       <c r="F933" s="17"/>
-      <c r="G933" s="43" t="s">
+      <c r="G933" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="H933" s="44"/>
-      <c r="I933" s="45"/>
+      <c r="H933" s="43"/>
+      <c r="I933" s="44"/>
       <c r="J933" s="21">
         <v>45593</v>
       </c>
@@ -24253,16 +24307,16 @@
       <c r="P954" s="5"/>
     </row>
     <row r="955" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A955" s="34" t="s">
+      <c r="A955" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B955" s="35"/>
-      <c r="C955" s="36"/>
-      <c r="D955" s="37" t="s">
+      <c r="B955" s="34"/>
+      <c r="C955" s="35"/>
+      <c r="D955" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E955" s="35"/>
-      <c r="F955" s="36"/>
+      <c r="E955" s="34"/>
+      <c r="F955" s="35"/>
       <c r="G955" s="6"/>
       <c r="H955" s="6"/>
       <c r="I955" s="6" t="s">
@@ -24280,7 +24334,7 @@
     </row>
     <row r="956" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A956" s="16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B956" s="17"/>
       <c r="C956" s="17"/>
@@ -24351,17 +24405,17 @@
       <c r="D959" s="17"/>
       <c r="E959" s="17"/>
       <c r="F959" s="17"/>
-      <c r="G959" s="38" t="s">
+      <c r="G959" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H959" s="38"/>
-      <c r="I959" s="38"/>
-      <c r="J959" s="38"/>
-      <c r="K959" s="38"/>
-      <c r="L959" s="38"/>
-      <c r="M959" s="38"/>
-      <c r="N959" s="38"/>
-      <c r="O959" s="38"/>
+      <c r="H959" s="37"/>
+      <c r="I959" s="37"/>
+      <c r="J959" s="37"/>
+      <c r="K959" s="37"/>
+      <c r="L959" s="37"/>
+      <c r="M959" s="37"/>
+      <c r="N959" s="37"/>
+      <c r="O959" s="37"/>
       <c r="P959" s="5"/>
     </row>
     <row r="960" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -24373,23 +24427,23 @@
       </c>
       <c r="E960" s="17"/>
       <c r="F960" s="17"/>
-      <c r="G960" s="39" t="s">
+      <c r="G960" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H960" s="40"/>
-      <c r="I960" s="41"/>
-      <c r="J960" s="42" t="s">
+      <c r="H960" s="39"/>
+      <c r="I960" s="40"/>
+      <c r="J960" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K960" s="42"/>
-      <c r="L960" s="42" t="s">
+      <c r="K960" s="41"/>
+      <c r="L960" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M960" s="42"/>
-      <c r="N960" s="42" t="s">
+      <c r="M960" s="41"/>
+      <c r="N960" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O960" s="42"/>
+      <c r="O960" s="41"/>
       <c r="P960" s="5"/>
     </row>
     <row r="961" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -24399,11 +24453,11 @@
       <c r="D961" s="17"/>
       <c r="E961" s="17"/>
       <c r="F961" s="17"/>
-      <c r="G961" s="43" t="s">
+      <c r="G961" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="H961" s="44"/>
-      <c r="I961" s="45"/>
+      <c r="H961" s="43"/>
+      <c r="I961" s="44"/>
       <c r="J961" s="21">
         <v>45603</v>
       </c>
@@ -24586,27 +24640,2475 @@
       <c r="O969" s="12"/>
       <c r="P969" s="13"/>
     </row>
+    <row r="970" spans="1:16" ht="15">
+      <c r="A970" s="8"/>
+      <c r="B970" s="9"/>
+      <c r="C970" s="9"/>
+      <c r="D970" s="9"/>
+      <c r="E970" s="6"/>
+      <c r="F970" s="6"/>
+      <c r="G970" s="6"/>
+      <c r="H970" s="6"/>
+      <c r="I970" s="6"/>
+      <c r="J970" s="6"/>
+      <c r="K970" s="6"/>
+      <c r="L970" s="6"/>
+      <c r="M970" s="6"/>
+      <c r="N970" s="6"/>
+      <c r="O970" s="6"/>
+      <c r="P970" s="5"/>
+    </row>
+    <row r="971" spans="1:16" ht="15">
+      <c r="A971" s="10"/>
+      <c r="B971" s="11"/>
+      <c r="C971" s="11"/>
+      <c r="D971" s="11"/>
+      <c r="E971" s="12"/>
+      <c r="F971" s="12"/>
+      <c r="G971" s="12"/>
+      <c r="H971" s="12"/>
+      <c r="I971" s="12"/>
+      <c r="J971" s="12"/>
+      <c r="K971" s="12"/>
+      <c r="L971" s="12"/>
+      <c r="M971" s="12"/>
+      <c r="N971" s="12"/>
+      <c r="O971" s="12"/>
+      <c r="P971" s="13"/>
+    </row>
+    <row r="972" spans="1:16" ht="18">
+      <c r="A972" s="25"/>
+      <c r="B972" s="26"/>
+      <c r="C972" s="26"/>
+      <c r="D972" s="26"/>
+      <c r="E972" s="2"/>
+      <c r="F972" s="3"/>
+      <c r="G972" s="3"/>
+      <c r="H972" s="3"/>
+      <c r="I972" s="3"/>
+      <c r="J972" s="3"/>
+      <c r="K972" s="3"/>
+      <c r="L972" s="3"/>
+      <c r="M972" s="3"/>
+      <c r="N972" s="3"/>
+      <c r="O972" s="3"/>
+      <c r="P972" s="4"/>
+    </row>
+    <row r="973" spans="1:16">
+      <c r="A973" s="27"/>
+      <c r="B973" s="28"/>
+      <c r="C973" s="28"/>
+      <c r="D973" s="28"/>
+      <c r="E973" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F973" s="29"/>
+      <c r="G973" s="29"/>
+      <c r="H973" s="29"/>
+      <c r="I973" s="29"/>
+      <c r="J973" s="29"/>
+      <c r="K973" s="29"/>
+      <c r="L973" s="29"/>
+      <c r="M973" s="29"/>
+      <c r="N973" s="29"/>
+      <c r="O973" s="29"/>
+      <c r="P973" s="5"/>
+    </row>
+    <row r="974" spans="1:16">
+      <c r="A974" s="27"/>
+      <c r="B974" s="28"/>
+      <c r="C974" s="28"/>
+      <c r="D974" s="28"/>
+      <c r="E974" s="29"/>
+      <c r="F974" s="29"/>
+      <c r="G974" s="29"/>
+      <c r="H974" s="29"/>
+      <c r="I974" s="29"/>
+      <c r="J974" s="29"/>
+      <c r="K974" s="29"/>
+      <c r="L974" s="29"/>
+      <c r="M974" s="29"/>
+      <c r="N974" s="29"/>
+      <c r="O974" s="29"/>
+      <c r="P974" s="5"/>
+    </row>
+    <row r="975" spans="1:16">
+      <c r="A975" s="27"/>
+      <c r="B975" s="28"/>
+      <c r="C975" s="28"/>
+      <c r="D975" s="28"/>
+      <c r="E975" s="29"/>
+      <c r="F975" s="29"/>
+      <c r="G975" s="29"/>
+      <c r="H975" s="29"/>
+      <c r="I975" s="29"/>
+      <c r="J975" s="29"/>
+      <c r="K975" s="29"/>
+      <c r="L975" s="29"/>
+      <c r="M975" s="29"/>
+      <c r="N975" s="29"/>
+      <c r="O975" s="29"/>
+      <c r="P975" s="5"/>
+    </row>
+    <row r="976" spans="1:16">
+      <c r="A976" s="27"/>
+      <c r="B976" s="28"/>
+      <c r="C976" s="28"/>
+      <c r="D976" s="28"/>
+      <c r="E976" s="29"/>
+      <c r="F976" s="29"/>
+      <c r="G976" s="29"/>
+      <c r="H976" s="29"/>
+      <c r="I976" s="29"/>
+      <c r="J976" s="29"/>
+      <c r="K976" s="29"/>
+      <c r="L976" s="29"/>
+      <c r="M976" s="29"/>
+      <c r="N976" s="29"/>
+      <c r="O976" s="29"/>
+      <c r="P976" s="5"/>
+    </row>
+    <row r="977" spans="1:16" ht="18">
+      <c r="A977" s="27"/>
+      <c r="B977" s="28"/>
+      <c r="C977" s="28"/>
+      <c r="D977" s="28"/>
+      <c r="E977" s="30"/>
+      <c r="F977" s="30"/>
+      <c r="G977" s="30"/>
+      <c r="H977" s="30"/>
+      <c r="I977" s="30"/>
+      <c r="J977" s="30"/>
+      <c r="K977" s="30"/>
+      <c r="L977" s="30"/>
+      <c r="M977" s="30"/>
+      <c r="N977" s="30"/>
+      <c r="O977" s="30"/>
+      <c r="P977" s="5"/>
+    </row>
+    <row r="978" spans="1:16" ht="18">
+      <c r="A978" s="27"/>
+      <c r="B978" s="28"/>
+      <c r="C978" s="28"/>
+      <c r="D978" s="28"/>
+      <c r="E978" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F978" s="31"/>
+      <c r="G978" s="31"/>
+      <c r="H978" s="31"/>
+      <c r="I978" s="31"/>
+      <c r="J978" s="31"/>
+      <c r="K978" s="31"/>
+      <c r="L978" s="31"/>
+      <c r="M978" s="31"/>
+      <c r="N978" s="31"/>
+      <c r="O978" s="31"/>
+      <c r="P978" s="5"/>
+    </row>
+    <row r="979" spans="1:16" ht="15">
+      <c r="A979" s="27"/>
+      <c r="B979" s="28"/>
+      <c r="C979" s="28"/>
+      <c r="D979" s="28"/>
+      <c r="E979" s="6"/>
+      <c r="F979" s="7"/>
+      <c r="G979" s="7"/>
+      <c r="H979" s="7"/>
+      <c r="I979" s="7"/>
+      <c r="J979" s="7"/>
+      <c r="K979" s="7"/>
+      <c r="L979" s="7"/>
+      <c r="M979" s="7"/>
+      <c r="N979" s="7"/>
+      <c r="O979" s="7"/>
+      <c r="P979" s="5"/>
+    </row>
+    <row r="980" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A980" s="27"/>
+      <c r="B980" s="28"/>
+      <c r="C980" s="28"/>
+      <c r="D980" s="28"/>
+      <c r="E980" s="6"/>
+      <c r="F980" s="6"/>
+      <c r="G980" s="6"/>
+      <c r="H980" s="6"/>
+      <c r="I980" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J980" s="6"/>
+      <c r="K980" s="6"/>
+      <c r="L980" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M980" s="32"/>
+      <c r="N980" s="32"/>
+      <c r="O980" s="32"/>
+      <c r="P980" s="5"/>
+    </row>
+    <row r="981" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A981" s="8"/>
+      <c r="B981" s="9"/>
+      <c r="C981" s="9"/>
+      <c r="D981" s="9"/>
+      <c r="E981" s="6"/>
+      <c r="F981" s="6"/>
+      <c r="G981" s="6"/>
+      <c r="H981" s="6"/>
+      <c r="I981" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J981" s="6"/>
+      <c r="K981" s="6"/>
+      <c r="L981" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M981" s="32"/>
+      <c r="N981" s="32"/>
+      <c r="O981" s="32"/>
+      <c r="P981" s="5"/>
+    </row>
+    <row r="982" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A982" s="8"/>
+      <c r="B982" s="9"/>
+      <c r="C982" s="9"/>
+      <c r="D982" s="9"/>
+      <c r="E982" s="6"/>
+      <c r="F982" s="6"/>
+      <c r="G982" s="6"/>
+      <c r="H982" s="6"/>
+      <c r="I982" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J982" s="6"/>
+      <c r="K982" s="6"/>
+      <c r="L982" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M982" s="32"/>
+      <c r="N982" s="32"/>
+      <c r="O982" s="32"/>
+      <c r="P982" s="5"/>
+    </row>
+    <row r="983" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A983" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B983" s="34"/>
+      <c r="C983" s="35"/>
+      <c r="D983" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E983" s="34"/>
+      <c r="F983" s="35"/>
+      <c r="G983" s="6"/>
+      <c r="H983" s="6"/>
+      <c r="I983" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J983" s="6"/>
+      <c r="K983" s="6"/>
+      <c r="L983" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M983" s="32"/>
+      <c r="N983" s="32"/>
+      <c r="O983" s="32"/>
+      <c r="P983" s="5"/>
+    </row>
+    <row r="984" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A984" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B984" s="17"/>
+      <c r="C984" s="17"/>
+      <c r="D984" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E984" s="17"/>
+      <c r="F984" s="17"/>
+      <c r="G984" s="6"/>
+      <c r="H984" s="6"/>
+      <c r="I984" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J984" s="6"/>
+      <c r="K984" s="6"/>
+      <c r="L984" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M984" s="32"/>
+      <c r="N984" s="32"/>
+      <c r="O984" s="32"/>
+      <c r="P984" s="5"/>
+    </row>
+    <row r="985" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A985" s="16"/>
+      <c r="B985" s="17"/>
+      <c r="C985" s="17"/>
+      <c r="D985" s="17"/>
+      <c r="E985" s="17"/>
+      <c r="F985" s="17"/>
+      <c r="G985" s="6"/>
+      <c r="H985" s="6"/>
+      <c r="I985" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J985" s="6"/>
+      <c r="K985" s="6"/>
+      <c r="L985" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M985" s="32"/>
+      <c r="N985" s="32"/>
+      <c r="O985" s="32"/>
+      <c r="P985" s="5"/>
+    </row>
+    <row r="986" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A986" s="16"/>
+      <c r="B986" s="17"/>
+      <c r="C986" s="17"/>
+      <c r="D986" s="17"/>
+      <c r="E986" s="17"/>
+      <c r="F986" s="17"/>
+      <c r="G986" s="6"/>
+      <c r="H986" s="6"/>
+      <c r="I986" s="6"/>
+      <c r="J986" s="6"/>
+      <c r="K986" s="6"/>
+      <c r="L986" s="6"/>
+      <c r="M986" s="6"/>
+      <c r="N986" s="6"/>
+      <c r="O986" s="6"/>
+      <c r="P986" s="5"/>
+    </row>
+    <row r="987" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A987" s="16"/>
+      <c r="B987" s="17"/>
+      <c r="C987" s="17"/>
+      <c r="D987" s="17"/>
+      <c r="E987" s="17"/>
+      <c r="F987" s="17"/>
+      <c r="G987" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H987" s="37"/>
+      <c r="I987" s="37"/>
+      <c r="J987" s="37"/>
+      <c r="K987" s="37"/>
+      <c r="L987" s="37"/>
+      <c r="M987" s="37"/>
+      <c r="N987" s="37"/>
+      <c r="O987" s="37"/>
+      <c r="P987" s="5"/>
+    </row>
+    <row r="988" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A988" s="16"/>
+      <c r="B988" s="17"/>
+      <c r="C988" s="17"/>
+      <c r="D988" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E988" s="17"/>
+      <c r="F988" s="17"/>
+      <c r="G988" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H988" s="39"/>
+      <c r="I988" s="40"/>
+      <c r="J988" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K988" s="41"/>
+      <c r="L988" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="M988" s="41"/>
+      <c r="N988" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="O988" s="41"/>
+      <c r="P988" s="5"/>
+    </row>
+    <row r="989" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A989" s="16"/>
+      <c r="B989" s="17"/>
+      <c r="C989" s="17"/>
+      <c r="D989" s="17"/>
+      <c r="E989" s="17"/>
+      <c r="F989" s="17"/>
+      <c r="G989" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="H989" s="43"/>
+      <c r="I989" s="44"/>
+      <c r="J989" s="21">
+        <v>45603</v>
+      </c>
+      <c r="K989" s="15"/>
+      <c r="L989" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="M989" s="15"/>
+      <c r="N989" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="O989" s="15"/>
+      <c r="P989" s="5"/>
+    </row>
+    <row r="990" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A990" s="16"/>
+      <c r="B990" s="17"/>
+      <c r="C990" s="17"/>
+      <c r="D990" s="17"/>
+      <c r="E990" s="17"/>
+      <c r="F990" s="17"/>
+      <c r="G990" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="H990" s="19"/>
+      <c r="I990" s="20"/>
+      <c r="J990" s="21">
+        <v>45603</v>
+      </c>
+      <c r="K990" s="15"/>
+      <c r="L990" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="M990" s="15"/>
+      <c r="N990" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="O990" s="15"/>
+      <c r="P990" s="5"/>
+    </row>
+    <row r="991" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A991" s="16"/>
+      <c r="B991" s="17"/>
+      <c r="C991" s="17"/>
+      <c r="D991" s="17"/>
+      <c r="E991" s="17"/>
+      <c r="F991" s="17"/>
+      <c r="G991" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="H991" s="19"/>
+      <c r="I991" s="20"/>
+      <c r="J991" s="21">
+        <v>45603</v>
+      </c>
+      <c r="K991" s="15"/>
+      <c r="L991" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="M991" s="15"/>
+      <c r="N991" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="O991" s="15"/>
+      <c r="P991" s="5"/>
+    </row>
+    <row r="992" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A992" s="16"/>
+      <c r="B992" s="17"/>
+      <c r="C992" s="17"/>
+      <c r="D992" s="17"/>
+      <c r="E992" s="17"/>
+      <c r="F992" s="17"/>
+      <c r="G992" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H992" s="19"/>
+      <c r="I992" s="20"/>
+      <c r="J992" s="21">
+        <v>45603</v>
+      </c>
+      <c r="K992" s="15"/>
+      <c r="L992" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="M992" s="15"/>
+      <c r="N992" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="O992" s="15"/>
+      <c r="P992" s="5"/>
+    </row>
+    <row r="993" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A993" s="16"/>
+      <c r="B993" s="17"/>
+      <c r="C993" s="17"/>
+      <c r="D993" s="17"/>
+      <c r="E993" s="17"/>
+      <c r="F993" s="17"/>
+      <c r="G993" s="18"/>
+      <c r="H993" s="19"/>
+      <c r="I993" s="20"/>
+      <c r="J993" s="21"/>
+      <c r="K993" s="15"/>
+      <c r="L993" s="15"/>
+      <c r="M993" s="15"/>
+      <c r="N993" s="15"/>
+      <c r="O993" s="15"/>
+      <c r="P993" s="5"/>
+    </row>
+    <row r="994" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A994" s="16"/>
+      <c r="B994" s="17"/>
+      <c r="C994" s="17"/>
+      <c r="D994" s="17"/>
+      <c r="E994" s="17"/>
+      <c r="F994" s="17"/>
+      <c r="G994" s="18"/>
+      <c r="H994" s="19"/>
+      <c r="I994" s="20"/>
+      <c r="J994" s="21"/>
+      <c r="K994" s="15"/>
+      <c r="L994" s="15"/>
+      <c r="M994" s="15"/>
+      <c r="N994" s="15"/>
+      <c r="O994" s="15"/>
+      <c r="P994" s="5"/>
+    </row>
+    <row r="995" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A995" s="16"/>
+      <c r="B995" s="17"/>
+      <c r="C995" s="17"/>
+      <c r="D995" s="17"/>
+      <c r="E995" s="17"/>
+      <c r="F995" s="17"/>
+      <c r="G995" s="22"/>
+      <c r="H995" s="23"/>
+      <c r="I995" s="24"/>
+      <c r="J995" s="21"/>
+      <c r="K995" s="15"/>
+      <c r="L995" s="15"/>
+      <c r="M995" s="15"/>
+      <c r="N995" s="15"/>
+      <c r="O995" s="15"/>
+      <c r="P995" s="5"/>
+    </row>
+    <row r="996" spans="1:16" ht="15.75" thickTop="1">
+      <c r="A996" s="8"/>
+      <c r="B996" s="9"/>
+      <c r="C996" s="9"/>
+      <c r="D996" s="9"/>
+      <c r="E996" s="6"/>
+      <c r="F996" s="6"/>
+      <c r="G996" s="6"/>
+      <c r="H996" s="6"/>
+      <c r="I996" s="6"/>
+      <c r="J996" s="6"/>
+      <c r="K996" s="6"/>
+      <c r="L996" s="6"/>
+      <c r="M996" s="6"/>
+      <c r="N996" s="6"/>
+      <c r="O996" s="6"/>
+      <c r="P996" s="5"/>
+    </row>
+    <row r="997" spans="1:16" ht="15">
+      <c r="A997" s="10"/>
+      <c r="B997" s="11"/>
+      <c r="C997" s="11"/>
+      <c r="D997" s="11"/>
+      <c r="E997" s="12"/>
+      <c r="F997" s="12"/>
+      <c r="G997" s="12"/>
+      <c r="H997" s="12"/>
+      <c r="I997" s="12"/>
+      <c r="J997" s="12"/>
+      <c r="K997" s="12"/>
+      <c r="L997" s="12"/>
+      <c r="M997" s="12"/>
+      <c r="N997" s="12"/>
+      <c r="O997" s="12"/>
+      <c r="P997" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="1883">
-    <mergeCell ref="N963:O963"/>
-    <mergeCell ref="A964:C967"/>
-    <mergeCell ref="D964:F967"/>
-    <mergeCell ref="G964:I964"/>
-    <mergeCell ref="J964:K964"/>
-    <mergeCell ref="L964:M964"/>
-    <mergeCell ref="N964:O964"/>
-    <mergeCell ref="G965:I965"/>
-    <mergeCell ref="J965:K965"/>
-    <mergeCell ref="L965:M965"/>
-    <mergeCell ref="N965:O965"/>
-    <mergeCell ref="G966:I966"/>
-    <mergeCell ref="J966:K966"/>
-    <mergeCell ref="L966:M966"/>
-    <mergeCell ref="N966:O966"/>
-    <mergeCell ref="G967:I967"/>
-    <mergeCell ref="J967:K967"/>
-    <mergeCell ref="L967:M967"/>
-    <mergeCell ref="N967:O967"/>
+  <mergeCells count="1934">
+    <mergeCell ref="N991:O991"/>
+    <mergeCell ref="A992:C995"/>
+    <mergeCell ref="D992:F995"/>
+    <mergeCell ref="G992:I992"/>
+    <mergeCell ref="J992:K992"/>
+    <mergeCell ref="L992:M992"/>
+    <mergeCell ref="N992:O992"/>
+    <mergeCell ref="G993:I993"/>
+    <mergeCell ref="J993:K993"/>
+    <mergeCell ref="L993:M993"/>
+    <mergeCell ref="N993:O993"/>
+    <mergeCell ref="G994:I994"/>
+    <mergeCell ref="J994:K994"/>
+    <mergeCell ref="L994:M994"/>
+    <mergeCell ref="N994:O994"/>
+    <mergeCell ref="G995:I995"/>
+    <mergeCell ref="J995:K995"/>
+    <mergeCell ref="L995:M995"/>
+    <mergeCell ref="N995:O995"/>
+    <mergeCell ref="A972:D980"/>
+    <mergeCell ref="E973:O976"/>
+    <mergeCell ref="E977:O977"/>
+    <mergeCell ref="E978:O978"/>
+    <mergeCell ref="L980:O980"/>
+    <mergeCell ref="L981:O981"/>
+    <mergeCell ref="L982:O982"/>
+    <mergeCell ref="A983:C983"/>
+    <mergeCell ref="D983:F983"/>
+    <mergeCell ref="L983:O983"/>
+    <mergeCell ref="A984:C987"/>
+    <mergeCell ref="D984:F987"/>
+    <mergeCell ref="L984:O984"/>
+    <mergeCell ref="L985:O985"/>
+    <mergeCell ref="G987:O987"/>
+    <mergeCell ref="A988:C991"/>
+    <mergeCell ref="D988:F991"/>
+    <mergeCell ref="G988:I988"/>
+    <mergeCell ref="J988:K988"/>
+    <mergeCell ref="L988:M988"/>
+    <mergeCell ref="N988:O988"/>
+    <mergeCell ref="G989:I989"/>
+    <mergeCell ref="J989:K989"/>
+    <mergeCell ref="L989:M989"/>
+    <mergeCell ref="N989:O989"/>
+    <mergeCell ref="G990:I990"/>
+    <mergeCell ref="J990:K990"/>
+    <mergeCell ref="L990:M990"/>
+    <mergeCell ref="N990:O990"/>
+    <mergeCell ref="G991:I991"/>
+    <mergeCell ref="J991:K991"/>
+    <mergeCell ref="L991:M991"/>
+    <mergeCell ref="N935:O935"/>
+    <mergeCell ref="A936:C939"/>
+    <mergeCell ref="D936:F939"/>
+    <mergeCell ref="G936:I936"/>
+    <mergeCell ref="J936:K936"/>
+    <mergeCell ref="L936:M936"/>
+    <mergeCell ref="N936:O936"/>
+    <mergeCell ref="G937:I937"/>
+    <mergeCell ref="J937:K937"/>
+    <mergeCell ref="L937:M937"/>
+    <mergeCell ref="N937:O937"/>
+    <mergeCell ref="G938:I938"/>
+    <mergeCell ref="J938:K938"/>
+    <mergeCell ref="L938:M938"/>
+    <mergeCell ref="N938:O938"/>
+    <mergeCell ref="G939:I939"/>
+    <mergeCell ref="J939:K939"/>
+    <mergeCell ref="L939:M939"/>
+    <mergeCell ref="N939:O939"/>
+    <mergeCell ref="A916:D924"/>
+    <mergeCell ref="E917:O920"/>
+    <mergeCell ref="E921:O921"/>
+    <mergeCell ref="E922:O922"/>
+    <mergeCell ref="L924:O924"/>
+    <mergeCell ref="L925:O925"/>
+    <mergeCell ref="L926:O926"/>
+    <mergeCell ref="A927:C927"/>
+    <mergeCell ref="D927:F927"/>
+    <mergeCell ref="L927:O927"/>
+    <mergeCell ref="A928:C931"/>
+    <mergeCell ref="D928:F931"/>
+    <mergeCell ref="L928:O928"/>
+    <mergeCell ref="L929:O929"/>
+    <mergeCell ref="G931:O931"/>
+    <mergeCell ref="A932:C935"/>
+    <mergeCell ref="D932:F935"/>
+    <mergeCell ref="G932:I932"/>
+    <mergeCell ref="J932:K932"/>
+    <mergeCell ref="L932:M932"/>
+    <mergeCell ref="N932:O932"/>
+    <mergeCell ref="G933:I933"/>
+    <mergeCell ref="J933:K933"/>
+    <mergeCell ref="L933:M933"/>
+    <mergeCell ref="N933:O933"/>
+    <mergeCell ref="G934:I934"/>
+    <mergeCell ref="J934:K934"/>
+    <mergeCell ref="L934:M934"/>
+    <mergeCell ref="N934:O934"/>
+    <mergeCell ref="G935:I935"/>
+    <mergeCell ref="J935:K935"/>
+    <mergeCell ref="L935:M935"/>
+    <mergeCell ref="N907:O907"/>
+    <mergeCell ref="A908:C911"/>
+    <mergeCell ref="D908:F911"/>
+    <mergeCell ref="G908:I908"/>
+    <mergeCell ref="J908:K908"/>
+    <mergeCell ref="L908:M908"/>
+    <mergeCell ref="N908:O908"/>
+    <mergeCell ref="G909:I909"/>
+    <mergeCell ref="J909:K909"/>
+    <mergeCell ref="L909:M909"/>
+    <mergeCell ref="N909:O909"/>
+    <mergeCell ref="G910:I910"/>
+    <mergeCell ref="J910:K910"/>
+    <mergeCell ref="L910:M910"/>
+    <mergeCell ref="N910:O910"/>
+    <mergeCell ref="G911:I911"/>
+    <mergeCell ref="J911:K911"/>
+    <mergeCell ref="L911:M911"/>
+    <mergeCell ref="N911:O911"/>
+    <mergeCell ref="A888:D896"/>
+    <mergeCell ref="E889:O892"/>
+    <mergeCell ref="E893:O893"/>
+    <mergeCell ref="E894:O894"/>
+    <mergeCell ref="L896:O896"/>
+    <mergeCell ref="L897:O897"/>
+    <mergeCell ref="L898:O898"/>
+    <mergeCell ref="A899:C899"/>
+    <mergeCell ref="D899:F899"/>
+    <mergeCell ref="L899:O899"/>
+    <mergeCell ref="A900:C903"/>
+    <mergeCell ref="D900:F903"/>
+    <mergeCell ref="L900:O900"/>
+    <mergeCell ref="L901:O901"/>
+    <mergeCell ref="G903:O903"/>
+    <mergeCell ref="A904:C907"/>
+    <mergeCell ref="D904:F907"/>
+    <mergeCell ref="G904:I904"/>
+    <mergeCell ref="J904:K904"/>
+    <mergeCell ref="L904:M904"/>
+    <mergeCell ref="N904:O904"/>
+    <mergeCell ref="G905:I905"/>
+    <mergeCell ref="J905:K905"/>
+    <mergeCell ref="L905:M905"/>
+    <mergeCell ref="N905:O905"/>
+    <mergeCell ref="G906:I906"/>
+    <mergeCell ref="J906:K906"/>
+    <mergeCell ref="L906:M906"/>
+    <mergeCell ref="N906:O906"/>
+    <mergeCell ref="G907:I907"/>
+    <mergeCell ref="J907:K907"/>
+    <mergeCell ref="L907:M907"/>
+    <mergeCell ref="N879:O879"/>
+    <mergeCell ref="A880:C883"/>
+    <mergeCell ref="D880:F883"/>
+    <mergeCell ref="G880:I880"/>
+    <mergeCell ref="J880:K880"/>
+    <mergeCell ref="L880:M880"/>
+    <mergeCell ref="N880:O880"/>
+    <mergeCell ref="G881:I881"/>
+    <mergeCell ref="J881:K881"/>
+    <mergeCell ref="L881:M881"/>
+    <mergeCell ref="N881:O881"/>
+    <mergeCell ref="G882:I882"/>
+    <mergeCell ref="J882:K882"/>
+    <mergeCell ref="L882:M882"/>
+    <mergeCell ref="N882:O882"/>
+    <mergeCell ref="G883:I883"/>
+    <mergeCell ref="J883:K883"/>
+    <mergeCell ref="L883:M883"/>
+    <mergeCell ref="N883:O883"/>
+    <mergeCell ref="A860:D868"/>
+    <mergeCell ref="E861:O864"/>
+    <mergeCell ref="E865:O865"/>
+    <mergeCell ref="E866:O866"/>
+    <mergeCell ref="L868:O868"/>
+    <mergeCell ref="L869:O869"/>
+    <mergeCell ref="L870:O870"/>
+    <mergeCell ref="A871:C871"/>
+    <mergeCell ref="D871:F871"/>
+    <mergeCell ref="L871:O871"/>
+    <mergeCell ref="A872:C875"/>
+    <mergeCell ref="D872:F875"/>
+    <mergeCell ref="L872:O872"/>
+    <mergeCell ref="L873:O873"/>
+    <mergeCell ref="G875:O875"/>
+    <mergeCell ref="A876:C879"/>
+    <mergeCell ref="D876:F879"/>
+    <mergeCell ref="G876:I876"/>
+    <mergeCell ref="J876:K876"/>
+    <mergeCell ref="L876:M876"/>
+    <mergeCell ref="N876:O876"/>
+    <mergeCell ref="G877:I877"/>
+    <mergeCell ref="J877:K877"/>
+    <mergeCell ref="L877:M877"/>
+    <mergeCell ref="N877:O877"/>
+    <mergeCell ref="G878:I878"/>
+    <mergeCell ref="J878:K878"/>
+    <mergeCell ref="L878:M878"/>
+    <mergeCell ref="N878:O878"/>
+    <mergeCell ref="G879:I879"/>
+    <mergeCell ref="J879:K879"/>
+    <mergeCell ref="L879:M879"/>
+    <mergeCell ref="N851:O851"/>
+    <mergeCell ref="A852:C855"/>
+    <mergeCell ref="D852:F855"/>
+    <mergeCell ref="G852:I852"/>
+    <mergeCell ref="J852:K852"/>
+    <mergeCell ref="L852:M852"/>
+    <mergeCell ref="N852:O852"/>
+    <mergeCell ref="G853:I853"/>
+    <mergeCell ref="J853:K853"/>
+    <mergeCell ref="L853:M853"/>
+    <mergeCell ref="N853:O853"/>
+    <mergeCell ref="G854:I854"/>
+    <mergeCell ref="J854:K854"/>
+    <mergeCell ref="L854:M854"/>
+    <mergeCell ref="N854:O854"/>
+    <mergeCell ref="G855:I855"/>
+    <mergeCell ref="J855:K855"/>
+    <mergeCell ref="L855:M855"/>
+    <mergeCell ref="N855:O855"/>
+    <mergeCell ref="A832:D840"/>
+    <mergeCell ref="E833:O836"/>
+    <mergeCell ref="E837:O837"/>
+    <mergeCell ref="E838:O838"/>
+    <mergeCell ref="L840:O840"/>
+    <mergeCell ref="L841:O841"/>
+    <mergeCell ref="L842:O842"/>
+    <mergeCell ref="A843:C843"/>
+    <mergeCell ref="D843:F843"/>
+    <mergeCell ref="L843:O843"/>
+    <mergeCell ref="A844:C847"/>
+    <mergeCell ref="D844:F847"/>
+    <mergeCell ref="L844:O844"/>
+    <mergeCell ref="L845:O845"/>
+    <mergeCell ref="G847:O847"/>
+    <mergeCell ref="A848:C851"/>
+    <mergeCell ref="D848:F851"/>
+    <mergeCell ref="G848:I848"/>
+    <mergeCell ref="J848:K848"/>
+    <mergeCell ref="L848:M848"/>
+    <mergeCell ref="N848:O848"/>
+    <mergeCell ref="G849:I849"/>
+    <mergeCell ref="J849:K849"/>
+    <mergeCell ref="L849:M849"/>
+    <mergeCell ref="N849:O849"/>
+    <mergeCell ref="G850:I850"/>
+    <mergeCell ref="J850:K850"/>
+    <mergeCell ref="L850:M850"/>
+    <mergeCell ref="N850:O850"/>
+    <mergeCell ref="G851:I851"/>
+    <mergeCell ref="J851:K851"/>
+    <mergeCell ref="L851:M851"/>
+    <mergeCell ref="N823:O823"/>
+    <mergeCell ref="A824:C827"/>
+    <mergeCell ref="D824:F827"/>
+    <mergeCell ref="G824:I824"/>
+    <mergeCell ref="J824:K824"/>
+    <mergeCell ref="L824:M824"/>
+    <mergeCell ref="N824:O824"/>
+    <mergeCell ref="G825:I825"/>
+    <mergeCell ref="J825:K825"/>
+    <mergeCell ref="L825:M825"/>
+    <mergeCell ref="N825:O825"/>
+    <mergeCell ref="G826:I826"/>
+    <mergeCell ref="J826:K826"/>
+    <mergeCell ref="L826:M826"/>
+    <mergeCell ref="N826:O826"/>
+    <mergeCell ref="G827:I827"/>
+    <mergeCell ref="J827:K827"/>
+    <mergeCell ref="L827:M827"/>
+    <mergeCell ref="N827:O827"/>
+    <mergeCell ref="A804:D812"/>
+    <mergeCell ref="E805:O808"/>
+    <mergeCell ref="E809:O809"/>
+    <mergeCell ref="E810:O810"/>
+    <mergeCell ref="L812:O812"/>
+    <mergeCell ref="L813:O813"/>
+    <mergeCell ref="L814:O814"/>
+    <mergeCell ref="A815:C815"/>
+    <mergeCell ref="D815:F815"/>
+    <mergeCell ref="L815:O815"/>
+    <mergeCell ref="A816:C819"/>
+    <mergeCell ref="D816:F819"/>
+    <mergeCell ref="L816:O816"/>
+    <mergeCell ref="L817:O817"/>
+    <mergeCell ref="G819:O819"/>
+    <mergeCell ref="A820:C823"/>
+    <mergeCell ref="D820:F823"/>
+    <mergeCell ref="G820:I820"/>
+    <mergeCell ref="J820:K820"/>
+    <mergeCell ref="L820:M820"/>
+    <mergeCell ref="N820:O820"/>
+    <mergeCell ref="G821:I821"/>
+    <mergeCell ref="J821:K821"/>
+    <mergeCell ref="L821:M821"/>
+    <mergeCell ref="N821:O821"/>
+    <mergeCell ref="G822:I822"/>
+    <mergeCell ref="J822:K822"/>
+    <mergeCell ref="L822:M822"/>
+    <mergeCell ref="N822:O822"/>
+    <mergeCell ref="G823:I823"/>
+    <mergeCell ref="J823:K823"/>
+    <mergeCell ref="L823:M823"/>
+    <mergeCell ref="N739:O739"/>
+    <mergeCell ref="A740:C743"/>
+    <mergeCell ref="D740:F743"/>
+    <mergeCell ref="G740:I740"/>
+    <mergeCell ref="J740:K740"/>
+    <mergeCell ref="L740:M740"/>
+    <mergeCell ref="N740:O740"/>
+    <mergeCell ref="G741:I741"/>
+    <mergeCell ref="J741:K741"/>
+    <mergeCell ref="L741:M741"/>
+    <mergeCell ref="N741:O741"/>
+    <mergeCell ref="G742:I742"/>
+    <mergeCell ref="J742:K742"/>
+    <mergeCell ref="L742:M742"/>
+    <mergeCell ref="N742:O742"/>
+    <mergeCell ref="G743:I743"/>
+    <mergeCell ref="J743:K743"/>
+    <mergeCell ref="L743:M743"/>
+    <mergeCell ref="N743:O743"/>
+    <mergeCell ref="A720:D728"/>
+    <mergeCell ref="E721:O724"/>
+    <mergeCell ref="E725:O725"/>
+    <mergeCell ref="E726:O726"/>
+    <mergeCell ref="L728:O728"/>
+    <mergeCell ref="L729:O729"/>
+    <mergeCell ref="L730:O730"/>
+    <mergeCell ref="A731:C731"/>
+    <mergeCell ref="D731:F731"/>
+    <mergeCell ref="L731:O731"/>
+    <mergeCell ref="A732:C735"/>
+    <mergeCell ref="D732:F735"/>
+    <mergeCell ref="L732:O732"/>
+    <mergeCell ref="L733:O733"/>
+    <mergeCell ref="G735:O735"/>
+    <mergeCell ref="A736:C739"/>
+    <mergeCell ref="D736:F739"/>
+    <mergeCell ref="G736:I736"/>
+    <mergeCell ref="J736:K736"/>
+    <mergeCell ref="L736:M736"/>
+    <mergeCell ref="N736:O736"/>
+    <mergeCell ref="G737:I737"/>
+    <mergeCell ref="J737:K737"/>
+    <mergeCell ref="L737:M737"/>
+    <mergeCell ref="N737:O737"/>
+    <mergeCell ref="G738:I738"/>
+    <mergeCell ref="J738:K738"/>
+    <mergeCell ref="L738:M738"/>
+    <mergeCell ref="N738:O738"/>
+    <mergeCell ref="G739:I739"/>
+    <mergeCell ref="J739:K739"/>
+    <mergeCell ref="L739:M739"/>
+    <mergeCell ref="N711:O711"/>
+    <mergeCell ref="A712:C715"/>
+    <mergeCell ref="D712:F715"/>
+    <mergeCell ref="G712:I712"/>
+    <mergeCell ref="J712:K712"/>
+    <mergeCell ref="L712:M712"/>
+    <mergeCell ref="N712:O712"/>
+    <mergeCell ref="G713:I713"/>
+    <mergeCell ref="J713:K713"/>
+    <mergeCell ref="L713:M713"/>
+    <mergeCell ref="N713:O713"/>
+    <mergeCell ref="G714:I714"/>
+    <mergeCell ref="J714:K714"/>
+    <mergeCell ref="L714:M714"/>
+    <mergeCell ref="N714:O714"/>
+    <mergeCell ref="G715:I715"/>
+    <mergeCell ref="J715:K715"/>
+    <mergeCell ref="L715:M715"/>
+    <mergeCell ref="N715:O715"/>
+    <mergeCell ref="A692:D700"/>
+    <mergeCell ref="E693:O696"/>
+    <mergeCell ref="E697:O697"/>
+    <mergeCell ref="E698:O698"/>
+    <mergeCell ref="L700:O700"/>
+    <mergeCell ref="L701:O701"/>
+    <mergeCell ref="L702:O702"/>
+    <mergeCell ref="A703:C703"/>
+    <mergeCell ref="D703:F703"/>
+    <mergeCell ref="L703:O703"/>
+    <mergeCell ref="A704:C707"/>
+    <mergeCell ref="D704:F707"/>
+    <mergeCell ref="L704:O704"/>
+    <mergeCell ref="L705:O705"/>
+    <mergeCell ref="G707:O707"/>
+    <mergeCell ref="A708:C711"/>
+    <mergeCell ref="D708:F711"/>
+    <mergeCell ref="G708:I708"/>
+    <mergeCell ref="J708:K708"/>
+    <mergeCell ref="L708:M708"/>
+    <mergeCell ref="N708:O708"/>
+    <mergeCell ref="G709:I709"/>
+    <mergeCell ref="J709:K709"/>
+    <mergeCell ref="L709:M709"/>
+    <mergeCell ref="N709:O709"/>
+    <mergeCell ref="G710:I710"/>
+    <mergeCell ref="J710:K710"/>
+    <mergeCell ref="L710:M710"/>
+    <mergeCell ref="N710:O710"/>
+    <mergeCell ref="G711:I711"/>
+    <mergeCell ref="J711:K711"/>
+    <mergeCell ref="L711:M711"/>
+    <mergeCell ref="A568:C571"/>
+    <mergeCell ref="D568:F571"/>
+    <mergeCell ref="L568:O568"/>
+    <mergeCell ref="L569:O569"/>
+    <mergeCell ref="G575:O575"/>
+    <mergeCell ref="A572:C575"/>
+    <mergeCell ref="D572:F575"/>
+    <mergeCell ref="A580:C583"/>
+    <mergeCell ref="D580:F583"/>
+    <mergeCell ref="N579:O579"/>
+    <mergeCell ref="A576:C579"/>
+    <mergeCell ref="D576:F579"/>
+    <mergeCell ref="G580:I580"/>
+    <mergeCell ref="J580:K580"/>
+    <mergeCell ref="L580:M580"/>
+    <mergeCell ref="N580:O580"/>
+    <mergeCell ref="G581:I581"/>
+    <mergeCell ref="J581:K581"/>
+    <mergeCell ref="L581:M581"/>
+    <mergeCell ref="N581:O581"/>
+    <mergeCell ref="G582:I582"/>
+    <mergeCell ref="J582:K582"/>
+    <mergeCell ref="L582:M582"/>
+    <mergeCell ref="N582:O582"/>
+    <mergeCell ref="G583:I583"/>
+    <mergeCell ref="J583:K583"/>
+    <mergeCell ref="L583:M583"/>
+    <mergeCell ref="N583:O583"/>
+    <mergeCell ref="G576:I576"/>
+    <mergeCell ref="J576:K576"/>
+    <mergeCell ref="L576:M576"/>
+    <mergeCell ref="N576:O576"/>
+    <mergeCell ref="A530:D538"/>
+    <mergeCell ref="E531:O534"/>
+    <mergeCell ref="E535:O535"/>
+    <mergeCell ref="E536:O536"/>
+    <mergeCell ref="L538:O538"/>
+    <mergeCell ref="L539:O539"/>
+    <mergeCell ref="L540:O540"/>
+    <mergeCell ref="A541:C541"/>
+    <mergeCell ref="D541:F541"/>
+    <mergeCell ref="A556:D564"/>
+    <mergeCell ref="E557:O560"/>
+    <mergeCell ref="E561:O561"/>
+    <mergeCell ref="E562:O562"/>
+    <mergeCell ref="L564:O564"/>
+    <mergeCell ref="L565:O565"/>
+    <mergeCell ref="L566:O566"/>
+    <mergeCell ref="A567:C567"/>
+    <mergeCell ref="D567:F567"/>
+    <mergeCell ref="L567:O567"/>
+    <mergeCell ref="D546:F549"/>
+    <mergeCell ref="G550:I550"/>
+    <mergeCell ref="J550:K550"/>
+    <mergeCell ref="L550:M550"/>
+    <mergeCell ref="N550:O550"/>
+    <mergeCell ref="G551:I551"/>
+    <mergeCell ref="J551:K551"/>
+    <mergeCell ref="L548:M548"/>
+    <mergeCell ref="N548:O548"/>
+    <mergeCell ref="G549:I549"/>
+    <mergeCell ref="J549:K549"/>
+    <mergeCell ref="L549:M549"/>
+    <mergeCell ref="N549:O549"/>
+    <mergeCell ref="A524:C527"/>
+    <mergeCell ref="D524:F527"/>
+    <mergeCell ref="G524:I524"/>
+    <mergeCell ref="J524:K524"/>
+    <mergeCell ref="L524:M524"/>
+    <mergeCell ref="N524:O524"/>
+    <mergeCell ref="G525:I525"/>
+    <mergeCell ref="J525:K525"/>
+    <mergeCell ref="L525:M525"/>
+    <mergeCell ref="N525:O525"/>
+    <mergeCell ref="G526:I526"/>
+    <mergeCell ref="J526:K526"/>
+    <mergeCell ref="L526:M526"/>
+    <mergeCell ref="N526:O526"/>
+    <mergeCell ref="G527:I527"/>
+    <mergeCell ref="J527:K527"/>
+    <mergeCell ref="L527:M527"/>
+    <mergeCell ref="N527:O527"/>
+    <mergeCell ref="A515:C515"/>
+    <mergeCell ref="D515:F515"/>
+    <mergeCell ref="L515:O515"/>
+    <mergeCell ref="A516:C519"/>
+    <mergeCell ref="D516:F519"/>
+    <mergeCell ref="L516:O516"/>
+    <mergeCell ref="L517:O517"/>
+    <mergeCell ref="G519:O519"/>
+    <mergeCell ref="A520:C523"/>
+    <mergeCell ref="D520:F523"/>
+    <mergeCell ref="G520:I520"/>
+    <mergeCell ref="J520:K520"/>
+    <mergeCell ref="L520:M520"/>
+    <mergeCell ref="N520:O520"/>
+    <mergeCell ref="G521:I521"/>
+    <mergeCell ref="J521:K521"/>
+    <mergeCell ref="L521:M521"/>
+    <mergeCell ref="N521:O521"/>
+    <mergeCell ref="G522:I522"/>
+    <mergeCell ref="J522:K522"/>
+    <mergeCell ref="L522:M522"/>
+    <mergeCell ref="N522:O522"/>
+    <mergeCell ref="G523:I523"/>
+    <mergeCell ref="J523:K523"/>
+    <mergeCell ref="L523:M523"/>
+    <mergeCell ref="N523:O523"/>
+    <mergeCell ref="A472:C475"/>
+    <mergeCell ref="D472:F475"/>
+    <mergeCell ref="G472:I472"/>
+    <mergeCell ref="J472:K472"/>
+    <mergeCell ref="L472:M472"/>
+    <mergeCell ref="N472:O472"/>
+    <mergeCell ref="G473:I473"/>
+    <mergeCell ref="J473:K473"/>
+    <mergeCell ref="L473:M473"/>
+    <mergeCell ref="N473:O473"/>
+    <mergeCell ref="G474:I474"/>
+    <mergeCell ref="J474:K474"/>
+    <mergeCell ref="L474:M474"/>
+    <mergeCell ref="N474:O474"/>
+    <mergeCell ref="G475:I475"/>
+    <mergeCell ref="J475:K475"/>
+    <mergeCell ref="L475:M475"/>
+    <mergeCell ref="N475:O475"/>
+    <mergeCell ref="L460:O460"/>
+    <mergeCell ref="L461:O461"/>
+    <mergeCell ref="L462:O462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="D463:F463"/>
+    <mergeCell ref="L463:O463"/>
+    <mergeCell ref="A464:C467"/>
+    <mergeCell ref="D464:F467"/>
+    <mergeCell ref="L464:O464"/>
+    <mergeCell ref="L465:O465"/>
+    <mergeCell ref="G467:O467"/>
+    <mergeCell ref="A468:C471"/>
+    <mergeCell ref="D468:F471"/>
+    <mergeCell ref="G468:I468"/>
+    <mergeCell ref="J468:K468"/>
+    <mergeCell ref="L468:M468"/>
+    <mergeCell ref="N468:O468"/>
+    <mergeCell ref="G469:I469"/>
+    <mergeCell ref="J469:K469"/>
+    <mergeCell ref="L469:M469"/>
+    <mergeCell ref="N469:O469"/>
+    <mergeCell ref="G470:I470"/>
+    <mergeCell ref="J470:K470"/>
+    <mergeCell ref="L470:M470"/>
+    <mergeCell ref="N470:O470"/>
+    <mergeCell ref="G471:I471"/>
+    <mergeCell ref="J471:K471"/>
+    <mergeCell ref="L471:M471"/>
+    <mergeCell ref="N471:O471"/>
+    <mergeCell ref="N419:O419"/>
+    <mergeCell ref="A420:C423"/>
+    <mergeCell ref="D420:F423"/>
+    <mergeCell ref="G420:I420"/>
+    <mergeCell ref="J420:K420"/>
+    <mergeCell ref="L420:M420"/>
+    <mergeCell ref="N420:O420"/>
+    <mergeCell ref="G421:I421"/>
+    <mergeCell ref="J421:K421"/>
+    <mergeCell ref="L421:M421"/>
+    <mergeCell ref="N421:O421"/>
+    <mergeCell ref="G422:I422"/>
+    <mergeCell ref="J422:K422"/>
+    <mergeCell ref="L422:M422"/>
+    <mergeCell ref="N422:O422"/>
+    <mergeCell ref="G423:I423"/>
+    <mergeCell ref="J423:K423"/>
+    <mergeCell ref="L423:M423"/>
+    <mergeCell ref="N423:O423"/>
+    <mergeCell ref="A400:D408"/>
+    <mergeCell ref="E401:O404"/>
+    <mergeCell ref="E405:O405"/>
+    <mergeCell ref="E406:O406"/>
+    <mergeCell ref="L408:O408"/>
+    <mergeCell ref="L409:O409"/>
+    <mergeCell ref="L410:O410"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="D411:F411"/>
+    <mergeCell ref="L411:O411"/>
+    <mergeCell ref="A412:C415"/>
+    <mergeCell ref="D412:F415"/>
+    <mergeCell ref="L412:O412"/>
+    <mergeCell ref="L413:O413"/>
+    <mergeCell ref="G415:O415"/>
+    <mergeCell ref="A416:C419"/>
+    <mergeCell ref="D416:F419"/>
+    <mergeCell ref="G416:I416"/>
+    <mergeCell ref="J416:K416"/>
+    <mergeCell ref="L416:M416"/>
+    <mergeCell ref="N416:O416"/>
+    <mergeCell ref="G417:I417"/>
+    <mergeCell ref="J417:K417"/>
+    <mergeCell ref="L417:M417"/>
+    <mergeCell ref="N417:O417"/>
+    <mergeCell ref="G418:I418"/>
+    <mergeCell ref="J418:K418"/>
+    <mergeCell ref="L418:M418"/>
+    <mergeCell ref="N418:O418"/>
+    <mergeCell ref="G419:I419"/>
+    <mergeCell ref="J419:K419"/>
+    <mergeCell ref="L419:M419"/>
+    <mergeCell ref="A394:C397"/>
+    <mergeCell ref="D394:F397"/>
+    <mergeCell ref="G394:I394"/>
+    <mergeCell ref="J394:K394"/>
+    <mergeCell ref="L394:M394"/>
+    <mergeCell ref="N394:O394"/>
+    <mergeCell ref="G395:I395"/>
+    <mergeCell ref="J395:K395"/>
+    <mergeCell ref="L395:M395"/>
+    <mergeCell ref="N395:O395"/>
+    <mergeCell ref="G396:I396"/>
+    <mergeCell ref="J396:K396"/>
+    <mergeCell ref="L396:M396"/>
+    <mergeCell ref="N396:O396"/>
+    <mergeCell ref="G397:I397"/>
+    <mergeCell ref="J397:K397"/>
+    <mergeCell ref="L397:M397"/>
+    <mergeCell ref="N397:O397"/>
+    <mergeCell ref="L382:O382"/>
+    <mergeCell ref="L383:O383"/>
+    <mergeCell ref="L384:O384"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="D385:F385"/>
+    <mergeCell ref="L385:O385"/>
+    <mergeCell ref="A386:C389"/>
+    <mergeCell ref="D386:F389"/>
+    <mergeCell ref="L386:O386"/>
+    <mergeCell ref="L387:O387"/>
+    <mergeCell ref="G389:O389"/>
+    <mergeCell ref="A390:C393"/>
+    <mergeCell ref="D390:F393"/>
+    <mergeCell ref="G390:I390"/>
+    <mergeCell ref="J390:K390"/>
+    <mergeCell ref="L390:M390"/>
+    <mergeCell ref="N390:O390"/>
+    <mergeCell ref="G391:I391"/>
+    <mergeCell ref="J391:K391"/>
+    <mergeCell ref="L391:M391"/>
+    <mergeCell ref="N391:O391"/>
+    <mergeCell ref="G392:I392"/>
+    <mergeCell ref="J392:K392"/>
+    <mergeCell ref="L392:M392"/>
+    <mergeCell ref="N392:O392"/>
+    <mergeCell ref="G393:I393"/>
+    <mergeCell ref="J393:K393"/>
+    <mergeCell ref="L393:M393"/>
+    <mergeCell ref="N393:O393"/>
+    <mergeCell ref="A342:C345"/>
+    <mergeCell ref="D342:F345"/>
+    <mergeCell ref="G342:I342"/>
+    <mergeCell ref="J342:K342"/>
+    <mergeCell ref="L342:M342"/>
+    <mergeCell ref="N342:O342"/>
+    <mergeCell ref="G343:I343"/>
+    <mergeCell ref="J343:K343"/>
+    <mergeCell ref="L343:M343"/>
+    <mergeCell ref="N343:O343"/>
+    <mergeCell ref="G344:I344"/>
+    <mergeCell ref="J344:K344"/>
+    <mergeCell ref="L344:M344"/>
+    <mergeCell ref="N344:O344"/>
+    <mergeCell ref="G345:I345"/>
+    <mergeCell ref="J345:K345"/>
+    <mergeCell ref="L345:M345"/>
+    <mergeCell ref="N345:O345"/>
+    <mergeCell ref="L330:O330"/>
+    <mergeCell ref="L331:O331"/>
+    <mergeCell ref="L332:O332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="L333:O333"/>
+    <mergeCell ref="A334:C337"/>
+    <mergeCell ref="D334:F337"/>
+    <mergeCell ref="L334:O334"/>
+    <mergeCell ref="L335:O335"/>
+    <mergeCell ref="G337:O337"/>
+    <mergeCell ref="A338:C341"/>
+    <mergeCell ref="D338:F341"/>
+    <mergeCell ref="G338:I338"/>
+    <mergeCell ref="J338:K338"/>
+    <mergeCell ref="L338:M338"/>
+    <mergeCell ref="N338:O338"/>
+    <mergeCell ref="G339:I339"/>
+    <mergeCell ref="J339:K339"/>
+    <mergeCell ref="L339:M339"/>
+    <mergeCell ref="N339:O339"/>
+    <mergeCell ref="G340:I340"/>
+    <mergeCell ref="J340:K340"/>
+    <mergeCell ref="L340:M340"/>
+    <mergeCell ref="N340:O340"/>
+    <mergeCell ref="G341:I341"/>
+    <mergeCell ref="J341:K341"/>
+    <mergeCell ref="L341:M341"/>
+    <mergeCell ref="N341:O341"/>
+    <mergeCell ref="G289:I289"/>
+    <mergeCell ref="J289:K289"/>
+    <mergeCell ref="L289:M289"/>
+    <mergeCell ref="N289:O289"/>
+    <mergeCell ref="G290:I290"/>
+    <mergeCell ref="J290:K290"/>
+    <mergeCell ref="L290:M290"/>
+    <mergeCell ref="N290:O290"/>
+    <mergeCell ref="G291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="L291:M291"/>
+    <mergeCell ref="N291:O291"/>
+    <mergeCell ref="Q266:U267"/>
+    <mergeCell ref="Q269:U271"/>
+    <mergeCell ref="Q272:U274"/>
+    <mergeCell ref="Q275:U277"/>
+    <mergeCell ref="Q278:U280"/>
+    <mergeCell ref="Q281:U283"/>
+    <mergeCell ref="Q284:U286"/>
+    <mergeCell ref="Q287:U289"/>
+    <mergeCell ref="Q290:U291"/>
+    <mergeCell ref="L270:O270"/>
+    <mergeCell ref="L271:O271"/>
+    <mergeCell ref="L272:O272"/>
+    <mergeCell ref="A286:C289"/>
+    <mergeCell ref="D286:F289"/>
+    <mergeCell ref="A290:C293"/>
+    <mergeCell ref="D290:F293"/>
+    <mergeCell ref="G284:I284"/>
+    <mergeCell ref="J284:K284"/>
+    <mergeCell ref="L284:M284"/>
+    <mergeCell ref="N284:O284"/>
+    <mergeCell ref="G285:I285"/>
+    <mergeCell ref="J285:K285"/>
+    <mergeCell ref="L285:M285"/>
+    <mergeCell ref="N285:O285"/>
+    <mergeCell ref="G286:I286"/>
+    <mergeCell ref="J286:K286"/>
+    <mergeCell ref="L286:M286"/>
+    <mergeCell ref="N286:O286"/>
+    <mergeCell ref="G287:I287"/>
+    <mergeCell ref="J287:K287"/>
+    <mergeCell ref="L287:M287"/>
+    <mergeCell ref="N287:O287"/>
+    <mergeCell ref="G288:I288"/>
+    <mergeCell ref="J288:K288"/>
+    <mergeCell ref="L288:M288"/>
+    <mergeCell ref="N288:O288"/>
+    <mergeCell ref="G292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="L292:M292"/>
+    <mergeCell ref="N292:O292"/>
+    <mergeCell ref="G293:I293"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="L293:M293"/>
+    <mergeCell ref="N293:O293"/>
+    <mergeCell ref="A282:C285"/>
+    <mergeCell ref="D282:F285"/>
+    <mergeCell ref="G280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="L280:M280"/>
+    <mergeCell ref="N281:O281"/>
+    <mergeCell ref="G281:I281"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="L281:M281"/>
+    <mergeCell ref="N282:O282"/>
+    <mergeCell ref="G282:I282"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="L282:M282"/>
+    <mergeCell ref="G283:I283"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="L283:M283"/>
+    <mergeCell ref="N283:O283"/>
+    <mergeCell ref="N280:O280"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="D273:F273"/>
+    <mergeCell ref="L273:O273"/>
+    <mergeCell ref="A274:C277"/>
+    <mergeCell ref="D274:F277"/>
+    <mergeCell ref="L274:O274"/>
+    <mergeCell ref="L275:O275"/>
+    <mergeCell ref="G277:O277"/>
+    <mergeCell ref="A278:C281"/>
+    <mergeCell ref="D278:F281"/>
+    <mergeCell ref="G278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="L278:M278"/>
+    <mergeCell ref="N278:O278"/>
+    <mergeCell ref="G279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="L279:M279"/>
+    <mergeCell ref="N279:O279"/>
+    <mergeCell ref="G232:I232"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="L232:M232"/>
+    <mergeCell ref="N232:O232"/>
+    <mergeCell ref="G233:I233"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="N233:O233"/>
+    <mergeCell ref="A230:C233"/>
+    <mergeCell ref="D230:F233"/>
+    <mergeCell ref="G230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="N230:O230"/>
+    <mergeCell ref="G231:I231"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="L231:M231"/>
+    <mergeCell ref="N231:O231"/>
+    <mergeCell ref="L220:O220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="L221:O221"/>
+    <mergeCell ref="A222:C225"/>
+    <mergeCell ref="D222:F225"/>
+    <mergeCell ref="L222:O222"/>
+    <mergeCell ref="L223:O223"/>
+    <mergeCell ref="G225:O225"/>
+    <mergeCell ref="G228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="L228:M228"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="G229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="L229:M229"/>
+    <mergeCell ref="N229:O229"/>
+    <mergeCell ref="A226:C229"/>
+    <mergeCell ref="D226:F229"/>
+    <mergeCell ref="G226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="L226:M226"/>
+    <mergeCell ref="N226:O226"/>
+    <mergeCell ref="G227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="L227:M227"/>
+    <mergeCell ref="N227:O227"/>
+    <mergeCell ref="A210:D218"/>
+    <mergeCell ref="E211:O214"/>
+    <mergeCell ref="E215:O215"/>
+    <mergeCell ref="E216:O216"/>
+    <mergeCell ref="L218:O218"/>
+    <mergeCell ref="L219:O219"/>
+    <mergeCell ref="G206:I206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="N206:O206"/>
+    <mergeCell ref="G207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="A204:C207"/>
+    <mergeCell ref="D204:F207"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="L204:M204"/>
+    <mergeCell ref="N204:O204"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="L205:M205"/>
+    <mergeCell ref="N205:O205"/>
+    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="L195:O195"/>
+    <mergeCell ref="A196:C199"/>
+    <mergeCell ref="D196:F199"/>
+    <mergeCell ref="L196:O196"/>
+    <mergeCell ref="L197:O197"/>
+    <mergeCell ref="G199:O199"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="L202:M202"/>
+    <mergeCell ref="N202:O202"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="N203:O203"/>
+    <mergeCell ref="A200:C203"/>
+    <mergeCell ref="D200:F203"/>
+    <mergeCell ref="G200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="L200:M200"/>
+    <mergeCell ref="N200:O200"/>
+    <mergeCell ref="G201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="L201:M201"/>
+    <mergeCell ref="N201:O201"/>
+    <mergeCell ref="A184:D192"/>
+    <mergeCell ref="E185:O188"/>
+    <mergeCell ref="E189:O189"/>
+    <mergeCell ref="E190:O190"/>
+    <mergeCell ref="L192:O192"/>
+    <mergeCell ref="L193:O193"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="G180:I180"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="N180:O180"/>
+    <mergeCell ref="A177:C180"/>
+    <mergeCell ref="D177:F180"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="L177:M177"/>
+    <mergeCell ref="N177:O177"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="L178:M178"/>
+    <mergeCell ref="N178:O178"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="A169:C172"/>
+    <mergeCell ref="D169:F172"/>
+    <mergeCell ref="L169:O169"/>
+    <mergeCell ref="L170:O170"/>
+    <mergeCell ref="G172:O172"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="L175:M175"/>
+    <mergeCell ref="N175:O175"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="L176:M176"/>
+    <mergeCell ref="N176:O176"/>
+    <mergeCell ref="A173:C176"/>
+    <mergeCell ref="D173:F176"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="N173:O173"/>
+    <mergeCell ref="G174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="L174:M174"/>
+    <mergeCell ref="N174:O174"/>
+    <mergeCell ref="A157:D165"/>
+    <mergeCell ref="E158:O161"/>
+    <mergeCell ref="E162:O162"/>
+    <mergeCell ref="E163:O163"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="A151:C154"/>
+    <mergeCell ref="D151:F154"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="L142:O142"/>
+    <mergeCell ref="A143:C146"/>
+    <mergeCell ref="D143:F146"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="G146:O146"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="G150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="A147:C150"/>
+    <mergeCell ref="D147:F150"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A131:D139"/>
+    <mergeCell ref="E132:O135"/>
+    <mergeCell ref="E136:O136"/>
+    <mergeCell ref="E137:O137"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A125:C128"/>
+    <mergeCell ref="D125:F128"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="A117:C120"/>
+    <mergeCell ref="D117:F120"/>
+    <mergeCell ref="L117:O117"/>
+    <mergeCell ref="L118:O118"/>
+    <mergeCell ref="G120:O120"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A121:C124"/>
+    <mergeCell ref="D121:F124"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A105:D113"/>
+    <mergeCell ref="E106:O109"/>
+    <mergeCell ref="E110:O110"/>
+    <mergeCell ref="E111:O111"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A99:C102"/>
+    <mergeCell ref="D99:F102"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="A91:C94"/>
+    <mergeCell ref="D91:F94"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="G94:O94"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A95:C98"/>
+    <mergeCell ref="D95:F98"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A79:D87"/>
+    <mergeCell ref="E80:O83"/>
+    <mergeCell ref="E84:O84"/>
+    <mergeCell ref="E85:O85"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A73:C76"/>
+    <mergeCell ref="D73:F76"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="A65:C68"/>
+    <mergeCell ref="D65:F68"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="G68:O68"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A69:C72"/>
+    <mergeCell ref="D69:F72"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A53:D61"/>
+    <mergeCell ref="E54:O57"/>
+    <mergeCell ref="E58:O58"/>
+    <mergeCell ref="E59:O59"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="A47:C50"/>
+    <mergeCell ref="D47:F50"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D21:F24"/>
+    <mergeCell ref="A43:C46"/>
+    <mergeCell ref="D43:F46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="A39:C42"/>
+    <mergeCell ref="D39:F42"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A27:D35"/>
+    <mergeCell ref="E28:O31"/>
+    <mergeCell ref="E32:O32"/>
+    <mergeCell ref="E33:O33"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A236:D244"/>
+    <mergeCell ref="E237:O240"/>
+    <mergeCell ref="E241:O241"/>
+    <mergeCell ref="E242:O242"/>
+    <mergeCell ref="L244:O244"/>
+    <mergeCell ref="L245:O245"/>
+    <mergeCell ref="L246:O246"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="D247:F247"/>
+    <mergeCell ref="L247:O247"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="E6:O6"/>
+    <mergeCell ref="E7:O7"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="A1:D9"/>
+    <mergeCell ref="E2:O5"/>
+    <mergeCell ref="A13:C16"/>
+    <mergeCell ref="A17:C20"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="D17:F20"/>
+    <mergeCell ref="A21:C24"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A248:C251"/>
+    <mergeCell ref="D248:F251"/>
+    <mergeCell ref="L248:O248"/>
+    <mergeCell ref="L249:O249"/>
+    <mergeCell ref="G251:O251"/>
+    <mergeCell ref="A252:C255"/>
+    <mergeCell ref="D252:F255"/>
+    <mergeCell ref="G252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="L252:M252"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="G253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="L253:M253"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="G254:I254"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="L254:M254"/>
+    <mergeCell ref="N254:O254"/>
+    <mergeCell ref="G255:I255"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="L255:M255"/>
+    <mergeCell ref="N255:O255"/>
+    <mergeCell ref="A296:D304"/>
+    <mergeCell ref="E297:O300"/>
+    <mergeCell ref="E301:O301"/>
+    <mergeCell ref="E302:O302"/>
+    <mergeCell ref="L304:O304"/>
+    <mergeCell ref="L305:O305"/>
+    <mergeCell ref="L306:O306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="D307:F307"/>
+    <mergeCell ref="L307:O307"/>
+    <mergeCell ref="A256:C259"/>
+    <mergeCell ref="D256:F259"/>
+    <mergeCell ref="G256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="L256:M256"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="G257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="L257:M257"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="G258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="L258:M258"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="G259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="L259:M259"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="A262:D270"/>
+    <mergeCell ref="E263:O266"/>
+    <mergeCell ref="E267:O267"/>
+    <mergeCell ref="E268:O268"/>
+    <mergeCell ref="A308:C311"/>
+    <mergeCell ref="D308:F311"/>
+    <mergeCell ref="L308:O308"/>
+    <mergeCell ref="L309:O309"/>
+    <mergeCell ref="G311:O311"/>
+    <mergeCell ref="A312:C315"/>
+    <mergeCell ref="D312:F315"/>
+    <mergeCell ref="G312:I312"/>
+    <mergeCell ref="J312:K312"/>
+    <mergeCell ref="L312:M312"/>
+    <mergeCell ref="N312:O312"/>
+    <mergeCell ref="G313:I313"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="L313:M313"/>
+    <mergeCell ref="N313:O313"/>
+    <mergeCell ref="G314:I314"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="L314:M314"/>
+    <mergeCell ref="N314:O314"/>
+    <mergeCell ref="G315:I315"/>
+    <mergeCell ref="J315:K315"/>
+    <mergeCell ref="L315:M315"/>
+    <mergeCell ref="N315:O315"/>
+    <mergeCell ref="A348:D356"/>
+    <mergeCell ref="E349:O352"/>
+    <mergeCell ref="E353:O353"/>
+    <mergeCell ref="E354:O354"/>
+    <mergeCell ref="L356:O356"/>
+    <mergeCell ref="L357:O357"/>
+    <mergeCell ref="L358:O358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="D359:F359"/>
+    <mergeCell ref="L359:O359"/>
+    <mergeCell ref="A316:C319"/>
+    <mergeCell ref="D316:F319"/>
+    <mergeCell ref="G316:I316"/>
+    <mergeCell ref="J316:K316"/>
+    <mergeCell ref="L316:M316"/>
+    <mergeCell ref="N316:O316"/>
+    <mergeCell ref="G317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="L317:M317"/>
+    <mergeCell ref="N317:O317"/>
+    <mergeCell ref="G318:I318"/>
+    <mergeCell ref="J318:K318"/>
+    <mergeCell ref="L318:M318"/>
+    <mergeCell ref="N318:O318"/>
+    <mergeCell ref="G319:I319"/>
+    <mergeCell ref="J319:K319"/>
+    <mergeCell ref="L319:M319"/>
+    <mergeCell ref="N319:O319"/>
+    <mergeCell ref="A322:D330"/>
+    <mergeCell ref="E323:O326"/>
+    <mergeCell ref="E327:O327"/>
+    <mergeCell ref="E328:O328"/>
+    <mergeCell ref="A360:C363"/>
+    <mergeCell ref="D360:F363"/>
+    <mergeCell ref="L360:O360"/>
+    <mergeCell ref="L361:O361"/>
+    <mergeCell ref="G363:O363"/>
+    <mergeCell ref="A364:C367"/>
+    <mergeCell ref="D364:F367"/>
+    <mergeCell ref="G364:I364"/>
+    <mergeCell ref="J364:K364"/>
+    <mergeCell ref="L364:M364"/>
+    <mergeCell ref="N364:O364"/>
+    <mergeCell ref="G365:I365"/>
+    <mergeCell ref="J365:K365"/>
+    <mergeCell ref="L365:M365"/>
+    <mergeCell ref="N365:O365"/>
+    <mergeCell ref="G366:I366"/>
+    <mergeCell ref="J366:K366"/>
+    <mergeCell ref="L366:M366"/>
+    <mergeCell ref="N366:O366"/>
+    <mergeCell ref="G367:I367"/>
+    <mergeCell ref="J367:K367"/>
+    <mergeCell ref="L367:M367"/>
+    <mergeCell ref="N367:O367"/>
+    <mergeCell ref="A426:D434"/>
+    <mergeCell ref="E427:O430"/>
+    <mergeCell ref="E431:O431"/>
+    <mergeCell ref="E432:O432"/>
+    <mergeCell ref="L434:O434"/>
+    <mergeCell ref="L435:O435"/>
+    <mergeCell ref="L436:O436"/>
+    <mergeCell ref="A437:C437"/>
+    <mergeCell ref="D437:F437"/>
+    <mergeCell ref="L437:O437"/>
+    <mergeCell ref="A368:C371"/>
+    <mergeCell ref="D368:F371"/>
+    <mergeCell ref="G368:I368"/>
+    <mergeCell ref="J368:K368"/>
+    <mergeCell ref="L368:M368"/>
+    <mergeCell ref="N368:O368"/>
+    <mergeCell ref="G369:I369"/>
+    <mergeCell ref="J369:K369"/>
+    <mergeCell ref="L369:M369"/>
+    <mergeCell ref="N369:O369"/>
+    <mergeCell ref="G370:I370"/>
+    <mergeCell ref="J370:K370"/>
+    <mergeCell ref="L370:M370"/>
+    <mergeCell ref="N370:O370"/>
+    <mergeCell ref="G371:I371"/>
+    <mergeCell ref="J371:K371"/>
+    <mergeCell ref="L371:M371"/>
+    <mergeCell ref="N371:O371"/>
+    <mergeCell ref="A374:D382"/>
+    <mergeCell ref="E375:O378"/>
+    <mergeCell ref="E379:O379"/>
+    <mergeCell ref="E380:O380"/>
+    <mergeCell ref="A438:C441"/>
+    <mergeCell ref="D438:F441"/>
+    <mergeCell ref="L438:O438"/>
+    <mergeCell ref="L439:O439"/>
+    <mergeCell ref="G441:O441"/>
+    <mergeCell ref="A442:C445"/>
+    <mergeCell ref="D442:F445"/>
+    <mergeCell ref="G442:I442"/>
+    <mergeCell ref="J442:K442"/>
+    <mergeCell ref="L442:M442"/>
+    <mergeCell ref="N442:O442"/>
+    <mergeCell ref="G443:I443"/>
+    <mergeCell ref="J443:K443"/>
+    <mergeCell ref="L443:M443"/>
+    <mergeCell ref="N443:O443"/>
+    <mergeCell ref="G444:I444"/>
+    <mergeCell ref="J444:K444"/>
+    <mergeCell ref="L444:M444"/>
+    <mergeCell ref="N444:O444"/>
+    <mergeCell ref="G445:I445"/>
+    <mergeCell ref="J445:K445"/>
+    <mergeCell ref="L445:M445"/>
+    <mergeCell ref="N445:O445"/>
+    <mergeCell ref="A478:D486"/>
+    <mergeCell ref="E479:O482"/>
+    <mergeCell ref="E483:O483"/>
+    <mergeCell ref="E484:O484"/>
+    <mergeCell ref="L486:O486"/>
+    <mergeCell ref="L487:O487"/>
+    <mergeCell ref="L488:O488"/>
+    <mergeCell ref="A489:C489"/>
+    <mergeCell ref="D489:F489"/>
+    <mergeCell ref="L489:O489"/>
+    <mergeCell ref="A446:C449"/>
+    <mergeCell ref="D446:F449"/>
+    <mergeCell ref="G446:I446"/>
+    <mergeCell ref="J446:K446"/>
+    <mergeCell ref="L446:M446"/>
+    <mergeCell ref="N446:O446"/>
+    <mergeCell ref="G447:I447"/>
+    <mergeCell ref="J447:K447"/>
+    <mergeCell ref="L447:M447"/>
+    <mergeCell ref="N447:O447"/>
+    <mergeCell ref="G448:I448"/>
+    <mergeCell ref="J448:K448"/>
+    <mergeCell ref="L448:M448"/>
+    <mergeCell ref="N448:O448"/>
+    <mergeCell ref="G449:I449"/>
+    <mergeCell ref="J449:K449"/>
+    <mergeCell ref="L449:M449"/>
+    <mergeCell ref="N449:O449"/>
+    <mergeCell ref="A452:D460"/>
+    <mergeCell ref="E453:O456"/>
+    <mergeCell ref="E457:O457"/>
+    <mergeCell ref="E458:O458"/>
+    <mergeCell ref="A490:C493"/>
+    <mergeCell ref="D490:F493"/>
+    <mergeCell ref="L490:O490"/>
+    <mergeCell ref="L491:O491"/>
+    <mergeCell ref="G493:O493"/>
+    <mergeCell ref="A494:C497"/>
+    <mergeCell ref="D494:F497"/>
+    <mergeCell ref="G494:I494"/>
+    <mergeCell ref="J494:K494"/>
+    <mergeCell ref="L494:M494"/>
+    <mergeCell ref="N494:O494"/>
+    <mergeCell ref="G495:I495"/>
+    <mergeCell ref="J495:K495"/>
+    <mergeCell ref="L495:M495"/>
+    <mergeCell ref="N495:O495"/>
+    <mergeCell ref="G496:I496"/>
+    <mergeCell ref="J496:K496"/>
+    <mergeCell ref="L496:M496"/>
+    <mergeCell ref="N496:O496"/>
+    <mergeCell ref="G497:I497"/>
+    <mergeCell ref="J497:K497"/>
+    <mergeCell ref="L497:M497"/>
+    <mergeCell ref="N497:O497"/>
+    <mergeCell ref="A498:C501"/>
+    <mergeCell ref="D498:F501"/>
+    <mergeCell ref="G498:I498"/>
+    <mergeCell ref="J498:K498"/>
+    <mergeCell ref="L498:M498"/>
+    <mergeCell ref="N498:O498"/>
+    <mergeCell ref="G499:I499"/>
+    <mergeCell ref="J499:K499"/>
+    <mergeCell ref="L499:M499"/>
+    <mergeCell ref="N499:O499"/>
+    <mergeCell ref="G500:I500"/>
+    <mergeCell ref="J500:K500"/>
+    <mergeCell ref="L500:M500"/>
+    <mergeCell ref="N500:O500"/>
+    <mergeCell ref="G501:I501"/>
+    <mergeCell ref="J501:K501"/>
+    <mergeCell ref="L501:M501"/>
+    <mergeCell ref="N501:O501"/>
+    <mergeCell ref="A504:D512"/>
+    <mergeCell ref="E505:O508"/>
+    <mergeCell ref="E509:O509"/>
+    <mergeCell ref="E510:O510"/>
+    <mergeCell ref="L512:O512"/>
+    <mergeCell ref="L513:O513"/>
+    <mergeCell ref="L514:O514"/>
+    <mergeCell ref="A586:D594"/>
+    <mergeCell ref="E587:O590"/>
+    <mergeCell ref="E591:O591"/>
+    <mergeCell ref="E592:O592"/>
+    <mergeCell ref="L594:O594"/>
+    <mergeCell ref="L595:O595"/>
+    <mergeCell ref="L596:O596"/>
+    <mergeCell ref="L541:O541"/>
+    <mergeCell ref="A542:C545"/>
+    <mergeCell ref="D542:F545"/>
+    <mergeCell ref="L542:O542"/>
+    <mergeCell ref="L543:O543"/>
+    <mergeCell ref="G545:O545"/>
+    <mergeCell ref="A546:C549"/>
+    <mergeCell ref="D550:F553"/>
+    <mergeCell ref="G546:I546"/>
+    <mergeCell ref="J546:K546"/>
+    <mergeCell ref="L546:M546"/>
+    <mergeCell ref="N546:O546"/>
+    <mergeCell ref="G547:I547"/>
+    <mergeCell ref="J547:K547"/>
+    <mergeCell ref="L547:M547"/>
+    <mergeCell ref="N547:O547"/>
+    <mergeCell ref="G548:I548"/>
+    <mergeCell ref="J548:K548"/>
+    <mergeCell ref="A550:C553"/>
+    <mergeCell ref="G603:I603"/>
+    <mergeCell ref="J603:K603"/>
+    <mergeCell ref="L603:M603"/>
+    <mergeCell ref="N603:O603"/>
+    <mergeCell ref="G604:I604"/>
+    <mergeCell ref="J604:K604"/>
+    <mergeCell ref="L604:M604"/>
+    <mergeCell ref="N604:O604"/>
+    <mergeCell ref="G605:I605"/>
+    <mergeCell ref="J605:K605"/>
+    <mergeCell ref="L605:M605"/>
+    <mergeCell ref="N605:O605"/>
+    <mergeCell ref="L551:M551"/>
+    <mergeCell ref="N551:O551"/>
+    <mergeCell ref="G552:I552"/>
+    <mergeCell ref="J552:K552"/>
+    <mergeCell ref="L552:M552"/>
+    <mergeCell ref="N552:O552"/>
+    <mergeCell ref="G553:I553"/>
+    <mergeCell ref="J553:K553"/>
+    <mergeCell ref="L553:M553"/>
+    <mergeCell ref="N553:O553"/>
+    <mergeCell ref="N578:O578"/>
+    <mergeCell ref="G579:I579"/>
+    <mergeCell ref="J579:K579"/>
+    <mergeCell ref="L579:M579"/>
+    <mergeCell ref="G577:I577"/>
+    <mergeCell ref="J577:K577"/>
+    <mergeCell ref="L577:M577"/>
+    <mergeCell ref="N577:O577"/>
+    <mergeCell ref="G578:I578"/>
+    <mergeCell ref="J578:K578"/>
+    <mergeCell ref="G606:I606"/>
+    <mergeCell ref="J606:K606"/>
+    <mergeCell ref="L606:M606"/>
+    <mergeCell ref="N606:O606"/>
+    <mergeCell ref="G607:I607"/>
+    <mergeCell ref="J607:K607"/>
+    <mergeCell ref="L607:M607"/>
+    <mergeCell ref="N607:O607"/>
+    <mergeCell ref="G608:I608"/>
+    <mergeCell ref="J608:K608"/>
+    <mergeCell ref="L608:M608"/>
+    <mergeCell ref="N608:O608"/>
+    <mergeCell ref="G609:I609"/>
+    <mergeCell ref="J609:K609"/>
+    <mergeCell ref="L609:M609"/>
+    <mergeCell ref="N609:O609"/>
+    <mergeCell ref="L578:M578"/>
+    <mergeCell ref="A597:C597"/>
+    <mergeCell ref="D597:F597"/>
+    <mergeCell ref="L597:O597"/>
+    <mergeCell ref="A598:C601"/>
+    <mergeCell ref="D598:F601"/>
+    <mergeCell ref="L598:O598"/>
+    <mergeCell ref="L599:O599"/>
+    <mergeCell ref="A602:C605"/>
+    <mergeCell ref="D602:F605"/>
+    <mergeCell ref="G601:O601"/>
+    <mergeCell ref="A606:C609"/>
+    <mergeCell ref="D606:F609"/>
+    <mergeCell ref="G602:I602"/>
+    <mergeCell ref="J602:K602"/>
+    <mergeCell ref="L602:M602"/>
+    <mergeCell ref="N602:O602"/>
+    <mergeCell ref="A612:D620"/>
+    <mergeCell ref="E613:O616"/>
+    <mergeCell ref="E617:O617"/>
+    <mergeCell ref="E618:O618"/>
+    <mergeCell ref="L620:O620"/>
+    <mergeCell ref="L621:O621"/>
+    <mergeCell ref="L622:O622"/>
+    <mergeCell ref="A623:C623"/>
+    <mergeCell ref="D623:F623"/>
+    <mergeCell ref="L623:O623"/>
+    <mergeCell ref="A624:C627"/>
+    <mergeCell ref="D624:F627"/>
+    <mergeCell ref="L624:O624"/>
+    <mergeCell ref="L625:O625"/>
+    <mergeCell ref="G627:O627"/>
+    <mergeCell ref="A628:C631"/>
+    <mergeCell ref="D628:F631"/>
+    <mergeCell ref="G628:I628"/>
+    <mergeCell ref="J628:K628"/>
+    <mergeCell ref="L628:M628"/>
+    <mergeCell ref="N628:O628"/>
+    <mergeCell ref="G629:I629"/>
+    <mergeCell ref="J629:K629"/>
+    <mergeCell ref="L629:M629"/>
+    <mergeCell ref="N629:O629"/>
+    <mergeCell ref="G630:I630"/>
+    <mergeCell ref="J630:K630"/>
+    <mergeCell ref="L630:M630"/>
+    <mergeCell ref="N630:O630"/>
+    <mergeCell ref="G631:I631"/>
+    <mergeCell ref="J631:K631"/>
+    <mergeCell ref="L631:M631"/>
+    <mergeCell ref="N631:O631"/>
+    <mergeCell ref="A632:C635"/>
+    <mergeCell ref="D632:F635"/>
+    <mergeCell ref="G632:I632"/>
+    <mergeCell ref="J632:K632"/>
+    <mergeCell ref="L632:M632"/>
+    <mergeCell ref="N632:O632"/>
+    <mergeCell ref="G633:I633"/>
+    <mergeCell ref="J633:K633"/>
+    <mergeCell ref="L633:M633"/>
+    <mergeCell ref="N633:O633"/>
+    <mergeCell ref="G634:I634"/>
+    <mergeCell ref="J634:K634"/>
+    <mergeCell ref="L634:M634"/>
+    <mergeCell ref="N634:O634"/>
+    <mergeCell ref="G635:I635"/>
+    <mergeCell ref="J635:K635"/>
+    <mergeCell ref="L635:M635"/>
+    <mergeCell ref="N635:O635"/>
+    <mergeCell ref="A664:D672"/>
+    <mergeCell ref="E665:O668"/>
+    <mergeCell ref="E669:O669"/>
+    <mergeCell ref="E670:O670"/>
+    <mergeCell ref="L672:O672"/>
+    <mergeCell ref="L673:O673"/>
+    <mergeCell ref="L674:O674"/>
+    <mergeCell ref="A675:C675"/>
+    <mergeCell ref="D675:F675"/>
+    <mergeCell ref="L675:O675"/>
+    <mergeCell ref="A676:C679"/>
+    <mergeCell ref="D676:F679"/>
+    <mergeCell ref="L676:O676"/>
+    <mergeCell ref="L677:O677"/>
+    <mergeCell ref="G679:O679"/>
+    <mergeCell ref="A680:C683"/>
+    <mergeCell ref="D680:F683"/>
+    <mergeCell ref="G680:I680"/>
+    <mergeCell ref="J680:K680"/>
+    <mergeCell ref="L680:M680"/>
+    <mergeCell ref="N680:O680"/>
+    <mergeCell ref="G681:I681"/>
+    <mergeCell ref="J681:K681"/>
+    <mergeCell ref="L681:M681"/>
+    <mergeCell ref="N681:O681"/>
+    <mergeCell ref="G682:I682"/>
+    <mergeCell ref="J682:K682"/>
+    <mergeCell ref="L682:M682"/>
+    <mergeCell ref="N682:O682"/>
+    <mergeCell ref="G683:I683"/>
+    <mergeCell ref="J683:K683"/>
+    <mergeCell ref="L683:M683"/>
+    <mergeCell ref="N683:O683"/>
+    <mergeCell ref="A684:C687"/>
+    <mergeCell ref="D684:F687"/>
+    <mergeCell ref="G684:I684"/>
+    <mergeCell ref="J684:K684"/>
+    <mergeCell ref="L684:M684"/>
+    <mergeCell ref="N684:O684"/>
+    <mergeCell ref="G685:I685"/>
+    <mergeCell ref="J685:K685"/>
+    <mergeCell ref="L685:M685"/>
+    <mergeCell ref="N685:O685"/>
+    <mergeCell ref="G686:I686"/>
+    <mergeCell ref="J686:K686"/>
+    <mergeCell ref="L686:M686"/>
+    <mergeCell ref="N686:O686"/>
+    <mergeCell ref="G687:I687"/>
+    <mergeCell ref="J687:K687"/>
+    <mergeCell ref="L687:M687"/>
+    <mergeCell ref="N687:O687"/>
+    <mergeCell ref="A638:D646"/>
+    <mergeCell ref="E639:O642"/>
+    <mergeCell ref="E643:O643"/>
+    <mergeCell ref="E644:O644"/>
+    <mergeCell ref="L646:O646"/>
+    <mergeCell ref="L647:O647"/>
+    <mergeCell ref="L648:O648"/>
+    <mergeCell ref="A649:C649"/>
+    <mergeCell ref="D649:F649"/>
+    <mergeCell ref="L649:O649"/>
+    <mergeCell ref="A650:C653"/>
+    <mergeCell ref="D650:F653"/>
+    <mergeCell ref="L650:O650"/>
+    <mergeCell ref="L651:O651"/>
+    <mergeCell ref="G653:O653"/>
+    <mergeCell ref="A654:C657"/>
+    <mergeCell ref="D654:F657"/>
+    <mergeCell ref="G654:I654"/>
+    <mergeCell ref="J654:K654"/>
+    <mergeCell ref="L654:M654"/>
+    <mergeCell ref="N654:O654"/>
+    <mergeCell ref="G655:I655"/>
+    <mergeCell ref="J655:K655"/>
+    <mergeCell ref="L655:M655"/>
+    <mergeCell ref="N655:O655"/>
+    <mergeCell ref="G656:I656"/>
+    <mergeCell ref="J656:K656"/>
+    <mergeCell ref="L656:M656"/>
+    <mergeCell ref="N656:O656"/>
+    <mergeCell ref="G657:I657"/>
+    <mergeCell ref="J657:K657"/>
+    <mergeCell ref="L657:M657"/>
+    <mergeCell ref="N657:O657"/>
+    <mergeCell ref="A658:C661"/>
+    <mergeCell ref="D658:F661"/>
+    <mergeCell ref="G658:I658"/>
+    <mergeCell ref="J658:K658"/>
+    <mergeCell ref="L658:M658"/>
+    <mergeCell ref="N658:O658"/>
+    <mergeCell ref="G659:I659"/>
+    <mergeCell ref="J659:K659"/>
+    <mergeCell ref="L659:M659"/>
+    <mergeCell ref="N659:O659"/>
+    <mergeCell ref="G660:I660"/>
+    <mergeCell ref="J660:K660"/>
+    <mergeCell ref="L660:M660"/>
+    <mergeCell ref="N660:O660"/>
+    <mergeCell ref="G661:I661"/>
+    <mergeCell ref="J661:K661"/>
+    <mergeCell ref="L661:M661"/>
+    <mergeCell ref="N661:O661"/>
+    <mergeCell ref="A748:D756"/>
+    <mergeCell ref="E749:O752"/>
+    <mergeCell ref="E753:O753"/>
+    <mergeCell ref="E754:O754"/>
+    <mergeCell ref="L756:O756"/>
+    <mergeCell ref="L757:O757"/>
+    <mergeCell ref="L758:O758"/>
+    <mergeCell ref="A759:C759"/>
+    <mergeCell ref="D759:F759"/>
+    <mergeCell ref="L759:O759"/>
+    <mergeCell ref="A760:C763"/>
+    <mergeCell ref="D760:F763"/>
+    <mergeCell ref="L760:O760"/>
+    <mergeCell ref="L761:O761"/>
+    <mergeCell ref="G763:O763"/>
+    <mergeCell ref="A764:C767"/>
+    <mergeCell ref="D764:F767"/>
+    <mergeCell ref="G764:I764"/>
+    <mergeCell ref="J764:K764"/>
+    <mergeCell ref="L764:M764"/>
+    <mergeCell ref="N764:O764"/>
+    <mergeCell ref="G765:I765"/>
+    <mergeCell ref="J765:K765"/>
+    <mergeCell ref="L765:M765"/>
+    <mergeCell ref="N765:O765"/>
+    <mergeCell ref="G766:I766"/>
+    <mergeCell ref="J766:K766"/>
+    <mergeCell ref="L766:M766"/>
+    <mergeCell ref="N766:O766"/>
+    <mergeCell ref="G767:I767"/>
+    <mergeCell ref="J767:K767"/>
+    <mergeCell ref="L767:M767"/>
+    <mergeCell ref="N767:O767"/>
+    <mergeCell ref="A768:C771"/>
+    <mergeCell ref="D768:F771"/>
+    <mergeCell ref="G768:I768"/>
+    <mergeCell ref="J768:K768"/>
+    <mergeCell ref="L768:M768"/>
+    <mergeCell ref="N768:O768"/>
+    <mergeCell ref="G769:I769"/>
+    <mergeCell ref="J769:K769"/>
+    <mergeCell ref="L769:M769"/>
+    <mergeCell ref="N769:O769"/>
+    <mergeCell ref="G770:I770"/>
+    <mergeCell ref="J770:K770"/>
+    <mergeCell ref="L770:M770"/>
+    <mergeCell ref="N770:O770"/>
+    <mergeCell ref="G771:I771"/>
+    <mergeCell ref="J771:K771"/>
+    <mergeCell ref="L771:M771"/>
+    <mergeCell ref="N771:O771"/>
+    <mergeCell ref="A776:D784"/>
+    <mergeCell ref="E777:O780"/>
+    <mergeCell ref="E781:O781"/>
+    <mergeCell ref="E782:O782"/>
+    <mergeCell ref="L784:O784"/>
+    <mergeCell ref="L785:O785"/>
+    <mergeCell ref="L786:O786"/>
+    <mergeCell ref="A787:C787"/>
+    <mergeCell ref="D787:F787"/>
+    <mergeCell ref="L787:O787"/>
+    <mergeCell ref="A788:C791"/>
+    <mergeCell ref="D788:F791"/>
+    <mergeCell ref="L788:O788"/>
+    <mergeCell ref="L789:O789"/>
+    <mergeCell ref="G791:O791"/>
+    <mergeCell ref="A792:C795"/>
+    <mergeCell ref="D792:F795"/>
+    <mergeCell ref="G792:I792"/>
+    <mergeCell ref="J792:K792"/>
+    <mergeCell ref="L792:M792"/>
+    <mergeCell ref="N792:O792"/>
+    <mergeCell ref="G793:I793"/>
+    <mergeCell ref="J793:K793"/>
+    <mergeCell ref="L793:M793"/>
+    <mergeCell ref="N793:O793"/>
+    <mergeCell ref="G794:I794"/>
+    <mergeCell ref="J794:K794"/>
+    <mergeCell ref="L794:M794"/>
+    <mergeCell ref="N794:O794"/>
+    <mergeCell ref="G795:I795"/>
+    <mergeCell ref="J795:K795"/>
+    <mergeCell ref="L795:M795"/>
+    <mergeCell ref="N795:O795"/>
+    <mergeCell ref="A796:C799"/>
+    <mergeCell ref="D796:F799"/>
+    <mergeCell ref="G796:I796"/>
+    <mergeCell ref="J796:K796"/>
+    <mergeCell ref="L796:M796"/>
+    <mergeCell ref="N796:O796"/>
+    <mergeCell ref="G797:I797"/>
+    <mergeCell ref="J797:K797"/>
+    <mergeCell ref="L797:M797"/>
+    <mergeCell ref="N797:O797"/>
+    <mergeCell ref="G798:I798"/>
+    <mergeCell ref="J798:K798"/>
+    <mergeCell ref="L798:M798"/>
+    <mergeCell ref="N798:O798"/>
+    <mergeCell ref="G799:I799"/>
+    <mergeCell ref="J799:K799"/>
+    <mergeCell ref="L799:M799"/>
+    <mergeCell ref="N799:O799"/>
     <mergeCell ref="A944:D952"/>
     <mergeCell ref="E945:O948"/>
     <mergeCell ref="E949:O949"/>
@@ -24639,1838 +27141,25 @@
     <mergeCell ref="G963:I963"/>
     <mergeCell ref="J963:K963"/>
     <mergeCell ref="L963:M963"/>
-    <mergeCell ref="N795:O795"/>
-    <mergeCell ref="A796:C799"/>
-    <mergeCell ref="D796:F799"/>
-    <mergeCell ref="G796:I796"/>
-    <mergeCell ref="J796:K796"/>
-    <mergeCell ref="L796:M796"/>
-    <mergeCell ref="N796:O796"/>
-    <mergeCell ref="G797:I797"/>
-    <mergeCell ref="J797:K797"/>
-    <mergeCell ref="L797:M797"/>
-    <mergeCell ref="N797:O797"/>
-    <mergeCell ref="G798:I798"/>
-    <mergeCell ref="J798:K798"/>
-    <mergeCell ref="L798:M798"/>
-    <mergeCell ref="N798:O798"/>
-    <mergeCell ref="G799:I799"/>
-    <mergeCell ref="J799:K799"/>
-    <mergeCell ref="L799:M799"/>
-    <mergeCell ref="N799:O799"/>
-    <mergeCell ref="A776:D784"/>
-    <mergeCell ref="E777:O780"/>
-    <mergeCell ref="E781:O781"/>
-    <mergeCell ref="E782:O782"/>
-    <mergeCell ref="L784:O784"/>
-    <mergeCell ref="L785:O785"/>
-    <mergeCell ref="L786:O786"/>
-    <mergeCell ref="A787:C787"/>
-    <mergeCell ref="D787:F787"/>
-    <mergeCell ref="L787:O787"/>
-    <mergeCell ref="A788:C791"/>
-    <mergeCell ref="D788:F791"/>
-    <mergeCell ref="L788:O788"/>
-    <mergeCell ref="L789:O789"/>
-    <mergeCell ref="G791:O791"/>
-    <mergeCell ref="A792:C795"/>
-    <mergeCell ref="D792:F795"/>
-    <mergeCell ref="G792:I792"/>
-    <mergeCell ref="J792:K792"/>
-    <mergeCell ref="L792:M792"/>
-    <mergeCell ref="N792:O792"/>
-    <mergeCell ref="G793:I793"/>
-    <mergeCell ref="J793:K793"/>
-    <mergeCell ref="L793:M793"/>
-    <mergeCell ref="N793:O793"/>
-    <mergeCell ref="G794:I794"/>
-    <mergeCell ref="J794:K794"/>
-    <mergeCell ref="L794:M794"/>
-    <mergeCell ref="N794:O794"/>
-    <mergeCell ref="G795:I795"/>
-    <mergeCell ref="J795:K795"/>
-    <mergeCell ref="L795:M795"/>
-    <mergeCell ref="N767:O767"/>
-    <mergeCell ref="A768:C771"/>
-    <mergeCell ref="D768:F771"/>
-    <mergeCell ref="G768:I768"/>
-    <mergeCell ref="J768:K768"/>
-    <mergeCell ref="L768:M768"/>
-    <mergeCell ref="N768:O768"/>
-    <mergeCell ref="G769:I769"/>
-    <mergeCell ref="J769:K769"/>
-    <mergeCell ref="L769:M769"/>
-    <mergeCell ref="N769:O769"/>
-    <mergeCell ref="G770:I770"/>
-    <mergeCell ref="J770:K770"/>
-    <mergeCell ref="L770:M770"/>
-    <mergeCell ref="N770:O770"/>
-    <mergeCell ref="G771:I771"/>
-    <mergeCell ref="J771:K771"/>
-    <mergeCell ref="L771:M771"/>
-    <mergeCell ref="N771:O771"/>
-    <mergeCell ref="A748:D756"/>
-    <mergeCell ref="E749:O752"/>
-    <mergeCell ref="E753:O753"/>
-    <mergeCell ref="E754:O754"/>
-    <mergeCell ref="L756:O756"/>
-    <mergeCell ref="L757:O757"/>
-    <mergeCell ref="L758:O758"/>
-    <mergeCell ref="A759:C759"/>
-    <mergeCell ref="D759:F759"/>
-    <mergeCell ref="L759:O759"/>
-    <mergeCell ref="A760:C763"/>
-    <mergeCell ref="D760:F763"/>
-    <mergeCell ref="L760:O760"/>
-    <mergeCell ref="L761:O761"/>
-    <mergeCell ref="G763:O763"/>
-    <mergeCell ref="A764:C767"/>
-    <mergeCell ref="D764:F767"/>
-    <mergeCell ref="G764:I764"/>
-    <mergeCell ref="J764:K764"/>
-    <mergeCell ref="L764:M764"/>
-    <mergeCell ref="N764:O764"/>
-    <mergeCell ref="G765:I765"/>
-    <mergeCell ref="J765:K765"/>
-    <mergeCell ref="L765:M765"/>
-    <mergeCell ref="N765:O765"/>
-    <mergeCell ref="G766:I766"/>
-    <mergeCell ref="J766:K766"/>
-    <mergeCell ref="L766:M766"/>
-    <mergeCell ref="N766:O766"/>
-    <mergeCell ref="G767:I767"/>
-    <mergeCell ref="J767:K767"/>
-    <mergeCell ref="L767:M767"/>
-    <mergeCell ref="N657:O657"/>
-    <mergeCell ref="A658:C661"/>
-    <mergeCell ref="D658:F661"/>
-    <mergeCell ref="G658:I658"/>
-    <mergeCell ref="J658:K658"/>
-    <mergeCell ref="L658:M658"/>
-    <mergeCell ref="N658:O658"/>
-    <mergeCell ref="G659:I659"/>
-    <mergeCell ref="J659:K659"/>
-    <mergeCell ref="L659:M659"/>
-    <mergeCell ref="N659:O659"/>
-    <mergeCell ref="G660:I660"/>
-    <mergeCell ref="J660:K660"/>
-    <mergeCell ref="L660:M660"/>
-    <mergeCell ref="N660:O660"/>
-    <mergeCell ref="G661:I661"/>
-    <mergeCell ref="J661:K661"/>
-    <mergeCell ref="L661:M661"/>
-    <mergeCell ref="N661:O661"/>
-    <mergeCell ref="A638:D646"/>
-    <mergeCell ref="E639:O642"/>
-    <mergeCell ref="E643:O643"/>
-    <mergeCell ref="E644:O644"/>
-    <mergeCell ref="L646:O646"/>
-    <mergeCell ref="L647:O647"/>
-    <mergeCell ref="L648:O648"/>
-    <mergeCell ref="A649:C649"/>
-    <mergeCell ref="D649:F649"/>
-    <mergeCell ref="L649:O649"/>
-    <mergeCell ref="A650:C653"/>
-    <mergeCell ref="D650:F653"/>
-    <mergeCell ref="L650:O650"/>
-    <mergeCell ref="L651:O651"/>
-    <mergeCell ref="G653:O653"/>
-    <mergeCell ref="A654:C657"/>
-    <mergeCell ref="D654:F657"/>
-    <mergeCell ref="G654:I654"/>
-    <mergeCell ref="J654:K654"/>
-    <mergeCell ref="L654:M654"/>
-    <mergeCell ref="N654:O654"/>
-    <mergeCell ref="G655:I655"/>
-    <mergeCell ref="J655:K655"/>
-    <mergeCell ref="L655:M655"/>
-    <mergeCell ref="N655:O655"/>
-    <mergeCell ref="G656:I656"/>
-    <mergeCell ref="J656:K656"/>
-    <mergeCell ref="L656:M656"/>
-    <mergeCell ref="N656:O656"/>
-    <mergeCell ref="G657:I657"/>
-    <mergeCell ref="J657:K657"/>
-    <mergeCell ref="L657:M657"/>
-    <mergeCell ref="N683:O683"/>
-    <mergeCell ref="A684:C687"/>
-    <mergeCell ref="D684:F687"/>
-    <mergeCell ref="G684:I684"/>
-    <mergeCell ref="J684:K684"/>
-    <mergeCell ref="L684:M684"/>
-    <mergeCell ref="N684:O684"/>
-    <mergeCell ref="G685:I685"/>
-    <mergeCell ref="J685:K685"/>
-    <mergeCell ref="L685:M685"/>
-    <mergeCell ref="N685:O685"/>
-    <mergeCell ref="G686:I686"/>
-    <mergeCell ref="J686:K686"/>
-    <mergeCell ref="L686:M686"/>
-    <mergeCell ref="N686:O686"/>
-    <mergeCell ref="G687:I687"/>
-    <mergeCell ref="J687:K687"/>
-    <mergeCell ref="L687:M687"/>
-    <mergeCell ref="N687:O687"/>
-    <mergeCell ref="A664:D672"/>
-    <mergeCell ref="E665:O668"/>
-    <mergeCell ref="E669:O669"/>
-    <mergeCell ref="E670:O670"/>
-    <mergeCell ref="L672:O672"/>
-    <mergeCell ref="L673:O673"/>
-    <mergeCell ref="L674:O674"/>
-    <mergeCell ref="A675:C675"/>
-    <mergeCell ref="D675:F675"/>
-    <mergeCell ref="L675:O675"/>
-    <mergeCell ref="A676:C679"/>
-    <mergeCell ref="D676:F679"/>
-    <mergeCell ref="L676:O676"/>
-    <mergeCell ref="L677:O677"/>
-    <mergeCell ref="G679:O679"/>
-    <mergeCell ref="A680:C683"/>
-    <mergeCell ref="D680:F683"/>
-    <mergeCell ref="G680:I680"/>
-    <mergeCell ref="J680:K680"/>
-    <mergeCell ref="L680:M680"/>
-    <mergeCell ref="N680:O680"/>
-    <mergeCell ref="G681:I681"/>
-    <mergeCell ref="J681:K681"/>
-    <mergeCell ref="L681:M681"/>
-    <mergeCell ref="N681:O681"/>
-    <mergeCell ref="G682:I682"/>
-    <mergeCell ref="J682:K682"/>
-    <mergeCell ref="L682:M682"/>
-    <mergeCell ref="N682:O682"/>
-    <mergeCell ref="G683:I683"/>
-    <mergeCell ref="J683:K683"/>
-    <mergeCell ref="L683:M683"/>
-    <mergeCell ref="A632:C635"/>
-    <mergeCell ref="D632:F635"/>
-    <mergeCell ref="G632:I632"/>
-    <mergeCell ref="J632:K632"/>
-    <mergeCell ref="L632:M632"/>
-    <mergeCell ref="N632:O632"/>
-    <mergeCell ref="G633:I633"/>
-    <mergeCell ref="J633:K633"/>
-    <mergeCell ref="L633:M633"/>
-    <mergeCell ref="N633:O633"/>
-    <mergeCell ref="G634:I634"/>
-    <mergeCell ref="J634:K634"/>
-    <mergeCell ref="L634:M634"/>
-    <mergeCell ref="N634:O634"/>
-    <mergeCell ref="G635:I635"/>
-    <mergeCell ref="J635:K635"/>
-    <mergeCell ref="L635:M635"/>
-    <mergeCell ref="N635:O635"/>
-    <mergeCell ref="L621:O621"/>
-    <mergeCell ref="L622:O622"/>
-    <mergeCell ref="A623:C623"/>
-    <mergeCell ref="D623:F623"/>
-    <mergeCell ref="L623:O623"/>
-    <mergeCell ref="A624:C627"/>
-    <mergeCell ref="D624:F627"/>
-    <mergeCell ref="L624:O624"/>
-    <mergeCell ref="L625:O625"/>
-    <mergeCell ref="G627:O627"/>
-    <mergeCell ref="A628:C631"/>
-    <mergeCell ref="D628:F631"/>
-    <mergeCell ref="G628:I628"/>
-    <mergeCell ref="J628:K628"/>
-    <mergeCell ref="L628:M628"/>
-    <mergeCell ref="N628:O628"/>
-    <mergeCell ref="G629:I629"/>
-    <mergeCell ref="J629:K629"/>
-    <mergeCell ref="L629:M629"/>
-    <mergeCell ref="N629:O629"/>
-    <mergeCell ref="G630:I630"/>
-    <mergeCell ref="J630:K630"/>
-    <mergeCell ref="L630:M630"/>
-    <mergeCell ref="N630:O630"/>
-    <mergeCell ref="G631:I631"/>
-    <mergeCell ref="J631:K631"/>
-    <mergeCell ref="L631:M631"/>
-    <mergeCell ref="N631:O631"/>
-    <mergeCell ref="A597:C597"/>
-    <mergeCell ref="D597:F597"/>
-    <mergeCell ref="L597:O597"/>
-    <mergeCell ref="A598:C601"/>
-    <mergeCell ref="D598:F601"/>
-    <mergeCell ref="L598:O598"/>
-    <mergeCell ref="L599:O599"/>
-    <mergeCell ref="A602:C605"/>
-    <mergeCell ref="D602:F605"/>
-    <mergeCell ref="G601:O601"/>
-    <mergeCell ref="A606:C609"/>
-    <mergeCell ref="D606:F609"/>
-    <mergeCell ref="G602:I602"/>
-    <mergeCell ref="J602:K602"/>
-    <mergeCell ref="L602:M602"/>
-    <mergeCell ref="N602:O602"/>
-    <mergeCell ref="A612:D620"/>
-    <mergeCell ref="E613:O616"/>
-    <mergeCell ref="E617:O617"/>
-    <mergeCell ref="E618:O618"/>
-    <mergeCell ref="L620:O620"/>
-    <mergeCell ref="J578:K578"/>
-    <mergeCell ref="G606:I606"/>
-    <mergeCell ref="J606:K606"/>
-    <mergeCell ref="L606:M606"/>
-    <mergeCell ref="N606:O606"/>
-    <mergeCell ref="G607:I607"/>
-    <mergeCell ref="J607:K607"/>
-    <mergeCell ref="L607:M607"/>
-    <mergeCell ref="N607:O607"/>
-    <mergeCell ref="G608:I608"/>
-    <mergeCell ref="J608:K608"/>
-    <mergeCell ref="L608:M608"/>
-    <mergeCell ref="N608:O608"/>
-    <mergeCell ref="G609:I609"/>
-    <mergeCell ref="J609:K609"/>
-    <mergeCell ref="L609:M609"/>
-    <mergeCell ref="N609:O609"/>
-    <mergeCell ref="L578:M578"/>
-    <mergeCell ref="A550:C553"/>
-    <mergeCell ref="G603:I603"/>
-    <mergeCell ref="J603:K603"/>
-    <mergeCell ref="L603:M603"/>
-    <mergeCell ref="N603:O603"/>
-    <mergeCell ref="G604:I604"/>
-    <mergeCell ref="J604:K604"/>
-    <mergeCell ref="L604:M604"/>
-    <mergeCell ref="N604:O604"/>
-    <mergeCell ref="G605:I605"/>
-    <mergeCell ref="J605:K605"/>
-    <mergeCell ref="L605:M605"/>
-    <mergeCell ref="N605:O605"/>
-    <mergeCell ref="L551:M551"/>
-    <mergeCell ref="N551:O551"/>
-    <mergeCell ref="G552:I552"/>
-    <mergeCell ref="J552:K552"/>
-    <mergeCell ref="L552:M552"/>
-    <mergeCell ref="N552:O552"/>
-    <mergeCell ref="G553:I553"/>
-    <mergeCell ref="J553:K553"/>
-    <mergeCell ref="L553:M553"/>
-    <mergeCell ref="N553:O553"/>
-    <mergeCell ref="N578:O578"/>
-    <mergeCell ref="G579:I579"/>
-    <mergeCell ref="J579:K579"/>
-    <mergeCell ref="L579:M579"/>
-    <mergeCell ref="G577:I577"/>
-    <mergeCell ref="J577:K577"/>
-    <mergeCell ref="L577:M577"/>
-    <mergeCell ref="N577:O577"/>
-    <mergeCell ref="G578:I578"/>
-    <mergeCell ref="A504:D512"/>
-    <mergeCell ref="E505:O508"/>
-    <mergeCell ref="E509:O509"/>
-    <mergeCell ref="E510:O510"/>
-    <mergeCell ref="L512:O512"/>
-    <mergeCell ref="L513:O513"/>
-    <mergeCell ref="L514:O514"/>
-    <mergeCell ref="A586:D594"/>
-    <mergeCell ref="E587:O590"/>
-    <mergeCell ref="E591:O591"/>
-    <mergeCell ref="E592:O592"/>
-    <mergeCell ref="L594:O594"/>
-    <mergeCell ref="L595:O595"/>
-    <mergeCell ref="L596:O596"/>
-    <mergeCell ref="L541:O541"/>
-    <mergeCell ref="A542:C545"/>
-    <mergeCell ref="D542:F545"/>
-    <mergeCell ref="L542:O542"/>
-    <mergeCell ref="L543:O543"/>
-    <mergeCell ref="G545:O545"/>
-    <mergeCell ref="A546:C549"/>
-    <mergeCell ref="D550:F553"/>
-    <mergeCell ref="G546:I546"/>
-    <mergeCell ref="J546:K546"/>
-    <mergeCell ref="L546:M546"/>
-    <mergeCell ref="N546:O546"/>
-    <mergeCell ref="G547:I547"/>
-    <mergeCell ref="J547:K547"/>
-    <mergeCell ref="L547:M547"/>
-    <mergeCell ref="N547:O547"/>
-    <mergeCell ref="G548:I548"/>
-    <mergeCell ref="J548:K548"/>
-    <mergeCell ref="A498:C501"/>
-    <mergeCell ref="D498:F501"/>
-    <mergeCell ref="G498:I498"/>
-    <mergeCell ref="J498:K498"/>
-    <mergeCell ref="L498:M498"/>
-    <mergeCell ref="N498:O498"/>
-    <mergeCell ref="G499:I499"/>
-    <mergeCell ref="J499:K499"/>
-    <mergeCell ref="L499:M499"/>
-    <mergeCell ref="N499:O499"/>
-    <mergeCell ref="G500:I500"/>
-    <mergeCell ref="J500:K500"/>
-    <mergeCell ref="L500:M500"/>
-    <mergeCell ref="N500:O500"/>
-    <mergeCell ref="G501:I501"/>
-    <mergeCell ref="J501:K501"/>
-    <mergeCell ref="L501:M501"/>
-    <mergeCell ref="N501:O501"/>
-    <mergeCell ref="A490:C493"/>
-    <mergeCell ref="D490:F493"/>
-    <mergeCell ref="L490:O490"/>
-    <mergeCell ref="L491:O491"/>
-    <mergeCell ref="G493:O493"/>
-    <mergeCell ref="A494:C497"/>
-    <mergeCell ref="D494:F497"/>
-    <mergeCell ref="G494:I494"/>
-    <mergeCell ref="J494:K494"/>
-    <mergeCell ref="L494:M494"/>
-    <mergeCell ref="N494:O494"/>
-    <mergeCell ref="G495:I495"/>
-    <mergeCell ref="J495:K495"/>
-    <mergeCell ref="L495:M495"/>
-    <mergeCell ref="N495:O495"/>
-    <mergeCell ref="G496:I496"/>
-    <mergeCell ref="J496:K496"/>
-    <mergeCell ref="L496:M496"/>
-    <mergeCell ref="N496:O496"/>
-    <mergeCell ref="G497:I497"/>
-    <mergeCell ref="J497:K497"/>
-    <mergeCell ref="L497:M497"/>
-    <mergeCell ref="N497:O497"/>
-    <mergeCell ref="A478:D486"/>
-    <mergeCell ref="E479:O482"/>
-    <mergeCell ref="E483:O483"/>
-    <mergeCell ref="E484:O484"/>
-    <mergeCell ref="L486:O486"/>
-    <mergeCell ref="L487:O487"/>
-    <mergeCell ref="L488:O488"/>
-    <mergeCell ref="A489:C489"/>
-    <mergeCell ref="D489:F489"/>
-    <mergeCell ref="L489:O489"/>
-    <mergeCell ref="A446:C449"/>
-    <mergeCell ref="D446:F449"/>
-    <mergeCell ref="G446:I446"/>
-    <mergeCell ref="J446:K446"/>
-    <mergeCell ref="L446:M446"/>
-    <mergeCell ref="N446:O446"/>
-    <mergeCell ref="G447:I447"/>
-    <mergeCell ref="J447:K447"/>
-    <mergeCell ref="L447:M447"/>
-    <mergeCell ref="N447:O447"/>
-    <mergeCell ref="G448:I448"/>
-    <mergeCell ref="J448:K448"/>
-    <mergeCell ref="L448:M448"/>
-    <mergeCell ref="N448:O448"/>
-    <mergeCell ref="G449:I449"/>
-    <mergeCell ref="J449:K449"/>
-    <mergeCell ref="L449:M449"/>
-    <mergeCell ref="N449:O449"/>
-    <mergeCell ref="A452:D460"/>
-    <mergeCell ref="E453:O456"/>
-    <mergeCell ref="E457:O457"/>
-    <mergeCell ref="E458:O458"/>
-    <mergeCell ref="A438:C441"/>
-    <mergeCell ref="D438:F441"/>
-    <mergeCell ref="L438:O438"/>
-    <mergeCell ref="L439:O439"/>
-    <mergeCell ref="G441:O441"/>
-    <mergeCell ref="A442:C445"/>
-    <mergeCell ref="D442:F445"/>
-    <mergeCell ref="G442:I442"/>
-    <mergeCell ref="J442:K442"/>
-    <mergeCell ref="L442:M442"/>
-    <mergeCell ref="N442:O442"/>
-    <mergeCell ref="G443:I443"/>
-    <mergeCell ref="J443:K443"/>
-    <mergeCell ref="L443:M443"/>
-    <mergeCell ref="N443:O443"/>
-    <mergeCell ref="G444:I444"/>
-    <mergeCell ref="J444:K444"/>
-    <mergeCell ref="L444:M444"/>
-    <mergeCell ref="N444:O444"/>
-    <mergeCell ref="G445:I445"/>
-    <mergeCell ref="J445:K445"/>
-    <mergeCell ref="L445:M445"/>
-    <mergeCell ref="N445:O445"/>
-    <mergeCell ref="A426:D434"/>
-    <mergeCell ref="E427:O430"/>
-    <mergeCell ref="E431:O431"/>
-    <mergeCell ref="E432:O432"/>
-    <mergeCell ref="L434:O434"/>
-    <mergeCell ref="L435:O435"/>
-    <mergeCell ref="L436:O436"/>
-    <mergeCell ref="A437:C437"/>
-    <mergeCell ref="D437:F437"/>
-    <mergeCell ref="L437:O437"/>
-    <mergeCell ref="A368:C371"/>
-    <mergeCell ref="D368:F371"/>
-    <mergeCell ref="G368:I368"/>
-    <mergeCell ref="J368:K368"/>
-    <mergeCell ref="L368:M368"/>
-    <mergeCell ref="N368:O368"/>
-    <mergeCell ref="G369:I369"/>
-    <mergeCell ref="J369:K369"/>
-    <mergeCell ref="L369:M369"/>
-    <mergeCell ref="N369:O369"/>
-    <mergeCell ref="G370:I370"/>
-    <mergeCell ref="J370:K370"/>
-    <mergeCell ref="L370:M370"/>
-    <mergeCell ref="N370:O370"/>
-    <mergeCell ref="G371:I371"/>
-    <mergeCell ref="J371:K371"/>
-    <mergeCell ref="L371:M371"/>
-    <mergeCell ref="N371:O371"/>
-    <mergeCell ref="A374:D382"/>
-    <mergeCell ref="E375:O378"/>
-    <mergeCell ref="E379:O379"/>
-    <mergeCell ref="E380:O380"/>
-    <mergeCell ref="A360:C363"/>
-    <mergeCell ref="D360:F363"/>
-    <mergeCell ref="L360:O360"/>
-    <mergeCell ref="L361:O361"/>
-    <mergeCell ref="G363:O363"/>
-    <mergeCell ref="A364:C367"/>
-    <mergeCell ref="D364:F367"/>
-    <mergeCell ref="G364:I364"/>
-    <mergeCell ref="J364:K364"/>
-    <mergeCell ref="L364:M364"/>
-    <mergeCell ref="N364:O364"/>
-    <mergeCell ref="G365:I365"/>
-    <mergeCell ref="J365:K365"/>
-    <mergeCell ref="L365:M365"/>
-    <mergeCell ref="N365:O365"/>
-    <mergeCell ref="G366:I366"/>
-    <mergeCell ref="J366:K366"/>
-    <mergeCell ref="L366:M366"/>
-    <mergeCell ref="N366:O366"/>
-    <mergeCell ref="G367:I367"/>
-    <mergeCell ref="J367:K367"/>
-    <mergeCell ref="L367:M367"/>
-    <mergeCell ref="N367:O367"/>
-    <mergeCell ref="A348:D356"/>
-    <mergeCell ref="E349:O352"/>
-    <mergeCell ref="E353:O353"/>
-    <mergeCell ref="E354:O354"/>
-    <mergeCell ref="L356:O356"/>
-    <mergeCell ref="L357:O357"/>
-    <mergeCell ref="L358:O358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="D359:F359"/>
-    <mergeCell ref="L359:O359"/>
-    <mergeCell ref="A316:C319"/>
-    <mergeCell ref="D316:F319"/>
-    <mergeCell ref="G316:I316"/>
-    <mergeCell ref="J316:K316"/>
-    <mergeCell ref="L316:M316"/>
-    <mergeCell ref="N316:O316"/>
-    <mergeCell ref="G317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="L317:M317"/>
-    <mergeCell ref="N317:O317"/>
-    <mergeCell ref="G318:I318"/>
-    <mergeCell ref="J318:K318"/>
-    <mergeCell ref="L318:M318"/>
-    <mergeCell ref="N318:O318"/>
-    <mergeCell ref="G319:I319"/>
-    <mergeCell ref="J319:K319"/>
-    <mergeCell ref="L319:M319"/>
-    <mergeCell ref="N319:O319"/>
-    <mergeCell ref="A322:D330"/>
-    <mergeCell ref="E323:O326"/>
-    <mergeCell ref="E327:O327"/>
-    <mergeCell ref="E328:O328"/>
-    <mergeCell ref="A308:C311"/>
-    <mergeCell ref="D308:F311"/>
-    <mergeCell ref="L308:O308"/>
-    <mergeCell ref="L309:O309"/>
-    <mergeCell ref="G311:O311"/>
-    <mergeCell ref="A312:C315"/>
-    <mergeCell ref="D312:F315"/>
-    <mergeCell ref="G312:I312"/>
-    <mergeCell ref="J312:K312"/>
-    <mergeCell ref="L312:M312"/>
-    <mergeCell ref="N312:O312"/>
-    <mergeCell ref="G313:I313"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="L313:M313"/>
-    <mergeCell ref="N313:O313"/>
-    <mergeCell ref="G314:I314"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="L314:M314"/>
-    <mergeCell ref="N314:O314"/>
-    <mergeCell ref="G315:I315"/>
-    <mergeCell ref="J315:K315"/>
-    <mergeCell ref="L315:M315"/>
-    <mergeCell ref="N315:O315"/>
-    <mergeCell ref="A296:D304"/>
-    <mergeCell ref="E297:O300"/>
-    <mergeCell ref="E301:O301"/>
-    <mergeCell ref="E302:O302"/>
-    <mergeCell ref="L304:O304"/>
-    <mergeCell ref="L305:O305"/>
-    <mergeCell ref="L306:O306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="D307:F307"/>
-    <mergeCell ref="L307:O307"/>
-    <mergeCell ref="A256:C259"/>
-    <mergeCell ref="D256:F259"/>
-    <mergeCell ref="G256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="L256:M256"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="G257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="L257:M257"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="G258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="L258:M258"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="G259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="L259:M259"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="A262:D270"/>
-    <mergeCell ref="E263:O266"/>
-    <mergeCell ref="E267:O267"/>
-    <mergeCell ref="E268:O268"/>
-    <mergeCell ref="A248:C251"/>
-    <mergeCell ref="D248:F251"/>
-    <mergeCell ref="L248:O248"/>
-    <mergeCell ref="L249:O249"/>
-    <mergeCell ref="G251:O251"/>
-    <mergeCell ref="A252:C255"/>
-    <mergeCell ref="D252:F255"/>
-    <mergeCell ref="G252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="L252:M252"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="G253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="L253:M253"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="G254:I254"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="L254:M254"/>
-    <mergeCell ref="N254:O254"/>
-    <mergeCell ref="G255:I255"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="L255:M255"/>
-    <mergeCell ref="N255:O255"/>
-    <mergeCell ref="A236:D244"/>
-    <mergeCell ref="E237:O240"/>
-    <mergeCell ref="E241:O241"/>
-    <mergeCell ref="E242:O242"/>
-    <mergeCell ref="L244:O244"/>
-    <mergeCell ref="L245:O245"/>
-    <mergeCell ref="L246:O246"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="D247:F247"/>
-    <mergeCell ref="L247:O247"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="E6:O6"/>
-    <mergeCell ref="E7:O7"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="A1:D9"/>
-    <mergeCell ref="E2:O5"/>
-    <mergeCell ref="A13:C16"/>
-    <mergeCell ref="A17:C20"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="D17:F20"/>
-    <mergeCell ref="A21:C24"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A27:D35"/>
-    <mergeCell ref="E28:O31"/>
-    <mergeCell ref="E32:O32"/>
-    <mergeCell ref="E33:O33"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A43:C46"/>
-    <mergeCell ref="D43:F46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="A39:C42"/>
-    <mergeCell ref="D39:F42"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="A53:D61"/>
-    <mergeCell ref="E54:O57"/>
-    <mergeCell ref="E58:O58"/>
-    <mergeCell ref="E59:O59"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="A47:C50"/>
-    <mergeCell ref="D47:F50"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D21:F24"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="A65:C68"/>
-    <mergeCell ref="D65:F68"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="G68:O68"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="A69:C72"/>
-    <mergeCell ref="D69:F72"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="A79:D87"/>
-    <mergeCell ref="E80:O83"/>
-    <mergeCell ref="E84:O84"/>
-    <mergeCell ref="E85:O85"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="A73:C76"/>
-    <mergeCell ref="D73:F76"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="L89:O89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="A91:C94"/>
-    <mergeCell ref="D91:F94"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="G94:O94"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="A95:C98"/>
-    <mergeCell ref="D95:F98"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="A105:D113"/>
-    <mergeCell ref="E106:O109"/>
-    <mergeCell ref="E110:O110"/>
-    <mergeCell ref="E111:O111"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="A99:C102"/>
-    <mergeCell ref="D99:F102"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="A117:C120"/>
-    <mergeCell ref="D117:F120"/>
-    <mergeCell ref="L117:O117"/>
-    <mergeCell ref="L118:O118"/>
-    <mergeCell ref="G120:O120"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:M124"/>
-    <mergeCell ref="N124:O124"/>
-    <mergeCell ref="A121:C124"/>
-    <mergeCell ref="D121:F124"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="A131:D139"/>
-    <mergeCell ref="E132:O135"/>
-    <mergeCell ref="E136:O136"/>
-    <mergeCell ref="E137:O137"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="L128:M128"/>
-    <mergeCell ref="N128:O128"/>
-    <mergeCell ref="A125:C128"/>
-    <mergeCell ref="D125:F128"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="L125:M125"/>
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="N126:O126"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="L142:O142"/>
-    <mergeCell ref="A143:C146"/>
-    <mergeCell ref="D143:F146"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="G146:O146"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="G150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="A147:C150"/>
-    <mergeCell ref="D147:F150"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="L147:M147"/>
-    <mergeCell ref="N147:O147"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="L148:M148"/>
-    <mergeCell ref="N148:O148"/>
-    <mergeCell ref="A157:D165"/>
-    <mergeCell ref="E158:O161"/>
-    <mergeCell ref="E162:O162"/>
-    <mergeCell ref="E163:O163"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="L166:O166"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="A151:C154"/>
-    <mergeCell ref="D151:F154"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="A169:C172"/>
-    <mergeCell ref="D169:F172"/>
-    <mergeCell ref="L169:O169"/>
-    <mergeCell ref="L170:O170"/>
-    <mergeCell ref="G172:O172"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="L175:M175"/>
-    <mergeCell ref="N175:O175"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="L176:M176"/>
-    <mergeCell ref="N176:O176"/>
-    <mergeCell ref="A173:C176"/>
-    <mergeCell ref="D173:F176"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="L173:M173"/>
-    <mergeCell ref="N173:O173"/>
-    <mergeCell ref="G174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="L174:M174"/>
-    <mergeCell ref="N174:O174"/>
-    <mergeCell ref="A184:D192"/>
-    <mergeCell ref="E185:O188"/>
-    <mergeCell ref="E189:O189"/>
-    <mergeCell ref="E190:O190"/>
-    <mergeCell ref="L192:O192"/>
-    <mergeCell ref="L193:O193"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="G180:I180"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="L180:M180"/>
-    <mergeCell ref="N180:O180"/>
-    <mergeCell ref="A177:C180"/>
-    <mergeCell ref="D177:F180"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="L177:M177"/>
-    <mergeCell ref="N177:O177"/>
-    <mergeCell ref="G178:I178"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="L178:M178"/>
-    <mergeCell ref="N178:O178"/>
-    <mergeCell ref="L194:O194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="L195:O195"/>
-    <mergeCell ref="A196:C199"/>
-    <mergeCell ref="D196:F199"/>
-    <mergeCell ref="L196:O196"/>
-    <mergeCell ref="L197:O197"/>
-    <mergeCell ref="G199:O199"/>
-    <mergeCell ref="G202:I202"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="L202:M202"/>
-    <mergeCell ref="N202:O202"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="L203:M203"/>
-    <mergeCell ref="N203:O203"/>
-    <mergeCell ref="A200:C203"/>
-    <mergeCell ref="D200:F203"/>
-    <mergeCell ref="G200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="L200:M200"/>
-    <mergeCell ref="N200:O200"/>
-    <mergeCell ref="G201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="L201:M201"/>
-    <mergeCell ref="N201:O201"/>
-    <mergeCell ref="A210:D218"/>
-    <mergeCell ref="E211:O214"/>
-    <mergeCell ref="E215:O215"/>
-    <mergeCell ref="E216:O216"/>
-    <mergeCell ref="L218:O218"/>
-    <mergeCell ref="L219:O219"/>
-    <mergeCell ref="G206:I206"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="G207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="A204:C207"/>
-    <mergeCell ref="D204:F207"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="L204:M204"/>
-    <mergeCell ref="N204:O204"/>
-    <mergeCell ref="G205:I205"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="L205:M205"/>
-    <mergeCell ref="N205:O205"/>
-    <mergeCell ref="L220:O220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="L221:O221"/>
-    <mergeCell ref="A222:C225"/>
-    <mergeCell ref="D222:F225"/>
-    <mergeCell ref="L222:O222"/>
-    <mergeCell ref="L223:O223"/>
-    <mergeCell ref="G225:O225"/>
-    <mergeCell ref="G228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="L228:M228"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="G229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="L229:M229"/>
-    <mergeCell ref="N229:O229"/>
-    <mergeCell ref="A226:C229"/>
-    <mergeCell ref="D226:F229"/>
-    <mergeCell ref="G226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="L226:M226"/>
-    <mergeCell ref="N226:O226"/>
-    <mergeCell ref="G227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="L227:M227"/>
-    <mergeCell ref="N227:O227"/>
-    <mergeCell ref="G232:I232"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="L232:M232"/>
-    <mergeCell ref="N232:O232"/>
-    <mergeCell ref="G233:I233"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="N233:O233"/>
-    <mergeCell ref="A230:C233"/>
-    <mergeCell ref="D230:F233"/>
-    <mergeCell ref="G230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="N230:O230"/>
-    <mergeCell ref="G231:I231"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="L231:M231"/>
-    <mergeCell ref="N231:O231"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="D273:F273"/>
-    <mergeCell ref="L273:O273"/>
-    <mergeCell ref="A274:C277"/>
-    <mergeCell ref="D274:F277"/>
-    <mergeCell ref="L274:O274"/>
-    <mergeCell ref="L275:O275"/>
-    <mergeCell ref="G277:O277"/>
-    <mergeCell ref="A278:C281"/>
-    <mergeCell ref="D278:F281"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="L278:M278"/>
-    <mergeCell ref="N278:O278"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="L279:M279"/>
-    <mergeCell ref="N279:O279"/>
-    <mergeCell ref="A282:C285"/>
-    <mergeCell ref="D282:F285"/>
-    <mergeCell ref="G280:I280"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="L280:M280"/>
-    <mergeCell ref="N281:O281"/>
-    <mergeCell ref="G281:I281"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="L281:M281"/>
-    <mergeCell ref="N282:O282"/>
-    <mergeCell ref="G282:I282"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="L282:M282"/>
-    <mergeCell ref="G283:I283"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="L283:M283"/>
-    <mergeCell ref="N283:O283"/>
-    <mergeCell ref="N280:O280"/>
-    <mergeCell ref="A286:C289"/>
-    <mergeCell ref="D286:F289"/>
-    <mergeCell ref="A290:C293"/>
-    <mergeCell ref="D290:F293"/>
-    <mergeCell ref="G284:I284"/>
-    <mergeCell ref="J284:K284"/>
-    <mergeCell ref="L284:M284"/>
-    <mergeCell ref="N284:O284"/>
-    <mergeCell ref="G285:I285"/>
-    <mergeCell ref="J285:K285"/>
-    <mergeCell ref="L285:M285"/>
-    <mergeCell ref="N285:O285"/>
-    <mergeCell ref="G286:I286"/>
-    <mergeCell ref="J286:K286"/>
-    <mergeCell ref="L286:M286"/>
-    <mergeCell ref="N286:O286"/>
-    <mergeCell ref="G287:I287"/>
-    <mergeCell ref="J287:K287"/>
-    <mergeCell ref="L287:M287"/>
-    <mergeCell ref="N287:O287"/>
-    <mergeCell ref="G288:I288"/>
-    <mergeCell ref="J288:K288"/>
-    <mergeCell ref="L288:M288"/>
-    <mergeCell ref="N288:O288"/>
-    <mergeCell ref="G292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="L292:M292"/>
-    <mergeCell ref="N292:O292"/>
-    <mergeCell ref="G293:I293"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="L293:M293"/>
-    <mergeCell ref="N293:O293"/>
-    <mergeCell ref="G289:I289"/>
-    <mergeCell ref="J289:K289"/>
-    <mergeCell ref="L289:M289"/>
-    <mergeCell ref="N289:O289"/>
-    <mergeCell ref="G290:I290"/>
-    <mergeCell ref="J290:K290"/>
-    <mergeCell ref="L290:M290"/>
-    <mergeCell ref="N290:O290"/>
-    <mergeCell ref="G291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="L291:M291"/>
-    <mergeCell ref="N291:O291"/>
-    <mergeCell ref="Q266:U267"/>
-    <mergeCell ref="Q269:U271"/>
-    <mergeCell ref="Q272:U274"/>
-    <mergeCell ref="Q275:U277"/>
-    <mergeCell ref="Q278:U280"/>
-    <mergeCell ref="Q281:U283"/>
-    <mergeCell ref="Q284:U286"/>
-    <mergeCell ref="Q287:U289"/>
-    <mergeCell ref="Q290:U291"/>
-    <mergeCell ref="L270:O270"/>
-    <mergeCell ref="L271:O271"/>
-    <mergeCell ref="L272:O272"/>
-    <mergeCell ref="L330:O330"/>
-    <mergeCell ref="L331:O331"/>
-    <mergeCell ref="L332:O332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="L333:O333"/>
-    <mergeCell ref="A334:C337"/>
-    <mergeCell ref="D334:F337"/>
-    <mergeCell ref="L334:O334"/>
-    <mergeCell ref="L335:O335"/>
-    <mergeCell ref="G337:O337"/>
-    <mergeCell ref="A338:C341"/>
-    <mergeCell ref="D338:F341"/>
-    <mergeCell ref="G338:I338"/>
-    <mergeCell ref="J338:K338"/>
-    <mergeCell ref="L338:M338"/>
-    <mergeCell ref="N338:O338"/>
-    <mergeCell ref="G339:I339"/>
-    <mergeCell ref="J339:K339"/>
-    <mergeCell ref="L339:M339"/>
-    <mergeCell ref="N339:O339"/>
-    <mergeCell ref="G340:I340"/>
-    <mergeCell ref="J340:K340"/>
-    <mergeCell ref="L340:M340"/>
-    <mergeCell ref="N340:O340"/>
-    <mergeCell ref="G341:I341"/>
-    <mergeCell ref="J341:K341"/>
-    <mergeCell ref="L341:M341"/>
-    <mergeCell ref="N341:O341"/>
-    <mergeCell ref="A342:C345"/>
-    <mergeCell ref="D342:F345"/>
-    <mergeCell ref="G342:I342"/>
-    <mergeCell ref="J342:K342"/>
-    <mergeCell ref="L342:M342"/>
-    <mergeCell ref="N342:O342"/>
-    <mergeCell ref="G343:I343"/>
-    <mergeCell ref="J343:K343"/>
-    <mergeCell ref="L343:M343"/>
-    <mergeCell ref="N343:O343"/>
-    <mergeCell ref="G344:I344"/>
-    <mergeCell ref="J344:K344"/>
-    <mergeCell ref="L344:M344"/>
-    <mergeCell ref="N344:O344"/>
-    <mergeCell ref="G345:I345"/>
-    <mergeCell ref="J345:K345"/>
-    <mergeCell ref="L345:M345"/>
-    <mergeCell ref="N345:O345"/>
-    <mergeCell ref="L382:O382"/>
-    <mergeCell ref="L383:O383"/>
-    <mergeCell ref="L384:O384"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="D385:F385"/>
-    <mergeCell ref="L385:O385"/>
-    <mergeCell ref="A386:C389"/>
-    <mergeCell ref="D386:F389"/>
-    <mergeCell ref="L386:O386"/>
-    <mergeCell ref="L387:O387"/>
-    <mergeCell ref="G389:O389"/>
-    <mergeCell ref="A390:C393"/>
-    <mergeCell ref="D390:F393"/>
-    <mergeCell ref="G390:I390"/>
-    <mergeCell ref="J390:K390"/>
-    <mergeCell ref="L390:M390"/>
-    <mergeCell ref="N390:O390"/>
-    <mergeCell ref="G391:I391"/>
-    <mergeCell ref="J391:K391"/>
-    <mergeCell ref="L391:M391"/>
-    <mergeCell ref="N391:O391"/>
-    <mergeCell ref="G392:I392"/>
-    <mergeCell ref="J392:K392"/>
-    <mergeCell ref="L392:M392"/>
-    <mergeCell ref="N392:O392"/>
-    <mergeCell ref="G393:I393"/>
-    <mergeCell ref="J393:K393"/>
-    <mergeCell ref="L393:M393"/>
-    <mergeCell ref="N393:O393"/>
-    <mergeCell ref="A394:C397"/>
-    <mergeCell ref="D394:F397"/>
-    <mergeCell ref="G394:I394"/>
-    <mergeCell ref="J394:K394"/>
-    <mergeCell ref="L394:M394"/>
-    <mergeCell ref="N394:O394"/>
-    <mergeCell ref="G395:I395"/>
-    <mergeCell ref="J395:K395"/>
-    <mergeCell ref="L395:M395"/>
-    <mergeCell ref="N395:O395"/>
-    <mergeCell ref="G396:I396"/>
-    <mergeCell ref="J396:K396"/>
-    <mergeCell ref="L396:M396"/>
-    <mergeCell ref="N396:O396"/>
-    <mergeCell ref="G397:I397"/>
-    <mergeCell ref="J397:K397"/>
-    <mergeCell ref="L397:M397"/>
-    <mergeCell ref="N397:O397"/>
-    <mergeCell ref="A400:D408"/>
-    <mergeCell ref="E401:O404"/>
-    <mergeCell ref="E405:O405"/>
-    <mergeCell ref="E406:O406"/>
-    <mergeCell ref="L408:O408"/>
-    <mergeCell ref="L409:O409"/>
-    <mergeCell ref="L410:O410"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="D411:F411"/>
-    <mergeCell ref="L411:O411"/>
-    <mergeCell ref="A412:C415"/>
-    <mergeCell ref="D412:F415"/>
-    <mergeCell ref="L412:O412"/>
-    <mergeCell ref="L413:O413"/>
-    <mergeCell ref="G415:O415"/>
-    <mergeCell ref="A416:C419"/>
-    <mergeCell ref="D416:F419"/>
-    <mergeCell ref="G416:I416"/>
-    <mergeCell ref="J416:K416"/>
-    <mergeCell ref="L416:M416"/>
-    <mergeCell ref="N416:O416"/>
-    <mergeCell ref="G417:I417"/>
-    <mergeCell ref="J417:K417"/>
-    <mergeCell ref="L417:M417"/>
-    <mergeCell ref="N417:O417"/>
-    <mergeCell ref="G418:I418"/>
-    <mergeCell ref="J418:K418"/>
-    <mergeCell ref="L418:M418"/>
-    <mergeCell ref="N418:O418"/>
-    <mergeCell ref="G419:I419"/>
-    <mergeCell ref="J419:K419"/>
-    <mergeCell ref="L419:M419"/>
-    <mergeCell ref="N419:O419"/>
-    <mergeCell ref="A420:C423"/>
-    <mergeCell ref="D420:F423"/>
-    <mergeCell ref="G420:I420"/>
-    <mergeCell ref="J420:K420"/>
-    <mergeCell ref="L420:M420"/>
-    <mergeCell ref="N420:O420"/>
-    <mergeCell ref="G421:I421"/>
-    <mergeCell ref="J421:K421"/>
-    <mergeCell ref="L421:M421"/>
-    <mergeCell ref="N421:O421"/>
-    <mergeCell ref="G422:I422"/>
-    <mergeCell ref="J422:K422"/>
-    <mergeCell ref="L422:M422"/>
-    <mergeCell ref="N422:O422"/>
-    <mergeCell ref="G423:I423"/>
-    <mergeCell ref="J423:K423"/>
-    <mergeCell ref="L423:M423"/>
-    <mergeCell ref="N423:O423"/>
-    <mergeCell ref="L460:O460"/>
-    <mergeCell ref="L461:O461"/>
-    <mergeCell ref="L462:O462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="D463:F463"/>
-    <mergeCell ref="L463:O463"/>
-    <mergeCell ref="A464:C467"/>
-    <mergeCell ref="D464:F467"/>
-    <mergeCell ref="L464:O464"/>
-    <mergeCell ref="L465:O465"/>
-    <mergeCell ref="G467:O467"/>
-    <mergeCell ref="A468:C471"/>
-    <mergeCell ref="D468:F471"/>
-    <mergeCell ref="G468:I468"/>
-    <mergeCell ref="J468:K468"/>
-    <mergeCell ref="L468:M468"/>
-    <mergeCell ref="N468:O468"/>
-    <mergeCell ref="G469:I469"/>
-    <mergeCell ref="J469:K469"/>
-    <mergeCell ref="L469:M469"/>
-    <mergeCell ref="N469:O469"/>
-    <mergeCell ref="G470:I470"/>
-    <mergeCell ref="J470:K470"/>
-    <mergeCell ref="L470:M470"/>
-    <mergeCell ref="N470:O470"/>
-    <mergeCell ref="G471:I471"/>
-    <mergeCell ref="J471:K471"/>
-    <mergeCell ref="L471:M471"/>
-    <mergeCell ref="N471:O471"/>
-    <mergeCell ref="A472:C475"/>
-    <mergeCell ref="D472:F475"/>
-    <mergeCell ref="G472:I472"/>
-    <mergeCell ref="J472:K472"/>
-    <mergeCell ref="L472:M472"/>
-    <mergeCell ref="N472:O472"/>
-    <mergeCell ref="G473:I473"/>
-    <mergeCell ref="J473:K473"/>
-    <mergeCell ref="L473:M473"/>
-    <mergeCell ref="N473:O473"/>
-    <mergeCell ref="G474:I474"/>
-    <mergeCell ref="J474:K474"/>
-    <mergeCell ref="L474:M474"/>
-    <mergeCell ref="N474:O474"/>
-    <mergeCell ref="G475:I475"/>
-    <mergeCell ref="J475:K475"/>
-    <mergeCell ref="L475:M475"/>
-    <mergeCell ref="N475:O475"/>
-    <mergeCell ref="A515:C515"/>
-    <mergeCell ref="D515:F515"/>
-    <mergeCell ref="L515:O515"/>
-    <mergeCell ref="A516:C519"/>
-    <mergeCell ref="D516:F519"/>
-    <mergeCell ref="L516:O516"/>
-    <mergeCell ref="L517:O517"/>
-    <mergeCell ref="G519:O519"/>
-    <mergeCell ref="A520:C523"/>
-    <mergeCell ref="D520:F523"/>
-    <mergeCell ref="G520:I520"/>
-    <mergeCell ref="J520:K520"/>
-    <mergeCell ref="L520:M520"/>
-    <mergeCell ref="N520:O520"/>
-    <mergeCell ref="G521:I521"/>
-    <mergeCell ref="J521:K521"/>
-    <mergeCell ref="L521:M521"/>
-    <mergeCell ref="N521:O521"/>
-    <mergeCell ref="G522:I522"/>
-    <mergeCell ref="J522:K522"/>
-    <mergeCell ref="L522:M522"/>
-    <mergeCell ref="N522:O522"/>
-    <mergeCell ref="G523:I523"/>
-    <mergeCell ref="J523:K523"/>
-    <mergeCell ref="L523:M523"/>
-    <mergeCell ref="N523:O523"/>
-    <mergeCell ref="A524:C527"/>
-    <mergeCell ref="D524:F527"/>
-    <mergeCell ref="G524:I524"/>
-    <mergeCell ref="J524:K524"/>
-    <mergeCell ref="L524:M524"/>
-    <mergeCell ref="N524:O524"/>
-    <mergeCell ref="G525:I525"/>
-    <mergeCell ref="J525:K525"/>
-    <mergeCell ref="L525:M525"/>
-    <mergeCell ref="N525:O525"/>
-    <mergeCell ref="G526:I526"/>
-    <mergeCell ref="J526:K526"/>
-    <mergeCell ref="L526:M526"/>
-    <mergeCell ref="N526:O526"/>
-    <mergeCell ref="G527:I527"/>
-    <mergeCell ref="J527:K527"/>
-    <mergeCell ref="L527:M527"/>
-    <mergeCell ref="N527:O527"/>
-    <mergeCell ref="A530:D538"/>
-    <mergeCell ref="E531:O534"/>
-    <mergeCell ref="E535:O535"/>
-    <mergeCell ref="E536:O536"/>
-    <mergeCell ref="L538:O538"/>
-    <mergeCell ref="L539:O539"/>
-    <mergeCell ref="L540:O540"/>
-    <mergeCell ref="A541:C541"/>
-    <mergeCell ref="D541:F541"/>
-    <mergeCell ref="A556:D564"/>
-    <mergeCell ref="E557:O560"/>
-    <mergeCell ref="E561:O561"/>
-    <mergeCell ref="E562:O562"/>
-    <mergeCell ref="L564:O564"/>
-    <mergeCell ref="L565:O565"/>
-    <mergeCell ref="L566:O566"/>
-    <mergeCell ref="A567:C567"/>
-    <mergeCell ref="D567:F567"/>
-    <mergeCell ref="L567:O567"/>
-    <mergeCell ref="D546:F549"/>
-    <mergeCell ref="G550:I550"/>
-    <mergeCell ref="J550:K550"/>
-    <mergeCell ref="L550:M550"/>
-    <mergeCell ref="N550:O550"/>
-    <mergeCell ref="G551:I551"/>
-    <mergeCell ref="J551:K551"/>
-    <mergeCell ref="L548:M548"/>
-    <mergeCell ref="N548:O548"/>
-    <mergeCell ref="G549:I549"/>
-    <mergeCell ref="J549:K549"/>
-    <mergeCell ref="L549:M549"/>
-    <mergeCell ref="N549:O549"/>
-    <mergeCell ref="A568:C571"/>
-    <mergeCell ref="D568:F571"/>
-    <mergeCell ref="L568:O568"/>
-    <mergeCell ref="L569:O569"/>
-    <mergeCell ref="G575:O575"/>
-    <mergeCell ref="A572:C575"/>
-    <mergeCell ref="D572:F575"/>
-    <mergeCell ref="A580:C583"/>
-    <mergeCell ref="D580:F583"/>
-    <mergeCell ref="N579:O579"/>
-    <mergeCell ref="A576:C579"/>
-    <mergeCell ref="D576:F579"/>
-    <mergeCell ref="G580:I580"/>
-    <mergeCell ref="J580:K580"/>
-    <mergeCell ref="L580:M580"/>
-    <mergeCell ref="N580:O580"/>
-    <mergeCell ref="G581:I581"/>
-    <mergeCell ref="J581:K581"/>
-    <mergeCell ref="L581:M581"/>
-    <mergeCell ref="N581:O581"/>
-    <mergeCell ref="G582:I582"/>
-    <mergeCell ref="J582:K582"/>
-    <mergeCell ref="L582:M582"/>
-    <mergeCell ref="N582:O582"/>
-    <mergeCell ref="G583:I583"/>
-    <mergeCell ref="J583:K583"/>
-    <mergeCell ref="L583:M583"/>
-    <mergeCell ref="N583:O583"/>
-    <mergeCell ref="G576:I576"/>
-    <mergeCell ref="J576:K576"/>
-    <mergeCell ref="L576:M576"/>
-    <mergeCell ref="N576:O576"/>
-    <mergeCell ref="A692:D700"/>
-    <mergeCell ref="E693:O696"/>
-    <mergeCell ref="E697:O697"/>
-    <mergeCell ref="E698:O698"/>
-    <mergeCell ref="L700:O700"/>
-    <mergeCell ref="L701:O701"/>
-    <mergeCell ref="L702:O702"/>
-    <mergeCell ref="A703:C703"/>
-    <mergeCell ref="D703:F703"/>
-    <mergeCell ref="L703:O703"/>
-    <mergeCell ref="A704:C707"/>
-    <mergeCell ref="D704:F707"/>
-    <mergeCell ref="L704:O704"/>
-    <mergeCell ref="L705:O705"/>
-    <mergeCell ref="G707:O707"/>
-    <mergeCell ref="A708:C711"/>
-    <mergeCell ref="D708:F711"/>
-    <mergeCell ref="G708:I708"/>
-    <mergeCell ref="J708:K708"/>
-    <mergeCell ref="L708:M708"/>
-    <mergeCell ref="N708:O708"/>
-    <mergeCell ref="G709:I709"/>
-    <mergeCell ref="J709:K709"/>
-    <mergeCell ref="L709:M709"/>
-    <mergeCell ref="N709:O709"/>
-    <mergeCell ref="G710:I710"/>
-    <mergeCell ref="J710:K710"/>
-    <mergeCell ref="L710:M710"/>
-    <mergeCell ref="N710:O710"/>
-    <mergeCell ref="G711:I711"/>
-    <mergeCell ref="J711:K711"/>
-    <mergeCell ref="L711:M711"/>
-    <mergeCell ref="N711:O711"/>
-    <mergeCell ref="A712:C715"/>
-    <mergeCell ref="D712:F715"/>
-    <mergeCell ref="G712:I712"/>
-    <mergeCell ref="J712:K712"/>
-    <mergeCell ref="L712:M712"/>
-    <mergeCell ref="N712:O712"/>
-    <mergeCell ref="G713:I713"/>
-    <mergeCell ref="J713:K713"/>
-    <mergeCell ref="L713:M713"/>
-    <mergeCell ref="N713:O713"/>
-    <mergeCell ref="G714:I714"/>
-    <mergeCell ref="J714:K714"/>
-    <mergeCell ref="L714:M714"/>
-    <mergeCell ref="N714:O714"/>
-    <mergeCell ref="G715:I715"/>
-    <mergeCell ref="J715:K715"/>
-    <mergeCell ref="L715:M715"/>
-    <mergeCell ref="N715:O715"/>
-    <mergeCell ref="A720:D728"/>
-    <mergeCell ref="E721:O724"/>
-    <mergeCell ref="E725:O725"/>
-    <mergeCell ref="E726:O726"/>
-    <mergeCell ref="L728:O728"/>
-    <mergeCell ref="L729:O729"/>
-    <mergeCell ref="L730:O730"/>
-    <mergeCell ref="A731:C731"/>
-    <mergeCell ref="D731:F731"/>
-    <mergeCell ref="L731:O731"/>
-    <mergeCell ref="A732:C735"/>
-    <mergeCell ref="D732:F735"/>
-    <mergeCell ref="L732:O732"/>
-    <mergeCell ref="L733:O733"/>
-    <mergeCell ref="G735:O735"/>
-    <mergeCell ref="A736:C739"/>
-    <mergeCell ref="D736:F739"/>
-    <mergeCell ref="G736:I736"/>
-    <mergeCell ref="J736:K736"/>
-    <mergeCell ref="L736:M736"/>
-    <mergeCell ref="N736:O736"/>
-    <mergeCell ref="G737:I737"/>
-    <mergeCell ref="J737:K737"/>
-    <mergeCell ref="L737:M737"/>
-    <mergeCell ref="N737:O737"/>
-    <mergeCell ref="G738:I738"/>
-    <mergeCell ref="J738:K738"/>
-    <mergeCell ref="L738:M738"/>
-    <mergeCell ref="N738:O738"/>
-    <mergeCell ref="G739:I739"/>
-    <mergeCell ref="J739:K739"/>
-    <mergeCell ref="L739:M739"/>
-    <mergeCell ref="N739:O739"/>
-    <mergeCell ref="A740:C743"/>
-    <mergeCell ref="D740:F743"/>
-    <mergeCell ref="G740:I740"/>
-    <mergeCell ref="J740:K740"/>
-    <mergeCell ref="L740:M740"/>
-    <mergeCell ref="N740:O740"/>
-    <mergeCell ref="G741:I741"/>
-    <mergeCell ref="J741:K741"/>
-    <mergeCell ref="L741:M741"/>
-    <mergeCell ref="N741:O741"/>
-    <mergeCell ref="G742:I742"/>
-    <mergeCell ref="J742:K742"/>
-    <mergeCell ref="L742:M742"/>
-    <mergeCell ref="N742:O742"/>
-    <mergeCell ref="G743:I743"/>
-    <mergeCell ref="J743:K743"/>
-    <mergeCell ref="L743:M743"/>
-    <mergeCell ref="N743:O743"/>
-    <mergeCell ref="A804:D812"/>
-    <mergeCell ref="E805:O808"/>
-    <mergeCell ref="E809:O809"/>
-    <mergeCell ref="E810:O810"/>
-    <mergeCell ref="L812:O812"/>
-    <mergeCell ref="L813:O813"/>
-    <mergeCell ref="L814:O814"/>
-    <mergeCell ref="A815:C815"/>
-    <mergeCell ref="D815:F815"/>
-    <mergeCell ref="L815:O815"/>
-    <mergeCell ref="A816:C819"/>
-    <mergeCell ref="D816:F819"/>
-    <mergeCell ref="L816:O816"/>
-    <mergeCell ref="L817:O817"/>
-    <mergeCell ref="G819:O819"/>
-    <mergeCell ref="A820:C823"/>
-    <mergeCell ref="D820:F823"/>
-    <mergeCell ref="G820:I820"/>
-    <mergeCell ref="J820:K820"/>
-    <mergeCell ref="L820:M820"/>
-    <mergeCell ref="N820:O820"/>
-    <mergeCell ref="G821:I821"/>
-    <mergeCell ref="J821:K821"/>
-    <mergeCell ref="L821:M821"/>
-    <mergeCell ref="N821:O821"/>
-    <mergeCell ref="G822:I822"/>
-    <mergeCell ref="J822:K822"/>
-    <mergeCell ref="L822:M822"/>
-    <mergeCell ref="N822:O822"/>
-    <mergeCell ref="G823:I823"/>
-    <mergeCell ref="J823:K823"/>
-    <mergeCell ref="L823:M823"/>
-    <mergeCell ref="N823:O823"/>
-    <mergeCell ref="A824:C827"/>
-    <mergeCell ref="D824:F827"/>
-    <mergeCell ref="G824:I824"/>
-    <mergeCell ref="J824:K824"/>
-    <mergeCell ref="L824:M824"/>
-    <mergeCell ref="N824:O824"/>
-    <mergeCell ref="G825:I825"/>
-    <mergeCell ref="J825:K825"/>
-    <mergeCell ref="L825:M825"/>
-    <mergeCell ref="N825:O825"/>
-    <mergeCell ref="G826:I826"/>
-    <mergeCell ref="J826:K826"/>
-    <mergeCell ref="L826:M826"/>
-    <mergeCell ref="N826:O826"/>
-    <mergeCell ref="G827:I827"/>
-    <mergeCell ref="J827:K827"/>
-    <mergeCell ref="L827:M827"/>
-    <mergeCell ref="N827:O827"/>
-    <mergeCell ref="A832:D840"/>
-    <mergeCell ref="E833:O836"/>
-    <mergeCell ref="E837:O837"/>
-    <mergeCell ref="E838:O838"/>
-    <mergeCell ref="L840:O840"/>
-    <mergeCell ref="L841:O841"/>
-    <mergeCell ref="L842:O842"/>
-    <mergeCell ref="A843:C843"/>
-    <mergeCell ref="D843:F843"/>
-    <mergeCell ref="L843:O843"/>
-    <mergeCell ref="A844:C847"/>
-    <mergeCell ref="D844:F847"/>
-    <mergeCell ref="L844:O844"/>
-    <mergeCell ref="L845:O845"/>
-    <mergeCell ref="G847:O847"/>
-    <mergeCell ref="A848:C851"/>
-    <mergeCell ref="D848:F851"/>
-    <mergeCell ref="G848:I848"/>
-    <mergeCell ref="J848:K848"/>
-    <mergeCell ref="L848:M848"/>
-    <mergeCell ref="N848:O848"/>
-    <mergeCell ref="G849:I849"/>
-    <mergeCell ref="J849:K849"/>
-    <mergeCell ref="L849:M849"/>
-    <mergeCell ref="N849:O849"/>
-    <mergeCell ref="G850:I850"/>
-    <mergeCell ref="J850:K850"/>
-    <mergeCell ref="L850:M850"/>
-    <mergeCell ref="N850:O850"/>
-    <mergeCell ref="G851:I851"/>
-    <mergeCell ref="J851:K851"/>
-    <mergeCell ref="L851:M851"/>
-    <mergeCell ref="N851:O851"/>
-    <mergeCell ref="A852:C855"/>
-    <mergeCell ref="D852:F855"/>
-    <mergeCell ref="G852:I852"/>
-    <mergeCell ref="J852:K852"/>
-    <mergeCell ref="L852:M852"/>
-    <mergeCell ref="N852:O852"/>
-    <mergeCell ref="G853:I853"/>
-    <mergeCell ref="J853:K853"/>
-    <mergeCell ref="L853:M853"/>
-    <mergeCell ref="N853:O853"/>
-    <mergeCell ref="G854:I854"/>
-    <mergeCell ref="J854:K854"/>
-    <mergeCell ref="L854:M854"/>
-    <mergeCell ref="N854:O854"/>
-    <mergeCell ref="G855:I855"/>
-    <mergeCell ref="J855:K855"/>
-    <mergeCell ref="L855:M855"/>
-    <mergeCell ref="N855:O855"/>
-    <mergeCell ref="A860:D868"/>
-    <mergeCell ref="E861:O864"/>
-    <mergeCell ref="E865:O865"/>
-    <mergeCell ref="E866:O866"/>
-    <mergeCell ref="L868:O868"/>
-    <mergeCell ref="L869:O869"/>
-    <mergeCell ref="L870:O870"/>
-    <mergeCell ref="A871:C871"/>
-    <mergeCell ref="D871:F871"/>
-    <mergeCell ref="L871:O871"/>
-    <mergeCell ref="A872:C875"/>
-    <mergeCell ref="D872:F875"/>
-    <mergeCell ref="L872:O872"/>
-    <mergeCell ref="L873:O873"/>
-    <mergeCell ref="G875:O875"/>
-    <mergeCell ref="A876:C879"/>
-    <mergeCell ref="D876:F879"/>
-    <mergeCell ref="G876:I876"/>
-    <mergeCell ref="J876:K876"/>
-    <mergeCell ref="L876:M876"/>
-    <mergeCell ref="N876:O876"/>
-    <mergeCell ref="G877:I877"/>
-    <mergeCell ref="J877:K877"/>
-    <mergeCell ref="L877:M877"/>
-    <mergeCell ref="N877:O877"/>
-    <mergeCell ref="G878:I878"/>
-    <mergeCell ref="J878:K878"/>
-    <mergeCell ref="L878:M878"/>
-    <mergeCell ref="N878:O878"/>
-    <mergeCell ref="G879:I879"/>
-    <mergeCell ref="J879:K879"/>
-    <mergeCell ref="L879:M879"/>
-    <mergeCell ref="N879:O879"/>
-    <mergeCell ref="A880:C883"/>
-    <mergeCell ref="D880:F883"/>
-    <mergeCell ref="G880:I880"/>
-    <mergeCell ref="J880:K880"/>
-    <mergeCell ref="L880:M880"/>
-    <mergeCell ref="N880:O880"/>
-    <mergeCell ref="G881:I881"/>
-    <mergeCell ref="J881:K881"/>
-    <mergeCell ref="L881:M881"/>
-    <mergeCell ref="N881:O881"/>
-    <mergeCell ref="G882:I882"/>
-    <mergeCell ref="J882:K882"/>
-    <mergeCell ref="L882:M882"/>
-    <mergeCell ref="N882:O882"/>
-    <mergeCell ref="G883:I883"/>
-    <mergeCell ref="J883:K883"/>
-    <mergeCell ref="L883:M883"/>
-    <mergeCell ref="N883:O883"/>
-    <mergeCell ref="A888:D896"/>
-    <mergeCell ref="E889:O892"/>
-    <mergeCell ref="E893:O893"/>
-    <mergeCell ref="E894:O894"/>
-    <mergeCell ref="L896:O896"/>
-    <mergeCell ref="L897:O897"/>
-    <mergeCell ref="L898:O898"/>
-    <mergeCell ref="A899:C899"/>
-    <mergeCell ref="D899:F899"/>
-    <mergeCell ref="L899:O899"/>
-    <mergeCell ref="A900:C903"/>
-    <mergeCell ref="D900:F903"/>
-    <mergeCell ref="L900:O900"/>
-    <mergeCell ref="L901:O901"/>
-    <mergeCell ref="G903:O903"/>
-    <mergeCell ref="A904:C907"/>
-    <mergeCell ref="D904:F907"/>
-    <mergeCell ref="G904:I904"/>
-    <mergeCell ref="J904:K904"/>
-    <mergeCell ref="L904:M904"/>
-    <mergeCell ref="N904:O904"/>
-    <mergeCell ref="G905:I905"/>
-    <mergeCell ref="J905:K905"/>
-    <mergeCell ref="L905:M905"/>
-    <mergeCell ref="N905:O905"/>
-    <mergeCell ref="G906:I906"/>
-    <mergeCell ref="J906:K906"/>
-    <mergeCell ref="L906:M906"/>
-    <mergeCell ref="N906:O906"/>
-    <mergeCell ref="G907:I907"/>
-    <mergeCell ref="J907:K907"/>
-    <mergeCell ref="L907:M907"/>
-    <mergeCell ref="N907:O907"/>
-    <mergeCell ref="A908:C911"/>
-    <mergeCell ref="D908:F911"/>
-    <mergeCell ref="G908:I908"/>
-    <mergeCell ref="J908:K908"/>
-    <mergeCell ref="L908:M908"/>
-    <mergeCell ref="N908:O908"/>
-    <mergeCell ref="G909:I909"/>
-    <mergeCell ref="J909:K909"/>
-    <mergeCell ref="L909:M909"/>
-    <mergeCell ref="N909:O909"/>
-    <mergeCell ref="G910:I910"/>
-    <mergeCell ref="J910:K910"/>
-    <mergeCell ref="L910:M910"/>
-    <mergeCell ref="N910:O910"/>
-    <mergeCell ref="G911:I911"/>
-    <mergeCell ref="J911:K911"/>
-    <mergeCell ref="L911:M911"/>
-    <mergeCell ref="N911:O911"/>
-    <mergeCell ref="A916:D924"/>
-    <mergeCell ref="E917:O920"/>
-    <mergeCell ref="E921:O921"/>
-    <mergeCell ref="E922:O922"/>
-    <mergeCell ref="L924:O924"/>
-    <mergeCell ref="L925:O925"/>
-    <mergeCell ref="L926:O926"/>
-    <mergeCell ref="A927:C927"/>
-    <mergeCell ref="D927:F927"/>
-    <mergeCell ref="L927:O927"/>
-    <mergeCell ref="A928:C931"/>
-    <mergeCell ref="D928:F931"/>
-    <mergeCell ref="L928:O928"/>
-    <mergeCell ref="L929:O929"/>
-    <mergeCell ref="G931:O931"/>
-    <mergeCell ref="A932:C935"/>
-    <mergeCell ref="D932:F935"/>
-    <mergeCell ref="G932:I932"/>
-    <mergeCell ref="J932:K932"/>
-    <mergeCell ref="L932:M932"/>
-    <mergeCell ref="N932:O932"/>
-    <mergeCell ref="G933:I933"/>
-    <mergeCell ref="J933:K933"/>
-    <mergeCell ref="L933:M933"/>
-    <mergeCell ref="N933:O933"/>
-    <mergeCell ref="G934:I934"/>
-    <mergeCell ref="J934:K934"/>
-    <mergeCell ref="L934:M934"/>
-    <mergeCell ref="N934:O934"/>
-    <mergeCell ref="G935:I935"/>
-    <mergeCell ref="J935:K935"/>
-    <mergeCell ref="L935:M935"/>
-    <mergeCell ref="N935:O935"/>
-    <mergeCell ref="A936:C939"/>
-    <mergeCell ref="D936:F939"/>
-    <mergeCell ref="G936:I936"/>
-    <mergeCell ref="J936:K936"/>
-    <mergeCell ref="L936:M936"/>
-    <mergeCell ref="N936:O936"/>
-    <mergeCell ref="G937:I937"/>
-    <mergeCell ref="J937:K937"/>
-    <mergeCell ref="L937:M937"/>
-    <mergeCell ref="N937:O937"/>
-    <mergeCell ref="G938:I938"/>
-    <mergeCell ref="J938:K938"/>
-    <mergeCell ref="L938:M938"/>
-    <mergeCell ref="N938:O938"/>
-    <mergeCell ref="G939:I939"/>
-    <mergeCell ref="J939:K939"/>
-    <mergeCell ref="L939:M939"/>
-    <mergeCell ref="N939:O939"/>
+    <mergeCell ref="N963:O963"/>
+    <mergeCell ref="A964:C967"/>
+    <mergeCell ref="D964:F967"/>
+    <mergeCell ref="G964:I964"/>
+    <mergeCell ref="J964:K964"/>
+    <mergeCell ref="L964:M964"/>
+    <mergeCell ref="N964:O964"/>
+    <mergeCell ref="G965:I965"/>
+    <mergeCell ref="J965:K965"/>
+    <mergeCell ref="L965:M965"/>
+    <mergeCell ref="N965:O965"/>
+    <mergeCell ref="G966:I966"/>
+    <mergeCell ref="J966:K966"/>
+    <mergeCell ref="L966:M966"/>
+    <mergeCell ref="N966:O966"/>
+    <mergeCell ref="G967:I967"/>
+    <mergeCell ref="J967:K967"/>
+    <mergeCell ref="L967:M967"/>
+    <mergeCell ref="N967:O967"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26479,12 +27168,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26670,17 +27358,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A20BDE-ACAC-49A0-A051-6F5B010A8CC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26704,17 +27401,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A20BDE-ACAC-49A0-A051-6F5B010A8CC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentacao/excel/mechspot_ata.xlsx
+++ b/documentacao/excel/mechspot_ata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\projeto-pi-sprint-2\documentacao\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E801DDB3-684D-4C67-B9CE-A1B106AFD129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD082E42-62D9-46C3-94E2-84A34C498553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4545F592-9151-46FC-8F7A-0131C129BBC9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="269">
   <si>
     <t>OK</t>
   </si>
@@ -1473,6 +1473,40 @@
   <si>
     <t>Novo diagrama aprovado</t>
   </si>
+  <si>
+    <t>Melhorias da Dashboard aprovadas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF32746D"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t>DATA:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  06/10/2024     |     LISTA DE PRESENÇA</t>
+    </r>
+  </si>
+  <si>
+    <t>Melhorar às legendas dos Gráficos</t>
+  </si>
+  <si>
+    <t>Melhorar os gráficos</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
 </sst>
 </file>
 
@@ -2044,6 +2078,48 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2054,9 +2130,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2070,45 +2143,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3808,6 +3842,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>415917</xdr:colOff>
+      <xdr:row>1000</xdr:row>
+      <xdr:rowOff>35593</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1573013" cy="1611635"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagem 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D855A460-8A94-4990-9F67-C35423A394E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1101717" y="196263293"/>
+          <a:ext cx="1573013" cy="1611635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4128,10 +4207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5446F9-8A09-4B91-82C6-8FD7102DEAC7}">
-  <dimension ref="A1:Y997"/>
+  <dimension ref="A1:Y1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A971" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I999" sqref="I999"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A991" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T1021" sqref="T1021"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9793,13 +9872,13 @@
       <c r="N269" s="7"/>
       <c r="O269" s="7"/>
       <c r="P269" s="5"/>
-      <c r="Q269" s="66" t="s">
+      <c r="Q269" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="R269" s="66"/>
-      <c r="S269" s="66"/>
-      <c r="T269" s="66"/>
-      <c r="U269" s="66"/>
+      <c r="R269" s="50"/>
+      <c r="S269" s="50"/>
+      <c r="T269" s="50"/>
+      <c r="U269" s="50"/>
       <c r="V269" s="1"/>
     </row>
     <row r="270" spans="1:22" ht="15">
@@ -9816,18 +9895,18 @@
       </c>
       <c r="J270" s="6"/>
       <c r="K270" s="6"/>
-      <c r="L270" s="60" t="s">
+      <c r="L270" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M270" s="60"/>
-      <c r="N270" s="60"/>
-      <c r="O270" s="60"/>
+      <c r="M270" s="53"/>
+      <c r="N270" s="53"/>
+      <c r="O270" s="53"/>
       <c r="P270" s="5"/>
-      <c r="Q270" s="67"/>
-      <c r="R270" s="67"/>
-      <c r="S270" s="67"/>
-      <c r="T270" s="67"/>
-      <c r="U270" s="67"/>
+      <c r="Q270" s="51"/>
+      <c r="R270" s="51"/>
+      <c r="S270" s="51"/>
+      <c r="T270" s="51"/>
+      <c r="U270" s="51"/>
       <c r="V270" s="1"/>
     </row>
     <row r="271" spans="1:22" ht="15">
@@ -9844,18 +9923,18 @@
       </c>
       <c r="J271" s="6"/>
       <c r="K271" s="6"/>
-      <c r="L271" s="60" t="s">
+      <c r="L271" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M271" s="60"/>
-      <c r="N271" s="60"/>
-      <c r="O271" s="60"/>
+      <c r="M271" s="53"/>
+      <c r="N271" s="53"/>
+      <c r="O271" s="53"/>
       <c r="P271" s="5"/>
-      <c r="Q271" s="67"/>
-      <c r="R271" s="67"/>
-      <c r="S271" s="67"/>
-      <c r="T271" s="67"/>
-      <c r="U271" s="67"/>
+      <c r="Q271" s="51"/>
+      <c r="R271" s="51"/>
+      <c r="S271" s="51"/>
+      <c r="T271" s="51"/>
+      <c r="U271" s="51"/>
       <c r="V271" s="1"/>
     </row>
     <row r="272" spans="1:22" ht="15">
@@ -9872,33 +9951,33 @@
       </c>
       <c r="J272" s="6"/>
       <c r="K272" s="6"/>
-      <c r="L272" s="58" t="s">
+      <c r="L272" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="M272" s="58"/>
-      <c r="N272" s="58"/>
-      <c r="O272" s="58"/>
+      <c r="M272" s="54"/>
+      <c r="N272" s="54"/>
+      <c r="O272" s="54"/>
       <c r="P272" s="5"/>
-      <c r="Q272" s="67" t="s">
+      <c r="Q272" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="R272" s="67"/>
-      <c r="S272" s="67"/>
-      <c r="T272" s="67"/>
-      <c r="U272" s="67"/>
+      <c r="R272" s="51"/>
+      <c r="S272" s="51"/>
+      <c r="T272" s="51"/>
+      <c r="U272" s="51"/>
       <c r="V272" s="1"/>
     </row>
     <row r="273" spans="1:22" ht="15">
-      <c r="A273" s="56" t="s">
+      <c r="A273" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B273" s="57"/>
-      <c r="C273" s="57"/>
-      <c r="D273" s="57" t="s">
+      <c r="B273" s="58"/>
+      <c r="C273" s="58"/>
+      <c r="D273" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E273" s="57"/>
-      <c r="F273" s="57"/>
+      <c r="E273" s="58"/>
+      <c r="F273" s="58"/>
       <c r="G273" s="6"/>
       <c r="H273" s="6"/>
       <c r="I273" s="6" t="s">
@@ -9906,31 +9985,31 @@
       </c>
       <c r="J273" s="6"/>
       <c r="K273" s="6"/>
-      <c r="L273" s="58" t="s">
+      <c r="L273" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="M273" s="58"/>
-      <c r="N273" s="58"/>
-      <c r="O273" s="58"/>
+      <c r="M273" s="54"/>
+      <c r="N273" s="54"/>
+      <c r="O273" s="54"/>
       <c r="P273" s="5"/>
-      <c r="Q273" s="67"/>
-      <c r="R273" s="67"/>
-      <c r="S273" s="67"/>
-      <c r="T273" s="67"/>
-      <c r="U273" s="67"/>
+      <c r="Q273" s="51"/>
+      <c r="R273" s="51"/>
+      <c r="S273" s="51"/>
+      <c r="T273" s="51"/>
+      <c r="U273" s="51"/>
       <c r="V273" s="1"/>
     </row>
     <row r="274" spans="1:22" ht="15">
-      <c r="A274" s="59" t="s">
+      <c r="A274" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="B274" s="51"/>
-      <c r="C274" s="51"/>
-      <c r="D274" s="51" t="s">
+      <c r="B274" s="56"/>
+      <c r="C274" s="56"/>
+      <c r="D274" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="E274" s="51"/>
-      <c r="F274" s="51"/>
+      <c r="E274" s="56"/>
+      <c r="F274" s="56"/>
       <c r="G274" s="6"/>
       <c r="H274" s="6"/>
       <c r="I274" s="6" t="s">
@@ -9938,27 +10017,27 @@
       </c>
       <c r="J274" s="6"/>
       <c r="K274" s="6"/>
-      <c r="L274" s="58" t="s">
+      <c r="L274" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="M274" s="58"/>
-      <c r="N274" s="58"/>
-      <c r="O274" s="58"/>
+      <c r="M274" s="54"/>
+      <c r="N274" s="54"/>
+      <c r="O274" s="54"/>
       <c r="P274" s="5"/>
-      <c r="Q274" s="67"/>
-      <c r="R274" s="67"/>
-      <c r="S274" s="67"/>
-      <c r="T274" s="67"/>
-      <c r="U274" s="67"/>
+      <c r="Q274" s="51"/>
+      <c r="R274" s="51"/>
+      <c r="S274" s="51"/>
+      <c r="T274" s="51"/>
+      <c r="U274" s="51"/>
       <c r="V274" s="1"/>
     </row>
     <row r="275" spans="1:22" ht="15">
-      <c r="A275" s="59"/>
-      <c r="B275" s="51"/>
-      <c r="C275" s="51"/>
-      <c r="D275" s="51"/>
-      <c r="E275" s="51"/>
-      <c r="F275" s="51"/>
+      <c r="A275" s="55"/>
+      <c r="B275" s="56"/>
+      <c r="C275" s="56"/>
+      <c r="D275" s="56"/>
+      <c r="E275" s="56"/>
+      <c r="F275" s="56"/>
       <c r="G275" s="6"/>
       <c r="H275" s="6"/>
       <c r="I275" s="6" t="s">
@@ -9966,29 +10045,29 @@
       </c>
       <c r="J275" s="6"/>
       <c r="K275" s="6"/>
-      <c r="L275" s="60" t="s">
+      <c r="L275" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M275" s="60"/>
-      <c r="N275" s="60"/>
-      <c r="O275" s="60"/>
+      <c r="M275" s="53"/>
+      <c r="N275" s="53"/>
+      <c r="O275" s="53"/>
       <c r="P275" s="5"/>
-      <c r="Q275" s="67" t="s">
+      <c r="Q275" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="R275" s="67"/>
-      <c r="S275" s="67"/>
-      <c r="T275" s="67"/>
-      <c r="U275" s="67"/>
+      <c r="R275" s="51"/>
+      <c r="S275" s="51"/>
+      <c r="T275" s="51"/>
+      <c r="U275" s="51"/>
       <c r="V275" s="1"/>
     </row>
     <row r="276" spans="1:22" ht="15">
-      <c r="A276" s="59"/>
-      <c r="B276" s="51"/>
-      <c r="C276" s="51"/>
-      <c r="D276" s="51"/>
-      <c r="E276" s="51"/>
-      <c r="F276" s="51"/>
+      <c r="A276" s="55"/>
+      <c r="B276" s="56"/>
+      <c r="C276" s="56"/>
+      <c r="D276" s="56"/>
+      <c r="E276" s="56"/>
+      <c r="F276" s="56"/>
       <c r="G276" s="6"/>
       <c r="H276" s="6"/>
       <c r="I276" s="6"/>
@@ -9999,449 +10078,449 @@
       <c r="N276" s="6"/>
       <c r="O276" s="6"/>
       <c r="P276" s="5"/>
-      <c r="Q276" s="67"/>
-      <c r="R276" s="67"/>
-      <c r="S276" s="67"/>
-      <c r="T276" s="67"/>
-      <c r="U276" s="67"/>
+      <c r="Q276" s="51"/>
+      <c r="R276" s="51"/>
+      <c r="S276" s="51"/>
+      <c r="T276" s="51"/>
+      <c r="U276" s="51"/>
       <c r="V276" s="1"/>
     </row>
     <row r="277" spans="1:22">
-      <c r="A277" s="59"/>
-      <c r="B277" s="51"/>
-      <c r="C277" s="51"/>
-      <c r="D277" s="51"/>
-      <c r="E277" s="51"/>
-      <c r="F277" s="51"/>
-      <c r="G277" s="61" t="s">
+      <c r="A277" s="55"/>
+      <c r="B277" s="56"/>
+      <c r="C277" s="56"/>
+      <c r="D277" s="56"/>
+      <c r="E277" s="56"/>
+      <c r="F277" s="56"/>
+      <c r="G277" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H277" s="61"/>
-      <c r="I277" s="61"/>
-      <c r="J277" s="61"/>
-      <c r="K277" s="61"/>
-      <c r="L277" s="61"/>
-      <c r="M277" s="61"/>
-      <c r="N277" s="61"/>
-      <c r="O277" s="61"/>
+      <c r="H277" s="59"/>
+      <c r="I277" s="59"/>
+      <c r="J277" s="59"/>
+      <c r="K277" s="59"/>
+      <c r="L277" s="59"/>
+      <c r="M277" s="59"/>
+      <c r="N277" s="59"/>
+      <c r="O277" s="59"/>
       <c r="P277" s="5"/>
-      <c r="Q277" s="67"/>
-      <c r="R277" s="67"/>
-      <c r="S277" s="67"/>
-      <c r="T277" s="67"/>
-      <c r="U277" s="67"/>
+      <c r="Q277" s="51"/>
+      <c r="R277" s="51"/>
+      <c r="S277" s="51"/>
+      <c r="T277" s="51"/>
+      <c r="U277" s="51"/>
       <c r="V277" s="1"/>
     </row>
     <row r="278" spans="1:22">
-      <c r="A278" s="59" t="s">
+      <c r="A278" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="B278" s="51"/>
-      <c r="C278" s="51"/>
-      <c r="D278" s="51" t="s">
+      <c r="B278" s="56"/>
+      <c r="C278" s="56"/>
+      <c r="D278" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="E278" s="51"/>
-      <c r="F278" s="51"/>
-      <c r="G278" s="62" t="s">
+      <c r="E278" s="56"/>
+      <c r="F278" s="56"/>
+      <c r="G278" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H278" s="62"/>
-      <c r="I278" s="62"/>
-      <c r="J278" s="62" t="s">
+      <c r="H278" s="60"/>
+      <c r="I278" s="60"/>
+      <c r="J278" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="K278" s="62"/>
-      <c r="L278" s="62" t="s">
+      <c r="K278" s="60"/>
+      <c r="L278" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="M278" s="62"/>
-      <c r="N278" s="62" t="s">
+      <c r="M278" s="60"/>
+      <c r="N278" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="O278" s="62"/>
+      <c r="O278" s="60"/>
       <c r="P278" s="5"/>
-      <c r="Q278" s="67" t="s">
+      <c r="Q278" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="R278" s="67"/>
-      <c r="S278" s="67"/>
-      <c r="T278" s="67"/>
-      <c r="U278" s="67"/>
+      <c r="R278" s="51"/>
+      <c r="S278" s="51"/>
+      <c r="T278" s="51"/>
+      <c r="U278" s="51"/>
       <c r="V278" s="1"/>
     </row>
     <row r="279" spans="1:22">
-      <c r="A279" s="59"/>
-      <c r="B279" s="51"/>
-      <c r="C279" s="51"/>
-      <c r="D279" s="51"/>
-      <c r="E279" s="51"/>
-      <c r="F279" s="51"/>
-      <c r="G279" s="63" t="s">
+      <c r="A279" s="55"/>
+      <c r="B279" s="56"/>
+      <c r="C279" s="56"/>
+      <c r="D279" s="56"/>
+      <c r="E279" s="56"/>
+      <c r="F279" s="56"/>
+      <c r="G279" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="H279" s="63"/>
-      <c r="I279" s="63"/>
-      <c r="J279" s="64">
+      <c r="H279" s="48"/>
+      <c r="I279" s="48"/>
+      <c r="J279" s="49">
         <v>45568</v>
       </c>
-      <c r="K279" s="63"/>
-      <c r="L279" s="63" t="s">
+      <c r="K279" s="48"/>
+      <c r="L279" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="M279" s="63"/>
-      <c r="N279" s="63" t="s">
+      <c r="M279" s="48"/>
+      <c r="N279" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="O279" s="63"/>
+      <c r="O279" s="48"/>
       <c r="P279" s="5"/>
-      <c r="Q279" s="67"/>
-      <c r="R279" s="67"/>
-      <c r="S279" s="67"/>
-      <c r="T279" s="67"/>
-      <c r="U279" s="67"/>
+      <c r="Q279" s="51"/>
+      <c r="R279" s="51"/>
+      <c r="S279" s="51"/>
+      <c r="T279" s="51"/>
+      <c r="U279" s="51"/>
       <c r="V279" s="1"/>
     </row>
     <row r="280" spans="1:22">
-      <c r="A280" s="59"/>
-      <c r="B280" s="51"/>
-      <c r="C280" s="51"/>
-      <c r="D280" s="51"/>
-      <c r="E280" s="51"/>
-      <c r="F280" s="51"/>
-      <c r="G280" s="63" t="s">
+      <c r="A280" s="55"/>
+      <c r="B280" s="56"/>
+      <c r="C280" s="56"/>
+      <c r="D280" s="56"/>
+      <c r="E280" s="56"/>
+      <c r="F280" s="56"/>
+      <c r="G280" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="H280" s="63"/>
-      <c r="I280" s="63"/>
-      <c r="J280" s="64">
+      <c r="H280" s="48"/>
+      <c r="I280" s="48"/>
+      <c r="J280" s="49">
         <v>45568</v>
       </c>
-      <c r="K280" s="63"/>
-      <c r="L280" s="63" t="s">
+      <c r="K280" s="48"/>
+      <c r="L280" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="M280" s="63"/>
-      <c r="N280" s="63" t="s">
+      <c r="M280" s="48"/>
+      <c r="N280" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="O280" s="63"/>
+      <c r="O280" s="48"/>
       <c r="P280" s="5"/>
-      <c r="Q280" s="67"/>
-      <c r="R280" s="67"/>
-      <c r="S280" s="67"/>
-      <c r="T280" s="67"/>
-      <c r="U280" s="67"/>
+      <c r="Q280" s="51"/>
+      <c r="R280" s="51"/>
+      <c r="S280" s="51"/>
+      <c r="T280" s="51"/>
+      <c r="U280" s="51"/>
       <c r="V280" s="1"/>
     </row>
     <row r="281" spans="1:22">
-      <c r="A281" s="59"/>
-      <c r="B281" s="51"/>
-      <c r="C281" s="51"/>
-      <c r="D281" s="51"/>
-      <c r="E281" s="51"/>
-      <c r="F281" s="51"/>
-      <c r="G281" s="63" t="s">
+      <c r="A281" s="55"/>
+      <c r="B281" s="56"/>
+      <c r="C281" s="56"/>
+      <c r="D281" s="56"/>
+      <c r="E281" s="56"/>
+      <c r="F281" s="56"/>
+      <c r="G281" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H281" s="63"/>
-      <c r="I281" s="63"/>
-      <c r="J281" s="64">
+      <c r="H281" s="48"/>
+      <c r="I281" s="48"/>
+      <c r="J281" s="49">
         <v>45568</v>
       </c>
-      <c r="K281" s="63"/>
-      <c r="L281" s="63" t="s">
+      <c r="K281" s="48"/>
+      <c r="L281" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M281" s="63"/>
-      <c r="N281" s="63" t="s">
+      <c r="M281" s="48"/>
+      <c r="N281" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="O281" s="63"/>
+      <c r="O281" s="48"/>
       <c r="P281" s="5"/>
-      <c r="Q281" s="67"/>
-      <c r="R281" s="67"/>
-      <c r="S281" s="67"/>
-      <c r="T281" s="67"/>
-      <c r="U281" s="67"/>
+      <c r="Q281" s="51"/>
+      <c r="R281" s="51"/>
+      <c r="S281" s="51"/>
+      <c r="T281" s="51"/>
+      <c r="U281" s="51"/>
       <c r="V281" s="1"/>
     </row>
     <row r="282" spans="1:22">
-      <c r="A282" s="59" t="s">
+      <c r="A282" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="B282" s="51"/>
-      <c r="C282" s="51"/>
-      <c r="D282" s="51" t="s">
+      <c r="B282" s="56"/>
+      <c r="C282" s="56"/>
+      <c r="D282" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="E282" s="51"/>
-      <c r="F282" s="51"/>
-      <c r="G282" s="63" t="s">
+      <c r="E282" s="56"/>
+      <c r="F282" s="56"/>
+      <c r="G282" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="H282" s="63"/>
-      <c r="I282" s="63"/>
-      <c r="J282" s="64">
+      <c r="H282" s="48"/>
+      <c r="I282" s="48"/>
+      <c r="J282" s="49">
         <v>45568</v>
       </c>
-      <c r="K282" s="63"/>
-      <c r="L282" s="63" t="s">
+      <c r="K282" s="48"/>
+      <c r="L282" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="M282" s="63"/>
-      <c r="N282" s="63" t="s">
+      <c r="M282" s="48"/>
+      <c r="N282" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="O282" s="63"/>
+      <c r="O282" s="48"/>
       <c r="P282" s="5"/>
-      <c r="Q282" s="67"/>
-      <c r="R282" s="67"/>
-      <c r="S282" s="67"/>
-      <c r="T282" s="67"/>
-      <c r="U282" s="67"/>
+      <c r="Q282" s="51"/>
+      <c r="R282" s="51"/>
+      <c r="S282" s="51"/>
+      <c r="T282" s="51"/>
+      <c r="U282" s="51"/>
       <c r="V282" s="1"/>
     </row>
     <row r="283" spans="1:22" ht="15">
-      <c r="A283" s="59"/>
-      <c r="B283" s="51"/>
-      <c r="C283" s="51"/>
-      <c r="D283" s="51"/>
-      <c r="E283" s="51"/>
-      <c r="F283" s="51"/>
-      <c r="G283" s="65"/>
-      <c r="H283" s="65"/>
-      <c r="I283" s="65"/>
-      <c r="J283" s="63"/>
-      <c r="K283" s="63"/>
-      <c r="L283" s="63"/>
-      <c r="M283" s="63"/>
-      <c r="N283" s="63"/>
-      <c r="O283" s="63"/>
+      <c r="A283" s="55"/>
+      <c r="B283" s="56"/>
+      <c r="C283" s="56"/>
+      <c r="D283" s="56"/>
+      <c r="E283" s="56"/>
+      <c r="F283" s="56"/>
+      <c r="G283" s="47"/>
+      <c r="H283" s="47"/>
+      <c r="I283" s="47"/>
+      <c r="J283" s="48"/>
+      <c r="K283" s="48"/>
+      <c r="L283" s="48"/>
+      <c r="M283" s="48"/>
+      <c r="N283" s="48"/>
+      <c r="O283" s="48"/>
       <c r="P283" s="5"/>
-      <c r="Q283" s="67"/>
-      <c r="R283" s="67"/>
-      <c r="S283" s="67"/>
-      <c r="T283" s="67"/>
-      <c r="U283" s="67"/>
+      <c r="Q283" s="51"/>
+      <c r="R283" s="51"/>
+      <c r="S283" s="51"/>
+      <c r="T283" s="51"/>
+      <c r="U283" s="51"/>
       <c r="V283" s="1"/>
     </row>
     <row r="284" spans="1:22">
-      <c r="A284" s="59"/>
-      <c r="B284" s="51"/>
-      <c r="C284" s="51"/>
-      <c r="D284" s="51"/>
-      <c r="E284" s="51"/>
-      <c r="F284" s="51"/>
-      <c r="G284" s="63"/>
-      <c r="H284" s="63"/>
-      <c r="I284" s="63"/>
-      <c r="J284" s="64"/>
-      <c r="K284" s="63"/>
-      <c r="L284" s="63"/>
-      <c r="M284" s="63"/>
-      <c r="N284" s="63"/>
-      <c r="O284" s="63"/>
+      <c r="A284" s="55"/>
+      <c r="B284" s="56"/>
+      <c r="C284" s="56"/>
+      <c r="D284" s="56"/>
+      <c r="E284" s="56"/>
+      <c r="F284" s="56"/>
+      <c r="G284" s="48"/>
+      <c r="H284" s="48"/>
+      <c r="I284" s="48"/>
+      <c r="J284" s="49"/>
+      <c r="K284" s="48"/>
+      <c r="L284" s="48"/>
+      <c r="M284" s="48"/>
+      <c r="N284" s="48"/>
+      <c r="O284" s="48"/>
       <c r="P284" s="5"/>
-      <c r="Q284" s="67"/>
-      <c r="R284" s="67"/>
-      <c r="S284" s="67"/>
-      <c r="T284" s="67"/>
-      <c r="U284" s="67"/>
+      <c r="Q284" s="51"/>
+      <c r="R284" s="51"/>
+      <c r="S284" s="51"/>
+      <c r="T284" s="51"/>
+      <c r="U284" s="51"/>
       <c r="V284" s="1"/>
     </row>
     <row r="285" spans="1:22">
-      <c r="A285" s="59"/>
-      <c r="B285" s="51"/>
-      <c r="C285" s="51"/>
-      <c r="D285" s="51"/>
-      <c r="E285" s="51"/>
-      <c r="F285" s="51"/>
-      <c r="G285" s="63"/>
-      <c r="H285" s="63"/>
-      <c r="I285" s="63"/>
-      <c r="J285" s="64"/>
-      <c r="K285" s="63"/>
-      <c r="L285" s="63"/>
-      <c r="M285" s="63"/>
-      <c r="N285" s="63"/>
-      <c r="O285" s="63"/>
+      <c r="A285" s="55"/>
+      <c r="B285" s="56"/>
+      <c r="C285" s="56"/>
+      <c r="D285" s="56"/>
+      <c r="E285" s="56"/>
+      <c r="F285" s="56"/>
+      <c r="G285" s="48"/>
+      <c r="H285" s="48"/>
+      <c r="I285" s="48"/>
+      <c r="J285" s="49"/>
+      <c r="K285" s="48"/>
+      <c r="L285" s="48"/>
+      <c r="M285" s="48"/>
+      <c r="N285" s="48"/>
+      <c r="O285" s="48"/>
       <c r="P285" s="5"/>
-      <c r="Q285" s="67"/>
-      <c r="R285" s="67"/>
-      <c r="S285" s="67"/>
-      <c r="T285" s="67"/>
-      <c r="U285" s="67"/>
+      <c r="Q285" s="51"/>
+      <c r="R285" s="51"/>
+      <c r="S285" s="51"/>
+      <c r="T285" s="51"/>
+      <c r="U285" s="51"/>
       <c r="V285" s="1"/>
     </row>
     <row r="286" spans="1:22" ht="15">
-      <c r="A286" s="59" t="s">
+      <c r="A286" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="B286" s="51"/>
-      <c r="C286" s="51"/>
-      <c r="D286" s="51" t="s">
+      <c r="B286" s="56"/>
+      <c r="C286" s="56"/>
+      <c r="D286" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E286" s="51"/>
-      <c r="F286" s="51"/>
-      <c r="G286" s="65"/>
-      <c r="H286" s="65"/>
-      <c r="I286" s="65"/>
-      <c r="J286" s="63"/>
-      <c r="K286" s="63"/>
-      <c r="L286" s="63"/>
-      <c r="M286" s="63"/>
-      <c r="N286" s="63"/>
-      <c r="O286" s="63"/>
+      <c r="E286" s="56"/>
+      <c r="F286" s="56"/>
+      <c r="G286" s="47"/>
+      <c r="H286" s="47"/>
+      <c r="I286" s="47"/>
+      <c r="J286" s="48"/>
+      <c r="K286" s="48"/>
+      <c r="L286" s="48"/>
+      <c r="M286" s="48"/>
+      <c r="N286" s="48"/>
+      <c r="O286" s="48"/>
       <c r="P286" s="5"/>
-      <c r="Q286" s="67"/>
-      <c r="R286" s="67"/>
-      <c r="S286" s="67"/>
-      <c r="T286" s="67"/>
-      <c r="U286" s="67"/>
+      <c r="Q286" s="51"/>
+      <c r="R286" s="51"/>
+      <c r="S286" s="51"/>
+      <c r="T286" s="51"/>
+      <c r="U286" s="51"/>
       <c r="V286" s="1"/>
     </row>
     <row r="287" spans="1:22">
-      <c r="A287" s="59"/>
-      <c r="B287" s="51"/>
-      <c r="C287" s="51"/>
-      <c r="D287" s="51"/>
-      <c r="E287" s="51"/>
-      <c r="F287" s="51"/>
-      <c r="G287" s="63"/>
-      <c r="H287" s="63"/>
-      <c r="I287" s="63"/>
-      <c r="J287" s="64"/>
-      <c r="K287" s="63"/>
-      <c r="L287" s="63"/>
-      <c r="M287" s="63"/>
-      <c r="N287" s="63"/>
-      <c r="O287" s="63"/>
+      <c r="A287" s="55"/>
+      <c r="B287" s="56"/>
+      <c r="C287" s="56"/>
+      <c r="D287" s="56"/>
+      <c r="E287" s="56"/>
+      <c r="F287" s="56"/>
+      <c r="G287" s="48"/>
+      <c r="H287" s="48"/>
+      <c r="I287" s="48"/>
+      <c r="J287" s="49"/>
+      <c r="K287" s="48"/>
+      <c r="L287" s="48"/>
+      <c r="M287" s="48"/>
+      <c r="N287" s="48"/>
+      <c r="O287" s="48"/>
       <c r="P287" s="5"/>
-      <c r="Q287" s="67"/>
-      <c r="R287" s="67"/>
-      <c r="S287" s="67"/>
-      <c r="T287" s="67"/>
-      <c r="U287" s="67"/>
+      <c r="Q287" s="51"/>
+      <c r="R287" s="51"/>
+      <c r="S287" s="51"/>
+      <c r="T287" s="51"/>
+      <c r="U287" s="51"/>
       <c r="V287" s="1"/>
     </row>
     <row r="288" spans="1:22">
-      <c r="A288" s="59"/>
-      <c r="B288" s="51"/>
-      <c r="C288" s="51"/>
-      <c r="D288" s="51"/>
-      <c r="E288" s="51"/>
-      <c r="F288" s="51"/>
-      <c r="G288" s="63"/>
-      <c r="H288" s="63"/>
-      <c r="I288" s="63"/>
-      <c r="J288" s="64"/>
-      <c r="K288" s="63"/>
-      <c r="L288" s="63"/>
-      <c r="M288" s="63"/>
-      <c r="N288" s="63"/>
-      <c r="O288" s="63"/>
+      <c r="A288" s="55"/>
+      <c r="B288" s="56"/>
+      <c r="C288" s="56"/>
+      <c r="D288" s="56"/>
+      <c r="E288" s="56"/>
+      <c r="F288" s="56"/>
+      <c r="G288" s="48"/>
+      <c r="H288" s="48"/>
+      <c r="I288" s="48"/>
+      <c r="J288" s="49"/>
+      <c r="K288" s="48"/>
+      <c r="L288" s="48"/>
+      <c r="M288" s="48"/>
+      <c r="N288" s="48"/>
+      <c r="O288" s="48"/>
       <c r="P288" s="5"/>
-      <c r="Q288" s="67"/>
-      <c r="R288" s="67"/>
-      <c r="S288" s="67"/>
-      <c r="T288" s="67"/>
-      <c r="U288" s="67"/>
+      <c r="Q288" s="51"/>
+      <c r="R288" s="51"/>
+      <c r="S288" s="51"/>
+      <c r="T288" s="51"/>
+      <c r="U288" s="51"/>
       <c r="V288" s="1"/>
     </row>
     <row r="289" spans="1:22" ht="15">
-      <c r="A289" s="59"/>
-      <c r="B289" s="51"/>
-      <c r="C289" s="51"/>
-      <c r="D289" s="51"/>
-      <c r="E289" s="51"/>
-      <c r="F289" s="51"/>
-      <c r="G289" s="65"/>
-      <c r="H289" s="65"/>
-      <c r="I289" s="65"/>
-      <c r="J289" s="63"/>
-      <c r="K289" s="63"/>
-      <c r="L289" s="63"/>
-      <c r="M289" s="63"/>
-      <c r="N289" s="63"/>
-      <c r="O289" s="63"/>
+      <c r="A289" s="55"/>
+      <c r="B289" s="56"/>
+      <c r="C289" s="56"/>
+      <c r="D289" s="56"/>
+      <c r="E289" s="56"/>
+      <c r="F289" s="56"/>
+      <c r="G289" s="47"/>
+      <c r="H289" s="47"/>
+      <c r="I289" s="47"/>
+      <c r="J289" s="48"/>
+      <c r="K289" s="48"/>
+      <c r="L289" s="48"/>
+      <c r="M289" s="48"/>
+      <c r="N289" s="48"/>
+      <c r="O289" s="48"/>
       <c r="P289" s="5"/>
-      <c r="Q289" s="67"/>
-      <c r="R289" s="67"/>
-      <c r="S289" s="67"/>
-      <c r="T289" s="67"/>
-      <c r="U289" s="67"/>
+      <c r="Q289" s="51"/>
+      <c r="R289" s="51"/>
+      <c r="S289" s="51"/>
+      <c r="T289" s="51"/>
+      <c r="U289" s="51"/>
       <c r="V289" s="1"/>
     </row>
     <row r="290" spans="1:22">
-      <c r="A290" s="59" t="s">
+      <c r="A290" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="B290" s="51"/>
-      <c r="C290" s="51"/>
-      <c r="D290" s="51" t="s">
+      <c r="B290" s="56"/>
+      <c r="C290" s="56"/>
+      <c r="D290" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="E290" s="51"/>
-      <c r="F290" s="51"/>
-      <c r="G290" s="63"/>
-      <c r="H290" s="63"/>
-      <c r="I290" s="63"/>
-      <c r="J290" s="64"/>
-      <c r="K290" s="63"/>
-      <c r="L290" s="63"/>
-      <c r="M290" s="63"/>
-      <c r="N290" s="63"/>
-      <c r="O290" s="63"/>
+      <c r="E290" s="56"/>
+      <c r="F290" s="56"/>
+      <c r="G290" s="48"/>
+      <c r="H290" s="48"/>
+      <c r="I290" s="48"/>
+      <c r="J290" s="49"/>
+      <c r="K290" s="48"/>
+      <c r="L290" s="48"/>
+      <c r="M290" s="48"/>
+      <c r="N290" s="48"/>
+      <c r="O290" s="48"/>
       <c r="P290" s="5"/>
-      <c r="Q290" s="67"/>
-      <c r="R290" s="67"/>
-      <c r="S290" s="67"/>
-      <c r="T290" s="67"/>
-      <c r="U290" s="67"/>
+      <c r="Q290" s="51"/>
+      <c r="R290" s="51"/>
+      <c r="S290" s="51"/>
+      <c r="T290" s="51"/>
+      <c r="U290" s="51"/>
       <c r="V290" s="1"/>
     </row>
     <row r="291" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A291" s="59"/>
-      <c r="B291" s="51"/>
-      <c r="C291" s="51"/>
-      <c r="D291" s="51"/>
-      <c r="E291" s="51"/>
-      <c r="F291" s="51"/>
-      <c r="G291" s="65"/>
-      <c r="H291" s="65"/>
-      <c r="I291" s="65"/>
-      <c r="J291" s="63"/>
-      <c r="K291" s="63"/>
-      <c r="L291" s="63"/>
-      <c r="M291" s="63"/>
-      <c r="N291" s="63"/>
-      <c r="O291" s="63"/>
+      <c r="A291" s="55"/>
+      <c r="B291" s="56"/>
+      <c r="C291" s="56"/>
+      <c r="D291" s="56"/>
+      <c r="E291" s="56"/>
+      <c r="F291" s="56"/>
+      <c r="G291" s="47"/>
+      <c r="H291" s="47"/>
+      <c r="I291" s="47"/>
+      <c r="J291" s="48"/>
+      <c r="K291" s="48"/>
+      <c r="L291" s="48"/>
+      <c r="M291" s="48"/>
+      <c r="N291" s="48"/>
+      <c r="O291" s="48"/>
       <c r="P291" s="5"/>
-      <c r="Q291" s="68"/>
-      <c r="R291" s="68"/>
-      <c r="S291" s="68"/>
-      <c r="T291" s="68"/>
-      <c r="U291" s="68"/>
+      <c r="Q291" s="52"/>
+      <c r="R291" s="52"/>
+      <c r="S291" s="52"/>
+      <c r="T291" s="52"/>
+      <c r="U291" s="52"/>
       <c r="V291" s="1"/>
     </row>
     <row r="292" spans="1:22">
-      <c r="A292" s="59"/>
-      <c r="B292" s="51"/>
-      <c r="C292" s="51"/>
-      <c r="D292" s="51"/>
-      <c r="E292" s="51"/>
-      <c r="F292" s="51"/>
-      <c r="G292" s="63"/>
-      <c r="H292" s="63"/>
-      <c r="I292" s="63"/>
-      <c r="J292" s="64"/>
-      <c r="K292" s="63"/>
-      <c r="L292" s="63"/>
-      <c r="M292" s="63"/>
-      <c r="N292" s="63"/>
-      <c r="O292" s="63"/>
+      <c r="A292" s="55"/>
+      <c r="B292" s="56"/>
+      <c r="C292" s="56"/>
+      <c r="D292" s="56"/>
+      <c r="E292" s="56"/>
+      <c r="F292" s="56"/>
+      <c r="G292" s="48"/>
+      <c r="H292" s="48"/>
+      <c r="I292" s="48"/>
+      <c r="J292" s="49"/>
+      <c r="K292" s="48"/>
+      <c r="L292" s="48"/>
+      <c r="M292" s="48"/>
+      <c r="N292" s="48"/>
+      <c r="O292" s="48"/>
       <c r="P292" s="5"/>
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
@@ -10451,21 +10530,21 @@
       <c r="V292" s="1"/>
     </row>
     <row r="293" spans="1:22" ht="15">
-      <c r="A293" s="59"/>
-      <c r="B293" s="51"/>
-      <c r="C293" s="51"/>
-      <c r="D293" s="51"/>
-      <c r="E293" s="51"/>
-      <c r="F293" s="51"/>
-      <c r="G293" s="65"/>
-      <c r="H293" s="65"/>
-      <c r="I293" s="65"/>
-      <c r="J293" s="63"/>
-      <c r="K293" s="63"/>
-      <c r="L293" s="63"/>
-      <c r="M293" s="63"/>
-      <c r="N293" s="63"/>
-      <c r="O293" s="63"/>
+      <c r="A293" s="55"/>
+      <c r="B293" s="56"/>
+      <c r="C293" s="56"/>
+      <c r="D293" s="56"/>
+      <c r="E293" s="56"/>
+      <c r="F293" s="56"/>
+      <c r="G293" s="47"/>
+      <c r="H293" s="47"/>
+      <c r="I293" s="47"/>
+      <c r="J293" s="48"/>
+      <c r="K293" s="48"/>
+      <c r="L293" s="48"/>
+      <c r="M293" s="48"/>
+      <c r="N293" s="48"/>
+      <c r="O293" s="48"/>
       <c r="P293" s="5"/>
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
@@ -15728,9 +15807,9 @@
       </c>
       <c r="B542" s="17"/>
       <c r="C542" s="17"/>
-      <c r="D542" s="47"/>
-      <c r="E542" s="48"/>
-      <c r="F542" s="49"/>
+      <c r="D542" s="61"/>
+      <c r="E542" s="62"/>
+      <c r="F542" s="63"/>
       <c r="G542" s="6"/>
       <c r="H542" s="6"/>
       <c r="I542" s="6" t="s">
@@ -15750,9 +15829,9 @@
       <c r="A543" s="16"/>
       <c r="B543" s="17"/>
       <c r="C543" s="17"/>
-      <c r="D543" s="50"/>
-      <c r="E543" s="51"/>
-      <c r="F543" s="52"/>
+      <c r="D543" s="64"/>
+      <c r="E543" s="56"/>
+      <c r="F543" s="65"/>
       <c r="G543" s="6"/>
       <c r="H543" s="6"/>
       <c r="I543" s="6" t="s">
@@ -15772,9 +15851,9 @@
       <c r="A544" s="16"/>
       <c r="B544" s="17"/>
       <c r="C544" s="17"/>
-      <c r="D544" s="50"/>
-      <c r="E544" s="51"/>
-      <c r="F544" s="52"/>
+      <c r="D544" s="64"/>
+      <c r="E544" s="56"/>
+      <c r="F544" s="65"/>
       <c r="G544" s="6"/>
       <c r="H544" s="6"/>
       <c r="I544" s="6"/>
@@ -15790,9 +15869,9 @@
       <c r="A545" s="16"/>
       <c r="B545" s="17"/>
       <c r="C545" s="17"/>
-      <c r="D545" s="53"/>
-      <c r="E545" s="54"/>
-      <c r="F545" s="55"/>
+      <c r="D545" s="66"/>
+      <c r="E545" s="67"/>
+      <c r="F545" s="68"/>
       <c r="G545" s="37" t="s">
         <v>10</v>
       </c>
@@ -25224,27 +25303,2534 @@
       <c r="O997" s="12"/>
       <c r="P997" s="13"/>
     </row>
+    <row r="998" spans="1:16" ht="15">
+      <c r="A998" s="8"/>
+      <c r="B998" s="9"/>
+      <c r="C998" s="9"/>
+      <c r="D998" s="9"/>
+      <c r="E998" s="6"/>
+      <c r="F998" s="6"/>
+      <c r="G998" s="6"/>
+      <c r="H998" s="6"/>
+      <c r="I998" s="6"/>
+      <c r="J998" s="6"/>
+      <c r="K998" s="6"/>
+      <c r="L998" s="6"/>
+      <c r="M998" s="6"/>
+      <c r="N998" s="6"/>
+      <c r="O998" s="6"/>
+      <c r="P998" s="5"/>
+    </row>
+    <row r="999" spans="1:16" ht="15">
+      <c r="A999" s="10"/>
+      <c r="B999" s="11"/>
+      <c r="C999" s="11"/>
+      <c r="D999" s="11"/>
+      <c r="E999" s="12"/>
+      <c r="F999" s="12"/>
+      <c r="G999" s="12"/>
+      <c r="H999" s="12"/>
+      <c r="I999" s="12"/>
+      <c r="J999" s="12"/>
+      <c r="K999" s="12"/>
+      <c r="L999" s="12"/>
+      <c r="M999" s="12"/>
+      <c r="N999" s="12"/>
+      <c r="O999" s="12"/>
+      <c r="P999" s="13"/>
+    </row>
+    <row r="1000" spans="1:16" ht="18">
+      <c r="A1000" s="25"/>
+      <c r="B1000" s="26"/>
+      <c r="C1000" s="26"/>
+      <c r="D1000" s="26"/>
+      <c r="E1000" s="2"/>
+      <c r="F1000" s="3"/>
+      <c r="G1000" s="3"/>
+      <c r="H1000" s="3"/>
+      <c r="I1000" s="3"/>
+      <c r="J1000" s="3"/>
+      <c r="K1000" s="3"/>
+      <c r="L1000" s="3"/>
+      <c r="M1000" s="3"/>
+      <c r="N1000" s="3"/>
+      <c r="O1000" s="3"/>
+      <c r="P1000" s="4"/>
+    </row>
+    <row r="1001" spans="1:16">
+      <c r="A1001" s="27"/>
+      <c r="B1001" s="28"/>
+      <c r="C1001" s="28"/>
+      <c r="D1001" s="28"/>
+      <c r="E1001" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1001" s="29"/>
+      <c r="G1001" s="29"/>
+      <c r="H1001" s="29"/>
+      <c r="I1001" s="29"/>
+      <c r="J1001" s="29"/>
+      <c r="K1001" s="29"/>
+      <c r="L1001" s="29"/>
+      <c r="M1001" s="29"/>
+      <c r="N1001" s="29"/>
+      <c r="O1001" s="29"/>
+      <c r="P1001" s="5"/>
+    </row>
+    <row r="1002" spans="1:16">
+      <c r="A1002" s="27"/>
+      <c r="B1002" s="28"/>
+      <c r="C1002" s="28"/>
+      <c r="D1002" s="28"/>
+      <c r="E1002" s="29"/>
+      <c r="F1002" s="29"/>
+      <c r="G1002" s="29"/>
+      <c r="H1002" s="29"/>
+      <c r="I1002" s="29"/>
+      <c r="J1002" s="29"/>
+      <c r="K1002" s="29"/>
+      <c r="L1002" s="29"/>
+      <c r="M1002" s="29"/>
+      <c r="N1002" s="29"/>
+      <c r="O1002" s="29"/>
+      <c r="P1002" s="5"/>
+    </row>
+    <row r="1003" spans="1:16">
+      <c r="A1003" s="27"/>
+      <c r="B1003" s="28"/>
+      <c r="C1003" s="28"/>
+      <c r="D1003" s="28"/>
+      <c r="E1003" s="29"/>
+      <c r="F1003" s="29"/>
+      <c r="G1003" s="29"/>
+      <c r="H1003" s="29"/>
+      <c r="I1003" s="29"/>
+      <c r="J1003" s="29"/>
+      <c r="K1003" s="29"/>
+      <c r="L1003" s="29"/>
+      <c r="M1003" s="29"/>
+      <c r="N1003" s="29"/>
+      <c r="O1003" s="29"/>
+      <c r="P1003" s="5"/>
+    </row>
+    <row r="1004" spans="1:16">
+      <c r="A1004" s="27"/>
+      <c r="B1004" s="28"/>
+      <c r="C1004" s="28"/>
+      <c r="D1004" s="28"/>
+      <c r="E1004" s="29"/>
+      <c r="F1004" s="29"/>
+      <c r="G1004" s="29"/>
+      <c r="H1004" s="29"/>
+      <c r="I1004" s="29"/>
+      <c r="J1004" s="29"/>
+      <c r="K1004" s="29"/>
+      <c r="L1004" s="29"/>
+      <c r="M1004" s="29"/>
+      <c r="N1004" s="29"/>
+      <c r="O1004" s="29"/>
+      <c r="P1004" s="5"/>
+    </row>
+    <row r="1005" spans="1:16" ht="18">
+      <c r="A1005" s="27"/>
+      <c r="B1005" s="28"/>
+      <c r="C1005" s="28"/>
+      <c r="D1005" s="28"/>
+      <c r="E1005" s="30"/>
+      <c r="F1005" s="30"/>
+      <c r="G1005" s="30"/>
+      <c r="H1005" s="30"/>
+      <c r="I1005" s="30"/>
+      <c r="J1005" s="30"/>
+      <c r="K1005" s="30"/>
+      <c r="L1005" s="30"/>
+      <c r="M1005" s="30"/>
+      <c r="N1005" s="30"/>
+      <c r="O1005" s="30"/>
+      <c r="P1005" s="5"/>
+    </row>
+    <row r="1006" spans="1:16" ht="18">
+      <c r="A1006" s="27"/>
+      <c r="B1006" s="28"/>
+      <c r="C1006" s="28"/>
+      <c r="D1006" s="28"/>
+      <c r="E1006" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1006" s="31"/>
+      <c r="G1006" s="31"/>
+      <c r="H1006" s="31"/>
+      <c r="I1006" s="31"/>
+      <c r="J1006" s="31"/>
+      <c r="K1006" s="31"/>
+      <c r="L1006" s="31"/>
+      <c r="M1006" s="31"/>
+      <c r="N1006" s="31"/>
+      <c r="O1006" s="31"/>
+      <c r="P1006" s="5"/>
+    </row>
+    <row r="1007" spans="1:16" ht="15">
+      <c r="A1007" s="27"/>
+      <c r="B1007" s="28"/>
+      <c r="C1007" s="28"/>
+      <c r="D1007" s="28"/>
+      <c r="E1007" s="6"/>
+      <c r="F1007" s="7"/>
+      <c r="G1007" s="7"/>
+      <c r="H1007" s="7"/>
+      <c r="I1007" s="7"/>
+      <c r="J1007" s="7"/>
+      <c r="K1007" s="7"/>
+      <c r="L1007" s="7"/>
+      <c r="M1007" s="7"/>
+      <c r="N1007" s="7"/>
+      <c r="O1007" s="7"/>
+      <c r="P1007" s="5"/>
+    </row>
+    <row r="1008" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1008" s="27"/>
+      <c r="B1008" s="28"/>
+      <c r="C1008" s="28"/>
+      <c r="D1008" s="28"/>
+      <c r="E1008" s="6"/>
+      <c r="F1008" s="6"/>
+      <c r="G1008" s="6"/>
+      <c r="H1008" s="6"/>
+      <c r="I1008" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1008" s="6"/>
+      <c r="K1008" s="6"/>
+      <c r="L1008" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1008" s="32"/>
+      <c r="N1008" s="32"/>
+      <c r="O1008" s="32"/>
+      <c r="P1008" s="5"/>
+    </row>
+    <row r="1009" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1009" s="8"/>
+      <c r="B1009" s="9"/>
+      <c r="C1009" s="9"/>
+      <c r="D1009" s="9"/>
+      <c r="E1009" s="6"/>
+      <c r="F1009" s="6"/>
+      <c r="G1009" s="6"/>
+      <c r="H1009" s="6"/>
+      <c r="I1009" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1009" s="6"/>
+      <c r="K1009" s="6"/>
+      <c r="L1009" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1009" s="32"/>
+      <c r="N1009" s="32"/>
+      <c r="O1009" s="32"/>
+      <c r="P1009" s="5"/>
+    </row>
+    <row r="1010" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1010" s="8"/>
+      <c r="B1010" s="9"/>
+      <c r="C1010" s="9"/>
+      <c r="D1010" s="9"/>
+      <c r="E1010" s="6"/>
+      <c r="F1010" s="6"/>
+      <c r="G1010" s="6"/>
+      <c r="H1010" s="6"/>
+      <c r="I1010" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1010" s="6"/>
+      <c r="K1010" s="6"/>
+      <c r="L1010" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1010" s="32"/>
+      <c r="N1010" s="32"/>
+      <c r="O1010" s="32"/>
+      <c r="P1010" s="5"/>
+    </row>
+    <row r="1011" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1011" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1011" s="34"/>
+      <c r="C1011" s="35"/>
+      <c r="D1011" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1011" s="34"/>
+      <c r="F1011" s="35"/>
+      <c r="G1011" s="6"/>
+      <c r="H1011" s="6"/>
+      <c r="I1011" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1011" s="6"/>
+      <c r="K1011" s="6"/>
+      <c r="L1011" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1011" s="32"/>
+      <c r="N1011" s="32"/>
+      <c r="O1011" s="32"/>
+      <c r="P1011" s="5"/>
+    </row>
+    <row r="1012" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1012" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1012" s="17"/>
+      <c r="C1012" s="17"/>
+      <c r="D1012" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1012" s="17"/>
+      <c r="F1012" s="17"/>
+      <c r="G1012" s="6"/>
+      <c r="H1012" s="6"/>
+      <c r="I1012" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1012" s="6"/>
+      <c r="K1012" s="6"/>
+      <c r="L1012" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1012" s="32"/>
+      <c r="N1012" s="32"/>
+      <c r="O1012" s="32"/>
+      <c r="P1012" s="5"/>
+    </row>
+    <row r="1013" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1013" s="16"/>
+      <c r="B1013" s="17"/>
+      <c r="C1013" s="17"/>
+      <c r="D1013" s="17"/>
+      <c r="E1013" s="17"/>
+      <c r="F1013" s="17"/>
+      <c r="G1013" s="6"/>
+      <c r="H1013" s="6"/>
+      <c r="I1013" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1013" s="6"/>
+      <c r="K1013" s="6"/>
+      <c r="L1013" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1013" s="32"/>
+      <c r="N1013" s="32"/>
+      <c r="O1013" s="32"/>
+      <c r="P1013" s="5"/>
+    </row>
+    <row r="1014" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1014" s="16"/>
+      <c r="B1014" s="17"/>
+      <c r="C1014" s="17"/>
+      <c r="D1014" s="17"/>
+      <c r="E1014" s="17"/>
+      <c r="F1014" s="17"/>
+      <c r="G1014" s="6"/>
+      <c r="H1014" s="6"/>
+      <c r="I1014" s="6"/>
+      <c r="J1014" s="6"/>
+      <c r="K1014" s="6"/>
+      <c r="L1014" s="6"/>
+      <c r="M1014" s="6"/>
+      <c r="N1014" s="6"/>
+      <c r="O1014" s="6"/>
+      <c r="P1014" s="5"/>
+    </row>
+    <row r="1015" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A1015" s="16"/>
+      <c r="B1015" s="17"/>
+      <c r="C1015" s="17"/>
+      <c r="D1015" s="17"/>
+      <c r="E1015" s="17"/>
+      <c r="F1015" s="17"/>
+      <c r="G1015" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1015" s="37"/>
+      <c r="I1015" s="37"/>
+      <c r="J1015" s="37"/>
+      <c r="K1015" s="37"/>
+      <c r="L1015" s="37"/>
+      <c r="M1015" s="37"/>
+      <c r="N1015" s="37"/>
+      <c r="O1015" s="37"/>
+      <c r="P1015" s="5"/>
+    </row>
+    <row r="1016" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A1016" s="16"/>
+      <c r="B1016" s="17"/>
+      <c r="C1016" s="17"/>
+      <c r="D1016" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1016" s="17"/>
+      <c r="F1016" s="17"/>
+      <c r="G1016" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1016" s="39"/>
+      <c r="I1016" s="40"/>
+      <c r="J1016" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1016" s="41"/>
+      <c r="L1016" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1016" s="41"/>
+      <c r="N1016" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1016" s="41"/>
+      <c r="P1016" s="5"/>
+    </row>
+    <row r="1017" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A1017" s="16"/>
+      <c r="B1017" s="17"/>
+      <c r="C1017" s="17"/>
+      <c r="D1017" s="17"/>
+      <c r="E1017" s="17"/>
+      <c r="F1017" s="17"/>
+      <c r="G1017" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1017" s="43"/>
+      <c r="I1017" s="44"/>
+      <c r="J1017" s="21">
+        <v>45603</v>
+      </c>
+      <c r="K1017" s="15"/>
+      <c r="L1017" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="M1017" s="15"/>
+      <c r="N1017" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="O1017" s="15"/>
+      <c r="P1017" s="5"/>
+    </row>
+    <row r="1018" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A1018" s="16"/>
+      <c r="B1018" s="17"/>
+      <c r="C1018" s="17"/>
+      <c r="D1018" s="17"/>
+      <c r="E1018" s="17"/>
+      <c r="F1018" s="17"/>
+      <c r="G1018" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1018" s="19"/>
+      <c r="I1018" s="20"/>
+      <c r="J1018" s="21">
+        <v>45603</v>
+      </c>
+      <c r="K1018" s="15"/>
+      <c r="L1018" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="M1018" s="15"/>
+      <c r="N1018" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="O1018" s="15"/>
+      <c r="P1018" s="5"/>
+    </row>
+    <row r="1019" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A1019" s="16"/>
+      <c r="B1019" s="17"/>
+      <c r="C1019" s="17"/>
+      <c r="D1019" s="17"/>
+      <c r="E1019" s="17"/>
+      <c r="F1019" s="17"/>
+      <c r="G1019" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1019" s="19"/>
+      <c r="I1019" s="20"/>
+      <c r="J1019" s="21">
+        <v>45603</v>
+      </c>
+      <c r="K1019" s="15"/>
+      <c r="L1019" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1019" s="15"/>
+      <c r="N1019" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="O1019" s="15"/>
+      <c r="P1019" s="5"/>
+    </row>
+    <row r="1020" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A1020" s="16"/>
+      <c r="B1020" s="17"/>
+      <c r="C1020" s="17"/>
+      <c r="D1020" s="17"/>
+      <c r="E1020" s="17"/>
+      <c r="F1020" s="17"/>
+      <c r="G1020" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1020" s="19"/>
+      <c r="I1020" s="20"/>
+      <c r="J1020" s="21">
+        <v>45603</v>
+      </c>
+      <c r="K1020" s="15"/>
+      <c r="L1020" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="M1020" s="15"/>
+      <c r="N1020" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="O1020" s="15"/>
+      <c r="P1020" s="5"/>
+    </row>
+    <row r="1021" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A1021" s="16"/>
+      <c r="B1021" s="17"/>
+      <c r="C1021" s="17"/>
+      <c r="D1021" s="17"/>
+      <c r="E1021" s="17"/>
+      <c r="F1021" s="17"/>
+      <c r="G1021" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1021" s="19"/>
+      <c r="I1021" s="20"/>
+      <c r="J1021" s="21">
+        <v>45603</v>
+      </c>
+      <c r="K1021" s="15"/>
+      <c r="L1021" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="M1021" s="15"/>
+      <c r="N1021" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="O1021" s="15"/>
+      <c r="P1021" s="5"/>
+    </row>
+    <row r="1022" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A1022" s="16"/>
+      <c r="B1022" s="17"/>
+      <c r="C1022" s="17"/>
+      <c r="D1022" s="17"/>
+      <c r="E1022" s="17"/>
+      <c r="F1022" s="17"/>
+      <c r="G1022" s="18"/>
+      <c r="H1022" s="19"/>
+      <c r="I1022" s="20"/>
+      <c r="J1022" s="21"/>
+      <c r="K1022" s="15"/>
+      <c r="L1022" s="15"/>
+      <c r="M1022" s="15"/>
+      <c r="N1022" s="15"/>
+      <c r="O1022" s="15"/>
+      <c r="P1022" s="5"/>
+    </row>
+    <row r="1023" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1023" s="16"/>
+      <c r="B1023" s="17"/>
+      <c r="C1023" s="17"/>
+      <c r="D1023" s="17"/>
+      <c r="E1023" s="17"/>
+      <c r="F1023" s="17"/>
+      <c r="G1023" s="22"/>
+      <c r="H1023" s="23"/>
+      <c r="I1023" s="24"/>
+      <c r="J1023" s="21"/>
+      <c r="K1023" s="15"/>
+      <c r="L1023" s="15"/>
+      <c r="M1023" s="15"/>
+      <c r="N1023" s="15"/>
+      <c r="O1023" s="15"/>
+      <c r="P1023" s="5"/>
+    </row>
+    <row r="1024" spans="1:16" ht="15.75" thickTop="1">
+      <c r="A1024" s="8"/>
+      <c r="B1024" s="9"/>
+      <c r="C1024" s="9"/>
+      <c r="D1024" s="9"/>
+      <c r="E1024" s="6"/>
+      <c r="F1024" s="6"/>
+      <c r="G1024" s="6"/>
+      <c r="H1024" s="6"/>
+      <c r="I1024" s="6"/>
+      <c r="J1024" s="6"/>
+      <c r="K1024" s="6"/>
+      <c r="L1024" s="6"/>
+      <c r="M1024" s="6"/>
+      <c r="N1024" s="6"/>
+      <c r="O1024" s="6"/>
+      <c r="P1024" s="5"/>
+    </row>
+    <row r="1025" spans="1:16" ht="15">
+      <c r="A1025" s="10"/>
+      <c r="B1025" s="11"/>
+      <c r="C1025" s="11"/>
+      <c r="D1025" s="11"/>
+      <c r="E1025" s="12"/>
+      <c r="F1025" s="12"/>
+      <c r="G1025" s="12"/>
+      <c r="H1025" s="12"/>
+      <c r="I1025" s="12"/>
+      <c r="J1025" s="12"/>
+      <c r="K1025" s="12"/>
+      <c r="L1025" s="12"/>
+      <c r="M1025" s="12"/>
+      <c r="N1025" s="12"/>
+      <c r="O1025" s="12"/>
+      <c r="P1025" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="1934">
-    <mergeCell ref="N991:O991"/>
-    <mergeCell ref="A992:C995"/>
-    <mergeCell ref="D992:F995"/>
-    <mergeCell ref="G992:I992"/>
-    <mergeCell ref="J992:K992"/>
-    <mergeCell ref="L992:M992"/>
-    <mergeCell ref="N992:O992"/>
-    <mergeCell ref="G993:I993"/>
-    <mergeCell ref="J993:K993"/>
-    <mergeCell ref="L993:M993"/>
-    <mergeCell ref="N993:O993"/>
-    <mergeCell ref="G994:I994"/>
-    <mergeCell ref="J994:K994"/>
-    <mergeCell ref="L994:M994"/>
-    <mergeCell ref="N994:O994"/>
-    <mergeCell ref="G995:I995"/>
-    <mergeCell ref="J995:K995"/>
-    <mergeCell ref="L995:M995"/>
-    <mergeCell ref="N995:O995"/>
+  <mergeCells count="1985">
+    <mergeCell ref="N1019:O1019"/>
+    <mergeCell ref="A1020:C1023"/>
+    <mergeCell ref="D1020:F1023"/>
+    <mergeCell ref="G1020:I1020"/>
+    <mergeCell ref="J1020:K1020"/>
+    <mergeCell ref="L1020:M1020"/>
+    <mergeCell ref="N1020:O1020"/>
+    <mergeCell ref="G1021:I1021"/>
+    <mergeCell ref="J1021:K1021"/>
+    <mergeCell ref="L1021:M1021"/>
+    <mergeCell ref="N1021:O1021"/>
+    <mergeCell ref="G1022:I1022"/>
+    <mergeCell ref="J1022:K1022"/>
+    <mergeCell ref="L1022:M1022"/>
+    <mergeCell ref="N1022:O1022"/>
+    <mergeCell ref="G1023:I1023"/>
+    <mergeCell ref="J1023:K1023"/>
+    <mergeCell ref="L1023:M1023"/>
+    <mergeCell ref="N1023:O1023"/>
+    <mergeCell ref="A1000:D1008"/>
+    <mergeCell ref="E1001:O1004"/>
+    <mergeCell ref="E1005:O1005"/>
+    <mergeCell ref="E1006:O1006"/>
+    <mergeCell ref="L1008:O1008"/>
+    <mergeCell ref="L1009:O1009"/>
+    <mergeCell ref="L1010:O1010"/>
+    <mergeCell ref="A1011:C1011"/>
+    <mergeCell ref="D1011:F1011"/>
+    <mergeCell ref="L1011:O1011"/>
+    <mergeCell ref="A1012:C1015"/>
+    <mergeCell ref="D1012:F1015"/>
+    <mergeCell ref="L1012:O1012"/>
+    <mergeCell ref="L1013:O1013"/>
+    <mergeCell ref="G1015:O1015"/>
+    <mergeCell ref="A1016:C1019"/>
+    <mergeCell ref="D1016:F1019"/>
+    <mergeCell ref="G1016:I1016"/>
+    <mergeCell ref="J1016:K1016"/>
+    <mergeCell ref="L1016:M1016"/>
+    <mergeCell ref="N1016:O1016"/>
+    <mergeCell ref="G1017:I1017"/>
+    <mergeCell ref="J1017:K1017"/>
+    <mergeCell ref="L1017:M1017"/>
+    <mergeCell ref="N1017:O1017"/>
+    <mergeCell ref="G1018:I1018"/>
+    <mergeCell ref="J1018:K1018"/>
+    <mergeCell ref="L1018:M1018"/>
+    <mergeCell ref="N1018:O1018"/>
+    <mergeCell ref="G1019:I1019"/>
+    <mergeCell ref="J1019:K1019"/>
+    <mergeCell ref="L1019:M1019"/>
+    <mergeCell ref="N963:O963"/>
+    <mergeCell ref="A964:C967"/>
+    <mergeCell ref="D964:F967"/>
+    <mergeCell ref="G964:I964"/>
+    <mergeCell ref="J964:K964"/>
+    <mergeCell ref="L964:M964"/>
+    <mergeCell ref="N964:O964"/>
+    <mergeCell ref="G965:I965"/>
+    <mergeCell ref="J965:K965"/>
+    <mergeCell ref="L965:M965"/>
+    <mergeCell ref="N965:O965"/>
+    <mergeCell ref="G966:I966"/>
+    <mergeCell ref="J966:K966"/>
+    <mergeCell ref="L966:M966"/>
+    <mergeCell ref="N966:O966"/>
+    <mergeCell ref="G967:I967"/>
+    <mergeCell ref="J967:K967"/>
+    <mergeCell ref="L967:M967"/>
+    <mergeCell ref="N967:O967"/>
+    <mergeCell ref="A944:D952"/>
+    <mergeCell ref="E945:O948"/>
+    <mergeCell ref="E949:O949"/>
+    <mergeCell ref="E950:O950"/>
+    <mergeCell ref="L952:O952"/>
+    <mergeCell ref="L953:O953"/>
+    <mergeCell ref="L954:O954"/>
+    <mergeCell ref="A955:C955"/>
+    <mergeCell ref="D955:F955"/>
+    <mergeCell ref="L955:O955"/>
+    <mergeCell ref="A956:C959"/>
+    <mergeCell ref="D956:F959"/>
+    <mergeCell ref="L956:O956"/>
+    <mergeCell ref="L957:O957"/>
+    <mergeCell ref="G959:O959"/>
+    <mergeCell ref="A960:C963"/>
+    <mergeCell ref="D960:F963"/>
+    <mergeCell ref="G960:I960"/>
+    <mergeCell ref="J960:K960"/>
+    <mergeCell ref="L960:M960"/>
+    <mergeCell ref="N960:O960"/>
+    <mergeCell ref="G961:I961"/>
+    <mergeCell ref="J961:K961"/>
+    <mergeCell ref="L961:M961"/>
+    <mergeCell ref="N961:O961"/>
+    <mergeCell ref="G962:I962"/>
+    <mergeCell ref="J962:K962"/>
+    <mergeCell ref="L962:M962"/>
+    <mergeCell ref="N962:O962"/>
+    <mergeCell ref="G963:I963"/>
+    <mergeCell ref="J963:K963"/>
+    <mergeCell ref="L963:M963"/>
+    <mergeCell ref="N795:O795"/>
+    <mergeCell ref="A796:C799"/>
+    <mergeCell ref="D796:F799"/>
+    <mergeCell ref="G796:I796"/>
+    <mergeCell ref="J796:K796"/>
+    <mergeCell ref="L796:M796"/>
+    <mergeCell ref="N796:O796"/>
+    <mergeCell ref="G797:I797"/>
+    <mergeCell ref="J797:K797"/>
+    <mergeCell ref="L797:M797"/>
+    <mergeCell ref="N797:O797"/>
+    <mergeCell ref="G798:I798"/>
+    <mergeCell ref="J798:K798"/>
+    <mergeCell ref="L798:M798"/>
+    <mergeCell ref="N798:O798"/>
+    <mergeCell ref="G799:I799"/>
+    <mergeCell ref="J799:K799"/>
+    <mergeCell ref="L799:M799"/>
+    <mergeCell ref="N799:O799"/>
+    <mergeCell ref="A776:D784"/>
+    <mergeCell ref="E777:O780"/>
+    <mergeCell ref="E781:O781"/>
+    <mergeCell ref="E782:O782"/>
+    <mergeCell ref="L784:O784"/>
+    <mergeCell ref="L785:O785"/>
+    <mergeCell ref="L786:O786"/>
+    <mergeCell ref="A787:C787"/>
+    <mergeCell ref="D787:F787"/>
+    <mergeCell ref="L787:O787"/>
+    <mergeCell ref="A788:C791"/>
+    <mergeCell ref="D788:F791"/>
+    <mergeCell ref="L788:O788"/>
+    <mergeCell ref="L789:O789"/>
+    <mergeCell ref="G791:O791"/>
+    <mergeCell ref="A792:C795"/>
+    <mergeCell ref="D792:F795"/>
+    <mergeCell ref="G792:I792"/>
+    <mergeCell ref="J792:K792"/>
+    <mergeCell ref="L792:M792"/>
+    <mergeCell ref="N792:O792"/>
+    <mergeCell ref="G793:I793"/>
+    <mergeCell ref="J793:K793"/>
+    <mergeCell ref="L793:M793"/>
+    <mergeCell ref="N793:O793"/>
+    <mergeCell ref="G794:I794"/>
+    <mergeCell ref="J794:K794"/>
+    <mergeCell ref="L794:M794"/>
+    <mergeCell ref="N794:O794"/>
+    <mergeCell ref="G795:I795"/>
+    <mergeCell ref="J795:K795"/>
+    <mergeCell ref="L795:M795"/>
+    <mergeCell ref="N767:O767"/>
+    <mergeCell ref="A768:C771"/>
+    <mergeCell ref="D768:F771"/>
+    <mergeCell ref="G768:I768"/>
+    <mergeCell ref="J768:K768"/>
+    <mergeCell ref="L768:M768"/>
+    <mergeCell ref="N768:O768"/>
+    <mergeCell ref="G769:I769"/>
+    <mergeCell ref="J769:K769"/>
+    <mergeCell ref="L769:M769"/>
+    <mergeCell ref="N769:O769"/>
+    <mergeCell ref="G770:I770"/>
+    <mergeCell ref="J770:K770"/>
+    <mergeCell ref="L770:M770"/>
+    <mergeCell ref="N770:O770"/>
+    <mergeCell ref="G771:I771"/>
+    <mergeCell ref="J771:K771"/>
+    <mergeCell ref="L771:M771"/>
+    <mergeCell ref="N771:O771"/>
+    <mergeCell ref="A748:D756"/>
+    <mergeCell ref="E749:O752"/>
+    <mergeCell ref="E753:O753"/>
+    <mergeCell ref="E754:O754"/>
+    <mergeCell ref="L756:O756"/>
+    <mergeCell ref="L757:O757"/>
+    <mergeCell ref="L758:O758"/>
+    <mergeCell ref="A759:C759"/>
+    <mergeCell ref="D759:F759"/>
+    <mergeCell ref="L759:O759"/>
+    <mergeCell ref="A760:C763"/>
+    <mergeCell ref="D760:F763"/>
+    <mergeCell ref="L760:O760"/>
+    <mergeCell ref="L761:O761"/>
+    <mergeCell ref="G763:O763"/>
+    <mergeCell ref="A764:C767"/>
+    <mergeCell ref="D764:F767"/>
+    <mergeCell ref="G764:I764"/>
+    <mergeCell ref="J764:K764"/>
+    <mergeCell ref="L764:M764"/>
+    <mergeCell ref="N764:O764"/>
+    <mergeCell ref="G765:I765"/>
+    <mergeCell ref="J765:K765"/>
+    <mergeCell ref="L765:M765"/>
+    <mergeCell ref="N765:O765"/>
+    <mergeCell ref="G766:I766"/>
+    <mergeCell ref="J766:K766"/>
+    <mergeCell ref="L766:M766"/>
+    <mergeCell ref="N766:O766"/>
+    <mergeCell ref="G767:I767"/>
+    <mergeCell ref="J767:K767"/>
+    <mergeCell ref="L767:M767"/>
+    <mergeCell ref="N657:O657"/>
+    <mergeCell ref="A658:C661"/>
+    <mergeCell ref="D658:F661"/>
+    <mergeCell ref="G658:I658"/>
+    <mergeCell ref="J658:K658"/>
+    <mergeCell ref="L658:M658"/>
+    <mergeCell ref="N658:O658"/>
+    <mergeCell ref="G659:I659"/>
+    <mergeCell ref="J659:K659"/>
+    <mergeCell ref="L659:M659"/>
+    <mergeCell ref="N659:O659"/>
+    <mergeCell ref="G660:I660"/>
+    <mergeCell ref="J660:K660"/>
+    <mergeCell ref="L660:M660"/>
+    <mergeCell ref="N660:O660"/>
+    <mergeCell ref="G661:I661"/>
+    <mergeCell ref="J661:K661"/>
+    <mergeCell ref="L661:M661"/>
+    <mergeCell ref="N661:O661"/>
+    <mergeCell ref="A638:D646"/>
+    <mergeCell ref="E639:O642"/>
+    <mergeCell ref="E643:O643"/>
+    <mergeCell ref="E644:O644"/>
+    <mergeCell ref="L646:O646"/>
+    <mergeCell ref="L647:O647"/>
+    <mergeCell ref="L648:O648"/>
+    <mergeCell ref="A649:C649"/>
+    <mergeCell ref="D649:F649"/>
+    <mergeCell ref="L649:O649"/>
+    <mergeCell ref="A650:C653"/>
+    <mergeCell ref="D650:F653"/>
+    <mergeCell ref="L650:O650"/>
+    <mergeCell ref="L651:O651"/>
+    <mergeCell ref="G653:O653"/>
+    <mergeCell ref="A654:C657"/>
+    <mergeCell ref="D654:F657"/>
+    <mergeCell ref="G654:I654"/>
+    <mergeCell ref="J654:K654"/>
+    <mergeCell ref="L654:M654"/>
+    <mergeCell ref="N654:O654"/>
+    <mergeCell ref="G655:I655"/>
+    <mergeCell ref="J655:K655"/>
+    <mergeCell ref="L655:M655"/>
+    <mergeCell ref="N655:O655"/>
+    <mergeCell ref="G656:I656"/>
+    <mergeCell ref="J656:K656"/>
+    <mergeCell ref="L656:M656"/>
+    <mergeCell ref="N656:O656"/>
+    <mergeCell ref="G657:I657"/>
+    <mergeCell ref="J657:K657"/>
+    <mergeCell ref="L657:M657"/>
+    <mergeCell ref="N683:O683"/>
+    <mergeCell ref="A684:C687"/>
+    <mergeCell ref="D684:F687"/>
+    <mergeCell ref="G684:I684"/>
+    <mergeCell ref="J684:K684"/>
+    <mergeCell ref="L684:M684"/>
+    <mergeCell ref="N684:O684"/>
+    <mergeCell ref="G685:I685"/>
+    <mergeCell ref="J685:K685"/>
+    <mergeCell ref="L685:M685"/>
+    <mergeCell ref="N685:O685"/>
+    <mergeCell ref="G686:I686"/>
+    <mergeCell ref="J686:K686"/>
+    <mergeCell ref="L686:M686"/>
+    <mergeCell ref="N686:O686"/>
+    <mergeCell ref="G687:I687"/>
+    <mergeCell ref="J687:K687"/>
+    <mergeCell ref="L687:M687"/>
+    <mergeCell ref="N687:O687"/>
+    <mergeCell ref="A664:D672"/>
+    <mergeCell ref="E665:O668"/>
+    <mergeCell ref="E669:O669"/>
+    <mergeCell ref="E670:O670"/>
+    <mergeCell ref="L672:O672"/>
+    <mergeCell ref="L673:O673"/>
+    <mergeCell ref="L674:O674"/>
+    <mergeCell ref="A675:C675"/>
+    <mergeCell ref="D675:F675"/>
+    <mergeCell ref="L675:O675"/>
+    <mergeCell ref="A676:C679"/>
+    <mergeCell ref="D676:F679"/>
+    <mergeCell ref="L676:O676"/>
+    <mergeCell ref="L677:O677"/>
+    <mergeCell ref="G679:O679"/>
+    <mergeCell ref="A680:C683"/>
+    <mergeCell ref="D680:F683"/>
+    <mergeCell ref="G680:I680"/>
+    <mergeCell ref="J680:K680"/>
+    <mergeCell ref="L680:M680"/>
+    <mergeCell ref="N680:O680"/>
+    <mergeCell ref="G681:I681"/>
+    <mergeCell ref="J681:K681"/>
+    <mergeCell ref="L681:M681"/>
+    <mergeCell ref="N681:O681"/>
+    <mergeCell ref="G682:I682"/>
+    <mergeCell ref="J682:K682"/>
+    <mergeCell ref="L682:M682"/>
+    <mergeCell ref="N682:O682"/>
+    <mergeCell ref="G683:I683"/>
+    <mergeCell ref="J683:K683"/>
+    <mergeCell ref="L683:M683"/>
+    <mergeCell ref="A632:C635"/>
+    <mergeCell ref="D632:F635"/>
+    <mergeCell ref="G632:I632"/>
+    <mergeCell ref="J632:K632"/>
+    <mergeCell ref="L632:M632"/>
+    <mergeCell ref="N632:O632"/>
+    <mergeCell ref="G633:I633"/>
+    <mergeCell ref="J633:K633"/>
+    <mergeCell ref="L633:M633"/>
+    <mergeCell ref="N633:O633"/>
+    <mergeCell ref="G634:I634"/>
+    <mergeCell ref="J634:K634"/>
+    <mergeCell ref="L634:M634"/>
+    <mergeCell ref="N634:O634"/>
+    <mergeCell ref="G635:I635"/>
+    <mergeCell ref="J635:K635"/>
+    <mergeCell ref="L635:M635"/>
+    <mergeCell ref="N635:O635"/>
+    <mergeCell ref="L621:O621"/>
+    <mergeCell ref="L622:O622"/>
+    <mergeCell ref="A623:C623"/>
+    <mergeCell ref="D623:F623"/>
+    <mergeCell ref="L623:O623"/>
+    <mergeCell ref="A624:C627"/>
+    <mergeCell ref="D624:F627"/>
+    <mergeCell ref="L624:O624"/>
+    <mergeCell ref="L625:O625"/>
+    <mergeCell ref="G627:O627"/>
+    <mergeCell ref="A628:C631"/>
+    <mergeCell ref="D628:F631"/>
+    <mergeCell ref="G628:I628"/>
+    <mergeCell ref="J628:K628"/>
+    <mergeCell ref="L628:M628"/>
+    <mergeCell ref="N628:O628"/>
+    <mergeCell ref="G629:I629"/>
+    <mergeCell ref="J629:K629"/>
+    <mergeCell ref="L629:M629"/>
+    <mergeCell ref="N629:O629"/>
+    <mergeCell ref="G630:I630"/>
+    <mergeCell ref="J630:K630"/>
+    <mergeCell ref="L630:M630"/>
+    <mergeCell ref="N630:O630"/>
+    <mergeCell ref="G631:I631"/>
+    <mergeCell ref="J631:K631"/>
+    <mergeCell ref="L631:M631"/>
+    <mergeCell ref="N631:O631"/>
+    <mergeCell ref="A597:C597"/>
+    <mergeCell ref="D597:F597"/>
+    <mergeCell ref="L597:O597"/>
+    <mergeCell ref="A598:C601"/>
+    <mergeCell ref="D598:F601"/>
+    <mergeCell ref="L598:O598"/>
+    <mergeCell ref="L599:O599"/>
+    <mergeCell ref="A602:C605"/>
+    <mergeCell ref="D602:F605"/>
+    <mergeCell ref="G601:O601"/>
+    <mergeCell ref="A606:C609"/>
+    <mergeCell ref="D606:F609"/>
+    <mergeCell ref="G602:I602"/>
+    <mergeCell ref="J602:K602"/>
+    <mergeCell ref="L602:M602"/>
+    <mergeCell ref="N602:O602"/>
+    <mergeCell ref="A612:D620"/>
+    <mergeCell ref="E613:O616"/>
+    <mergeCell ref="E617:O617"/>
+    <mergeCell ref="E618:O618"/>
+    <mergeCell ref="L620:O620"/>
+    <mergeCell ref="J578:K578"/>
+    <mergeCell ref="G606:I606"/>
+    <mergeCell ref="J606:K606"/>
+    <mergeCell ref="L606:M606"/>
+    <mergeCell ref="N606:O606"/>
+    <mergeCell ref="G607:I607"/>
+    <mergeCell ref="J607:K607"/>
+    <mergeCell ref="L607:M607"/>
+    <mergeCell ref="N607:O607"/>
+    <mergeCell ref="G608:I608"/>
+    <mergeCell ref="J608:K608"/>
+    <mergeCell ref="L608:M608"/>
+    <mergeCell ref="N608:O608"/>
+    <mergeCell ref="G609:I609"/>
+    <mergeCell ref="J609:K609"/>
+    <mergeCell ref="L609:M609"/>
+    <mergeCell ref="N609:O609"/>
+    <mergeCell ref="L578:M578"/>
+    <mergeCell ref="A550:C553"/>
+    <mergeCell ref="G603:I603"/>
+    <mergeCell ref="J603:K603"/>
+    <mergeCell ref="L603:M603"/>
+    <mergeCell ref="N603:O603"/>
+    <mergeCell ref="G604:I604"/>
+    <mergeCell ref="J604:K604"/>
+    <mergeCell ref="L604:M604"/>
+    <mergeCell ref="N604:O604"/>
+    <mergeCell ref="G605:I605"/>
+    <mergeCell ref="J605:K605"/>
+    <mergeCell ref="L605:M605"/>
+    <mergeCell ref="N605:O605"/>
+    <mergeCell ref="L551:M551"/>
+    <mergeCell ref="N551:O551"/>
+    <mergeCell ref="G552:I552"/>
+    <mergeCell ref="J552:K552"/>
+    <mergeCell ref="L552:M552"/>
+    <mergeCell ref="N552:O552"/>
+    <mergeCell ref="G553:I553"/>
+    <mergeCell ref="J553:K553"/>
+    <mergeCell ref="L553:M553"/>
+    <mergeCell ref="N553:O553"/>
+    <mergeCell ref="N578:O578"/>
+    <mergeCell ref="G579:I579"/>
+    <mergeCell ref="J579:K579"/>
+    <mergeCell ref="L579:M579"/>
+    <mergeCell ref="G577:I577"/>
+    <mergeCell ref="J577:K577"/>
+    <mergeCell ref="L577:M577"/>
+    <mergeCell ref="N577:O577"/>
+    <mergeCell ref="G578:I578"/>
+    <mergeCell ref="A504:D512"/>
+    <mergeCell ref="E505:O508"/>
+    <mergeCell ref="E509:O509"/>
+    <mergeCell ref="E510:O510"/>
+    <mergeCell ref="L512:O512"/>
+    <mergeCell ref="L513:O513"/>
+    <mergeCell ref="L514:O514"/>
+    <mergeCell ref="A586:D594"/>
+    <mergeCell ref="E587:O590"/>
+    <mergeCell ref="E591:O591"/>
+    <mergeCell ref="E592:O592"/>
+    <mergeCell ref="L594:O594"/>
+    <mergeCell ref="L595:O595"/>
+    <mergeCell ref="L596:O596"/>
+    <mergeCell ref="L541:O541"/>
+    <mergeCell ref="A542:C545"/>
+    <mergeCell ref="D542:F545"/>
+    <mergeCell ref="L542:O542"/>
+    <mergeCell ref="L543:O543"/>
+    <mergeCell ref="G545:O545"/>
+    <mergeCell ref="A546:C549"/>
+    <mergeCell ref="D550:F553"/>
+    <mergeCell ref="G546:I546"/>
+    <mergeCell ref="J546:K546"/>
+    <mergeCell ref="L546:M546"/>
+    <mergeCell ref="N546:O546"/>
+    <mergeCell ref="G547:I547"/>
+    <mergeCell ref="J547:K547"/>
+    <mergeCell ref="L547:M547"/>
+    <mergeCell ref="N547:O547"/>
+    <mergeCell ref="G548:I548"/>
+    <mergeCell ref="J548:K548"/>
+    <mergeCell ref="A498:C501"/>
+    <mergeCell ref="D498:F501"/>
+    <mergeCell ref="G498:I498"/>
+    <mergeCell ref="J498:K498"/>
+    <mergeCell ref="L498:M498"/>
+    <mergeCell ref="N498:O498"/>
+    <mergeCell ref="G499:I499"/>
+    <mergeCell ref="J499:K499"/>
+    <mergeCell ref="L499:M499"/>
+    <mergeCell ref="N499:O499"/>
+    <mergeCell ref="G500:I500"/>
+    <mergeCell ref="J500:K500"/>
+    <mergeCell ref="L500:M500"/>
+    <mergeCell ref="N500:O500"/>
+    <mergeCell ref="G501:I501"/>
+    <mergeCell ref="J501:K501"/>
+    <mergeCell ref="L501:M501"/>
+    <mergeCell ref="N501:O501"/>
+    <mergeCell ref="A490:C493"/>
+    <mergeCell ref="D490:F493"/>
+    <mergeCell ref="L490:O490"/>
+    <mergeCell ref="L491:O491"/>
+    <mergeCell ref="G493:O493"/>
+    <mergeCell ref="A494:C497"/>
+    <mergeCell ref="D494:F497"/>
+    <mergeCell ref="G494:I494"/>
+    <mergeCell ref="J494:K494"/>
+    <mergeCell ref="L494:M494"/>
+    <mergeCell ref="N494:O494"/>
+    <mergeCell ref="G495:I495"/>
+    <mergeCell ref="J495:K495"/>
+    <mergeCell ref="L495:M495"/>
+    <mergeCell ref="N495:O495"/>
+    <mergeCell ref="G496:I496"/>
+    <mergeCell ref="J496:K496"/>
+    <mergeCell ref="L496:M496"/>
+    <mergeCell ref="N496:O496"/>
+    <mergeCell ref="G497:I497"/>
+    <mergeCell ref="J497:K497"/>
+    <mergeCell ref="L497:M497"/>
+    <mergeCell ref="N497:O497"/>
+    <mergeCell ref="A478:D486"/>
+    <mergeCell ref="E479:O482"/>
+    <mergeCell ref="E483:O483"/>
+    <mergeCell ref="E484:O484"/>
+    <mergeCell ref="L486:O486"/>
+    <mergeCell ref="L487:O487"/>
+    <mergeCell ref="L488:O488"/>
+    <mergeCell ref="A489:C489"/>
+    <mergeCell ref="D489:F489"/>
+    <mergeCell ref="L489:O489"/>
+    <mergeCell ref="A446:C449"/>
+    <mergeCell ref="D446:F449"/>
+    <mergeCell ref="G446:I446"/>
+    <mergeCell ref="J446:K446"/>
+    <mergeCell ref="L446:M446"/>
+    <mergeCell ref="N446:O446"/>
+    <mergeCell ref="G447:I447"/>
+    <mergeCell ref="J447:K447"/>
+    <mergeCell ref="L447:M447"/>
+    <mergeCell ref="N447:O447"/>
+    <mergeCell ref="G448:I448"/>
+    <mergeCell ref="J448:K448"/>
+    <mergeCell ref="L448:M448"/>
+    <mergeCell ref="N448:O448"/>
+    <mergeCell ref="G449:I449"/>
+    <mergeCell ref="J449:K449"/>
+    <mergeCell ref="L449:M449"/>
+    <mergeCell ref="N449:O449"/>
+    <mergeCell ref="A452:D460"/>
+    <mergeCell ref="E453:O456"/>
+    <mergeCell ref="E457:O457"/>
+    <mergeCell ref="E458:O458"/>
+    <mergeCell ref="A438:C441"/>
+    <mergeCell ref="D438:F441"/>
+    <mergeCell ref="L438:O438"/>
+    <mergeCell ref="L439:O439"/>
+    <mergeCell ref="G441:O441"/>
+    <mergeCell ref="A442:C445"/>
+    <mergeCell ref="D442:F445"/>
+    <mergeCell ref="G442:I442"/>
+    <mergeCell ref="J442:K442"/>
+    <mergeCell ref="L442:M442"/>
+    <mergeCell ref="N442:O442"/>
+    <mergeCell ref="G443:I443"/>
+    <mergeCell ref="J443:K443"/>
+    <mergeCell ref="L443:M443"/>
+    <mergeCell ref="N443:O443"/>
+    <mergeCell ref="G444:I444"/>
+    <mergeCell ref="J444:K444"/>
+    <mergeCell ref="L444:M444"/>
+    <mergeCell ref="N444:O444"/>
+    <mergeCell ref="G445:I445"/>
+    <mergeCell ref="J445:K445"/>
+    <mergeCell ref="L445:M445"/>
+    <mergeCell ref="N445:O445"/>
+    <mergeCell ref="A426:D434"/>
+    <mergeCell ref="E427:O430"/>
+    <mergeCell ref="E431:O431"/>
+    <mergeCell ref="E432:O432"/>
+    <mergeCell ref="L434:O434"/>
+    <mergeCell ref="L435:O435"/>
+    <mergeCell ref="L436:O436"/>
+    <mergeCell ref="A437:C437"/>
+    <mergeCell ref="D437:F437"/>
+    <mergeCell ref="L437:O437"/>
+    <mergeCell ref="A368:C371"/>
+    <mergeCell ref="D368:F371"/>
+    <mergeCell ref="G368:I368"/>
+    <mergeCell ref="J368:K368"/>
+    <mergeCell ref="L368:M368"/>
+    <mergeCell ref="N368:O368"/>
+    <mergeCell ref="G369:I369"/>
+    <mergeCell ref="J369:K369"/>
+    <mergeCell ref="L369:M369"/>
+    <mergeCell ref="N369:O369"/>
+    <mergeCell ref="G370:I370"/>
+    <mergeCell ref="J370:K370"/>
+    <mergeCell ref="L370:M370"/>
+    <mergeCell ref="N370:O370"/>
+    <mergeCell ref="G371:I371"/>
+    <mergeCell ref="J371:K371"/>
+    <mergeCell ref="L371:M371"/>
+    <mergeCell ref="N371:O371"/>
+    <mergeCell ref="A374:D382"/>
+    <mergeCell ref="E375:O378"/>
+    <mergeCell ref="E379:O379"/>
+    <mergeCell ref="E380:O380"/>
+    <mergeCell ref="A360:C363"/>
+    <mergeCell ref="D360:F363"/>
+    <mergeCell ref="L360:O360"/>
+    <mergeCell ref="L361:O361"/>
+    <mergeCell ref="G363:O363"/>
+    <mergeCell ref="A364:C367"/>
+    <mergeCell ref="D364:F367"/>
+    <mergeCell ref="G364:I364"/>
+    <mergeCell ref="J364:K364"/>
+    <mergeCell ref="L364:M364"/>
+    <mergeCell ref="N364:O364"/>
+    <mergeCell ref="G365:I365"/>
+    <mergeCell ref="J365:K365"/>
+    <mergeCell ref="L365:M365"/>
+    <mergeCell ref="N365:O365"/>
+    <mergeCell ref="G366:I366"/>
+    <mergeCell ref="J366:K366"/>
+    <mergeCell ref="L366:M366"/>
+    <mergeCell ref="N366:O366"/>
+    <mergeCell ref="G367:I367"/>
+    <mergeCell ref="J367:K367"/>
+    <mergeCell ref="L367:M367"/>
+    <mergeCell ref="N367:O367"/>
+    <mergeCell ref="A348:D356"/>
+    <mergeCell ref="E349:O352"/>
+    <mergeCell ref="E353:O353"/>
+    <mergeCell ref="E354:O354"/>
+    <mergeCell ref="L356:O356"/>
+    <mergeCell ref="L357:O357"/>
+    <mergeCell ref="L358:O358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="D359:F359"/>
+    <mergeCell ref="L359:O359"/>
+    <mergeCell ref="A316:C319"/>
+    <mergeCell ref="D316:F319"/>
+    <mergeCell ref="G316:I316"/>
+    <mergeCell ref="J316:K316"/>
+    <mergeCell ref="L316:M316"/>
+    <mergeCell ref="N316:O316"/>
+    <mergeCell ref="G317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="L317:M317"/>
+    <mergeCell ref="N317:O317"/>
+    <mergeCell ref="G318:I318"/>
+    <mergeCell ref="J318:K318"/>
+    <mergeCell ref="L318:M318"/>
+    <mergeCell ref="N318:O318"/>
+    <mergeCell ref="G319:I319"/>
+    <mergeCell ref="J319:K319"/>
+    <mergeCell ref="L319:M319"/>
+    <mergeCell ref="N319:O319"/>
+    <mergeCell ref="A322:D330"/>
+    <mergeCell ref="E323:O326"/>
+    <mergeCell ref="E327:O327"/>
+    <mergeCell ref="E328:O328"/>
+    <mergeCell ref="A308:C311"/>
+    <mergeCell ref="D308:F311"/>
+    <mergeCell ref="L308:O308"/>
+    <mergeCell ref="L309:O309"/>
+    <mergeCell ref="G311:O311"/>
+    <mergeCell ref="A312:C315"/>
+    <mergeCell ref="D312:F315"/>
+    <mergeCell ref="G312:I312"/>
+    <mergeCell ref="J312:K312"/>
+    <mergeCell ref="L312:M312"/>
+    <mergeCell ref="N312:O312"/>
+    <mergeCell ref="G313:I313"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="L313:M313"/>
+    <mergeCell ref="N313:O313"/>
+    <mergeCell ref="G314:I314"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="L314:M314"/>
+    <mergeCell ref="N314:O314"/>
+    <mergeCell ref="G315:I315"/>
+    <mergeCell ref="J315:K315"/>
+    <mergeCell ref="L315:M315"/>
+    <mergeCell ref="N315:O315"/>
+    <mergeCell ref="A296:D304"/>
+    <mergeCell ref="E297:O300"/>
+    <mergeCell ref="E301:O301"/>
+    <mergeCell ref="E302:O302"/>
+    <mergeCell ref="L304:O304"/>
+    <mergeCell ref="L305:O305"/>
+    <mergeCell ref="L306:O306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="D307:F307"/>
+    <mergeCell ref="L307:O307"/>
+    <mergeCell ref="A256:C259"/>
+    <mergeCell ref="D256:F259"/>
+    <mergeCell ref="G256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="L256:M256"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="G257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="L257:M257"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="G258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="L258:M258"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="G259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="L259:M259"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="A262:D270"/>
+    <mergeCell ref="E263:O266"/>
+    <mergeCell ref="E267:O267"/>
+    <mergeCell ref="E268:O268"/>
+    <mergeCell ref="A248:C251"/>
+    <mergeCell ref="D248:F251"/>
+    <mergeCell ref="L248:O248"/>
+    <mergeCell ref="L249:O249"/>
+    <mergeCell ref="G251:O251"/>
+    <mergeCell ref="A252:C255"/>
+    <mergeCell ref="D252:F255"/>
+    <mergeCell ref="G252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="L252:M252"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="G253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="L253:M253"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="G254:I254"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="L254:M254"/>
+    <mergeCell ref="N254:O254"/>
+    <mergeCell ref="G255:I255"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="L255:M255"/>
+    <mergeCell ref="N255:O255"/>
+    <mergeCell ref="A236:D244"/>
+    <mergeCell ref="E237:O240"/>
+    <mergeCell ref="E241:O241"/>
+    <mergeCell ref="E242:O242"/>
+    <mergeCell ref="L244:O244"/>
+    <mergeCell ref="L245:O245"/>
+    <mergeCell ref="L246:O246"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="D247:F247"/>
+    <mergeCell ref="L247:O247"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="E6:O6"/>
+    <mergeCell ref="E7:O7"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="A1:D9"/>
+    <mergeCell ref="E2:O5"/>
+    <mergeCell ref="A13:C16"/>
+    <mergeCell ref="A17:C20"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="D17:F20"/>
+    <mergeCell ref="A21:C24"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A27:D35"/>
+    <mergeCell ref="E28:O31"/>
+    <mergeCell ref="E32:O32"/>
+    <mergeCell ref="E33:O33"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A43:C46"/>
+    <mergeCell ref="D43:F46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="A39:C42"/>
+    <mergeCell ref="D39:F42"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A53:D61"/>
+    <mergeCell ref="E54:O57"/>
+    <mergeCell ref="E58:O58"/>
+    <mergeCell ref="E59:O59"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="A47:C50"/>
+    <mergeCell ref="D47:F50"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D21:F24"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="A65:C68"/>
+    <mergeCell ref="D65:F68"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="G68:O68"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A69:C72"/>
+    <mergeCell ref="D69:F72"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A79:D87"/>
+    <mergeCell ref="E80:O83"/>
+    <mergeCell ref="E84:O84"/>
+    <mergeCell ref="E85:O85"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A73:C76"/>
+    <mergeCell ref="D73:F76"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="A91:C94"/>
+    <mergeCell ref="D91:F94"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="G94:O94"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A95:C98"/>
+    <mergeCell ref="D95:F98"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A105:D113"/>
+    <mergeCell ref="E106:O109"/>
+    <mergeCell ref="E110:O110"/>
+    <mergeCell ref="E111:O111"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A99:C102"/>
+    <mergeCell ref="D99:F102"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="A117:C120"/>
+    <mergeCell ref="D117:F120"/>
+    <mergeCell ref="L117:O117"/>
+    <mergeCell ref="L118:O118"/>
+    <mergeCell ref="G120:O120"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A121:C124"/>
+    <mergeCell ref="D121:F124"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A131:D139"/>
+    <mergeCell ref="E132:O135"/>
+    <mergeCell ref="E136:O136"/>
+    <mergeCell ref="E137:O137"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A125:C128"/>
+    <mergeCell ref="D125:F128"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="L142:O142"/>
+    <mergeCell ref="A143:C146"/>
+    <mergeCell ref="D143:F146"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="G146:O146"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="G150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="A147:C150"/>
+    <mergeCell ref="D147:F150"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A157:D165"/>
+    <mergeCell ref="E158:O161"/>
+    <mergeCell ref="E162:O162"/>
+    <mergeCell ref="E163:O163"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="A151:C154"/>
+    <mergeCell ref="D151:F154"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="A169:C172"/>
+    <mergeCell ref="D169:F172"/>
+    <mergeCell ref="L169:O169"/>
+    <mergeCell ref="L170:O170"/>
+    <mergeCell ref="G172:O172"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="L175:M175"/>
+    <mergeCell ref="N175:O175"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="L176:M176"/>
+    <mergeCell ref="N176:O176"/>
+    <mergeCell ref="A173:C176"/>
+    <mergeCell ref="D173:F176"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="N173:O173"/>
+    <mergeCell ref="G174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="L174:M174"/>
+    <mergeCell ref="N174:O174"/>
+    <mergeCell ref="A184:D192"/>
+    <mergeCell ref="E185:O188"/>
+    <mergeCell ref="E189:O189"/>
+    <mergeCell ref="E190:O190"/>
+    <mergeCell ref="L192:O192"/>
+    <mergeCell ref="L193:O193"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="G180:I180"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="N180:O180"/>
+    <mergeCell ref="A177:C180"/>
+    <mergeCell ref="D177:F180"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="L177:M177"/>
+    <mergeCell ref="N177:O177"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="L178:M178"/>
+    <mergeCell ref="N178:O178"/>
+    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="L195:O195"/>
+    <mergeCell ref="A196:C199"/>
+    <mergeCell ref="D196:F199"/>
+    <mergeCell ref="L196:O196"/>
+    <mergeCell ref="L197:O197"/>
+    <mergeCell ref="G199:O199"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="L202:M202"/>
+    <mergeCell ref="N202:O202"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="N203:O203"/>
+    <mergeCell ref="A200:C203"/>
+    <mergeCell ref="D200:F203"/>
+    <mergeCell ref="G200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="L200:M200"/>
+    <mergeCell ref="N200:O200"/>
+    <mergeCell ref="G201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="L201:M201"/>
+    <mergeCell ref="N201:O201"/>
+    <mergeCell ref="A210:D218"/>
+    <mergeCell ref="E211:O214"/>
+    <mergeCell ref="E215:O215"/>
+    <mergeCell ref="E216:O216"/>
+    <mergeCell ref="L218:O218"/>
+    <mergeCell ref="L219:O219"/>
+    <mergeCell ref="G206:I206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="N206:O206"/>
+    <mergeCell ref="G207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="A204:C207"/>
+    <mergeCell ref="D204:F207"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="L204:M204"/>
+    <mergeCell ref="N204:O204"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="L205:M205"/>
+    <mergeCell ref="N205:O205"/>
+    <mergeCell ref="L220:O220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="L221:O221"/>
+    <mergeCell ref="A222:C225"/>
+    <mergeCell ref="D222:F225"/>
+    <mergeCell ref="L222:O222"/>
+    <mergeCell ref="L223:O223"/>
+    <mergeCell ref="G225:O225"/>
+    <mergeCell ref="G228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="L228:M228"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="G229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="L229:M229"/>
+    <mergeCell ref="N229:O229"/>
+    <mergeCell ref="A226:C229"/>
+    <mergeCell ref="D226:F229"/>
+    <mergeCell ref="G226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="L226:M226"/>
+    <mergeCell ref="N226:O226"/>
+    <mergeCell ref="G227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="L227:M227"/>
+    <mergeCell ref="N227:O227"/>
+    <mergeCell ref="G232:I232"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="L232:M232"/>
+    <mergeCell ref="N232:O232"/>
+    <mergeCell ref="G233:I233"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="N233:O233"/>
+    <mergeCell ref="A230:C233"/>
+    <mergeCell ref="D230:F233"/>
+    <mergeCell ref="G230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="N230:O230"/>
+    <mergeCell ref="G231:I231"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="L231:M231"/>
+    <mergeCell ref="N231:O231"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="D273:F273"/>
+    <mergeCell ref="L273:O273"/>
+    <mergeCell ref="A274:C277"/>
+    <mergeCell ref="D274:F277"/>
+    <mergeCell ref="L274:O274"/>
+    <mergeCell ref="L275:O275"/>
+    <mergeCell ref="G277:O277"/>
+    <mergeCell ref="A278:C281"/>
+    <mergeCell ref="D278:F281"/>
+    <mergeCell ref="G278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="L278:M278"/>
+    <mergeCell ref="N278:O278"/>
+    <mergeCell ref="G279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="L279:M279"/>
+    <mergeCell ref="N279:O279"/>
+    <mergeCell ref="A282:C285"/>
+    <mergeCell ref="D282:F285"/>
+    <mergeCell ref="G280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="L280:M280"/>
+    <mergeCell ref="N281:O281"/>
+    <mergeCell ref="G281:I281"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="L281:M281"/>
+    <mergeCell ref="N282:O282"/>
+    <mergeCell ref="G282:I282"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="L282:M282"/>
+    <mergeCell ref="G283:I283"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="L283:M283"/>
+    <mergeCell ref="N283:O283"/>
+    <mergeCell ref="N280:O280"/>
+    <mergeCell ref="A286:C289"/>
+    <mergeCell ref="D286:F289"/>
+    <mergeCell ref="A290:C293"/>
+    <mergeCell ref="D290:F293"/>
+    <mergeCell ref="G284:I284"/>
+    <mergeCell ref="J284:K284"/>
+    <mergeCell ref="L284:M284"/>
+    <mergeCell ref="N284:O284"/>
+    <mergeCell ref="G285:I285"/>
+    <mergeCell ref="J285:K285"/>
+    <mergeCell ref="L285:M285"/>
+    <mergeCell ref="N285:O285"/>
+    <mergeCell ref="G286:I286"/>
+    <mergeCell ref="J286:K286"/>
+    <mergeCell ref="L286:M286"/>
+    <mergeCell ref="N286:O286"/>
+    <mergeCell ref="G287:I287"/>
+    <mergeCell ref="J287:K287"/>
+    <mergeCell ref="L287:M287"/>
+    <mergeCell ref="N287:O287"/>
+    <mergeCell ref="G288:I288"/>
+    <mergeCell ref="J288:K288"/>
+    <mergeCell ref="L288:M288"/>
+    <mergeCell ref="N288:O288"/>
+    <mergeCell ref="G292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="L292:M292"/>
+    <mergeCell ref="N292:O292"/>
+    <mergeCell ref="G293:I293"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="L293:M293"/>
+    <mergeCell ref="N293:O293"/>
+    <mergeCell ref="G289:I289"/>
+    <mergeCell ref="J289:K289"/>
+    <mergeCell ref="L289:M289"/>
+    <mergeCell ref="N289:O289"/>
+    <mergeCell ref="G290:I290"/>
+    <mergeCell ref="J290:K290"/>
+    <mergeCell ref="L290:M290"/>
+    <mergeCell ref="N290:O290"/>
+    <mergeCell ref="G291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="L291:M291"/>
+    <mergeCell ref="N291:O291"/>
+    <mergeCell ref="Q266:U267"/>
+    <mergeCell ref="Q269:U271"/>
+    <mergeCell ref="Q272:U274"/>
+    <mergeCell ref="Q275:U277"/>
+    <mergeCell ref="Q278:U280"/>
+    <mergeCell ref="Q281:U283"/>
+    <mergeCell ref="Q284:U286"/>
+    <mergeCell ref="Q287:U289"/>
+    <mergeCell ref="Q290:U291"/>
+    <mergeCell ref="L270:O270"/>
+    <mergeCell ref="L271:O271"/>
+    <mergeCell ref="L272:O272"/>
+    <mergeCell ref="L330:O330"/>
+    <mergeCell ref="L331:O331"/>
+    <mergeCell ref="L332:O332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="L333:O333"/>
+    <mergeCell ref="A334:C337"/>
+    <mergeCell ref="D334:F337"/>
+    <mergeCell ref="L334:O334"/>
+    <mergeCell ref="L335:O335"/>
+    <mergeCell ref="G337:O337"/>
+    <mergeCell ref="A338:C341"/>
+    <mergeCell ref="D338:F341"/>
+    <mergeCell ref="G338:I338"/>
+    <mergeCell ref="J338:K338"/>
+    <mergeCell ref="L338:M338"/>
+    <mergeCell ref="N338:O338"/>
+    <mergeCell ref="G339:I339"/>
+    <mergeCell ref="J339:K339"/>
+    <mergeCell ref="L339:M339"/>
+    <mergeCell ref="N339:O339"/>
+    <mergeCell ref="G340:I340"/>
+    <mergeCell ref="J340:K340"/>
+    <mergeCell ref="L340:M340"/>
+    <mergeCell ref="N340:O340"/>
+    <mergeCell ref="G341:I341"/>
+    <mergeCell ref="J341:K341"/>
+    <mergeCell ref="L341:M341"/>
+    <mergeCell ref="N341:O341"/>
+    <mergeCell ref="A342:C345"/>
+    <mergeCell ref="D342:F345"/>
+    <mergeCell ref="G342:I342"/>
+    <mergeCell ref="J342:K342"/>
+    <mergeCell ref="L342:M342"/>
+    <mergeCell ref="N342:O342"/>
+    <mergeCell ref="G343:I343"/>
+    <mergeCell ref="J343:K343"/>
+    <mergeCell ref="L343:M343"/>
+    <mergeCell ref="N343:O343"/>
+    <mergeCell ref="G344:I344"/>
+    <mergeCell ref="J344:K344"/>
+    <mergeCell ref="L344:M344"/>
+    <mergeCell ref="N344:O344"/>
+    <mergeCell ref="G345:I345"/>
+    <mergeCell ref="J345:K345"/>
+    <mergeCell ref="L345:M345"/>
+    <mergeCell ref="N345:O345"/>
+    <mergeCell ref="L382:O382"/>
+    <mergeCell ref="L383:O383"/>
+    <mergeCell ref="L384:O384"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="D385:F385"/>
+    <mergeCell ref="L385:O385"/>
+    <mergeCell ref="A386:C389"/>
+    <mergeCell ref="D386:F389"/>
+    <mergeCell ref="L386:O386"/>
+    <mergeCell ref="L387:O387"/>
+    <mergeCell ref="G389:O389"/>
+    <mergeCell ref="A390:C393"/>
+    <mergeCell ref="D390:F393"/>
+    <mergeCell ref="G390:I390"/>
+    <mergeCell ref="J390:K390"/>
+    <mergeCell ref="L390:M390"/>
+    <mergeCell ref="N390:O390"/>
+    <mergeCell ref="G391:I391"/>
+    <mergeCell ref="J391:K391"/>
+    <mergeCell ref="L391:M391"/>
+    <mergeCell ref="N391:O391"/>
+    <mergeCell ref="G392:I392"/>
+    <mergeCell ref="J392:K392"/>
+    <mergeCell ref="L392:M392"/>
+    <mergeCell ref="N392:O392"/>
+    <mergeCell ref="G393:I393"/>
+    <mergeCell ref="J393:K393"/>
+    <mergeCell ref="L393:M393"/>
+    <mergeCell ref="N393:O393"/>
+    <mergeCell ref="A394:C397"/>
+    <mergeCell ref="D394:F397"/>
+    <mergeCell ref="G394:I394"/>
+    <mergeCell ref="J394:K394"/>
+    <mergeCell ref="L394:M394"/>
+    <mergeCell ref="N394:O394"/>
+    <mergeCell ref="G395:I395"/>
+    <mergeCell ref="J395:K395"/>
+    <mergeCell ref="L395:M395"/>
+    <mergeCell ref="N395:O395"/>
+    <mergeCell ref="G396:I396"/>
+    <mergeCell ref="J396:K396"/>
+    <mergeCell ref="L396:M396"/>
+    <mergeCell ref="N396:O396"/>
+    <mergeCell ref="G397:I397"/>
+    <mergeCell ref="J397:K397"/>
+    <mergeCell ref="L397:M397"/>
+    <mergeCell ref="N397:O397"/>
+    <mergeCell ref="A400:D408"/>
+    <mergeCell ref="E401:O404"/>
+    <mergeCell ref="E405:O405"/>
+    <mergeCell ref="E406:O406"/>
+    <mergeCell ref="L408:O408"/>
+    <mergeCell ref="L409:O409"/>
+    <mergeCell ref="L410:O410"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="D411:F411"/>
+    <mergeCell ref="L411:O411"/>
+    <mergeCell ref="A412:C415"/>
+    <mergeCell ref="D412:F415"/>
+    <mergeCell ref="L412:O412"/>
+    <mergeCell ref="L413:O413"/>
+    <mergeCell ref="G415:O415"/>
+    <mergeCell ref="A416:C419"/>
+    <mergeCell ref="D416:F419"/>
+    <mergeCell ref="G416:I416"/>
+    <mergeCell ref="J416:K416"/>
+    <mergeCell ref="L416:M416"/>
+    <mergeCell ref="N416:O416"/>
+    <mergeCell ref="G417:I417"/>
+    <mergeCell ref="J417:K417"/>
+    <mergeCell ref="L417:M417"/>
+    <mergeCell ref="N417:O417"/>
+    <mergeCell ref="G418:I418"/>
+    <mergeCell ref="J418:K418"/>
+    <mergeCell ref="L418:M418"/>
+    <mergeCell ref="N418:O418"/>
+    <mergeCell ref="G419:I419"/>
+    <mergeCell ref="J419:K419"/>
+    <mergeCell ref="L419:M419"/>
+    <mergeCell ref="N419:O419"/>
+    <mergeCell ref="A420:C423"/>
+    <mergeCell ref="D420:F423"/>
+    <mergeCell ref="G420:I420"/>
+    <mergeCell ref="J420:K420"/>
+    <mergeCell ref="L420:M420"/>
+    <mergeCell ref="N420:O420"/>
+    <mergeCell ref="G421:I421"/>
+    <mergeCell ref="J421:K421"/>
+    <mergeCell ref="L421:M421"/>
+    <mergeCell ref="N421:O421"/>
+    <mergeCell ref="G422:I422"/>
+    <mergeCell ref="J422:K422"/>
+    <mergeCell ref="L422:M422"/>
+    <mergeCell ref="N422:O422"/>
+    <mergeCell ref="G423:I423"/>
+    <mergeCell ref="J423:K423"/>
+    <mergeCell ref="L423:M423"/>
+    <mergeCell ref="N423:O423"/>
+    <mergeCell ref="L460:O460"/>
+    <mergeCell ref="L461:O461"/>
+    <mergeCell ref="L462:O462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="D463:F463"/>
+    <mergeCell ref="L463:O463"/>
+    <mergeCell ref="A464:C467"/>
+    <mergeCell ref="D464:F467"/>
+    <mergeCell ref="L464:O464"/>
+    <mergeCell ref="L465:O465"/>
+    <mergeCell ref="G467:O467"/>
+    <mergeCell ref="A468:C471"/>
+    <mergeCell ref="D468:F471"/>
+    <mergeCell ref="G468:I468"/>
+    <mergeCell ref="J468:K468"/>
+    <mergeCell ref="L468:M468"/>
+    <mergeCell ref="N468:O468"/>
+    <mergeCell ref="G469:I469"/>
+    <mergeCell ref="J469:K469"/>
+    <mergeCell ref="L469:M469"/>
+    <mergeCell ref="N469:O469"/>
+    <mergeCell ref="G470:I470"/>
+    <mergeCell ref="J470:K470"/>
+    <mergeCell ref="L470:M470"/>
+    <mergeCell ref="N470:O470"/>
+    <mergeCell ref="G471:I471"/>
+    <mergeCell ref="J471:K471"/>
+    <mergeCell ref="L471:M471"/>
+    <mergeCell ref="N471:O471"/>
+    <mergeCell ref="A472:C475"/>
+    <mergeCell ref="D472:F475"/>
+    <mergeCell ref="G472:I472"/>
+    <mergeCell ref="J472:K472"/>
+    <mergeCell ref="L472:M472"/>
+    <mergeCell ref="N472:O472"/>
+    <mergeCell ref="G473:I473"/>
+    <mergeCell ref="J473:K473"/>
+    <mergeCell ref="L473:M473"/>
+    <mergeCell ref="N473:O473"/>
+    <mergeCell ref="G474:I474"/>
+    <mergeCell ref="J474:K474"/>
+    <mergeCell ref="L474:M474"/>
+    <mergeCell ref="N474:O474"/>
+    <mergeCell ref="G475:I475"/>
+    <mergeCell ref="J475:K475"/>
+    <mergeCell ref="L475:M475"/>
+    <mergeCell ref="N475:O475"/>
+    <mergeCell ref="A515:C515"/>
+    <mergeCell ref="D515:F515"/>
+    <mergeCell ref="L515:O515"/>
+    <mergeCell ref="A516:C519"/>
+    <mergeCell ref="D516:F519"/>
+    <mergeCell ref="L516:O516"/>
+    <mergeCell ref="L517:O517"/>
+    <mergeCell ref="G519:O519"/>
+    <mergeCell ref="A520:C523"/>
+    <mergeCell ref="D520:F523"/>
+    <mergeCell ref="G520:I520"/>
+    <mergeCell ref="J520:K520"/>
+    <mergeCell ref="L520:M520"/>
+    <mergeCell ref="N520:O520"/>
+    <mergeCell ref="G521:I521"/>
+    <mergeCell ref="J521:K521"/>
+    <mergeCell ref="L521:M521"/>
+    <mergeCell ref="N521:O521"/>
+    <mergeCell ref="G522:I522"/>
+    <mergeCell ref="J522:K522"/>
+    <mergeCell ref="L522:M522"/>
+    <mergeCell ref="N522:O522"/>
+    <mergeCell ref="G523:I523"/>
+    <mergeCell ref="J523:K523"/>
+    <mergeCell ref="L523:M523"/>
+    <mergeCell ref="N523:O523"/>
+    <mergeCell ref="A524:C527"/>
+    <mergeCell ref="D524:F527"/>
+    <mergeCell ref="G524:I524"/>
+    <mergeCell ref="J524:K524"/>
+    <mergeCell ref="L524:M524"/>
+    <mergeCell ref="N524:O524"/>
+    <mergeCell ref="G525:I525"/>
+    <mergeCell ref="J525:K525"/>
+    <mergeCell ref="L525:M525"/>
+    <mergeCell ref="N525:O525"/>
+    <mergeCell ref="G526:I526"/>
+    <mergeCell ref="J526:K526"/>
+    <mergeCell ref="L526:M526"/>
+    <mergeCell ref="N526:O526"/>
+    <mergeCell ref="G527:I527"/>
+    <mergeCell ref="J527:K527"/>
+    <mergeCell ref="L527:M527"/>
+    <mergeCell ref="N527:O527"/>
+    <mergeCell ref="A530:D538"/>
+    <mergeCell ref="E531:O534"/>
+    <mergeCell ref="E535:O535"/>
+    <mergeCell ref="E536:O536"/>
+    <mergeCell ref="L538:O538"/>
+    <mergeCell ref="L539:O539"/>
+    <mergeCell ref="L540:O540"/>
+    <mergeCell ref="A541:C541"/>
+    <mergeCell ref="D541:F541"/>
+    <mergeCell ref="A556:D564"/>
+    <mergeCell ref="E557:O560"/>
+    <mergeCell ref="E561:O561"/>
+    <mergeCell ref="E562:O562"/>
+    <mergeCell ref="L564:O564"/>
+    <mergeCell ref="L565:O565"/>
+    <mergeCell ref="L566:O566"/>
+    <mergeCell ref="A567:C567"/>
+    <mergeCell ref="D567:F567"/>
+    <mergeCell ref="L567:O567"/>
+    <mergeCell ref="D546:F549"/>
+    <mergeCell ref="G550:I550"/>
+    <mergeCell ref="J550:K550"/>
+    <mergeCell ref="L550:M550"/>
+    <mergeCell ref="N550:O550"/>
+    <mergeCell ref="G551:I551"/>
+    <mergeCell ref="J551:K551"/>
+    <mergeCell ref="L548:M548"/>
+    <mergeCell ref="N548:O548"/>
+    <mergeCell ref="G549:I549"/>
+    <mergeCell ref="J549:K549"/>
+    <mergeCell ref="L549:M549"/>
+    <mergeCell ref="N549:O549"/>
+    <mergeCell ref="A568:C571"/>
+    <mergeCell ref="D568:F571"/>
+    <mergeCell ref="L568:O568"/>
+    <mergeCell ref="L569:O569"/>
+    <mergeCell ref="G575:O575"/>
+    <mergeCell ref="A572:C575"/>
+    <mergeCell ref="D572:F575"/>
+    <mergeCell ref="A580:C583"/>
+    <mergeCell ref="D580:F583"/>
+    <mergeCell ref="N579:O579"/>
+    <mergeCell ref="A576:C579"/>
+    <mergeCell ref="D576:F579"/>
+    <mergeCell ref="G580:I580"/>
+    <mergeCell ref="J580:K580"/>
+    <mergeCell ref="L580:M580"/>
+    <mergeCell ref="N580:O580"/>
+    <mergeCell ref="G581:I581"/>
+    <mergeCell ref="J581:K581"/>
+    <mergeCell ref="L581:M581"/>
+    <mergeCell ref="N581:O581"/>
+    <mergeCell ref="G582:I582"/>
+    <mergeCell ref="J582:K582"/>
+    <mergeCell ref="L582:M582"/>
+    <mergeCell ref="N582:O582"/>
+    <mergeCell ref="G583:I583"/>
+    <mergeCell ref="J583:K583"/>
+    <mergeCell ref="L583:M583"/>
+    <mergeCell ref="N583:O583"/>
+    <mergeCell ref="G576:I576"/>
+    <mergeCell ref="J576:K576"/>
+    <mergeCell ref="L576:M576"/>
+    <mergeCell ref="N576:O576"/>
+    <mergeCell ref="A692:D700"/>
+    <mergeCell ref="E693:O696"/>
+    <mergeCell ref="E697:O697"/>
+    <mergeCell ref="E698:O698"/>
+    <mergeCell ref="L700:O700"/>
+    <mergeCell ref="L701:O701"/>
+    <mergeCell ref="L702:O702"/>
+    <mergeCell ref="A703:C703"/>
+    <mergeCell ref="D703:F703"/>
+    <mergeCell ref="L703:O703"/>
+    <mergeCell ref="A704:C707"/>
+    <mergeCell ref="D704:F707"/>
+    <mergeCell ref="L704:O704"/>
+    <mergeCell ref="L705:O705"/>
+    <mergeCell ref="G707:O707"/>
+    <mergeCell ref="A708:C711"/>
+    <mergeCell ref="D708:F711"/>
+    <mergeCell ref="G708:I708"/>
+    <mergeCell ref="J708:K708"/>
+    <mergeCell ref="L708:M708"/>
+    <mergeCell ref="N708:O708"/>
+    <mergeCell ref="G709:I709"/>
+    <mergeCell ref="J709:K709"/>
+    <mergeCell ref="L709:M709"/>
+    <mergeCell ref="N709:O709"/>
+    <mergeCell ref="G710:I710"/>
+    <mergeCell ref="J710:K710"/>
+    <mergeCell ref="L710:M710"/>
+    <mergeCell ref="N710:O710"/>
+    <mergeCell ref="G711:I711"/>
+    <mergeCell ref="J711:K711"/>
+    <mergeCell ref="L711:M711"/>
+    <mergeCell ref="N711:O711"/>
+    <mergeCell ref="A712:C715"/>
+    <mergeCell ref="D712:F715"/>
+    <mergeCell ref="G712:I712"/>
+    <mergeCell ref="J712:K712"/>
+    <mergeCell ref="L712:M712"/>
+    <mergeCell ref="N712:O712"/>
+    <mergeCell ref="G713:I713"/>
+    <mergeCell ref="J713:K713"/>
+    <mergeCell ref="L713:M713"/>
+    <mergeCell ref="N713:O713"/>
+    <mergeCell ref="G714:I714"/>
+    <mergeCell ref="J714:K714"/>
+    <mergeCell ref="L714:M714"/>
+    <mergeCell ref="N714:O714"/>
+    <mergeCell ref="G715:I715"/>
+    <mergeCell ref="J715:K715"/>
+    <mergeCell ref="L715:M715"/>
+    <mergeCell ref="N715:O715"/>
+    <mergeCell ref="A720:D728"/>
+    <mergeCell ref="E721:O724"/>
+    <mergeCell ref="E725:O725"/>
+    <mergeCell ref="E726:O726"/>
+    <mergeCell ref="L728:O728"/>
+    <mergeCell ref="L729:O729"/>
+    <mergeCell ref="L730:O730"/>
+    <mergeCell ref="A731:C731"/>
+    <mergeCell ref="D731:F731"/>
+    <mergeCell ref="L731:O731"/>
+    <mergeCell ref="A732:C735"/>
+    <mergeCell ref="D732:F735"/>
+    <mergeCell ref="L732:O732"/>
+    <mergeCell ref="L733:O733"/>
+    <mergeCell ref="G735:O735"/>
+    <mergeCell ref="A736:C739"/>
+    <mergeCell ref="D736:F739"/>
+    <mergeCell ref="G736:I736"/>
+    <mergeCell ref="J736:K736"/>
+    <mergeCell ref="L736:M736"/>
+    <mergeCell ref="N736:O736"/>
+    <mergeCell ref="G737:I737"/>
+    <mergeCell ref="J737:K737"/>
+    <mergeCell ref="L737:M737"/>
+    <mergeCell ref="N737:O737"/>
+    <mergeCell ref="G738:I738"/>
+    <mergeCell ref="J738:K738"/>
+    <mergeCell ref="L738:M738"/>
+    <mergeCell ref="N738:O738"/>
+    <mergeCell ref="G739:I739"/>
+    <mergeCell ref="J739:K739"/>
+    <mergeCell ref="L739:M739"/>
+    <mergeCell ref="N739:O739"/>
+    <mergeCell ref="A740:C743"/>
+    <mergeCell ref="D740:F743"/>
+    <mergeCell ref="G740:I740"/>
+    <mergeCell ref="J740:K740"/>
+    <mergeCell ref="L740:M740"/>
+    <mergeCell ref="N740:O740"/>
+    <mergeCell ref="G741:I741"/>
+    <mergeCell ref="J741:K741"/>
+    <mergeCell ref="L741:M741"/>
+    <mergeCell ref="N741:O741"/>
+    <mergeCell ref="G742:I742"/>
+    <mergeCell ref="J742:K742"/>
+    <mergeCell ref="L742:M742"/>
+    <mergeCell ref="N742:O742"/>
+    <mergeCell ref="G743:I743"/>
+    <mergeCell ref="J743:K743"/>
+    <mergeCell ref="L743:M743"/>
+    <mergeCell ref="N743:O743"/>
+    <mergeCell ref="A804:D812"/>
+    <mergeCell ref="E805:O808"/>
+    <mergeCell ref="E809:O809"/>
+    <mergeCell ref="E810:O810"/>
+    <mergeCell ref="L812:O812"/>
+    <mergeCell ref="L813:O813"/>
+    <mergeCell ref="L814:O814"/>
+    <mergeCell ref="A815:C815"/>
+    <mergeCell ref="D815:F815"/>
+    <mergeCell ref="L815:O815"/>
+    <mergeCell ref="A816:C819"/>
+    <mergeCell ref="D816:F819"/>
+    <mergeCell ref="L816:O816"/>
+    <mergeCell ref="L817:O817"/>
+    <mergeCell ref="G819:O819"/>
+    <mergeCell ref="A820:C823"/>
+    <mergeCell ref="D820:F823"/>
+    <mergeCell ref="G820:I820"/>
+    <mergeCell ref="J820:K820"/>
+    <mergeCell ref="L820:M820"/>
+    <mergeCell ref="N820:O820"/>
+    <mergeCell ref="G821:I821"/>
+    <mergeCell ref="J821:K821"/>
+    <mergeCell ref="L821:M821"/>
+    <mergeCell ref="N821:O821"/>
+    <mergeCell ref="G822:I822"/>
+    <mergeCell ref="J822:K822"/>
+    <mergeCell ref="L822:M822"/>
+    <mergeCell ref="N822:O822"/>
+    <mergeCell ref="G823:I823"/>
+    <mergeCell ref="J823:K823"/>
+    <mergeCell ref="L823:M823"/>
+    <mergeCell ref="N823:O823"/>
+    <mergeCell ref="A824:C827"/>
+    <mergeCell ref="D824:F827"/>
+    <mergeCell ref="G824:I824"/>
+    <mergeCell ref="J824:K824"/>
+    <mergeCell ref="L824:M824"/>
+    <mergeCell ref="N824:O824"/>
+    <mergeCell ref="G825:I825"/>
+    <mergeCell ref="J825:K825"/>
+    <mergeCell ref="L825:M825"/>
+    <mergeCell ref="N825:O825"/>
+    <mergeCell ref="G826:I826"/>
+    <mergeCell ref="J826:K826"/>
+    <mergeCell ref="L826:M826"/>
+    <mergeCell ref="N826:O826"/>
+    <mergeCell ref="G827:I827"/>
+    <mergeCell ref="J827:K827"/>
+    <mergeCell ref="L827:M827"/>
+    <mergeCell ref="N827:O827"/>
+    <mergeCell ref="A832:D840"/>
+    <mergeCell ref="E833:O836"/>
+    <mergeCell ref="E837:O837"/>
+    <mergeCell ref="E838:O838"/>
+    <mergeCell ref="L840:O840"/>
+    <mergeCell ref="L841:O841"/>
+    <mergeCell ref="L842:O842"/>
+    <mergeCell ref="A843:C843"/>
+    <mergeCell ref="D843:F843"/>
+    <mergeCell ref="L843:O843"/>
+    <mergeCell ref="A844:C847"/>
+    <mergeCell ref="D844:F847"/>
+    <mergeCell ref="L844:O844"/>
+    <mergeCell ref="L845:O845"/>
+    <mergeCell ref="G847:O847"/>
+    <mergeCell ref="A848:C851"/>
+    <mergeCell ref="D848:F851"/>
+    <mergeCell ref="G848:I848"/>
+    <mergeCell ref="J848:K848"/>
+    <mergeCell ref="L848:M848"/>
+    <mergeCell ref="N848:O848"/>
+    <mergeCell ref="G849:I849"/>
+    <mergeCell ref="J849:K849"/>
+    <mergeCell ref="L849:M849"/>
+    <mergeCell ref="N849:O849"/>
+    <mergeCell ref="G850:I850"/>
+    <mergeCell ref="J850:K850"/>
+    <mergeCell ref="L850:M850"/>
+    <mergeCell ref="N850:O850"/>
+    <mergeCell ref="G851:I851"/>
+    <mergeCell ref="J851:K851"/>
+    <mergeCell ref="L851:M851"/>
+    <mergeCell ref="N851:O851"/>
+    <mergeCell ref="A852:C855"/>
+    <mergeCell ref="D852:F855"/>
+    <mergeCell ref="G852:I852"/>
+    <mergeCell ref="J852:K852"/>
+    <mergeCell ref="L852:M852"/>
+    <mergeCell ref="N852:O852"/>
+    <mergeCell ref="G853:I853"/>
+    <mergeCell ref="J853:K853"/>
+    <mergeCell ref="L853:M853"/>
+    <mergeCell ref="N853:O853"/>
+    <mergeCell ref="G854:I854"/>
+    <mergeCell ref="J854:K854"/>
+    <mergeCell ref="L854:M854"/>
+    <mergeCell ref="N854:O854"/>
+    <mergeCell ref="G855:I855"/>
+    <mergeCell ref="J855:K855"/>
+    <mergeCell ref="L855:M855"/>
+    <mergeCell ref="N855:O855"/>
+    <mergeCell ref="A860:D868"/>
+    <mergeCell ref="E861:O864"/>
+    <mergeCell ref="E865:O865"/>
+    <mergeCell ref="E866:O866"/>
+    <mergeCell ref="L868:O868"/>
+    <mergeCell ref="L869:O869"/>
+    <mergeCell ref="L870:O870"/>
+    <mergeCell ref="A871:C871"/>
+    <mergeCell ref="D871:F871"/>
+    <mergeCell ref="L871:O871"/>
+    <mergeCell ref="A872:C875"/>
+    <mergeCell ref="D872:F875"/>
+    <mergeCell ref="L872:O872"/>
+    <mergeCell ref="L873:O873"/>
+    <mergeCell ref="G875:O875"/>
+    <mergeCell ref="A876:C879"/>
+    <mergeCell ref="D876:F879"/>
+    <mergeCell ref="G876:I876"/>
+    <mergeCell ref="J876:K876"/>
+    <mergeCell ref="L876:M876"/>
+    <mergeCell ref="N876:O876"/>
+    <mergeCell ref="G877:I877"/>
+    <mergeCell ref="J877:K877"/>
+    <mergeCell ref="L877:M877"/>
+    <mergeCell ref="N877:O877"/>
+    <mergeCell ref="G878:I878"/>
+    <mergeCell ref="J878:K878"/>
+    <mergeCell ref="L878:M878"/>
+    <mergeCell ref="N878:O878"/>
+    <mergeCell ref="G879:I879"/>
+    <mergeCell ref="J879:K879"/>
+    <mergeCell ref="L879:M879"/>
+    <mergeCell ref="N879:O879"/>
+    <mergeCell ref="A880:C883"/>
+    <mergeCell ref="D880:F883"/>
+    <mergeCell ref="G880:I880"/>
+    <mergeCell ref="J880:K880"/>
+    <mergeCell ref="L880:M880"/>
+    <mergeCell ref="N880:O880"/>
+    <mergeCell ref="G881:I881"/>
+    <mergeCell ref="J881:K881"/>
+    <mergeCell ref="L881:M881"/>
+    <mergeCell ref="N881:O881"/>
+    <mergeCell ref="G882:I882"/>
+    <mergeCell ref="J882:K882"/>
+    <mergeCell ref="L882:M882"/>
+    <mergeCell ref="N882:O882"/>
+    <mergeCell ref="G883:I883"/>
+    <mergeCell ref="J883:K883"/>
+    <mergeCell ref="L883:M883"/>
+    <mergeCell ref="N883:O883"/>
+    <mergeCell ref="A888:D896"/>
+    <mergeCell ref="E889:O892"/>
+    <mergeCell ref="E893:O893"/>
+    <mergeCell ref="E894:O894"/>
+    <mergeCell ref="L896:O896"/>
+    <mergeCell ref="L897:O897"/>
+    <mergeCell ref="L898:O898"/>
+    <mergeCell ref="A899:C899"/>
+    <mergeCell ref="D899:F899"/>
+    <mergeCell ref="L899:O899"/>
+    <mergeCell ref="A900:C903"/>
+    <mergeCell ref="D900:F903"/>
+    <mergeCell ref="L900:O900"/>
+    <mergeCell ref="L901:O901"/>
+    <mergeCell ref="G903:O903"/>
+    <mergeCell ref="A904:C907"/>
+    <mergeCell ref="D904:F907"/>
+    <mergeCell ref="G904:I904"/>
+    <mergeCell ref="J904:K904"/>
+    <mergeCell ref="L904:M904"/>
+    <mergeCell ref="N904:O904"/>
+    <mergeCell ref="G905:I905"/>
+    <mergeCell ref="J905:K905"/>
+    <mergeCell ref="L905:M905"/>
+    <mergeCell ref="N905:O905"/>
+    <mergeCell ref="G906:I906"/>
+    <mergeCell ref="J906:K906"/>
+    <mergeCell ref="L906:M906"/>
+    <mergeCell ref="N906:O906"/>
+    <mergeCell ref="G907:I907"/>
+    <mergeCell ref="J907:K907"/>
+    <mergeCell ref="L907:M907"/>
+    <mergeCell ref="N907:O907"/>
+    <mergeCell ref="A908:C911"/>
+    <mergeCell ref="D908:F911"/>
+    <mergeCell ref="G908:I908"/>
+    <mergeCell ref="J908:K908"/>
+    <mergeCell ref="L908:M908"/>
+    <mergeCell ref="N908:O908"/>
+    <mergeCell ref="G909:I909"/>
+    <mergeCell ref="J909:K909"/>
+    <mergeCell ref="L909:M909"/>
+    <mergeCell ref="N909:O909"/>
+    <mergeCell ref="G910:I910"/>
+    <mergeCell ref="J910:K910"/>
+    <mergeCell ref="L910:M910"/>
+    <mergeCell ref="N910:O910"/>
+    <mergeCell ref="G911:I911"/>
+    <mergeCell ref="J911:K911"/>
+    <mergeCell ref="L911:M911"/>
+    <mergeCell ref="N911:O911"/>
+    <mergeCell ref="A916:D924"/>
+    <mergeCell ref="E917:O920"/>
+    <mergeCell ref="E921:O921"/>
+    <mergeCell ref="E922:O922"/>
+    <mergeCell ref="L924:O924"/>
+    <mergeCell ref="L925:O925"/>
+    <mergeCell ref="L926:O926"/>
+    <mergeCell ref="A927:C927"/>
+    <mergeCell ref="D927:F927"/>
+    <mergeCell ref="L927:O927"/>
+    <mergeCell ref="A928:C931"/>
+    <mergeCell ref="D928:F931"/>
+    <mergeCell ref="L928:O928"/>
+    <mergeCell ref="L929:O929"/>
+    <mergeCell ref="G931:O931"/>
+    <mergeCell ref="A932:C935"/>
+    <mergeCell ref="D932:F935"/>
+    <mergeCell ref="G932:I932"/>
+    <mergeCell ref="J932:K932"/>
+    <mergeCell ref="L932:M932"/>
+    <mergeCell ref="N932:O932"/>
+    <mergeCell ref="G933:I933"/>
+    <mergeCell ref="J933:K933"/>
+    <mergeCell ref="L933:M933"/>
+    <mergeCell ref="N933:O933"/>
+    <mergeCell ref="G934:I934"/>
+    <mergeCell ref="J934:K934"/>
+    <mergeCell ref="L934:M934"/>
+    <mergeCell ref="N934:O934"/>
+    <mergeCell ref="G935:I935"/>
+    <mergeCell ref="J935:K935"/>
+    <mergeCell ref="L935:M935"/>
+    <mergeCell ref="N935:O935"/>
+    <mergeCell ref="A936:C939"/>
+    <mergeCell ref="D936:F939"/>
+    <mergeCell ref="G936:I936"/>
+    <mergeCell ref="J936:K936"/>
+    <mergeCell ref="L936:M936"/>
+    <mergeCell ref="N936:O936"/>
+    <mergeCell ref="G937:I937"/>
+    <mergeCell ref="J937:K937"/>
+    <mergeCell ref="L937:M937"/>
+    <mergeCell ref="N937:O937"/>
+    <mergeCell ref="G938:I938"/>
+    <mergeCell ref="J938:K938"/>
+    <mergeCell ref="L938:M938"/>
+    <mergeCell ref="N938:O938"/>
+    <mergeCell ref="G939:I939"/>
+    <mergeCell ref="J939:K939"/>
+    <mergeCell ref="L939:M939"/>
+    <mergeCell ref="N939:O939"/>
     <mergeCell ref="A972:D980"/>
     <mergeCell ref="E973:O976"/>
     <mergeCell ref="E977:O977"/>
@@ -25277,1889 +27863,25 @@
     <mergeCell ref="G991:I991"/>
     <mergeCell ref="J991:K991"/>
     <mergeCell ref="L991:M991"/>
-    <mergeCell ref="N935:O935"/>
-    <mergeCell ref="A936:C939"/>
-    <mergeCell ref="D936:F939"/>
-    <mergeCell ref="G936:I936"/>
-    <mergeCell ref="J936:K936"/>
-    <mergeCell ref="L936:M936"/>
-    <mergeCell ref="N936:O936"/>
-    <mergeCell ref="G937:I937"/>
-    <mergeCell ref="J937:K937"/>
-    <mergeCell ref="L937:M937"/>
-    <mergeCell ref="N937:O937"/>
-    <mergeCell ref="G938:I938"/>
-    <mergeCell ref="J938:K938"/>
-    <mergeCell ref="L938:M938"/>
-    <mergeCell ref="N938:O938"/>
-    <mergeCell ref="G939:I939"/>
-    <mergeCell ref="J939:K939"/>
-    <mergeCell ref="L939:M939"/>
-    <mergeCell ref="N939:O939"/>
-    <mergeCell ref="A916:D924"/>
-    <mergeCell ref="E917:O920"/>
-    <mergeCell ref="E921:O921"/>
-    <mergeCell ref="E922:O922"/>
-    <mergeCell ref="L924:O924"/>
-    <mergeCell ref="L925:O925"/>
-    <mergeCell ref="L926:O926"/>
-    <mergeCell ref="A927:C927"/>
-    <mergeCell ref="D927:F927"/>
-    <mergeCell ref="L927:O927"/>
-    <mergeCell ref="A928:C931"/>
-    <mergeCell ref="D928:F931"/>
-    <mergeCell ref="L928:O928"/>
-    <mergeCell ref="L929:O929"/>
-    <mergeCell ref="G931:O931"/>
-    <mergeCell ref="A932:C935"/>
-    <mergeCell ref="D932:F935"/>
-    <mergeCell ref="G932:I932"/>
-    <mergeCell ref="J932:K932"/>
-    <mergeCell ref="L932:M932"/>
-    <mergeCell ref="N932:O932"/>
-    <mergeCell ref="G933:I933"/>
-    <mergeCell ref="J933:K933"/>
-    <mergeCell ref="L933:M933"/>
-    <mergeCell ref="N933:O933"/>
-    <mergeCell ref="G934:I934"/>
-    <mergeCell ref="J934:K934"/>
-    <mergeCell ref="L934:M934"/>
-    <mergeCell ref="N934:O934"/>
-    <mergeCell ref="G935:I935"/>
-    <mergeCell ref="J935:K935"/>
-    <mergeCell ref="L935:M935"/>
-    <mergeCell ref="N907:O907"/>
-    <mergeCell ref="A908:C911"/>
-    <mergeCell ref="D908:F911"/>
-    <mergeCell ref="G908:I908"/>
-    <mergeCell ref="J908:K908"/>
-    <mergeCell ref="L908:M908"/>
-    <mergeCell ref="N908:O908"/>
-    <mergeCell ref="G909:I909"/>
-    <mergeCell ref="J909:K909"/>
-    <mergeCell ref="L909:M909"/>
-    <mergeCell ref="N909:O909"/>
-    <mergeCell ref="G910:I910"/>
-    <mergeCell ref="J910:K910"/>
-    <mergeCell ref="L910:M910"/>
-    <mergeCell ref="N910:O910"/>
-    <mergeCell ref="G911:I911"/>
-    <mergeCell ref="J911:K911"/>
-    <mergeCell ref="L911:M911"/>
-    <mergeCell ref="N911:O911"/>
-    <mergeCell ref="A888:D896"/>
-    <mergeCell ref="E889:O892"/>
-    <mergeCell ref="E893:O893"/>
-    <mergeCell ref="E894:O894"/>
-    <mergeCell ref="L896:O896"/>
-    <mergeCell ref="L897:O897"/>
-    <mergeCell ref="L898:O898"/>
-    <mergeCell ref="A899:C899"/>
-    <mergeCell ref="D899:F899"/>
-    <mergeCell ref="L899:O899"/>
-    <mergeCell ref="A900:C903"/>
-    <mergeCell ref="D900:F903"/>
-    <mergeCell ref="L900:O900"/>
-    <mergeCell ref="L901:O901"/>
-    <mergeCell ref="G903:O903"/>
-    <mergeCell ref="A904:C907"/>
-    <mergeCell ref="D904:F907"/>
-    <mergeCell ref="G904:I904"/>
-    <mergeCell ref="J904:K904"/>
-    <mergeCell ref="L904:M904"/>
-    <mergeCell ref="N904:O904"/>
-    <mergeCell ref="G905:I905"/>
-    <mergeCell ref="J905:K905"/>
-    <mergeCell ref="L905:M905"/>
-    <mergeCell ref="N905:O905"/>
-    <mergeCell ref="G906:I906"/>
-    <mergeCell ref="J906:K906"/>
-    <mergeCell ref="L906:M906"/>
-    <mergeCell ref="N906:O906"/>
-    <mergeCell ref="G907:I907"/>
-    <mergeCell ref="J907:K907"/>
-    <mergeCell ref="L907:M907"/>
-    <mergeCell ref="N879:O879"/>
-    <mergeCell ref="A880:C883"/>
-    <mergeCell ref="D880:F883"/>
-    <mergeCell ref="G880:I880"/>
-    <mergeCell ref="J880:K880"/>
-    <mergeCell ref="L880:M880"/>
-    <mergeCell ref="N880:O880"/>
-    <mergeCell ref="G881:I881"/>
-    <mergeCell ref="J881:K881"/>
-    <mergeCell ref="L881:M881"/>
-    <mergeCell ref="N881:O881"/>
-    <mergeCell ref="G882:I882"/>
-    <mergeCell ref="J882:K882"/>
-    <mergeCell ref="L882:M882"/>
-    <mergeCell ref="N882:O882"/>
-    <mergeCell ref="G883:I883"/>
-    <mergeCell ref="J883:K883"/>
-    <mergeCell ref="L883:M883"/>
-    <mergeCell ref="N883:O883"/>
-    <mergeCell ref="A860:D868"/>
-    <mergeCell ref="E861:O864"/>
-    <mergeCell ref="E865:O865"/>
-    <mergeCell ref="E866:O866"/>
-    <mergeCell ref="L868:O868"/>
-    <mergeCell ref="L869:O869"/>
-    <mergeCell ref="L870:O870"/>
-    <mergeCell ref="A871:C871"/>
-    <mergeCell ref="D871:F871"/>
-    <mergeCell ref="L871:O871"/>
-    <mergeCell ref="A872:C875"/>
-    <mergeCell ref="D872:F875"/>
-    <mergeCell ref="L872:O872"/>
-    <mergeCell ref="L873:O873"/>
-    <mergeCell ref="G875:O875"/>
-    <mergeCell ref="A876:C879"/>
-    <mergeCell ref="D876:F879"/>
-    <mergeCell ref="G876:I876"/>
-    <mergeCell ref="J876:K876"/>
-    <mergeCell ref="L876:M876"/>
-    <mergeCell ref="N876:O876"/>
-    <mergeCell ref="G877:I877"/>
-    <mergeCell ref="J877:K877"/>
-    <mergeCell ref="L877:M877"/>
-    <mergeCell ref="N877:O877"/>
-    <mergeCell ref="G878:I878"/>
-    <mergeCell ref="J878:K878"/>
-    <mergeCell ref="L878:M878"/>
-    <mergeCell ref="N878:O878"/>
-    <mergeCell ref="G879:I879"/>
-    <mergeCell ref="J879:K879"/>
-    <mergeCell ref="L879:M879"/>
-    <mergeCell ref="N851:O851"/>
-    <mergeCell ref="A852:C855"/>
-    <mergeCell ref="D852:F855"/>
-    <mergeCell ref="G852:I852"/>
-    <mergeCell ref="J852:K852"/>
-    <mergeCell ref="L852:M852"/>
-    <mergeCell ref="N852:O852"/>
-    <mergeCell ref="G853:I853"/>
-    <mergeCell ref="J853:K853"/>
-    <mergeCell ref="L853:M853"/>
-    <mergeCell ref="N853:O853"/>
-    <mergeCell ref="G854:I854"/>
-    <mergeCell ref="J854:K854"/>
-    <mergeCell ref="L854:M854"/>
-    <mergeCell ref="N854:O854"/>
-    <mergeCell ref="G855:I855"/>
-    <mergeCell ref="J855:K855"/>
-    <mergeCell ref="L855:M855"/>
-    <mergeCell ref="N855:O855"/>
-    <mergeCell ref="A832:D840"/>
-    <mergeCell ref="E833:O836"/>
-    <mergeCell ref="E837:O837"/>
-    <mergeCell ref="E838:O838"/>
-    <mergeCell ref="L840:O840"/>
-    <mergeCell ref="L841:O841"/>
-    <mergeCell ref="L842:O842"/>
-    <mergeCell ref="A843:C843"/>
-    <mergeCell ref="D843:F843"/>
-    <mergeCell ref="L843:O843"/>
-    <mergeCell ref="A844:C847"/>
-    <mergeCell ref="D844:F847"/>
-    <mergeCell ref="L844:O844"/>
-    <mergeCell ref="L845:O845"/>
-    <mergeCell ref="G847:O847"/>
-    <mergeCell ref="A848:C851"/>
-    <mergeCell ref="D848:F851"/>
-    <mergeCell ref="G848:I848"/>
-    <mergeCell ref="J848:K848"/>
-    <mergeCell ref="L848:M848"/>
-    <mergeCell ref="N848:O848"/>
-    <mergeCell ref="G849:I849"/>
-    <mergeCell ref="J849:K849"/>
-    <mergeCell ref="L849:M849"/>
-    <mergeCell ref="N849:O849"/>
-    <mergeCell ref="G850:I850"/>
-    <mergeCell ref="J850:K850"/>
-    <mergeCell ref="L850:M850"/>
-    <mergeCell ref="N850:O850"/>
-    <mergeCell ref="G851:I851"/>
-    <mergeCell ref="J851:K851"/>
-    <mergeCell ref="L851:M851"/>
-    <mergeCell ref="N823:O823"/>
-    <mergeCell ref="A824:C827"/>
-    <mergeCell ref="D824:F827"/>
-    <mergeCell ref="G824:I824"/>
-    <mergeCell ref="J824:K824"/>
-    <mergeCell ref="L824:M824"/>
-    <mergeCell ref="N824:O824"/>
-    <mergeCell ref="G825:I825"/>
-    <mergeCell ref="J825:K825"/>
-    <mergeCell ref="L825:M825"/>
-    <mergeCell ref="N825:O825"/>
-    <mergeCell ref="G826:I826"/>
-    <mergeCell ref="J826:K826"/>
-    <mergeCell ref="L826:M826"/>
-    <mergeCell ref="N826:O826"/>
-    <mergeCell ref="G827:I827"/>
-    <mergeCell ref="J827:K827"/>
-    <mergeCell ref="L827:M827"/>
-    <mergeCell ref="N827:O827"/>
-    <mergeCell ref="A804:D812"/>
-    <mergeCell ref="E805:O808"/>
-    <mergeCell ref="E809:O809"/>
-    <mergeCell ref="E810:O810"/>
-    <mergeCell ref="L812:O812"/>
-    <mergeCell ref="L813:O813"/>
-    <mergeCell ref="L814:O814"/>
-    <mergeCell ref="A815:C815"/>
-    <mergeCell ref="D815:F815"/>
-    <mergeCell ref="L815:O815"/>
-    <mergeCell ref="A816:C819"/>
-    <mergeCell ref="D816:F819"/>
-    <mergeCell ref="L816:O816"/>
-    <mergeCell ref="L817:O817"/>
-    <mergeCell ref="G819:O819"/>
-    <mergeCell ref="A820:C823"/>
-    <mergeCell ref="D820:F823"/>
-    <mergeCell ref="G820:I820"/>
-    <mergeCell ref="J820:K820"/>
-    <mergeCell ref="L820:M820"/>
-    <mergeCell ref="N820:O820"/>
-    <mergeCell ref="G821:I821"/>
-    <mergeCell ref="J821:K821"/>
-    <mergeCell ref="L821:M821"/>
-    <mergeCell ref="N821:O821"/>
-    <mergeCell ref="G822:I822"/>
-    <mergeCell ref="J822:K822"/>
-    <mergeCell ref="L822:M822"/>
-    <mergeCell ref="N822:O822"/>
-    <mergeCell ref="G823:I823"/>
-    <mergeCell ref="J823:K823"/>
-    <mergeCell ref="L823:M823"/>
-    <mergeCell ref="N739:O739"/>
-    <mergeCell ref="A740:C743"/>
-    <mergeCell ref="D740:F743"/>
-    <mergeCell ref="G740:I740"/>
-    <mergeCell ref="J740:K740"/>
-    <mergeCell ref="L740:M740"/>
-    <mergeCell ref="N740:O740"/>
-    <mergeCell ref="G741:I741"/>
-    <mergeCell ref="J741:K741"/>
-    <mergeCell ref="L741:M741"/>
-    <mergeCell ref="N741:O741"/>
-    <mergeCell ref="G742:I742"/>
-    <mergeCell ref="J742:K742"/>
-    <mergeCell ref="L742:M742"/>
-    <mergeCell ref="N742:O742"/>
-    <mergeCell ref="G743:I743"/>
-    <mergeCell ref="J743:K743"/>
-    <mergeCell ref="L743:M743"/>
-    <mergeCell ref="N743:O743"/>
-    <mergeCell ref="A720:D728"/>
-    <mergeCell ref="E721:O724"/>
-    <mergeCell ref="E725:O725"/>
-    <mergeCell ref="E726:O726"/>
-    <mergeCell ref="L728:O728"/>
-    <mergeCell ref="L729:O729"/>
-    <mergeCell ref="L730:O730"/>
-    <mergeCell ref="A731:C731"/>
-    <mergeCell ref="D731:F731"/>
-    <mergeCell ref="L731:O731"/>
-    <mergeCell ref="A732:C735"/>
-    <mergeCell ref="D732:F735"/>
-    <mergeCell ref="L732:O732"/>
-    <mergeCell ref="L733:O733"/>
-    <mergeCell ref="G735:O735"/>
-    <mergeCell ref="A736:C739"/>
-    <mergeCell ref="D736:F739"/>
-    <mergeCell ref="G736:I736"/>
-    <mergeCell ref="J736:K736"/>
-    <mergeCell ref="L736:M736"/>
-    <mergeCell ref="N736:O736"/>
-    <mergeCell ref="G737:I737"/>
-    <mergeCell ref="J737:K737"/>
-    <mergeCell ref="L737:M737"/>
-    <mergeCell ref="N737:O737"/>
-    <mergeCell ref="G738:I738"/>
-    <mergeCell ref="J738:K738"/>
-    <mergeCell ref="L738:M738"/>
-    <mergeCell ref="N738:O738"/>
-    <mergeCell ref="G739:I739"/>
-    <mergeCell ref="J739:K739"/>
-    <mergeCell ref="L739:M739"/>
-    <mergeCell ref="N711:O711"/>
-    <mergeCell ref="A712:C715"/>
-    <mergeCell ref="D712:F715"/>
-    <mergeCell ref="G712:I712"/>
-    <mergeCell ref="J712:K712"/>
-    <mergeCell ref="L712:M712"/>
-    <mergeCell ref="N712:O712"/>
-    <mergeCell ref="G713:I713"/>
-    <mergeCell ref="J713:K713"/>
-    <mergeCell ref="L713:M713"/>
-    <mergeCell ref="N713:O713"/>
-    <mergeCell ref="G714:I714"/>
-    <mergeCell ref="J714:K714"/>
-    <mergeCell ref="L714:M714"/>
-    <mergeCell ref="N714:O714"/>
-    <mergeCell ref="G715:I715"/>
-    <mergeCell ref="J715:K715"/>
-    <mergeCell ref="L715:M715"/>
-    <mergeCell ref="N715:O715"/>
-    <mergeCell ref="A692:D700"/>
-    <mergeCell ref="E693:O696"/>
-    <mergeCell ref="E697:O697"/>
-    <mergeCell ref="E698:O698"/>
-    <mergeCell ref="L700:O700"/>
-    <mergeCell ref="L701:O701"/>
-    <mergeCell ref="L702:O702"/>
-    <mergeCell ref="A703:C703"/>
-    <mergeCell ref="D703:F703"/>
-    <mergeCell ref="L703:O703"/>
-    <mergeCell ref="A704:C707"/>
-    <mergeCell ref="D704:F707"/>
-    <mergeCell ref="L704:O704"/>
-    <mergeCell ref="L705:O705"/>
-    <mergeCell ref="G707:O707"/>
-    <mergeCell ref="A708:C711"/>
-    <mergeCell ref="D708:F711"/>
-    <mergeCell ref="G708:I708"/>
-    <mergeCell ref="J708:K708"/>
-    <mergeCell ref="L708:M708"/>
-    <mergeCell ref="N708:O708"/>
-    <mergeCell ref="G709:I709"/>
-    <mergeCell ref="J709:K709"/>
-    <mergeCell ref="L709:M709"/>
-    <mergeCell ref="N709:O709"/>
-    <mergeCell ref="G710:I710"/>
-    <mergeCell ref="J710:K710"/>
-    <mergeCell ref="L710:M710"/>
-    <mergeCell ref="N710:O710"/>
-    <mergeCell ref="G711:I711"/>
-    <mergeCell ref="J711:K711"/>
-    <mergeCell ref="L711:M711"/>
-    <mergeCell ref="A568:C571"/>
-    <mergeCell ref="D568:F571"/>
-    <mergeCell ref="L568:O568"/>
-    <mergeCell ref="L569:O569"/>
-    <mergeCell ref="G575:O575"/>
-    <mergeCell ref="A572:C575"/>
-    <mergeCell ref="D572:F575"/>
-    <mergeCell ref="A580:C583"/>
-    <mergeCell ref="D580:F583"/>
-    <mergeCell ref="N579:O579"/>
-    <mergeCell ref="A576:C579"/>
-    <mergeCell ref="D576:F579"/>
-    <mergeCell ref="G580:I580"/>
-    <mergeCell ref="J580:K580"/>
-    <mergeCell ref="L580:M580"/>
-    <mergeCell ref="N580:O580"/>
-    <mergeCell ref="G581:I581"/>
-    <mergeCell ref="J581:K581"/>
-    <mergeCell ref="L581:M581"/>
-    <mergeCell ref="N581:O581"/>
-    <mergeCell ref="G582:I582"/>
-    <mergeCell ref="J582:K582"/>
-    <mergeCell ref="L582:M582"/>
-    <mergeCell ref="N582:O582"/>
-    <mergeCell ref="G583:I583"/>
-    <mergeCell ref="J583:K583"/>
-    <mergeCell ref="L583:M583"/>
-    <mergeCell ref="N583:O583"/>
-    <mergeCell ref="G576:I576"/>
-    <mergeCell ref="J576:K576"/>
-    <mergeCell ref="L576:M576"/>
-    <mergeCell ref="N576:O576"/>
-    <mergeCell ref="A530:D538"/>
-    <mergeCell ref="E531:O534"/>
-    <mergeCell ref="E535:O535"/>
-    <mergeCell ref="E536:O536"/>
-    <mergeCell ref="L538:O538"/>
-    <mergeCell ref="L539:O539"/>
-    <mergeCell ref="L540:O540"/>
-    <mergeCell ref="A541:C541"/>
-    <mergeCell ref="D541:F541"/>
-    <mergeCell ref="A556:D564"/>
-    <mergeCell ref="E557:O560"/>
-    <mergeCell ref="E561:O561"/>
-    <mergeCell ref="E562:O562"/>
-    <mergeCell ref="L564:O564"/>
-    <mergeCell ref="L565:O565"/>
-    <mergeCell ref="L566:O566"/>
-    <mergeCell ref="A567:C567"/>
-    <mergeCell ref="D567:F567"/>
-    <mergeCell ref="L567:O567"/>
-    <mergeCell ref="D546:F549"/>
-    <mergeCell ref="G550:I550"/>
-    <mergeCell ref="J550:K550"/>
-    <mergeCell ref="L550:M550"/>
-    <mergeCell ref="N550:O550"/>
-    <mergeCell ref="G551:I551"/>
-    <mergeCell ref="J551:K551"/>
-    <mergeCell ref="L548:M548"/>
-    <mergeCell ref="N548:O548"/>
-    <mergeCell ref="G549:I549"/>
-    <mergeCell ref="J549:K549"/>
-    <mergeCell ref="L549:M549"/>
-    <mergeCell ref="N549:O549"/>
-    <mergeCell ref="A524:C527"/>
-    <mergeCell ref="D524:F527"/>
-    <mergeCell ref="G524:I524"/>
-    <mergeCell ref="J524:K524"/>
-    <mergeCell ref="L524:M524"/>
-    <mergeCell ref="N524:O524"/>
-    <mergeCell ref="G525:I525"/>
-    <mergeCell ref="J525:K525"/>
-    <mergeCell ref="L525:M525"/>
-    <mergeCell ref="N525:O525"/>
-    <mergeCell ref="G526:I526"/>
-    <mergeCell ref="J526:K526"/>
-    <mergeCell ref="L526:M526"/>
-    <mergeCell ref="N526:O526"/>
-    <mergeCell ref="G527:I527"/>
-    <mergeCell ref="J527:K527"/>
-    <mergeCell ref="L527:M527"/>
-    <mergeCell ref="N527:O527"/>
-    <mergeCell ref="A515:C515"/>
-    <mergeCell ref="D515:F515"/>
-    <mergeCell ref="L515:O515"/>
-    <mergeCell ref="A516:C519"/>
-    <mergeCell ref="D516:F519"/>
-    <mergeCell ref="L516:O516"/>
-    <mergeCell ref="L517:O517"/>
-    <mergeCell ref="G519:O519"/>
-    <mergeCell ref="A520:C523"/>
-    <mergeCell ref="D520:F523"/>
-    <mergeCell ref="G520:I520"/>
-    <mergeCell ref="J520:K520"/>
-    <mergeCell ref="L520:M520"/>
-    <mergeCell ref="N520:O520"/>
-    <mergeCell ref="G521:I521"/>
-    <mergeCell ref="J521:K521"/>
-    <mergeCell ref="L521:M521"/>
-    <mergeCell ref="N521:O521"/>
-    <mergeCell ref="G522:I522"/>
-    <mergeCell ref="J522:K522"/>
-    <mergeCell ref="L522:M522"/>
-    <mergeCell ref="N522:O522"/>
-    <mergeCell ref="G523:I523"/>
-    <mergeCell ref="J523:K523"/>
-    <mergeCell ref="L523:M523"/>
-    <mergeCell ref="N523:O523"/>
-    <mergeCell ref="A472:C475"/>
-    <mergeCell ref="D472:F475"/>
-    <mergeCell ref="G472:I472"/>
-    <mergeCell ref="J472:K472"/>
-    <mergeCell ref="L472:M472"/>
-    <mergeCell ref="N472:O472"/>
-    <mergeCell ref="G473:I473"/>
-    <mergeCell ref="J473:K473"/>
-    <mergeCell ref="L473:M473"/>
-    <mergeCell ref="N473:O473"/>
-    <mergeCell ref="G474:I474"/>
-    <mergeCell ref="J474:K474"/>
-    <mergeCell ref="L474:M474"/>
-    <mergeCell ref="N474:O474"/>
-    <mergeCell ref="G475:I475"/>
-    <mergeCell ref="J475:K475"/>
-    <mergeCell ref="L475:M475"/>
-    <mergeCell ref="N475:O475"/>
-    <mergeCell ref="L460:O460"/>
-    <mergeCell ref="L461:O461"/>
-    <mergeCell ref="L462:O462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="D463:F463"/>
-    <mergeCell ref="L463:O463"/>
-    <mergeCell ref="A464:C467"/>
-    <mergeCell ref="D464:F467"/>
-    <mergeCell ref="L464:O464"/>
-    <mergeCell ref="L465:O465"/>
-    <mergeCell ref="G467:O467"/>
-    <mergeCell ref="A468:C471"/>
-    <mergeCell ref="D468:F471"/>
-    <mergeCell ref="G468:I468"/>
-    <mergeCell ref="J468:K468"/>
-    <mergeCell ref="L468:M468"/>
-    <mergeCell ref="N468:O468"/>
-    <mergeCell ref="G469:I469"/>
-    <mergeCell ref="J469:K469"/>
-    <mergeCell ref="L469:M469"/>
-    <mergeCell ref="N469:O469"/>
-    <mergeCell ref="G470:I470"/>
-    <mergeCell ref="J470:K470"/>
-    <mergeCell ref="L470:M470"/>
-    <mergeCell ref="N470:O470"/>
-    <mergeCell ref="G471:I471"/>
-    <mergeCell ref="J471:K471"/>
-    <mergeCell ref="L471:M471"/>
-    <mergeCell ref="N471:O471"/>
-    <mergeCell ref="N419:O419"/>
-    <mergeCell ref="A420:C423"/>
-    <mergeCell ref="D420:F423"/>
-    <mergeCell ref="G420:I420"/>
-    <mergeCell ref="J420:K420"/>
-    <mergeCell ref="L420:M420"/>
-    <mergeCell ref="N420:O420"/>
-    <mergeCell ref="G421:I421"/>
-    <mergeCell ref="J421:K421"/>
-    <mergeCell ref="L421:M421"/>
-    <mergeCell ref="N421:O421"/>
-    <mergeCell ref="G422:I422"/>
-    <mergeCell ref="J422:K422"/>
-    <mergeCell ref="L422:M422"/>
-    <mergeCell ref="N422:O422"/>
-    <mergeCell ref="G423:I423"/>
-    <mergeCell ref="J423:K423"/>
-    <mergeCell ref="L423:M423"/>
-    <mergeCell ref="N423:O423"/>
-    <mergeCell ref="A400:D408"/>
-    <mergeCell ref="E401:O404"/>
-    <mergeCell ref="E405:O405"/>
-    <mergeCell ref="E406:O406"/>
-    <mergeCell ref="L408:O408"/>
-    <mergeCell ref="L409:O409"/>
-    <mergeCell ref="L410:O410"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="D411:F411"/>
-    <mergeCell ref="L411:O411"/>
-    <mergeCell ref="A412:C415"/>
-    <mergeCell ref="D412:F415"/>
-    <mergeCell ref="L412:O412"/>
-    <mergeCell ref="L413:O413"/>
-    <mergeCell ref="G415:O415"/>
-    <mergeCell ref="A416:C419"/>
-    <mergeCell ref="D416:F419"/>
-    <mergeCell ref="G416:I416"/>
-    <mergeCell ref="J416:K416"/>
-    <mergeCell ref="L416:M416"/>
-    <mergeCell ref="N416:O416"/>
-    <mergeCell ref="G417:I417"/>
-    <mergeCell ref="J417:K417"/>
-    <mergeCell ref="L417:M417"/>
-    <mergeCell ref="N417:O417"/>
-    <mergeCell ref="G418:I418"/>
-    <mergeCell ref="J418:K418"/>
-    <mergeCell ref="L418:M418"/>
-    <mergeCell ref="N418:O418"/>
-    <mergeCell ref="G419:I419"/>
-    <mergeCell ref="J419:K419"/>
-    <mergeCell ref="L419:M419"/>
-    <mergeCell ref="A394:C397"/>
-    <mergeCell ref="D394:F397"/>
-    <mergeCell ref="G394:I394"/>
-    <mergeCell ref="J394:K394"/>
-    <mergeCell ref="L394:M394"/>
-    <mergeCell ref="N394:O394"/>
-    <mergeCell ref="G395:I395"/>
-    <mergeCell ref="J395:K395"/>
-    <mergeCell ref="L395:M395"/>
-    <mergeCell ref="N395:O395"/>
-    <mergeCell ref="G396:I396"/>
-    <mergeCell ref="J396:K396"/>
-    <mergeCell ref="L396:M396"/>
-    <mergeCell ref="N396:O396"/>
-    <mergeCell ref="G397:I397"/>
-    <mergeCell ref="J397:K397"/>
-    <mergeCell ref="L397:M397"/>
-    <mergeCell ref="N397:O397"/>
-    <mergeCell ref="L382:O382"/>
-    <mergeCell ref="L383:O383"/>
-    <mergeCell ref="L384:O384"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="D385:F385"/>
-    <mergeCell ref="L385:O385"/>
-    <mergeCell ref="A386:C389"/>
-    <mergeCell ref="D386:F389"/>
-    <mergeCell ref="L386:O386"/>
-    <mergeCell ref="L387:O387"/>
-    <mergeCell ref="G389:O389"/>
-    <mergeCell ref="A390:C393"/>
-    <mergeCell ref="D390:F393"/>
-    <mergeCell ref="G390:I390"/>
-    <mergeCell ref="J390:K390"/>
-    <mergeCell ref="L390:M390"/>
-    <mergeCell ref="N390:O390"/>
-    <mergeCell ref="G391:I391"/>
-    <mergeCell ref="J391:K391"/>
-    <mergeCell ref="L391:M391"/>
-    <mergeCell ref="N391:O391"/>
-    <mergeCell ref="G392:I392"/>
-    <mergeCell ref="J392:K392"/>
-    <mergeCell ref="L392:M392"/>
-    <mergeCell ref="N392:O392"/>
-    <mergeCell ref="G393:I393"/>
-    <mergeCell ref="J393:K393"/>
-    <mergeCell ref="L393:M393"/>
-    <mergeCell ref="N393:O393"/>
-    <mergeCell ref="A342:C345"/>
-    <mergeCell ref="D342:F345"/>
-    <mergeCell ref="G342:I342"/>
-    <mergeCell ref="J342:K342"/>
-    <mergeCell ref="L342:M342"/>
-    <mergeCell ref="N342:O342"/>
-    <mergeCell ref="G343:I343"/>
-    <mergeCell ref="J343:K343"/>
-    <mergeCell ref="L343:M343"/>
-    <mergeCell ref="N343:O343"/>
-    <mergeCell ref="G344:I344"/>
-    <mergeCell ref="J344:K344"/>
-    <mergeCell ref="L344:M344"/>
-    <mergeCell ref="N344:O344"/>
-    <mergeCell ref="G345:I345"/>
-    <mergeCell ref="J345:K345"/>
-    <mergeCell ref="L345:M345"/>
-    <mergeCell ref="N345:O345"/>
-    <mergeCell ref="L330:O330"/>
-    <mergeCell ref="L331:O331"/>
-    <mergeCell ref="L332:O332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="L333:O333"/>
-    <mergeCell ref="A334:C337"/>
-    <mergeCell ref="D334:F337"/>
-    <mergeCell ref="L334:O334"/>
-    <mergeCell ref="L335:O335"/>
-    <mergeCell ref="G337:O337"/>
-    <mergeCell ref="A338:C341"/>
-    <mergeCell ref="D338:F341"/>
-    <mergeCell ref="G338:I338"/>
-    <mergeCell ref="J338:K338"/>
-    <mergeCell ref="L338:M338"/>
-    <mergeCell ref="N338:O338"/>
-    <mergeCell ref="G339:I339"/>
-    <mergeCell ref="J339:K339"/>
-    <mergeCell ref="L339:M339"/>
-    <mergeCell ref="N339:O339"/>
-    <mergeCell ref="G340:I340"/>
-    <mergeCell ref="J340:K340"/>
-    <mergeCell ref="L340:M340"/>
-    <mergeCell ref="N340:O340"/>
-    <mergeCell ref="G341:I341"/>
-    <mergeCell ref="J341:K341"/>
-    <mergeCell ref="L341:M341"/>
-    <mergeCell ref="N341:O341"/>
-    <mergeCell ref="G289:I289"/>
-    <mergeCell ref="J289:K289"/>
-    <mergeCell ref="L289:M289"/>
-    <mergeCell ref="N289:O289"/>
-    <mergeCell ref="G290:I290"/>
-    <mergeCell ref="J290:K290"/>
-    <mergeCell ref="L290:M290"/>
-    <mergeCell ref="N290:O290"/>
-    <mergeCell ref="G291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="L291:M291"/>
-    <mergeCell ref="N291:O291"/>
-    <mergeCell ref="Q266:U267"/>
-    <mergeCell ref="Q269:U271"/>
-    <mergeCell ref="Q272:U274"/>
-    <mergeCell ref="Q275:U277"/>
-    <mergeCell ref="Q278:U280"/>
-    <mergeCell ref="Q281:U283"/>
-    <mergeCell ref="Q284:U286"/>
-    <mergeCell ref="Q287:U289"/>
-    <mergeCell ref="Q290:U291"/>
-    <mergeCell ref="L270:O270"/>
-    <mergeCell ref="L271:O271"/>
-    <mergeCell ref="L272:O272"/>
-    <mergeCell ref="A286:C289"/>
-    <mergeCell ref="D286:F289"/>
-    <mergeCell ref="A290:C293"/>
-    <mergeCell ref="D290:F293"/>
-    <mergeCell ref="G284:I284"/>
-    <mergeCell ref="J284:K284"/>
-    <mergeCell ref="L284:M284"/>
-    <mergeCell ref="N284:O284"/>
-    <mergeCell ref="G285:I285"/>
-    <mergeCell ref="J285:K285"/>
-    <mergeCell ref="L285:M285"/>
-    <mergeCell ref="N285:O285"/>
-    <mergeCell ref="G286:I286"/>
-    <mergeCell ref="J286:K286"/>
-    <mergeCell ref="L286:M286"/>
-    <mergeCell ref="N286:O286"/>
-    <mergeCell ref="G287:I287"/>
-    <mergeCell ref="J287:K287"/>
-    <mergeCell ref="L287:M287"/>
-    <mergeCell ref="N287:O287"/>
-    <mergeCell ref="G288:I288"/>
-    <mergeCell ref="J288:K288"/>
-    <mergeCell ref="L288:M288"/>
-    <mergeCell ref="N288:O288"/>
-    <mergeCell ref="G292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="L292:M292"/>
-    <mergeCell ref="N292:O292"/>
-    <mergeCell ref="G293:I293"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="L293:M293"/>
-    <mergeCell ref="N293:O293"/>
-    <mergeCell ref="A282:C285"/>
-    <mergeCell ref="D282:F285"/>
-    <mergeCell ref="G280:I280"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="L280:M280"/>
-    <mergeCell ref="N281:O281"/>
-    <mergeCell ref="G281:I281"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="L281:M281"/>
-    <mergeCell ref="N282:O282"/>
-    <mergeCell ref="G282:I282"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="L282:M282"/>
-    <mergeCell ref="G283:I283"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="L283:M283"/>
-    <mergeCell ref="N283:O283"/>
-    <mergeCell ref="N280:O280"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="D273:F273"/>
-    <mergeCell ref="L273:O273"/>
-    <mergeCell ref="A274:C277"/>
-    <mergeCell ref="D274:F277"/>
-    <mergeCell ref="L274:O274"/>
-    <mergeCell ref="L275:O275"/>
-    <mergeCell ref="G277:O277"/>
-    <mergeCell ref="A278:C281"/>
-    <mergeCell ref="D278:F281"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="L278:M278"/>
-    <mergeCell ref="N278:O278"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="L279:M279"/>
-    <mergeCell ref="N279:O279"/>
-    <mergeCell ref="G232:I232"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="L232:M232"/>
-    <mergeCell ref="N232:O232"/>
-    <mergeCell ref="G233:I233"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="N233:O233"/>
-    <mergeCell ref="A230:C233"/>
-    <mergeCell ref="D230:F233"/>
-    <mergeCell ref="G230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="N230:O230"/>
-    <mergeCell ref="G231:I231"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="L231:M231"/>
-    <mergeCell ref="N231:O231"/>
-    <mergeCell ref="L220:O220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="L221:O221"/>
-    <mergeCell ref="A222:C225"/>
-    <mergeCell ref="D222:F225"/>
-    <mergeCell ref="L222:O222"/>
-    <mergeCell ref="L223:O223"/>
-    <mergeCell ref="G225:O225"/>
-    <mergeCell ref="G228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="L228:M228"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="G229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="L229:M229"/>
-    <mergeCell ref="N229:O229"/>
-    <mergeCell ref="A226:C229"/>
-    <mergeCell ref="D226:F229"/>
-    <mergeCell ref="G226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="L226:M226"/>
-    <mergeCell ref="N226:O226"/>
-    <mergeCell ref="G227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="L227:M227"/>
-    <mergeCell ref="N227:O227"/>
-    <mergeCell ref="A210:D218"/>
-    <mergeCell ref="E211:O214"/>
-    <mergeCell ref="E215:O215"/>
-    <mergeCell ref="E216:O216"/>
-    <mergeCell ref="L218:O218"/>
-    <mergeCell ref="L219:O219"/>
-    <mergeCell ref="G206:I206"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="G207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="A204:C207"/>
-    <mergeCell ref="D204:F207"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="L204:M204"/>
-    <mergeCell ref="N204:O204"/>
-    <mergeCell ref="G205:I205"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="L205:M205"/>
-    <mergeCell ref="N205:O205"/>
-    <mergeCell ref="L194:O194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="L195:O195"/>
-    <mergeCell ref="A196:C199"/>
-    <mergeCell ref="D196:F199"/>
-    <mergeCell ref="L196:O196"/>
-    <mergeCell ref="L197:O197"/>
-    <mergeCell ref="G199:O199"/>
-    <mergeCell ref="G202:I202"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="L202:M202"/>
-    <mergeCell ref="N202:O202"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="L203:M203"/>
-    <mergeCell ref="N203:O203"/>
-    <mergeCell ref="A200:C203"/>
-    <mergeCell ref="D200:F203"/>
-    <mergeCell ref="G200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="L200:M200"/>
-    <mergeCell ref="N200:O200"/>
-    <mergeCell ref="G201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="L201:M201"/>
-    <mergeCell ref="N201:O201"/>
-    <mergeCell ref="A184:D192"/>
-    <mergeCell ref="E185:O188"/>
-    <mergeCell ref="E189:O189"/>
-    <mergeCell ref="E190:O190"/>
-    <mergeCell ref="L192:O192"/>
-    <mergeCell ref="L193:O193"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="G180:I180"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="L180:M180"/>
-    <mergeCell ref="N180:O180"/>
-    <mergeCell ref="A177:C180"/>
-    <mergeCell ref="D177:F180"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="L177:M177"/>
-    <mergeCell ref="N177:O177"/>
-    <mergeCell ref="G178:I178"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="L178:M178"/>
-    <mergeCell ref="N178:O178"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="A169:C172"/>
-    <mergeCell ref="D169:F172"/>
-    <mergeCell ref="L169:O169"/>
-    <mergeCell ref="L170:O170"/>
-    <mergeCell ref="G172:O172"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="L175:M175"/>
-    <mergeCell ref="N175:O175"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="L176:M176"/>
-    <mergeCell ref="N176:O176"/>
-    <mergeCell ref="A173:C176"/>
-    <mergeCell ref="D173:F176"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="L173:M173"/>
-    <mergeCell ref="N173:O173"/>
-    <mergeCell ref="G174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="L174:M174"/>
-    <mergeCell ref="N174:O174"/>
-    <mergeCell ref="A157:D165"/>
-    <mergeCell ref="E158:O161"/>
-    <mergeCell ref="E162:O162"/>
-    <mergeCell ref="E163:O163"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="L166:O166"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="A151:C154"/>
-    <mergeCell ref="D151:F154"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="L142:O142"/>
-    <mergeCell ref="A143:C146"/>
-    <mergeCell ref="D143:F146"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="G146:O146"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="G150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="A147:C150"/>
-    <mergeCell ref="D147:F150"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="L147:M147"/>
-    <mergeCell ref="N147:O147"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="L148:M148"/>
-    <mergeCell ref="N148:O148"/>
-    <mergeCell ref="A131:D139"/>
-    <mergeCell ref="E132:O135"/>
-    <mergeCell ref="E136:O136"/>
-    <mergeCell ref="E137:O137"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="L128:M128"/>
-    <mergeCell ref="N128:O128"/>
-    <mergeCell ref="A125:C128"/>
-    <mergeCell ref="D125:F128"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="L125:M125"/>
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="N126:O126"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="A117:C120"/>
-    <mergeCell ref="D117:F120"/>
-    <mergeCell ref="L117:O117"/>
-    <mergeCell ref="L118:O118"/>
-    <mergeCell ref="G120:O120"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:M124"/>
-    <mergeCell ref="N124:O124"/>
-    <mergeCell ref="A121:C124"/>
-    <mergeCell ref="D121:F124"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="A105:D113"/>
-    <mergeCell ref="E106:O109"/>
-    <mergeCell ref="E110:O110"/>
-    <mergeCell ref="E111:O111"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="A99:C102"/>
-    <mergeCell ref="D99:F102"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="L89:O89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="A91:C94"/>
-    <mergeCell ref="D91:F94"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="G94:O94"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="A95:C98"/>
-    <mergeCell ref="D95:F98"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="A79:D87"/>
-    <mergeCell ref="E80:O83"/>
-    <mergeCell ref="E84:O84"/>
-    <mergeCell ref="E85:O85"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="A73:C76"/>
-    <mergeCell ref="D73:F76"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="A65:C68"/>
-    <mergeCell ref="D65:F68"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="G68:O68"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="A69:C72"/>
-    <mergeCell ref="D69:F72"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="A53:D61"/>
-    <mergeCell ref="E54:O57"/>
-    <mergeCell ref="E58:O58"/>
-    <mergeCell ref="E59:O59"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="A47:C50"/>
-    <mergeCell ref="D47:F50"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D21:F24"/>
-    <mergeCell ref="A43:C46"/>
-    <mergeCell ref="D43:F46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="A39:C42"/>
-    <mergeCell ref="D39:F42"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A27:D35"/>
-    <mergeCell ref="E28:O31"/>
-    <mergeCell ref="E32:O32"/>
-    <mergeCell ref="E33:O33"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A236:D244"/>
-    <mergeCell ref="E237:O240"/>
-    <mergeCell ref="E241:O241"/>
-    <mergeCell ref="E242:O242"/>
-    <mergeCell ref="L244:O244"/>
-    <mergeCell ref="L245:O245"/>
-    <mergeCell ref="L246:O246"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="D247:F247"/>
-    <mergeCell ref="L247:O247"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="E6:O6"/>
-    <mergeCell ref="E7:O7"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="A1:D9"/>
-    <mergeCell ref="E2:O5"/>
-    <mergeCell ref="A13:C16"/>
-    <mergeCell ref="A17:C20"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="D17:F20"/>
-    <mergeCell ref="A21:C24"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A248:C251"/>
-    <mergeCell ref="D248:F251"/>
-    <mergeCell ref="L248:O248"/>
-    <mergeCell ref="L249:O249"/>
-    <mergeCell ref="G251:O251"/>
-    <mergeCell ref="A252:C255"/>
-    <mergeCell ref="D252:F255"/>
-    <mergeCell ref="G252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="L252:M252"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="G253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="L253:M253"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="G254:I254"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="L254:M254"/>
-    <mergeCell ref="N254:O254"/>
-    <mergeCell ref="G255:I255"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="L255:M255"/>
-    <mergeCell ref="N255:O255"/>
-    <mergeCell ref="A296:D304"/>
-    <mergeCell ref="E297:O300"/>
-    <mergeCell ref="E301:O301"/>
-    <mergeCell ref="E302:O302"/>
-    <mergeCell ref="L304:O304"/>
-    <mergeCell ref="L305:O305"/>
-    <mergeCell ref="L306:O306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="D307:F307"/>
-    <mergeCell ref="L307:O307"/>
-    <mergeCell ref="A256:C259"/>
-    <mergeCell ref="D256:F259"/>
-    <mergeCell ref="G256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="L256:M256"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="G257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="L257:M257"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="G258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="L258:M258"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="G259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="L259:M259"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="A262:D270"/>
-    <mergeCell ref="E263:O266"/>
-    <mergeCell ref="E267:O267"/>
-    <mergeCell ref="E268:O268"/>
-    <mergeCell ref="A308:C311"/>
-    <mergeCell ref="D308:F311"/>
-    <mergeCell ref="L308:O308"/>
-    <mergeCell ref="L309:O309"/>
-    <mergeCell ref="G311:O311"/>
-    <mergeCell ref="A312:C315"/>
-    <mergeCell ref="D312:F315"/>
-    <mergeCell ref="G312:I312"/>
-    <mergeCell ref="J312:K312"/>
-    <mergeCell ref="L312:M312"/>
-    <mergeCell ref="N312:O312"/>
-    <mergeCell ref="G313:I313"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="L313:M313"/>
-    <mergeCell ref="N313:O313"/>
-    <mergeCell ref="G314:I314"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="L314:M314"/>
-    <mergeCell ref="N314:O314"/>
-    <mergeCell ref="G315:I315"/>
-    <mergeCell ref="J315:K315"/>
-    <mergeCell ref="L315:M315"/>
-    <mergeCell ref="N315:O315"/>
-    <mergeCell ref="A348:D356"/>
-    <mergeCell ref="E349:O352"/>
-    <mergeCell ref="E353:O353"/>
-    <mergeCell ref="E354:O354"/>
-    <mergeCell ref="L356:O356"/>
-    <mergeCell ref="L357:O357"/>
-    <mergeCell ref="L358:O358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="D359:F359"/>
-    <mergeCell ref="L359:O359"/>
-    <mergeCell ref="A316:C319"/>
-    <mergeCell ref="D316:F319"/>
-    <mergeCell ref="G316:I316"/>
-    <mergeCell ref="J316:K316"/>
-    <mergeCell ref="L316:M316"/>
-    <mergeCell ref="N316:O316"/>
-    <mergeCell ref="G317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="L317:M317"/>
-    <mergeCell ref="N317:O317"/>
-    <mergeCell ref="G318:I318"/>
-    <mergeCell ref="J318:K318"/>
-    <mergeCell ref="L318:M318"/>
-    <mergeCell ref="N318:O318"/>
-    <mergeCell ref="G319:I319"/>
-    <mergeCell ref="J319:K319"/>
-    <mergeCell ref="L319:M319"/>
-    <mergeCell ref="N319:O319"/>
-    <mergeCell ref="A322:D330"/>
-    <mergeCell ref="E323:O326"/>
-    <mergeCell ref="E327:O327"/>
-    <mergeCell ref="E328:O328"/>
-    <mergeCell ref="A360:C363"/>
-    <mergeCell ref="D360:F363"/>
-    <mergeCell ref="L360:O360"/>
-    <mergeCell ref="L361:O361"/>
-    <mergeCell ref="G363:O363"/>
-    <mergeCell ref="A364:C367"/>
-    <mergeCell ref="D364:F367"/>
-    <mergeCell ref="G364:I364"/>
-    <mergeCell ref="J364:K364"/>
-    <mergeCell ref="L364:M364"/>
-    <mergeCell ref="N364:O364"/>
-    <mergeCell ref="G365:I365"/>
-    <mergeCell ref="J365:K365"/>
-    <mergeCell ref="L365:M365"/>
-    <mergeCell ref="N365:O365"/>
-    <mergeCell ref="G366:I366"/>
-    <mergeCell ref="J366:K366"/>
-    <mergeCell ref="L366:M366"/>
-    <mergeCell ref="N366:O366"/>
-    <mergeCell ref="G367:I367"/>
-    <mergeCell ref="J367:K367"/>
-    <mergeCell ref="L367:M367"/>
-    <mergeCell ref="N367:O367"/>
-    <mergeCell ref="A426:D434"/>
-    <mergeCell ref="E427:O430"/>
-    <mergeCell ref="E431:O431"/>
-    <mergeCell ref="E432:O432"/>
-    <mergeCell ref="L434:O434"/>
-    <mergeCell ref="L435:O435"/>
-    <mergeCell ref="L436:O436"/>
-    <mergeCell ref="A437:C437"/>
-    <mergeCell ref="D437:F437"/>
-    <mergeCell ref="L437:O437"/>
-    <mergeCell ref="A368:C371"/>
-    <mergeCell ref="D368:F371"/>
-    <mergeCell ref="G368:I368"/>
-    <mergeCell ref="J368:K368"/>
-    <mergeCell ref="L368:M368"/>
-    <mergeCell ref="N368:O368"/>
-    <mergeCell ref="G369:I369"/>
-    <mergeCell ref="J369:K369"/>
-    <mergeCell ref="L369:M369"/>
-    <mergeCell ref="N369:O369"/>
-    <mergeCell ref="G370:I370"/>
-    <mergeCell ref="J370:K370"/>
-    <mergeCell ref="L370:M370"/>
-    <mergeCell ref="N370:O370"/>
-    <mergeCell ref="G371:I371"/>
-    <mergeCell ref="J371:K371"/>
-    <mergeCell ref="L371:M371"/>
-    <mergeCell ref="N371:O371"/>
-    <mergeCell ref="A374:D382"/>
-    <mergeCell ref="E375:O378"/>
-    <mergeCell ref="E379:O379"/>
-    <mergeCell ref="E380:O380"/>
-    <mergeCell ref="A438:C441"/>
-    <mergeCell ref="D438:F441"/>
-    <mergeCell ref="L438:O438"/>
-    <mergeCell ref="L439:O439"/>
-    <mergeCell ref="G441:O441"/>
-    <mergeCell ref="A442:C445"/>
-    <mergeCell ref="D442:F445"/>
-    <mergeCell ref="G442:I442"/>
-    <mergeCell ref="J442:K442"/>
-    <mergeCell ref="L442:M442"/>
-    <mergeCell ref="N442:O442"/>
-    <mergeCell ref="G443:I443"/>
-    <mergeCell ref="J443:K443"/>
-    <mergeCell ref="L443:M443"/>
-    <mergeCell ref="N443:O443"/>
-    <mergeCell ref="G444:I444"/>
-    <mergeCell ref="J444:K444"/>
-    <mergeCell ref="L444:M444"/>
-    <mergeCell ref="N444:O444"/>
-    <mergeCell ref="G445:I445"/>
-    <mergeCell ref="J445:K445"/>
-    <mergeCell ref="L445:M445"/>
-    <mergeCell ref="N445:O445"/>
-    <mergeCell ref="A478:D486"/>
-    <mergeCell ref="E479:O482"/>
-    <mergeCell ref="E483:O483"/>
-    <mergeCell ref="E484:O484"/>
-    <mergeCell ref="L486:O486"/>
-    <mergeCell ref="L487:O487"/>
-    <mergeCell ref="L488:O488"/>
-    <mergeCell ref="A489:C489"/>
-    <mergeCell ref="D489:F489"/>
-    <mergeCell ref="L489:O489"/>
-    <mergeCell ref="A446:C449"/>
-    <mergeCell ref="D446:F449"/>
-    <mergeCell ref="G446:I446"/>
-    <mergeCell ref="J446:K446"/>
-    <mergeCell ref="L446:M446"/>
-    <mergeCell ref="N446:O446"/>
-    <mergeCell ref="G447:I447"/>
-    <mergeCell ref="J447:K447"/>
-    <mergeCell ref="L447:M447"/>
-    <mergeCell ref="N447:O447"/>
-    <mergeCell ref="G448:I448"/>
-    <mergeCell ref="J448:K448"/>
-    <mergeCell ref="L448:M448"/>
-    <mergeCell ref="N448:O448"/>
-    <mergeCell ref="G449:I449"/>
-    <mergeCell ref="J449:K449"/>
-    <mergeCell ref="L449:M449"/>
-    <mergeCell ref="N449:O449"/>
-    <mergeCell ref="A452:D460"/>
-    <mergeCell ref="E453:O456"/>
-    <mergeCell ref="E457:O457"/>
-    <mergeCell ref="E458:O458"/>
-    <mergeCell ref="A490:C493"/>
-    <mergeCell ref="D490:F493"/>
-    <mergeCell ref="L490:O490"/>
-    <mergeCell ref="L491:O491"/>
-    <mergeCell ref="G493:O493"/>
-    <mergeCell ref="A494:C497"/>
-    <mergeCell ref="D494:F497"/>
-    <mergeCell ref="G494:I494"/>
-    <mergeCell ref="J494:K494"/>
-    <mergeCell ref="L494:M494"/>
-    <mergeCell ref="N494:O494"/>
-    <mergeCell ref="G495:I495"/>
-    <mergeCell ref="J495:K495"/>
-    <mergeCell ref="L495:M495"/>
-    <mergeCell ref="N495:O495"/>
-    <mergeCell ref="G496:I496"/>
-    <mergeCell ref="J496:K496"/>
-    <mergeCell ref="L496:M496"/>
-    <mergeCell ref="N496:O496"/>
-    <mergeCell ref="G497:I497"/>
-    <mergeCell ref="J497:K497"/>
-    <mergeCell ref="L497:M497"/>
-    <mergeCell ref="N497:O497"/>
-    <mergeCell ref="A498:C501"/>
-    <mergeCell ref="D498:F501"/>
-    <mergeCell ref="G498:I498"/>
-    <mergeCell ref="J498:K498"/>
-    <mergeCell ref="L498:M498"/>
-    <mergeCell ref="N498:O498"/>
-    <mergeCell ref="G499:I499"/>
-    <mergeCell ref="J499:K499"/>
-    <mergeCell ref="L499:M499"/>
-    <mergeCell ref="N499:O499"/>
-    <mergeCell ref="G500:I500"/>
-    <mergeCell ref="J500:K500"/>
-    <mergeCell ref="L500:M500"/>
-    <mergeCell ref="N500:O500"/>
-    <mergeCell ref="G501:I501"/>
-    <mergeCell ref="J501:K501"/>
-    <mergeCell ref="L501:M501"/>
-    <mergeCell ref="N501:O501"/>
-    <mergeCell ref="A504:D512"/>
-    <mergeCell ref="E505:O508"/>
-    <mergeCell ref="E509:O509"/>
-    <mergeCell ref="E510:O510"/>
-    <mergeCell ref="L512:O512"/>
-    <mergeCell ref="L513:O513"/>
-    <mergeCell ref="L514:O514"/>
-    <mergeCell ref="A586:D594"/>
-    <mergeCell ref="E587:O590"/>
-    <mergeCell ref="E591:O591"/>
-    <mergeCell ref="E592:O592"/>
-    <mergeCell ref="L594:O594"/>
-    <mergeCell ref="L595:O595"/>
-    <mergeCell ref="L596:O596"/>
-    <mergeCell ref="L541:O541"/>
-    <mergeCell ref="A542:C545"/>
-    <mergeCell ref="D542:F545"/>
-    <mergeCell ref="L542:O542"/>
-    <mergeCell ref="L543:O543"/>
-    <mergeCell ref="G545:O545"/>
-    <mergeCell ref="A546:C549"/>
-    <mergeCell ref="D550:F553"/>
-    <mergeCell ref="G546:I546"/>
-    <mergeCell ref="J546:K546"/>
-    <mergeCell ref="L546:M546"/>
-    <mergeCell ref="N546:O546"/>
-    <mergeCell ref="G547:I547"/>
-    <mergeCell ref="J547:K547"/>
-    <mergeCell ref="L547:M547"/>
-    <mergeCell ref="N547:O547"/>
-    <mergeCell ref="G548:I548"/>
-    <mergeCell ref="J548:K548"/>
-    <mergeCell ref="A550:C553"/>
-    <mergeCell ref="G603:I603"/>
-    <mergeCell ref="J603:K603"/>
-    <mergeCell ref="L603:M603"/>
-    <mergeCell ref="N603:O603"/>
-    <mergeCell ref="G604:I604"/>
-    <mergeCell ref="J604:K604"/>
-    <mergeCell ref="L604:M604"/>
-    <mergeCell ref="N604:O604"/>
-    <mergeCell ref="G605:I605"/>
-    <mergeCell ref="J605:K605"/>
-    <mergeCell ref="L605:M605"/>
-    <mergeCell ref="N605:O605"/>
-    <mergeCell ref="L551:M551"/>
-    <mergeCell ref="N551:O551"/>
-    <mergeCell ref="G552:I552"/>
-    <mergeCell ref="J552:K552"/>
-    <mergeCell ref="L552:M552"/>
-    <mergeCell ref="N552:O552"/>
-    <mergeCell ref="G553:I553"/>
-    <mergeCell ref="J553:K553"/>
-    <mergeCell ref="L553:M553"/>
-    <mergeCell ref="N553:O553"/>
-    <mergeCell ref="N578:O578"/>
-    <mergeCell ref="G579:I579"/>
-    <mergeCell ref="J579:K579"/>
-    <mergeCell ref="L579:M579"/>
-    <mergeCell ref="G577:I577"/>
-    <mergeCell ref="J577:K577"/>
-    <mergeCell ref="L577:M577"/>
-    <mergeCell ref="N577:O577"/>
-    <mergeCell ref="G578:I578"/>
-    <mergeCell ref="J578:K578"/>
-    <mergeCell ref="G606:I606"/>
-    <mergeCell ref="J606:K606"/>
-    <mergeCell ref="L606:M606"/>
-    <mergeCell ref="N606:O606"/>
-    <mergeCell ref="G607:I607"/>
-    <mergeCell ref="J607:K607"/>
-    <mergeCell ref="L607:M607"/>
-    <mergeCell ref="N607:O607"/>
-    <mergeCell ref="G608:I608"/>
-    <mergeCell ref="J608:K608"/>
-    <mergeCell ref="L608:M608"/>
-    <mergeCell ref="N608:O608"/>
-    <mergeCell ref="G609:I609"/>
-    <mergeCell ref="J609:K609"/>
-    <mergeCell ref="L609:M609"/>
-    <mergeCell ref="N609:O609"/>
-    <mergeCell ref="L578:M578"/>
-    <mergeCell ref="A597:C597"/>
-    <mergeCell ref="D597:F597"/>
-    <mergeCell ref="L597:O597"/>
-    <mergeCell ref="A598:C601"/>
-    <mergeCell ref="D598:F601"/>
-    <mergeCell ref="L598:O598"/>
-    <mergeCell ref="L599:O599"/>
-    <mergeCell ref="A602:C605"/>
-    <mergeCell ref="D602:F605"/>
-    <mergeCell ref="G601:O601"/>
-    <mergeCell ref="A606:C609"/>
-    <mergeCell ref="D606:F609"/>
-    <mergeCell ref="G602:I602"/>
-    <mergeCell ref="J602:K602"/>
-    <mergeCell ref="L602:M602"/>
-    <mergeCell ref="N602:O602"/>
-    <mergeCell ref="A612:D620"/>
-    <mergeCell ref="E613:O616"/>
-    <mergeCell ref="E617:O617"/>
-    <mergeCell ref="E618:O618"/>
-    <mergeCell ref="L620:O620"/>
-    <mergeCell ref="L621:O621"/>
-    <mergeCell ref="L622:O622"/>
-    <mergeCell ref="A623:C623"/>
-    <mergeCell ref="D623:F623"/>
-    <mergeCell ref="L623:O623"/>
-    <mergeCell ref="A624:C627"/>
-    <mergeCell ref="D624:F627"/>
-    <mergeCell ref="L624:O624"/>
-    <mergeCell ref="L625:O625"/>
-    <mergeCell ref="G627:O627"/>
-    <mergeCell ref="A628:C631"/>
-    <mergeCell ref="D628:F631"/>
-    <mergeCell ref="G628:I628"/>
-    <mergeCell ref="J628:K628"/>
-    <mergeCell ref="L628:M628"/>
-    <mergeCell ref="N628:O628"/>
-    <mergeCell ref="G629:I629"/>
-    <mergeCell ref="J629:K629"/>
-    <mergeCell ref="L629:M629"/>
-    <mergeCell ref="N629:O629"/>
-    <mergeCell ref="G630:I630"/>
-    <mergeCell ref="J630:K630"/>
-    <mergeCell ref="L630:M630"/>
-    <mergeCell ref="N630:O630"/>
-    <mergeCell ref="G631:I631"/>
-    <mergeCell ref="J631:K631"/>
-    <mergeCell ref="L631:M631"/>
-    <mergeCell ref="N631:O631"/>
-    <mergeCell ref="A632:C635"/>
-    <mergeCell ref="D632:F635"/>
-    <mergeCell ref="G632:I632"/>
-    <mergeCell ref="J632:K632"/>
-    <mergeCell ref="L632:M632"/>
-    <mergeCell ref="N632:O632"/>
-    <mergeCell ref="G633:I633"/>
-    <mergeCell ref="J633:K633"/>
-    <mergeCell ref="L633:M633"/>
-    <mergeCell ref="N633:O633"/>
-    <mergeCell ref="G634:I634"/>
-    <mergeCell ref="J634:K634"/>
-    <mergeCell ref="L634:M634"/>
-    <mergeCell ref="N634:O634"/>
-    <mergeCell ref="G635:I635"/>
-    <mergeCell ref="J635:K635"/>
-    <mergeCell ref="L635:M635"/>
-    <mergeCell ref="N635:O635"/>
-    <mergeCell ref="A664:D672"/>
-    <mergeCell ref="E665:O668"/>
-    <mergeCell ref="E669:O669"/>
-    <mergeCell ref="E670:O670"/>
-    <mergeCell ref="L672:O672"/>
-    <mergeCell ref="L673:O673"/>
-    <mergeCell ref="L674:O674"/>
-    <mergeCell ref="A675:C675"/>
-    <mergeCell ref="D675:F675"/>
-    <mergeCell ref="L675:O675"/>
-    <mergeCell ref="A676:C679"/>
-    <mergeCell ref="D676:F679"/>
-    <mergeCell ref="L676:O676"/>
-    <mergeCell ref="L677:O677"/>
-    <mergeCell ref="G679:O679"/>
-    <mergeCell ref="A680:C683"/>
-    <mergeCell ref="D680:F683"/>
-    <mergeCell ref="G680:I680"/>
-    <mergeCell ref="J680:K680"/>
-    <mergeCell ref="L680:M680"/>
-    <mergeCell ref="N680:O680"/>
-    <mergeCell ref="G681:I681"/>
-    <mergeCell ref="J681:K681"/>
-    <mergeCell ref="L681:M681"/>
-    <mergeCell ref="N681:O681"/>
-    <mergeCell ref="G682:I682"/>
-    <mergeCell ref="J682:K682"/>
-    <mergeCell ref="L682:M682"/>
-    <mergeCell ref="N682:O682"/>
-    <mergeCell ref="G683:I683"/>
-    <mergeCell ref="J683:K683"/>
-    <mergeCell ref="L683:M683"/>
-    <mergeCell ref="N683:O683"/>
-    <mergeCell ref="A684:C687"/>
-    <mergeCell ref="D684:F687"/>
-    <mergeCell ref="G684:I684"/>
-    <mergeCell ref="J684:K684"/>
-    <mergeCell ref="L684:M684"/>
-    <mergeCell ref="N684:O684"/>
-    <mergeCell ref="G685:I685"/>
-    <mergeCell ref="J685:K685"/>
-    <mergeCell ref="L685:M685"/>
-    <mergeCell ref="N685:O685"/>
-    <mergeCell ref="G686:I686"/>
-    <mergeCell ref="J686:K686"/>
-    <mergeCell ref="L686:M686"/>
-    <mergeCell ref="N686:O686"/>
-    <mergeCell ref="G687:I687"/>
-    <mergeCell ref="J687:K687"/>
-    <mergeCell ref="L687:M687"/>
-    <mergeCell ref="N687:O687"/>
-    <mergeCell ref="A638:D646"/>
-    <mergeCell ref="E639:O642"/>
-    <mergeCell ref="E643:O643"/>
-    <mergeCell ref="E644:O644"/>
-    <mergeCell ref="L646:O646"/>
-    <mergeCell ref="L647:O647"/>
-    <mergeCell ref="L648:O648"/>
-    <mergeCell ref="A649:C649"/>
-    <mergeCell ref="D649:F649"/>
-    <mergeCell ref="L649:O649"/>
-    <mergeCell ref="A650:C653"/>
-    <mergeCell ref="D650:F653"/>
-    <mergeCell ref="L650:O650"/>
-    <mergeCell ref="L651:O651"/>
-    <mergeCell ref="G653:O653"/>
-    <mergeCell ref="A654:C657"/>
-    <mergeCell ref="D654:F657"/>
-    <mergeCell ref="G654:I654"/>
-    <mergeCell ref="J654:K654"/>
-    <mergeCell ref="L654:M654"/>
-    <mergeCell ref="N654:O654"/>
-    <mergeCell ref="G655:I655"/>
-    <mergeCell ref="J655:K655"/>
-    <mergeCell ref="L655:M655"/>
-    <mergeCell ref="N655:O655"/>
-    <mergeCell ref="G656:I656"/>
-    <mergeCell ref="J656:K656"/>
-    <mergeCell ref="L656:M656"/>
-    <mergeCell ref="N656:O656"/>
-    <mergeCell ref="G657:I657"/>
-    <mergeCell ref="J657:K657"/>
-    <mergeCell ref="L657:M657"/>
-    <mergeCell ref="N657:O657"/>
-    <mergeCell ref="A658:C661"/>
-    <mergeCell ref="D658:F661"/>
-    <mergeCell ref="G658:I658"/>
-    <mergeCell ref="J658:K658"/>
-    <mergeCell ref="L658:M658"/>
-    <mergeCell ref="N658:O658"/>
-    <mergeCell ref="G659:I659"/>
-    <mergeCell ref="J659:K659"/>
-    <mergeCell ref="L659:M659"/>
-    <mergeCell ref="N659:O659"/>
-    <mergeCell ref="G660:I660"/>
-    <mergeCell ref="J660:K660"/>
-    <mergeCell ref="L660:M660"/>
-    <mergeCell ref="N660:O660"/>
-    <mergeCell ref="G661:I661"/>
-    <mergeCell ref="J661:K661"/>
-    <mergeCell ref="L661:M661"/>
-    <mergeCell ref="N661:O661"/>
-    <mergeCell ref="A748:D756"/>
-    <mergeCell ref="E749:O752"/>
-    <mergeCell ref="E753:O753"/>
-    <mergeCell ref="E754:O754"/>
-    <mergeCell ref="L756:O756"/>
-    <mergeCell ref="L757:O757"/>
-    <mergeCell ref="L758:O758"/>
-    <mergeCell ref="A759:C759"/>
-    <mergeCell ref="D759:F759"/>
-    <mergeCell ref="L759:O759"/>
-    <mergeCell ref="A760:C763"/>
-    <mergeCell ref="D760:F763"/>
-    <mergeCell ref="L760:O760"/>
-    <mergeCell ref="L761:O761"/>
-    <mergeCell ref="G763:O763"/>
-    <mergeCell ref="A764:C767"/>
-    <mergeCell ref="D764:F767"/>
-    <mergeCell ref="G764:I764"/>
-    <mergeCell ref="J764:K764"/>
-    <mergeCell ref="L764:M764"/>
-    <mergeCell ref="N764:O764"/>
-    <mergeCell ref="G765:I765"/>
-    <mergeCell ref="J765:K765"/>
-    <mergeCell ref="L765:M765"/>
-    <mergeCell ref="N765:O765"/>
-    <mergeCell ref="G766:I766"/>
-    <mergeCell ref="J766:K766"/>
-    <mergeCell ref="L766:M766"/>
-    <mergeCell ref="N766:O766"/>
-    <mergeCell ref="G767:I767"/>
-    <mergeCell ref="J767:K767"/>
-    <mergeCell ref="L767:M767"/>
-    <mergeCell ref="N767:O767"/>
-    <mergeCell ref="A768:C771"/>
-    <mergeCell ref="D768:F771"/>
-    <mergeCell ref="G768:I768"/>
-    <mergeCell ref="J768:K768"/>
-    <mergeCell ref="L768:M768"/>
-    <mergeCell ref="N768:O768"/>
-    <mergeCell ref="G769:I769"/>
-    <mergeCell ref="J769:K769"/>
-    <mergeCell ref="L769:M769"/>
-    <mergeCell ref="N769:O769"/>
-    <mergeCell ref="G770:I770"/>
-    <mergeCell ref="J770:K770"/>
-    <mergeCell ref="L770:M770"/>
-    <mergeCell ref="N770:O770"/>
-    <mergeCell ref="G771:I771"/>
-    <mergeCell ref="J771:K771"/>
-    <mergeCell ref="L771:M771"/>
-    <mergeCell ref="N771:O771"/>
-    <mergeCell ref="A776:D784"/>
-    <mergeCell ref="E777:O780"/>
-    <mergeCell ref="E781:O781"/>
-    <mergeCell ref="E782:O782"/>
-    <mergeCell ref="L784:O784"/>
-    <mergeCell ref="L785:O785"/>
-    <mergeCell ref="L786:O786"/>
-    <mergeCell ref="A787:C787"/>
-    <mergeCell ref="D787:F787"/>
-    <mergeCell ref="L787:O787"/>
-    <mergeCell ref="A788:C791"/>
-    <mergeCell ref="D788:F791"/>
-    <mergeCell ref="L788:O788"/>
-    <mergeCell ref="L789:O789"/>
-    <mergeCell ref="G791:O791"/>
-    <mergeCell ref="A792:C795"/>
-    <mergeCell ref="D792:F795"/>
-    <mergeCell ref="G792:I792"/>
-    <mergeCell ref="J792:K792"/>
-    <mergeCell ref="L792:M792"/>
-    <mergeCell ref="N792:O792"/>
-    <mergeCell ref="G793:I793"/>
-    <mergeCell ref="J793:K793"/>
-    <mergeCell ref="L793:M793"/>
-    <mergeCell ref="N793:O793"/>
-    <mergeCell ref="G794:I794"/>
-    <mergeCell ref="J794:K794"/>
-    <mergeCell ref="L794:M794"/>
-    <mergeCell ref="N794:O794"/>
-    <mergeCell ref="G795:I795"/>
-    <mergeCell ref="J795:K795"/>
-    <mergeCell ref="L795:M795"/>
-    <mergeCell ref="N795:O795"/>
-    <mergeCell ref="A796:C799"/>
-    <mergeCell ref="D796:F799"/>
-    <mergeCell ref="G796:I796"/>
-    <mergeCell ref="J796:K796"/>
-    <mergeCell ref="L796:M796"/>
-    <mergeCell ref="N796:O796"/>
-    <mergeCell ref="G797:I797"/>
-    <mergeCell ref="J797:K797"/>
-    <mergeCell ref="L797:M797"/>
-    <mergeCell ref="N797:O797"/>
-    <mergeCell ref="G798:I798"/>
-    <mergeCell ref="J798:K798"/>
-    <mergeCell ref="L798:M798"/>
-    <mergeCell ref="N798:O798"/>
-    <mergeCell ref="G799:I799"/>
-    <mergeCell ref="J799:K799"/>
-    <mergeCell ref="L799:M799"/>
-    <mergeCell ref="N799:O799"/>
-    <mergeCell ref="A944:D952"/>
-    <mergeCell ref="E945:O948"/>
-    <mergeCell ref="E949:O949"/>
-    <mergeCell ref="E950:O950"/>
-    <mergeCell ref="L952:O952"/>
-    <mergeCell ref="L953:O953"/>
-    <mergeCell ref="L954:O954"/>
-    <mergeCell ref="A955:C955"/>
-    <mergeCell ref="D955:F955"/>
-    <mergeCell ref="L955:O955"/>
-    <mergeCell ref="A956:C959"/>
-    <mergeCell ref="D956:F959"/>
-    <mergeCell ref="L956:O956"/>
-    <mergeCell ref="L957:O957"/>
-    <mergeCell ref="G959:O959"/>
-    <mergeCell ref="A960:C963"/>
-    <mergeCell ref="D960:F963"/>
-    <mergeCell ref="G960:I960"/>
-    <mergeCell ref="J960:K960"/>
-    <mergeCell ref="L960:M960"/>
-    <mergeCell ref="N960:O960"/>
-    <mergeCell ref="G961:I961"/>
-    <mergeCell ref="J961:K961"/>
-    <mergeCell ref="L961:M961"/>
-    <mergeCell ref="N961:O961"/>
-    <mergeCell ref="G962:I962"/>
-    <mergeCell ref="J962:K962"/>
-    <mergeCell ref="L962:M962"/>
-    <mergeCell ref="N962:O962"/>
-    <mergeCell ref="G963:I963"/>
-    <mergeCell ref="J963:K963"/>
-    <mergeCell ref="L963:M963"/>
-    <mergeCell ref="N963:O963"/>
-    <mergeCell ref="A964:C967"/>
-    <mergeCell ref="D964:F967"/>
-    <mergeCell ref="G964:I964"/>
-    <mergeCell ref="J964:K964"/>
-    <mergeCell ref="L964:M964"/>
-    <mergeCell ref="N964:O964"/>
-    <mergeCell ref="G965:I965"/>
-    <mergeCell ref="J965:K965"/>
-    <mergeCell ref="L965:M965"/>
-    <mergeCell ref="N965:O965"/>
-    <mergeCell ref="G966:I966"/>
-    <mergeCell ref="J966:K966"/>
-    <mergeCell ref="L966:M966"/>
-    <mergeCell ref="N966:O966"/>
-    <mergeCell ref="G967:I967"/>
-    <mergeCell ref="J967:K967"/>
-    <mergeCell ref="L967:M967"/>
-    <mergeCell ref="N967:O967"/>
+    <mergeCell ref="N991:O991"/>
+    <mergeCell ref="A992:C995"/>
+    <mergeCell ref="D992:F995"/>
+    <mergeCell ref="G992:I992"/>
+    <mergeCell ref="J992:K992"/>
+    <mergeCell ref="L992:M992"/>
+    <mergeCell ref="N992:O992"/>
+    <mergeCell ref="G993:I993"/>
+    <mergeCell ref="J993:K993"/>
+    <mergeCell ref="L993:M993"/>
+    <mergeCell ref="N993:O993"/>
+    <mergeCell ref="G994:I994"/>
+    <mergeCell ref="J994:K994"/>
+    <mergeCell ref="L994:M994"/>
+    <mergeCell ref="N994:O994"/>
+    <mergeCell ref="G995:I995"/>
+    <mergeCell ref="J995:K995"/>
+    <mergeCell ref="L995:M995"/>
+    <mergeCell ref="N995:O995"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27168,11 +27890,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27358,26 +28081,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A20BDE-ACAC-49A0-A051-6F5B010A8CC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27401,9 +28115,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A20BDE-ACAC-49A0-A051-6F5B010A8CC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentacao/excel/mechspot_ata.xlsx
+++ b/documentacao/excel/mechspot_ata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="296">
   <si>
     <t xml:space="preserve">ATA DE REUNIÃO </t>
   </si>
@@ -1574,6 +1574,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF32746D"/>
+        <rFont val="Bahnschrift"/>
+        <charset val="134"/>
+      </rPr>
       <t>DATA:</t>
     </r>
     <r>
@@ -1598,6 +1605,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF32746D"/>
+        <rFont val="Bahnschrift"/>
+        <charset val="134"/>
+      </rPr>
       <t>DATA:</t>
     </r>
     <r>
@@ -1613,6 +1627,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF32746D"/>
+        <rFont val="Bahnschrift"/>
+        <charset val="134"/>
+      </rPr>
       <t>DATA:</t>
     </r>
     <r>
@@ -1637,6 +1658,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF32746D"/>
+        <rFont val="Bahnschrift"/>
+        <charset val="134"/>
+      </rPr>
       <t>DATA:</t>
     </r>
     <r>
@@ -1654,13 +1682,49 @@
     <t>Aplicação da API no cadastro</t>
   </si>
   <si>
-    <t>Calculadora Finalizada</t>
+    <t>Perda de um membro</t>
   </si>
   <si>
     <t>Fluxograma de Suporte</t>
   </si>
   <si>
     <t>Inicio do Fluxograma de Suporte</t>
+  </si>
+  <si>
+    <r>
+      <t>DATA:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Bahnschrift"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  14/11/2024     |     LISTA DE PRESENÇA</t>
+    </r>
+  </si>
+  <si>
+    <t>Redirecionamento de Tarefas</t>
+  </si>
+  <si>
+    <t>Integração do BobbIA</t>
+  </si>
+  <si>
+    <t>Mudança no Banco de Dados</t>
+  </si>
+  <si>
+    <t>Mudança das Métricas</t>
+  </si>
+  <si>
+    <t>Acrescenter componentes na tela de cadastro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mudança PO / Scrum</t>
+  </si>
+  <si>
+    <t>Manual de instalação</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +1737,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1794,6 +1858,13 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF32746D"/>
+      <name val="Bahnschrift"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF104F55"/>
       <name val="Bahnschrift"/>
       <charset val="134"/>
     </font>
@@ -2155,7 +2226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -2451,6 +2522,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF103E43"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF103E43"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2551,31 +2633,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2584,119 +2663,122 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2887,6 +2969,21 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2945,8 +3042,8 @@
       <color rgb="0032746D"/>
       <color rgb="00F0F0F0"/>
       <color rgb="009EC5AB"/>
+      <color rgb="00103E43"/>
       <color rgb="00104F55"/>
-      <color rgb="00103E43"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2993,8 +3090,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="955675" y="81280"/>
-          <a:ext cx="1820545" cy="1801495"/>
+          <a:off x="1024255" y="81280"/>
+          <a:ext cx="2026285" cy="1801495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3010,7 +3107,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Imagem 3"/>
@@ -3032,8 +3129,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="5261610"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="5261610"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3049,7 +3146,7 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Imagem 4"/>
@@ -3071,8 +3168,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="10490835"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="10399395"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3088,7 +3185,7 @@
       <xdr:row>79</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Imagem 5"/>
@@ -3110,8 +3207,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="15720060"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="15537180"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3127,7 +3224,7 @@
       <xdr:row>105</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Imagem 6"/>
@@ -3149,8 +3246,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="20949285"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="20674965"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3166,7 +3263,7 @@
       <xdr:row>131</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Imagem 8"/>
@@ -3188,8 +3285,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="26178510"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="25812750"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3205,7 +3302,7 @@
       <xdr:row>157</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="Imagem 9"/>
@@ -3227,8 +3324,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="31407735"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="30950535"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3244,7 +3341,7 @@
       <xdr:row>184</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="Imagem 10"/>
@@ -3266,8 +3363,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="36827460"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="36278820"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3283,7 +3380,7 @@
       <xdr:row>210</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="12" name="Imagem 11"/>
@@ -3305,8 +3402,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="42056685"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="41416605"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3322,7 +3419,7 @@
       <xdr:row>236</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagem 1"/>
@@ -3344,8 +3441,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="47285910"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="46554390"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3361,7 +3458,7 @@
       <xdr:row>262</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1602110"/>
+    <xdr:ext cx="1573013" cy="1579250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Imagem 7"/>
@@ -3383,8 +3480,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="52515135"/>
-          <a:ext cx="1573530" cy="1602105"/>
+          <a:off x="1101090" y="51692175"/>
+          <a:ext cx="1573530" cy="1579245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3400,7 +3497,7 @@
       <xdr:row>296</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="13" name="Imagem 12"/>
@@ -3422,8 +3519,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="58978800"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="58041540"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3439,7 +3536,7 @@
       <xdr:row>322</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1615445"/>
+    <xdr:ext cx="1573013" cy="1600205"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="14" name="Imagem 13"/>
@@ -3461,8 +3558,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="64163575"/>
-          <a:ext cx="1573530" cy="1615440"/>
+          <a:off x="1101090" y="63134875"/>
+          <a:ext cx="1573530" cy="1600200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3478,7 +3575,7 @@
       <xdr:row>348</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="Imagem 14"/>
@@ -3500,8 +3597,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="69340730"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="68235830"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3517,7 +3614,7 @@
       <xdr:row>374</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="Imagem 16"/>
@@ -3539,8 +3636,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="74569955"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="73373615"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3556,7 +3653,7 @@
       <xdr:row>400</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="18" name="Imagem 17"/>
@@ -3578,8 +3675,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="79799180"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="78511400"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3595,7 +3692,7 @@
       <xdr:row>426</xdr:row>
       <xdr:rowOff>10193</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="16" name="Imagem 15"/>
@@ -3617,8 +3714,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1024255" y="85003005"/>
-          <a:ext cx="1572895" cy="1604010"/>
+          <a:off x="1092835" y="83623785"/>
+          <a:ext cx="1572895" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3634,7 +3731,7 @@
       <xdr:row>452</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="19" name="Imagem 18"/>
@@ -3656,8 +3753,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="90257630"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="88786970"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3673,7 +3770,7 @@
       <xdr:row>478</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="21" name="Imagem 20"/>
@@ -3695,8 +3792,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="95486855"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="93924755"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3712,7 +3809,7 @@
       <xdr:row>504</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="20" name="Imagem 19"/>
@@ -3734,8 +3831,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="100716080"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="99062540"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3751,7 +3848,7 @@
       <xdr:row>530</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="22" name="Imagem 21"/>
@@ -3773,8 +3870,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="105945305"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="104200325"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3790,7 +3887,7 @@
       <xdr:row>556</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="23" name="Imagem 22"/>
@@ -3812,8 +3909,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="111174530"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="109338110"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3829,7 +3926,7 @@
       <xdr:row>586</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="24" name="Imagem 23"/>
@@ -3851,8 +3948,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="117238145"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="115317905"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3868,7 +3965,7 @@
       <xdr:row>612</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="25" name="Imagem 24"/>
@@ -3890,8 +3987,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="122490230"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="120501410"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3907,7 +4004,7 @@
       <xdr:row>664</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="26" name="Imagem 25"/>
@@ -3929,8 +4026,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="132948680"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="130776980"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3946,7 +4043,7 @@
       <xdr:row>638</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="27" name="Imagem 26"/>
@@ -3968,8 +4065,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="127719455"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="125639195"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3985,7 +4082,7 @@
       <xdr:row>692</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="28" name="Imagem 27"/>
@@ -4007,8 +4104,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="138558905"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="136295765"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4024,7 +4121,7 @@
       <xdr:row>720</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="29" name="Imagem 28"/>
@@ -4046,8 +4143,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="144169130"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="141814550"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4063,7 +4160,7 @@
       <xdr:row>748</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="30" name="Imagem 29"/>
@@ -4085,8 +4182,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="149779355"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="147333335"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4102,7 +4199,7 @@
       <xdr:row>776</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="31" name="Imagem 30"/>
@@ -4124,8 +4221,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="155389580"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="152852120"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4141,7 +4238,7 @@
       <xdr:row>804</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="32" name="Imagem 31"/>
@@ -4163,8 +4260,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="160999805"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="158370905"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4180,7 +4277,7 @@
       <xdr:row>832</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="33" name="Imagem 32"/>
@@ -4202,8 +4299,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="166610030"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="163889690"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4219,7 +4316,7 @@
       <xdr:row>860</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="34" name="Imagem 33"/>
@@ -4241,8 +4338,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="172220255"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="169408475"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4258,7 +4355,7 @@
       <xdr:row>888</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="35" name="Imagem 34"/>
@@ -4280,8 +4377,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="177830480"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="174927260"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4297,7 +4394,7 @@
       <xdr:row>916</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="36" name="Imagem 35"/>
@@ -4319,8 +4416,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="183440705"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="180446045"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4336,7 +4433,7 @@
       <xdr:row>1028</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="37" name="Imagem 36"/>
@@ -4358,8 +4455,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="205881605"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="202521185"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4375,7 +4472,7 @@
       <xdr:row>1056</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="38" name="Imagem 37"/>
@@ -4397,8 +4494,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="211491830"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="208039970"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4414,7 +4511,7 @@
       <xdr:row>1084</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="39" name="Imagem 38"/>
@@ -4436,8 +4533,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="217102055"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="213558755"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4453,7 +4550,7 @@
       <xdr:row>944</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="40" name="Imagem 39"/>
@@ -4475,8 +4572,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="189050930"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="185964830"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4492,7 +4589,7 @@
       <xdr:row>972</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="41" name="Imagem 40"/>
@@ -4514,8 +4611,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="194661155"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="191483615"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4531,7 +4628,7 @@
       <xdr:row>1000</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="42" name="Imagem 41"/>
@@ -4553,8 +4650,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="200271380"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="197002400"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4570,7 +4667,7 @@
       <xdr:row>1112</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="43" name="Imagem 42"/>
@@ -4592,8 +4689,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="222712280"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="219077540"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4609,7 +4706,7 @@
       <xdr:row>1138</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="44" name="Imagem 43"/>
@@ -4631,8 +4728,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="227941505"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="224215325"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4648,7 +4745,7 @@
       <xdr:row>1164</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="46" name="Imagem 45"/>
@@ -4670,8 +4767,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="233170730"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="229353110"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4687,7 +4784,7 @@
       <xdr:row>1190</xdr:row>
       <xdr:rowOff>35593</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1573013" cy="1604015"/>
+    <xdr:ext cx="1573013" cy="1573535"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="47" name="Imagem 46"/>
@@ -4709,8 +4806,47 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032510" y="238384715"/>
-          <a:ext cx="1573530" cy="1604010"/>
+          <a:off x="1101090" y="234490895"/>
+          <a:ext cx="1573530" cy="1573530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>415917</xdr:colOff>
+      <xdr:row>1216</xdr:row>
+      <xdr:rowOff>35593</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1573013" cy="1573535"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Imagem 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1101090" y="239552480"/>
+          <a:ext cx="1573530" cy="1573530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5000,16 +5136,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y1215"/>
+  <dimension ref="A1:Y1241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A1139" workbookViewId="0">
-      <selection activeCell="A1150" sqref="A1150:C1153"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A1220" workbookViewId="0">
+      <selection activeCell="D1236" sqref="D1236:F1239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="7" max="7" width="8.87962962962963" customWidth="1"/>
-    <col min="9" max="9" width="24.3796296296296" customWidth="1"/>
+    <col min="7" max="7" width="8.88333333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="1:16">
@@ -5888,7 +6024,7 @@
       <c r="O41" s="10"/>
       <c r="P41" s="31"/>
     </row>
-    <row r="42" ht="15.9" spans="1:16">
+    <row r="42" ht="15.3" spans="1:16">
       <c r="A42" s="18"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -5908,7 +6044,7 @@
       <c r="O42" s="20"/>
       <c r="P42" s="31"/>
     </row>
-    <row r="43" ht="15.9" spans="1:16">
+    <row r="43" ht="15.3" spans="1:16">
       <c r="A43" s="18" t="s">
         <v>38</v>
       </c>
@@ -5938,7 +6074,7 @@
       <c r="O43" s="34"/>
       <c r="P43" s="31"/>
     </row>
-    <row r="44" ht="15.9" spans="1:16">
+    <row r="44" ht="15.3" spans="1:16">
       <c r="A44" s="18"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -5964,7 +6100,7 @@
       <c r="O44" s="37"/>
       <c r="P44" s="31"/>
     </row>
-    <row r="45" ht="15.9" spans="1:16">
+    <row r="45" ht="15.3" spans="1:16">
       <c r="A45" s="18"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -5990,7 +6126,7 @@
       <c r="O45" s="37"/>
       <c r="P45" s="31"/>
     </row>
-    <row r="46" ht="15.9" spans="1:16">
+    <row r="46" ht="15.3" spans="1:16">
       <c r="A46" s="18"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -6016,7 +6152,7 @@
       <c r="O46" s="37"/>
       <c r="P46" s="31"/>
     </row>
-    <row r="47" ht="15.9" spans="1:16">
+    <row r="47" ht="15.3" spans="1:16">
       <c r="A47" s="18" t="s">
         <v>43</v>
       </c>
@@ -6046,7 +6182,7 @@
       <c r="O47" s="37"/>
       <c r="P47" s="31"/>
     </row>
-    <row r="48" ht="15.9" spans="1:16">
+    <row r="48" ht="15.3" spans="1:16">
       <c r="A48" s="18"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -6072,7 +6208,7 @@
       <c r="O48" s="37"/>
       <c r="P48" s="31"/>
     </row>
-    <row r="49" ht="15.9" spans="1:16">
+    <row r="49" ht="15.3" spans="1:16">
       <c r="A49" s="18"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -6450,7 +6586,7 @@
       <c r="O67" s="10"/>
       <c r="P67" s="31"/>
     </row>
-    <row r="68" ht="15.9" spans="1:16">
+    <row r="68" ht="15.3" spans="1:16">
       <c r="A68" s="18"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -6470,7 +6606,7 @@
       <c r="O68" s="20"/>
       <c r="P68" s="31"/>
     </row>
-    <row r="69" ht="15.9" spans="1:16">
+    <row r="69" ht="15.3" spans="1:16">
       <c r="A69" s="18"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -6496,7 +6632,7 @@
       <c r="O69" s="34"/>
       <c r="P69" s="31"/>
     </row>
-    <row r="70" ht="15.9" spans="1:16">
+    <row r="70" ht="15.3" spans="1:16">
       <c r="A70" s="18"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -6522,7 +6658,7 @@
       <c r="O70" s="37"/>
       <c r="P70" s="31"/>
     </row>
-    <row r="71" ht="15.9" spans="1:16">
+    <row r="71" ht="15.3" spans="1:16">
       <c r="A71" s="18"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -6540,7 +6676,7 @@
       <c r="O71" s="37"/>
       <c r="P71" s="31"/>
     </row>
-    <row r="72" ht="15.9" spans="1:16">
+    <row r="72" ht="15.3" spans="1:16">
       <c r="A72" s="18"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -6558,7 +6694,7 @@
       <c r="O72" s="37"/>
       <c r="P72" s="31"/>
     </row>
-    <row r="73" ht="15.9" spans="1:16">
+    <row r="73" ht="15.3" spans="1:16">
       <c r="A73" s="18"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -6576,7 +6712,7 @@
       <c r="O73" s="37"/>
       <c r="P73" s="31"/>
     </row>
-    <row r="74" ht="15.9" spans="1:16">
+    <row r="74" ht="15.3" spans="1:16">
       <c r="A74" s="18"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -6594,7 +6730,7 @@
       <c r="O74" s="37"/>
       <c r="P74" s="31"/>
     </row>
-    <row r="75" ht="15.9" spans="1:16">
+    <row r="75" ht="15.3" spans="1:16">
       <c r="A75" s="18"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -6972,7 +7108,7 @@
       <c r="O93" s="10"/>
       <c r="P93" s="31"/>
     </row>
-    <row r="94" ht="15.9" spans="1:16">
+    <row r="94" ht="15.3" spans="1:16">
       <c r="A94" s="18"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -6992,7 +7128,7 @@
       <c r="O94" s="20"/>
       <c r="P94" s="31"/>
     </row>
-    <row r="95" ht="15.9" spans="1:16">
+    <row r="95" ht="15.3" spans="1:16">
       <c r="A95" s="18" t="s">
         <v>52</v>
       </c>
@@ -7022,7 +7158,7 @@
       <c r="O95" s="34"/>
       <c r="P95" s="31"/>
     </row>
-    <row r="96" ht="15.9" spans="1:16">
+    <row r="96" ht="15.3" spans="1:16">
       <c r="A96" s="18"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -7048,7 +7184,7 @@
       <c r="O96" s="37"/>
       <c r="P96" s="31"/>
     </row>
-    <row r="97" ht="15.9" spans="1:16">
+    <row r="97" ht="15.3" spans="1:16">
       <c r="A97" s="18"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -7074,7 +7210,7 @@
       <c r="O97" s="37"/>
       <c r="P97" s="31"/>
     </row>
-    <row r="98" ht="15.9" spans="1:16">
+    <row r="98" ht="15.3" spans="1:16">
       <c r="A98" s="18"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -7100,7 +7236,7 @@
       <c r="O98" s="37"/>
       <c r="P98" s="31"/>
     </row>
-    <row r="99" ht="15.9" spans="1:16">
+    <row r="99" ht="15.3" spans="1:16">
       <c r="A99" s="18" t="s">
         <v>55</v>
       </c>
@@ -7120,7 +7256,7 @@
       <c r="O99" s="37"/>
       <c r="P99" s="31"/>
     </row>
-    <row r="100" ht="15.9" spans="1:16">
+    <row r="100" ht="15.3" spans="1:16">
       <c r="A100" s="18"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -7138,7 +7274,7 @@
       <c r="O100" s="37"/>
       <c r="P100" s="31"/>
     </row>
-    <row r="101" ht="15.9" spans="1:16">
+    <row r="101" ht="15.3" spans="1:16">
       <c r="A101" s="18"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -7516,7 +7652,7 @@
       <c r="O119" s="10"/>
       <c r="P119" s="31"/>
     </row>
-    <row r="120" ht="15.9" spans="1:16">
+    <row r="120" ht="15.3" spans="1:16">
       <c r="A120" s="18"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
@@ -7536,7 +7672,7 @@
       <c r="O120" s="20"/>
       <c r="P120" s="31"/>
     </row>
-    <row r="121" ht="15.9" spans="1:16">
+    <row r="121" ht="15.3" spans="1:16">
       <c r="A121" s="18" t="s">
         <v>58</v>
       </c>
@@ -7566,7 +7702,7 @@
       <c r="O121" s="34"/>
       <c r="P121" s="31"/>
     </row>
-    <row r="122" ht="15.9" spans="1:16">
+    <row r="122" ht="15.3" spans="1:16">
       <c r="A122" s="18"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
@@ -7592,7 +7728,7 @@
       <c r="O122" s="37"/>
       <c r="P122" s="31"/>
     </row>
-    <row r="123" ht="15.9" spans="1:16">
+    <row r="123" ht="15.3" spans="1:16">
       <c r="A123" s="18"/>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
@@ -7618,7 +7754,7 @@
       <c r="O123" s="37"/>
       <c r="P123" s="31"/>
     </row>
-    <row r="124" ht="15.9" spans="1:16">
+    <row r="124" ht="15.3" spans="1:16">
       <c r="A124" s="18"/>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
@@ -7636,7 +7772,7 @@
       <c r="O124" s="37"/>
       <c r="P124" s="31"/>
     </row>
-    <row r="125" ht="15.9" spans="1:16">
+    <row r="125" ht="15.3" spans="1:16">
       <c r="A125" s="18"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
@@ -7654,7 +7790,7 @@
       <c r="O125" s="37"/>
       <c r="P125" s="31"/>
     </row>
-    <row r="126" ht="15.9" spans="1:16">
+    <row r="126" ht="15.3" spans="1:16">
       <c r="A126" s="18"/>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
@@ -7672,7 +7808,7 @@
       <c r="O126" s="37"/>
       <c r="P126" s="31"/>
     </row>
-    <row r="127" ht="15.9" spans="1:16">
+    <row r="127" ht="15.3" spans="1:16">
       <c r="A127" s="18"/>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
@@ -8050,7 +8186,7 @@
       <c r="O145" s="10"/>
       <c r="P145" s="31"/>
     </row>
-    <row r="146" ht="15.9" spans="1:16">
+    <row r="146" ht="15.3" spans="1:16">
       <c r="A146" s="18"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
@@ -8070,7 +8206,7 @@
       <c r="O146" s="20"/>
       <c r="P146" s="31"/>
     </row>
-    <row r="147" ht="15.9" spans="1:16">
+    <row r="147" ht="15.3" spans="1:16">
       <c r="A147" s="18" t="s">
         <v>65</v>
       </c>
@@ -8100,7 +8236,7 @@
       <c r="O147" s="34"/>
       <c r="P147" s="31"/>
     </row>
-    <row r="148" ht="15.9" spans="1:16">
+    <row r="148" ht="15.3" spans="1:16">
       <c r="A148" s="18"/>
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
@@ -8126,7 +8262,7 @@
       <c r="O148" s="37"/>
       <c r="P148" s="31"/>
     </row>
-    <row r="149" ht="15.9" spans="1:16">
+    <row r="149" ht="15.3" spans="1:16">
       <c r="A149" s="18"/>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
@@ -8144,7 +8280,7 @@
       <c r="O149" s="37"/>
       <c r="P149" s="31"/>
     </row>
-    <row r="150" ht="15.9" spans="1:16">
+    <row r="150" ht="15.3" spans="1:16">
       <c r="A150" s="18"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
@@ -8162,7 +8298,7 @@
       <c r="O150" s="37"/>
       <c r="P150" s="31"/>
     </row>
-    <row r="151" ht="15.9" spans="1:16">
+    <row r="151" ht="15.3" spans="1:16">
       <c r="A151" s="18" t="s">
         <v>67</v>
       </c>
@@ -8184,7 +8320,7 @@
       <c r="O151" s="37"/>
       <c r="P151" s="31"/>
     </row>
-    <row r="152" ht="15.9" spans="1:16">
+    <row r="152" ht="15.3" spans="1:16">
       <c r="A152" s="18"/>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
@@ -8202,7 +8338,7 @@
       <c r="O152" s="37"/>
       <c r="P152" s="31"/>
     </row>
-    <row r="153" ht="15.9" spans="1:16">
+    <row r="153" ht="15.3" spans="1:16">
       <c r="A153" s="18"/>
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
@@ -8580,7 +8716,7 @@
       <c r="O171" s="10"/>
       <c r="P171" s="31"/>
     </row>
-    <row r="172" ht="15.9" spans="1:16">
+    <row r="172" ht="15.3" spans="1:16">
       <c r="A172" s="18"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
@@ -8600,7 +8736,7 @@
       <c r="O172" s="20"/>
       <c r="P172" s="31"/>
     </row>
-    <row r="173" ht="15.9" spans="1:16">
+    <row r="173" ht="15.3" spans="1:16">
       <c r="A173" s="18" t="s">
         <v>72</v>
       </c>
@@ -8630,7 +8766,7 @@
       <c r="O173" s="34"/>
       <c r="P173" s="31"/>
     </row>
-    <row r="174" ht="15.9" spans="1:16">
+    <row r="174" ht="15.3" spans="1:16">
       <c r="A174" s="18"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
@@ -8656,7 +8792,7 @@
       <c r="O174" s="37"/>
       <c r="P174" s="31"/>
     </row>
-    <row r="175" ht="15.9" spans="1:16">
+    <row r="175" ht="15.3" spans="1:16">
       <c r="A175" s="18"/>
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
@@ -8682,7 +8818,7 @@
       <c r="O175" s="37"/>
       <c r="P175" s="31"/>
     </row>
-    <row r="176" ht="15.9" spans="1:16">
+    <row r="176" ht="15.3" spans="1:16">
       <c r="A176" s="18"/>
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
@@ -8708,7 +8844,7 @@
       <c r="O176" s="37"/>
       <c r="P176" s="31"/>
     </row>
-    <row r="177" ht="15.9" spans="1:16">
+    <row r="177" ht="15.3" spans="1:16">
       <c r="A177" s="18" t="s">
         <v>74</v>
       </c>
@@ -8728,7 +8864,7 @@
       <c r="O177" s="37"/>
       <c r="P177" s="31"/>
     </row>
-    <row r="178" ht="15.9" spans="1:16">
+    <row r="178" ht="15.3" spans="1:16">
       <c r="A178" s="18"/>
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
@@ -8746,7 +8882,7 @@
       <c r="O178" s="37"/>
       <c r="P178" s="31"/>
     </row>
-    <row r="179" ht="15.9" spans="1:16">
+    <row r="179" ht="15.3" spans="1:16">
       <c r="A179" s="18"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
@@ -9142,7 +9278,7 @@
       <c r="O198" s="10"/>
       <c r="P198" s="31"/>
     </row>
-    <row r="199" ht="15.9" spans="1:16">
+    <row r="199" ht="15.3" spans="1:16">
       <c r="A199" s="18"/>
       <c r="B199" s="19"/>
       <c r="C199" s="19"/>
@@ -9162,7 +9298,7 @@
       <c r="O199" s="20"/>
       <c r="P199" s="31"/>
     </row>
-    <row r="200" ht="15.9" spans="1:16">
+    <row r="200" ht="15.3" spans="1:16">
       <c r="A200" s="18" t="s">
         <v>78</v>
       </c>
@@ -9192,7 +9328,7 @@
       <c r="O200" s="34"/>
       <c r="P200" s="31"/>
     </row>
-    <row r="201" ht="15.9" spans="1:16">
+    <row r="201" ht="15.3" spans="1:16">
       <c r="A201" s="18"/>
       <c r="B201" s="19"/>
       <c r="C201" s="19"/>
@@ -9218,7 +9354,7 @@
       <c r="O201" s="37"/>
       <c r="P201" s="31"/>
     </row>
-    <row r="202" ht="15.9" spans="1:16">
+    <row r="202" ht="15.3" spans="1:16">
       <c r="A202" s="18"/>
       <c r="B202" s="19"/>
       <c r="C202" s="19"/>
@@ -9244,7 +9380,7 @@
       <c r="O202" s="37"/>
       <c r="P202" s="31"/>
     </row>
-    <row r="203" ht="15.9" spans="1:16">
+    <row r="203" ht="15.3" spans="1:16">
       <c r="A203" s="18"/>
       <c r="B203" s="19"/>
       <c r="C203" s="19"/>
@@ -9270,7 +9406,7 @@
       <c r="O203" s="37"/>
       <c r="P203" s="31"/>
     </row>
-    <row r="204" ht="15.9" spans="1:16">
+    <row r="204" ht="15.3" spans="1:16">
       <c r="A204" s="18" t="s">
         <v>80</v>
       </c>
@@ -9292,7 +9428,7 @@
       <c r="O204" s="37"/>
       <c r="P204" s="31"/>
     </row>
-    <row r="205" ht="15.9" spans="1:16">
+    <row r="205" ht="15.3" spans="1:16">
       <c r="A205" s="18"/>
       <c r="B205" s="19"/>
       <c r="C205" s="19"/>
@@ -9310,7 +9446,7 @@
       <c r="O205" s="37"/>
       <c r="P205" s="31"/>
     </row>
-    <row r="206" ht="15.9" spans="1:16">
+    <row r="206" ht="15.3" spans="1:16">
       <c r="A206" s="18"/>
       <c r="B206" s="19"/>
       <c r="C206" s="19"/>
@@ -9688,7 +9824,7 @@
       <c r="O224" s="10"/>
       <c r="P224" s="31"/>
     </row>
-    <row r="225" ht="15.9" spans="1:16">
+    <row r="225" ht="15.3" spans="1:16">
       <c r="A225" s="18"/>
       <c r="B225" s="19"/>
       <c r="C225" s="19"/>
@@ -9708,7 +9844,7 @@
       <c r="O225" s="20"/>
       <c r="P225" s="31"/>
     </row>
-    <row r="226" ht="15.9" spans="1:16">
+    <row r="226" ht="15.3" spans="1:16">
       <c r="A226" s="18" t="s">
         <v>85</v>
       </c>
@@ -9738,7 +9874,7 @@
       <c r="O226" s="34"/>
       <c r="P226" s="31"/>
     </row>
-    <row r="227" ht="15.9" spans="1:16">
+    <row r="227" ht="15.3" spans="1:16">
       <c r="A227" s="18"/>
       <c r="B227" s="19"/>
       <c r="C227" s="19"/>
@@ -9764,7 +9900,7 @@
       <c r="O227" s="37"/>
       <c r="P227" s="31"/>
     </row>
-    <row r="228" ht="15.9" spans="1:16">
+    <row r="228" ht="15.3" spans="1:16">
       <c r="A228" s="18"/>
       <c r="B228" s="19"/>
       <c r="C228" s="19"/>
@@ -9790,7 +9926,7 @@
       <c r="O228" s="37"/>
       <c r="P228" s="31"/>
     </row>
-    <row r="229" ht="15.9" spans="1:16">
+    <row r="229" ht="15.3" spans="1:16">
       <c r="A229" s="18"/>
       <c r="B229" s="19"/>
       <c r="C229" s="19"/>
@@ -9816,7 +9952,7 @@
       <c r="O229" s="37"/>
       <c r="P229" s="31"/>
     </row>
-    <row r="230" ht="15.9" spans="1:16">
+    <row r="230" ht="15.3" spans="1:16">
       <c r="A230" s="18" t="s">
         <v>87</v>
       </c>
@@ -9836,7 +9972,7 @@
       <c r="O230" s="37"/>
       <c r="P230" s="31"/>
     </row>
-    <row r="231" ht="15.9" spans="1:16">
+    <row r="231" ht="15.3" spans="1:16">
       <c r="A231" s="18"/>
       <c r="B231" s="19"/>
       <c r="C231" s="19"/>
@@ -9854,7 +9990,7 @@
       <c r="O231" s="37"/>
       <c r="P231" s="31"/>
     </row>
-    <row r="232" ht="15.9" spans="1:16">
+    <row r="232" ht="15.3" spans="1:16">
       <c r="A232" s="18"/>
       <c r="B232" s="19"/>
       <c r="C232" s="19"/>
@@ -10232,7 +10368,7 @@
       <c r="O250" s="10"/>
       <c r="P250" s="31"/>
     </row>
-    <row r="251" ht="15.9" spans="1:16">
+    <row r="251" ht="15.3" spans="1:16">
       <c r="A251" s="18"/>
       <c r="B251" s="19"/>
       <c r="C251" s="19"/>
@@ -10252,7 +10388,7 @@
       <c r="O251" s="20"/>
       <c r="P251" s="31"/>
     </row>
-    <row r="252" ht="15.9" spans="1:16">
+    <row r="252" ht="15.3" spans="1:16">
       <c r="A252" s="18" t="s">
         <v>91</v>
       </c>
@@ -10282,7 +10418,7 @@
       <c r="O252" s="34"/>
       <c r="P252" s="31"/>
     </row>
-    <row r="253" ht="15.9" spans="1:16">
+    <row r="253" ht="15.3" spans="1:16">
       <c r="A253" s="18"/>
       <c r="B253" s="19"/>
       <c r="C253" s="19"/>
@@ -10308,7 +10444,7 @@
       <c r="O253" s="37"/>
       <c r="P253" s="31"/>
     </row>
-    <row r="254" ht="15.9" spans="1:16">
+    <row r="254" ht="15.3" spans="1:16">
       <c r="A254" s="18"/>
       <c r="B254" s="19"/>
       <c r="C254" s="19"/>
@@ -10334,7 +10470,7 @@
       <c r="O254" s="37"/>
       <c r="P254" s="31"/>
     </row>
-    <row r="255" ht="15.9" spans="1:16">
+    <row r="255" ht="15.3" spans="1:16">
       <c r="A255" s="18"/>
       <c r="B255" s="19"/>
       <c r="C255" s="19"/>
@@ -10360,7 +10496,7 @@
       <c r="O255" s="37"/>
       <c r="P255" s="31"/>
     </row>
-    <row r="256" ht="15.9" spans="1:16">
+    <row r="256" ht="15.3" spans="1:16">
       <c r="A256" s="18" t="s">
         <v>94</v>
       </c>
@@ -10390,7 +10526,7 @@
       <c r="O256" s="37"/>
       <c r="P256" s="31"/>
     </row>
-    <row r="257" ht="15.9" spans="1:16">
+    <row r="257" ht="15.3" spans="1:16">
       <c r="A257" s="18"/>
       <c r="B257" s="19"/>
       <c r="C257" s="19"/>
@@ -10408,7 +10544,7 @@
       <c r="O257" s="37"/>
       <c r="P257" s="31"/>
     </row>
-    <row r="258" ht="15.9" spans="1:16">
+    <row r="258" ht="15.3" spans="1:16">
       <c r="A258" s="18"/>
       <c r="B258" s="19"/>
       <c r="C258" s="19"/>
@@ -11688,7 +11824,7 @@
       <c r="O310" s="10"/>
       <c r="P310" s="31"/>
     </row>
-    <row r="311" ht="15.9" spans="1:16">
+    <row r="311" ht="15.3" spans="1:16">
       <c r="A311" s="18"/>
       <c r="B311" s="19"/>
       <c r="C311" s="19"/>
@@ -11708,7 +11844,7 @@
       <c r="O311" s="20"/>
       <c r="P311" s="31"/>
     </row>
-    <row r="312" ht="15.9" spans="1:16">
+    <row r="312" ht="15.3" spans="1:16">
       <c r="A312" s="18" t="s">
         <v>119</v>
       </c>
@@ -11738,7 +11874,7 @@
       <c r="O312" s="34"/>
       <c r="P312" s="31"/>
     </row>
-    <row r="313" ht="15.9" spans="1:16">
+    <row r="313" ht="15.3" spans="1:16">
       <c r="A313" s="18"/>
       <c r="B313" s="19"/>
       <c r="C313" s="19"/>
@@ -11764,7 +11900,7 @@
       <c r="O313" s="37"/>
       <c r="P313" s="31"/>
     </row>
-    <row r="314" ht="15.9" spans="1:16">
+    <row r="314" ht="15.3" spans="1:16">
       <c r="A314" s="18"/>
       <c r="B314" s="19"/>
       <c r="C314" s="19"/>
@@ -11790,7 +11926,7 @@
       <c r="O314" s="37"/>
       <c r="P314" s="31"/>
     </row>
-    <row r="315" ht="15.9" spans="1:16">
+    <row r="315" ht="15.3" spans="1:16">
       <c r="A315" s="18"/>
       <c r="B315" s="19"/>
       <c r="C315" s="19"/>
@@ -11816,7 +11952,7 @@
       <c r="O315" s="37"/>
       <c r="P315" s="31"/>
     </row>
-    <row r="316" ht="15.9" spans="1:16">
+    <row r="316" ht="15.3" spans="1:16">
       <c r="A316" s="18" t="s">
         <v>121</v>
       </c>
@@ -11846,7 +11982,7 @@
       <c r="O316" s="37"/>
       <c r="P316" s="31"/>
     </row>
-    <row r="317" ht="15.9" spans="1:16">
+    <row r="317" ht="15.3" spans="1:16">
       <c r="A317" s="18"/>
       <c r="B317" s="19"/>
       <c r="C317" s="19"/>
@@ -11864,7 +12000,7 @@
       <c r="O317" s="37"/>
       <c r="P317" s="31"/>
     </row>
-    <row r="318" ht="15.9" spans="1:16">
+    <row r="318" ht="15.3" spans="1:16">
       <c r="A318" s="18"/>
       <c r="B318" s="19"/>
       <c r="C318" s="19"/>
@@ -12242,7 +12378,7 @@
       <c r="O336" s="10"/>
       <c r="P336" s="31"/>
     </row>
-    <row r="337" ht="15.9" spans="1:16">
+    <row r="337" ht="15.3" spans="1:16">
       <c r="A337" s="18"/>
       <c r="B337" s="19"/>
       <c r="C337" s="19"/>
@@ -12262,7 +12398,7 @@
       <c r="O337" s="20"/>
       <c r="P337" s="31"/>
     </row>
-    <row r="338" ht="15.9" spans="1:16">
+    <row r="338" ht="15.3" spans="1:16">
       <c r="A338" s="18" t="s">
         <v>127</v>
       </c>
@@ -12292,7 +12428,7 @@
       <c r="O338" s="34"/>
       <c r="P338" s="31"/>
     </row>
-    <row r="339" ht="15.9" spans="1:16">
+    <row r="339" ht="15.3" spans="1:16">
       <c r="A339" s="18"/>
       <c r="B339" s="19"/>
       <c r="C339" s="19"/>
@@ -12318,7 +12454,7 @@
       <c r="O339" s="37"/>
       <c r="P339" s="31"/>
     </row>
-    <row r="340" ht="15.9" spans="1:16">
+    <row r="340" ht="15.3" spans="1:16">
       <c r="A340" s="18"/>
       <c r="B340" s="19"/>
       <c r="C340" s="19"/>
@@ -12344,7 +12480,7 @@
       <c r="O340" s="37"/>
       <c r="P340" s="31"/>
     </row>
-    <row r="341" ht="15.9" spans="1:16">
+    <row r="341" ht="15.3" spans="1:16">
       <c r="A341" s="18"/>
       <c r="B341" s="19"/>
       <c r="C341" s="19"/>
@@ -12370,7 +12506,7 @@
       <c r="O341" s="37"/>
       <c r="P341" s="31"/>
     </row>
-    <row r="342" ht="15.9" spans="1:16">
+    <row r="342" ht="15.3" spans="1:16">
       <c r="A342" s="18" t="s">
         <v>130</v>
       </c>
@@ -12400,7 +12536,7 @@
       <c r="O342" s="37"/>
       <c r="P342" s="31"/>
     </row>
-    <row r="343" ht="15.9" spans="1:16">
+    <row r="343" ht="15.3" spans="1:16">
       <c r="A343" s="18"/>
       <c r="B343" s="19"/>
       <c r="C343" s="19"/>
@@ -12418,7 +12554,7 @@
       <c r="O343" s="37"/>
       <c r="P343" s="31"/>
     </row>
-    <row r="344" ht="15.9" spans="1:16">
+    <row r="344" ht="15.3" spans="1:16">
       <c r="A344" s="18"/>
       <c r="B344" s="19"/>
       <c r="C344" s="19"/>
@@ -12796,7 +12932,7 @@
       <c r="O362" s="10"/>
       <c r="P362" s="31"/>
     </row>
-    <row r="363" ht="15.9" spans="1:16">
+    <row r="363" ht="15.3" spans="1:16">
       <c r="A363" s="18"/>
       <c r="B363" s="19"/>
       <c r="C363" s="19"/>
@@ -12816,7 +12952,7 @@
       <c r="O363" s="20"/>
       <c r="P363" s="31"/>
     </row>
-    <row r="364" ht="15.9" spans="1:16">
+    <row r="364" ht="15.3" spans="1:16">
       <c r="A364" s="18" t="s">
         <v>127</v>
       </c>
@@ -12846,7 +12982,7 @@
       <c r="O364" s="34"/>
       <c r="P364" s="31"/>
     </row>
-    <row r="365" ht="15.9" spans="1:16">
+    <row r="365" ht="15.3" spans="1:16">
       <c r="A365" s="18"/>
       <c r="B365" s="19"/>
       <c r="C365" s="19"/>
@@ -12872,7 +13008,7 @@
       <c r="O365" s="37"/>
       <c r="P365" s="31"/>
     </row>
-    <row r="366" ht="15.9" spans="1:16">
+    <row r="366" ht="15.3" spans="1:16">
       <c r="A366" s="18"/>
       <c r="B366" s="19"/>
       <c r="C366" s="19"/>
@@ -12898,7 +13034,7 @@
       <c r="O366" s="37"/>
       <c r="P366" s="31"/>
     </row>
-    <row r="367" ht="15.9" spans="1:16">
+    <row r="367" ht="15.3" spans="1:16">
       <c r="A367" s="18"/>
       <c r="B367" s="19"/>
       <c r="C367" s="19"/>
@@ -12924,7 +13060,7 @@
       <c r="O367" s="37"/>
       <c r="P367" s="31"/>
     </row>
-    <row r="368" ht="15.9" spans="1:16">
+    <row r="368" ht="15.3" spans="1:16">
       <c r="A368" s="18" t="s">
         <v>130</v>
       </c>
@@ -12954,7 +13090,7 @@
       <c r="O368" s="37"/>
       <c r="P368" s="31"/>
     </row>
-    <row r="369" ht="15.9" spans="1:16">
+    <row r="369" ht="15.3" spans="1:16">
       <c r="A369" s="18"/>
       <c r="B369" s="19"/>
       <c r="C369" s="19"/>
@@ -12972,7 +13108,7 @@
       <c r="O369" s="37"/>
       <c r="P369" s="31"/>
     </row>
-    <row r="370" ht="15.9" spans="1:16">
+    <row r="370" ht="15.3" spans="1:16">
       <c r="A370" s="18"/>
       <c r="B370" s="19"/>
       <c r="C370" s="19"/>
@@ -13350,7 +13486,7 @@
       <c r="O388" s="10"/>
       <c r="P388" s="31"/>
     </row>
-    <row r="389" ht="15.9" spans="1:16">
+    <row r="389" ht="15.3" spans="1:16">
       <c r="A389" s="18"/>
       <c r="B389" s="19"/>
       <c r="C389" s="19"/>
@@ -13370,7 +13506,7 @@
       <c r="O389" s="20"/>
       <c r="P389" s="31"/>
     </row>
-    <row r="390" ht="15.9" spans="1:16">
+    <row r="390" ht="15.3" spans="1:16">
       <c r="A390" s="18" t="s">
         <v>130</v>
       </c>
@@ -13398,7 +13534,7 @@
       <c r="O390" s="34"/>
       <c r="P390" s="31"/>
     </row>
-    <row r="391" ht="15.9" spans="1:16">
+    <row r="391" ht="15.3" spans="1:16">
       <c r="A391" s="18"/>
       <c r="B391" s="19"/>
       <c r="C391" s="19"/>
@@ -13424,7 +13560,7 @@
       <c r="O391" s="37"/>
       <c r="P391" s="31"/>
     </row>
-    <row r="392" ht="15.9" spans="1:16">
+    <row r="392" ht="15.3" spans="1:16">
       <c r="A392" s="18"/>
       <c r="B392" s="19"/>
       <c r="C392" s="19"/>
@@ -13450,7 +13586,7 @@
       <c r="O392" s="37"/>
       <c r="P392" s="31"/>
     </row>
-    <row r="393" ht="15.9" spans="1:16">
+    <row r="393" ht="15.3" spans="1:16">
       <c r="A393" s="18"/>
       <c r="B393" s="19"/>
       <c r="C393" s="19"/>
@@ -13476,7 +13612,7 @@
       <c r="O393" s="37"/>
       <c r="P393" s="31"/>
     </row>
-    <row r="394" ht="15.9" spans="1:16">
+    <row r="394" ht="15.3" spans="1:16">
       <c r="A394" s="18" t="s">
         <v>136</v>
       </c>
@@ -13504,7 +13640,7 @@
       <c r="O394" s="37"/>
       <c r="P394" s="31"/>
     </row>
-    <row r="395" ht="15.9" spans="1:16">
+    <row r="395" ht="15.3" spans="1:16">
       <c r="A395" s="18"/>
       <c r="B395" s="19"/>
       <c r="C395" s="19"/>
@@ -13522,7 +13658,7 @@
       <c r="O395" s="37"/>
       <c r="P395" s="31"/>
     </row>
-    <row r="396" ht="15.9" spans="1:16">
+    <row r="396" ht="15.3" spans="1:16">
       <c r="A396" s="18"/>
       <c r="B396" s="19"/>
       <c r="C396" s="19"/>
@@ -13900,7 +14036,7 @@
       <c r="O414" s="10"/>
       <c r="P414" s="31"/>
     </row>
-    <row r="415" ht="15.9" spans="1:16">
+    <row r="415" ht="15.3" spans="1:16">
       <c r="A415" s="18"/>
       <c r="B415" s="19"/>
       <c r="C415" s="19"/>
@@ -13920,7 +14056,7 @@
       <c r="O415" s="20"/>
       <c r="P415" s="31"/>
     </row>
-    <row r="416" ht="15.9" spans="1:16">
+    <row r="416" ht="15.3" spans="1:16">
       <c r="A416" s="18" t="s">
         <v>140</v>
       </c>
@@ -13950,7 +14086,7 @@
       <c r="O416" s="34"/>
       <c r="P416" s="31"/>
     </row>
-    <row r="417" ht="15.9" spans="1:16">
+    <row r="417" ht="15.3" spans="1:16">
       <c r="A417" s="18"/>
       <c r="B417" s="19"/>
       <c r="C417" s="19"/>
@@ -13976,7 +14112,7 @@
       <c r="O417" s="37"/>
       <c r="P417" s="31"/>
     </row>
-    <row r="418" ht="15.9" spans="1:16">
+    <row r="418" ht="15.3" spans="1:16">
       <c r="A418" s="18"/>
       <c r="B418" s="19"/>
       <c r="C418" s="19"/>
@@ -14002,7 +14138,7 @@
       <c r="O418" s="37"/>
       <c r="P418" s="31"/>
     </row>
-    <row r="419" ht="15.9" spans="1:16">
+    <row r="419" ht="15.3" spans="1:16">
       <c r="A419" s="18"/>
       <c r="B419" s="19"/>
       <c r="C419" s="19"/>
@@ -14028,7 +14164,7 @@
       <c r="O419" s="37"/>
       <c r="P419" s="31"/>
     </row>
-    <row r="420" ht="15.9" spans="1:16">
+    <row r="420" ht="15.3" spans="1:16">
       <c r="A420" s="18" t="s">
         <v>142</v>
       </c>
@@ -14058,7 +14194,7 @@
       <c r="O420" s="37"/>
       <c r="P420" s="31"/>
     </row>
-    <row r="421" ht="15.9" spans="1:16">
+    <row r="421" ht="15.3" spans="1:16">
       <c r="A421" s="18"/>
       <c r="B421" s="19"/>
       <c r="C421" s="19"/>
@@ -14076,7 +14212,7 @@
       <c r="O421" s="37"/>
       <c r="P421" s="31"/>
     </row>
-    <row r="422" ht="15.9" spans="1:16">
+    <row r="422" ht="15.3" spans="1:16">
       <c r="A422" s="18"/>
       <c r="B422" s="19"/>
       <c r="C422" s="19"/>
@@ -14454,7 +14590,7 @@
       <c r="O440" s="10"/>
       <c r="P440" s="31"/>
     </row>
-    <row r="441" ht="15.9" spans="1:16">
+    <row r="441" ht="15.3" spans="1:16">
       <c r="A441" s="18"/>
       <c r="B441" s="19"/>
       <c r="C441" s="19"/>
@@ -14474,7 +14610,7 @@
       <c r="O441" s="20"/>
       <c r="P441" s="31"/>
     </row>
-    <row r="442" ht="15.9" spans="1:16">
+    <row r="442" ht="15.3" spans="1:16">
       <c r="A442" s="18" t="s">
         <v>147</v>
       </c>
@@ -14504,7 +14640,7 @@
       <c r="O442" s="34"/>
       <c r="P442" s="31"/>
     </row>
-    <row r="443" ht="15.9" spans="1:16">
+    <row r="443" ht="15.3" spans="1:16">
       <c r="A443" s="18"/>
       <c r="B443" s="19"/>
       <c r="C443" s="19"/>
@@ -14530,7 +14666,7 @@
       <c r="O443" s="37"/>
       <c r="P443" s="31"/>
     </row>
-    <row r="444" ht="15.9" spans="1:16">
+    <row r="444" ht="15.3" spans="1:16">
       <c r="A444" s="18"/>
       <c r="B444" s="19"/>
       <c r="C444" s="19"/>
@@ -14556,7 +14692,7 @@
       <c r="O444" s="37"/>
       <c r="P444" s="31"/>
     </row>
-    <row r="445" ht="15.9" spans="1:16">
+    <row r="445" ht="15.3" spans="1:16">
       <c r="A445" s="18"/>
       <c r="B445" s="19"/>
       <c r="C445" s="19"/>
@@ -14582,7 +14718,7 @@
       <c r="O445" s="37"/>
       <c r="P445" s="31"/>
     </row>
-    <row r="446" ht="15.9" spans="1:16">
+    <row r="446" ht="15.3" spans="1:16">
       <c r="A446" s="18" t="s">
         <v>149</v>
       </c>
@@ -14610,7 +14746,7 @@
       <c r="O446" s="37"/>
       <c r="P446" s="31"/>
     </row>
-    <row r="447" ht="15.9" spans="1:16">
+    <row r="447" ht="15.3" spans="1:16">
       <c r="A447" s="18"/>
       <c r="B447" s="19"/>
       <c r="C447" s="19"/>
@@ -14628,7 +14764,7 @@
       <c r="O447" s="37"/>
       <c r="P447" s="31"/>
     </row>
-    <row r="448" ht="15.9" spans="1:16">
+    <row r="448" ht="15.3" spans="1:16">
       <c r="A448" s="18"/>
       <c r="B448" s="19"/>
       <c r="C448" s="19"/>
@@ -15006,7 +15142,7 @@
       <c r="O466" s="10"/>
       <c r="P466" s="31"/>
     </row>
-    <row r="467" ht="15.9" spans="1:16">
+    <row r="467" ht="15.3" spans="1:16">
       <c r="A467" s="18"/>
       <c r="B467" s="19"/>
       <c r="C467" s="19"/>
@@ -15026,7 +15162,7 @@
       <c r="O467" s="20"/>
       <c r="P467" s="31"/>
     </row>
-    <row r="468" ht="15.9" spans="1:16">
+    <row r="468" ht="15.3" spans="1:16">
       <c r="A468" s="18" t="s">
         <v>153</v>
       </c>
@@ -15056,7 +15192,7 @@
       <c r="O468" s="34"/>
       <c r="P468" s="31"/>
     </row>
-    <row r="469" ht="15.9" spans="1:16">
+    <row r="469" ht="15.3" spans="1:16">
       <c r="A469" s="18"/>
       <c r="B469" s="19"/>
       <c r="C469" s="19"/>
@@ -15082,7 +15218,7 @@
       <c r="O469" s="37"/>
       <c r="P469" s="31"/>
     </row>
-    <row r="470" ht="15.9" spans="1:16">
+    <row r="470" ht="15.3" spans="1:16">
       <c r="A470" s="18"/>
       <c r="B470" s="19"/>
       <c r="C470" s="19"/>
@@ -15108,7 +15244,7 @@
       <c r="O470" s="37"/>
       <c r="P470" s="31"/>
     </row>
-    <row r="471" ht="15.9" spans="1:16">
+    <row r="471" ht="15.3" spans="1:16">
       <c r="A471" s="18"/>
       <c r="B471" s="19"/>
       <c r="C471" s="19"/>
@@ -15134,7 +15270,7 @@
       <c r="O471" s="37"/>
       <c r="P471" s="31"/>
     </row>
-    <row r="472" ht="15.9" spans="1:16">
+    <row r="472" ht="15.3" spans="1:16">
       <c r="A472" s="18"/>
       <c r="B472" s="19"/>
       <c r="C472" s="19"/>
@@ -15160,7 +15296,7 @@
       <c r="O472" s="37"/>
       <c r="P472" s="31"/>
     </row>
-    <row r="473" ht="15.9" spans="1:16">
+    <row r="473" ht="15.3" spans="1:16">
       <c r="A473" s="18"/>
       <c r="B473" s="19"/>
       <c r="C473" s="19"/>
@@ -15178,7 +15314,7 @@
       <c r="O473" s="37"/>
       <c r="P473" s="31"/>
     </row>
-    <row r="474" ht="15.9" spans="1:16">
+    <row r="474" ht="15.3" spans="1:16">
       <c r="A474" s="18"/>
       <c r="B474" s="19"/>
       <c r="C474" s="19"/>
@@ -15556,7 +15692,7 @@
       <c r="O492" s="10"/>
       <c r="P492" s="31"/>
     </row>
-    <row r="493" ht="15.9" spans="1:16">
+    <row r="493" ht="15.3" spans="1:16">
       <c r="A493" s="18"/>
       <c r="B493" s="19"/>
       <c r="C493" s="19"/>
@@ -15576,7 +15712,7 @@
       <c r="O493" s="20"/>
       <c r="P493" s="31"/>
     </row>
-    <row r="494" ht="15.9" spans="1:16">
+    <row r="494" ht="15.3" spans="1:16">
       <c r="A494" s="18" t="s">
         <v>158</v>
       </c>
@@ -15606,7 +15742,7 @@
       <c r="O494" s="34"/>
       <c r="P494" s="31"/>
     </row>
-    <row r="495" ht="15.9" spans="1:16">
+    <row r="495" ht="15.3" spans="1:16">
       <c r="A495" s="18"/>
       <c r="B495" s="19"/>
       <c r="C495" s="19"/>
@@ -15632,7 +15768,7 @@
       <c r="O495" s="37"/>
       <c r="P495" s="31"/>
     </row>
-    <row r="496" ht="15.9" spans="1:16">
+    <row r="496" ht="15.3" spans="1:16">
       <c r="A496" s="18"/>
       <c r="B496" s="19"/>
       <c r="C496" s="19"/>
@@ -15658,7 +15794,7 @@
       <c r="O496" s="37"/>
       <c r="P496" s="31"/>
     </row>
-    <row r="497" ht="15.9" spans="1:16">
+    <row r="497" ht="15.3" spans="1:16">
       <c r="A497" s="18"/>
       <c r="B497" s="19"/>
       <c r="C497" s="19"/>
@@ -15684,7 +15820,7 @@
       <c r="O497" s="37"/>
       <c r="P497" s="31"/>
     </row>
-    <row r="498" ht="15.9" spans="1:16">
+    <row r="498" ht="15.3" spans="1:16">
       <c r="A498" s="18"/>
       <c r="B498" s="19"/>
       <c r="C498" s="19"/>
@@ -15710,7 +15846,7 @@
       <c r="O498" s="37"/>
       <c r="P498" s="31"/>
     </row>
-    <row r="499" ht="15.9" spans="1:16">
+    <row r="499" ht="15.3" spans="1:16">
       <c r="A499" s="18"/>
       <c r="B499" s="19"/>
       <c r="C499" s="19"/>
@@ -15728,7 +15864,7 @@
       <c r="O499" s="37"/>
       <c r="P499" s="31"/>
     </row>
-    <row r="500" ht="15.9" spans="1:16">
+    <row r="500" ht="15.3" spans="1:16">
       <c r="A500" s="18"/>
       <c r="B500" s="19"/>
       <c r="C500" s="19"/>
@@ -16106,7 +16242,7 @@
       <c r="O518" s="10"/>
       <c r="P518" s="31"/>
     </row>
-    <row r="519" ht="15.9" spans="1:16">
+    <row r="519" ht="15.3" spans="1:16">
       <c r="A519" s="18"/>
       <c r="B519" s="19"/>
       <c r="C519" s="19"/>
@@ -16126,7 +16262,7 @@
       <c r="O519" s="20"/>
       <c r="P519" s="31"/>
     </row>
-    <row r="520" ht="15.9" spans="1:16">
+    <row r="520" ht="15.3" spans="1:16">
       <c r="A520" s="18" t="s">
         <v>163</v>
       </c>
@@ -16156,7 +16292,7 @@
       <c r="O520" s="34"/>
       <c r="P520" s="31"/>
     </row>
-    <row r="521" ht="15.9" spans="1:16">
+    <row r="521" ht="15.3" spans="1:16">
       <c r="A521" s="18"/>
       <c r="B521" s="19"/>
       <c r="C521" s="19"/>
@@ -16182,7 +16318,7 @@
       <c r="O521" s="37"/>
       <c r="P521" s="31"/>
     </row>
-    <row r="522" ht="15.9" spans="1:16">
+    <row r="522" ht="15.3" spans="1:16">
       <c r="A522" s="18"/>
       <c r="B522" s="19"/>
       <c r="C522" s="19"/>
@@ -16208,7 +16344,7 @@
       <c r="O522" s="37"/>
       <c r="P522" s="31"/>
     </row>
-    <row r="523" ht="15.9" spans="1:16">
+    <row r="523" ht="15.3" spans="1:16">
       <c r="A523" s="18"/>
       <c r="B523" s="19"/>
       <c r="C523" s="19"/>
@@ -16234,7 +16370,7 @@
       <c r="O523" s="37"/>
       <c r="P523" s="31"/>
     </row>
-    <row r="524" ht="15.9" spans="1:16">
+    <row r="524" ht="15.3" spans="1:16">
       <c r="A524" s="18" t="s">
         <v>135</v>
       </c>
@@ -16264,7 +16400,7 @@
       <c r="O524" s="37"/>
       <c r="P524" s="31"/>
     </row>
-    <row r="525" ht="15.9" spans="1:16">
+    <row r="525" ht="15.3" spans="1:16">
       <c r="A525" s="18"/>
       <c r="B525" s="19"/>
       <c r="C525" s="19"/>
@@ -16282,7 +16418,7 @@
       <c r="O525" s="37"/>
       <c r="P525" s="31"/>
     </row>
-    <row r="526" ht="15.9" spans="1:16">
+    <row r="526" ht="15.3" spans="1:16">
       <c r="A526" s="18"/>
       <c r="B526" s="19"/>
       <c r="C526" s="19"/>
@@ -16658,7 +16794,7 @@
       <c r="O544" s="10"/>
       <c r="P544" s="31"/>
     </row>
-    <row r="545" ht="15.9" spans="1:16">
+    <row r="545" ht="15.3" spans="1:16">
       <c r="A545" s="18"/>
       <c r="B545" s="19"/>
       <c r="C545" s="19"/>
@@ -16678,7 +16814,7 @@
       <c r="O545" s="20"/>
       <c r="P545" s="31"/>
     </row>
-    <row r="546" ht="15.9" spans="1:16">
+    <row r="546" ht="15.3" spans="1:16">
       <c r="A546" s="18" t="s">
         <v>23</v>
       </c>
@@ -16708,7 +16844,7 @@
       <c r="O546" s="34"/>
       <c r="P546" s="31"/>
     </row>
-    <row r="547" ht="15.9" spans="1:16">
+    <row r="547" ht="15.3" spans="1:16">
       <c r="A547" s="18"/>
       <c r="B547" s="19"/>
       <c r="C547" s="19"/>
@@ -16734,7 +16870,7 @@
       <c r="O547" s="37"/>
       <c r="P547" s="31"/>
     </row>
-    <row r="548" ht="15.9" spans="1:16">
+    <row r="548" ht="15.3" spans="1:16">
       <c r="A548" s="18"/>
       <c r="B548" s="19"/>
       <c r="C548" s="19"/>
@@ -16760,7 +16896,7 @@
       <c r="O548" s="37"/>
       <c r="P548" s="31"/>
     </row>
-    <row r="549" ht="15.9" spans="1:16">
+    <row r="549" ht="15.3" spans="1:16">
       <c r="A549" s="18"/>
       <c r="B549" s="19"/>
       <c r="C549" s="19"/>
@@ -16786,7 +16922,7 @@
       <c r="O549" s="37"/>
       <c r="P549" s="31"/>
     </row>
-    <row r="550" ht="15.9" spans="1:16">
+    <row r="550" ht="15.3" spans="1:16">
       <c r="A550" s="18" t="s">
         <v>142</v>
       </c>
@@ -16816,7 +16952,7 @@
       <c r="O550" s="37"/>
       <c r="P550" s="31"/>
     </row>
-    <row r="551" ht="15.9" spans="1:16">
+    <row r="551" ht="15.3" spans="1:16">
       <c r="A551" s="18"/>
       <c r="B551" s="19"/>
       <c r="C551" s="19"/>
@@ -16834,7 +16970,7 @@
       <c r="O551" s="37"/>
       <c r="P551" s="31"/>
     </row>
-    <row r="552" ht="15.9" spans="1:16">
+    <row r="552" ht="15.3" spans="1:16">
       <c r="A552" s="18"/>
       <c r="B552" s="19"/>
       <c r="C552" s="19"/>
@@ -17286,7 +17422,7 @@
       <c r="O574" s="10"/>
       <c r="P574" s="31"/>
     </row>
-    <row r="575" ht="15.9" spans="1:16">
+    <row r="575" ht="15.3" spans="1:16">
       <c r="A575" s="18"/>
       <c r="B575" s="19"/>
       <c r="C575" s="19"/>
@@ -17306,7 +17442,7 @@
       <c r="O575" s="20"/>
       <c r="P575" s="31"/>
     </row>
-    <row r="576" ht="15.9" spans="1:16">
+    <row r="576" ht="15.3" spans="1:16">
       <c r="A576" s="18" t="s">
         <v>175</v>
       </c>
@@ -17336,7 +17472,7 @@
       <c r="O576" s="34"/>
       <c r="P576" s="31"/>
     </row>
-    <row r="577" ht="15.9" spans="1:16">
+    <row r="577" ht="15.3" spans="1:16">
       <c r="A577" s="18"/>
       <c r="B577" s="19"/>
       <c r="C577" s="19"/>
@@ -17362,7 +17498,7 @@
       <c r="O577" s="37"/>
       <c r="P577" s="31"/>
     </row>
-    <row r="578" ht="15.9" spans="1:16">
+    <row r="578" ht="15.3" spans="1:16">
       <c r="A578" s="18"/>
       <c r="B578" s="19"/>
       <c r="C578" s="19"/>
@@ -17414,7 +17550,7 @@
       <c r="O579" s="37"/>
       <c r="P579" s="31"/>
     </row>
-    <row r="580" ht="15.9" spans="1:16">
+    <row r="580" ht="15.3" spans="1:16">
       <c r="A580" s="18" t="s">
         <v>179</v>
       </c>
@@ -17436,7 +17572,7 @@
       <c r="O580" s="37"/>
       <c r="P580" s="31"/>
     </row>
-    <row r="581" ht="15.9" spans="1:16">
+    <row r="581" ht="15.3" spans="1:16">
       <c r="A581" s="18"/>
       <c r="B581" s="19"/>
       <c r="C581" s="19"/>
@@ -17454,7 +17590,7 @@
       <c r="O581" s="37"/>
       <c r="P581" s="31"/>
     </row>
-    <row r="582" ht="15.9" spans="1:16">
+    <row r="582" ht="15.3" spans="1:16">
       <c r="A582" s="18"/>
       <c r="B582" s="19"/>
       <c r="C582" s="19"/>
@@ -17944,7 +18080,7 @@
       <c r="X603" s="64"/>
       <c r="Y603" s="64"/>
     </row>
-    <row r="604" ht="15.9" spans="1:16">
+    <row r="604" ht="15.3" spans="1:16">
       <c r="A604" s="18"/>
       <c r="B604" s="19"/>
       <c r="C604" s="19"/>
@@ -17970,7 +18106,7 @@
       <c r="O604" s="37"/>
       <c r="P604" s="31"/>
     </row>
-    <row r="605" ht="15.9" spans="1:16">
+    <row r="605" ht="15.3" spans="1:16">
       <c r="A605" s="18"/>
       <c r="B605" s="19"/>
       <c r="C605" s="19"/>
@@ -17996,7 +18132,7 @@
       <c r="O605" s="37"/>
       <c r="P605" s="31"/>
     </row>
-    <row r="606" ht="15.9" spans="1:16">
+    <row r="606" ht="15.3" spans="1:16">
       <c r="A606" s="18"/>
       <c r="B606" s="19"/>
       <c r="C606" s="19"/>
@@ -18014,7 +18150,7 @@
       <c r="O606" s="37"/>
       <c r="P606" s="31"/>
     </row>
-    <row r="607" ht="15.9" spans="1:16">
+    <row r="607" ht="15.3" spans="1:16">
       <c r="A607" s="18"/>
       <c r="B607" s="19"/>
       <c r="C607" s="19"/>
@@ -18032,7 +18168,7 @@
       <c r="O607" s="37"/>
       <c r="P607" s="31"/>
     </row>
-    <row r="608" ht="15.9" spans="1:16">
+    <row r="608" ht="15.3" spans="1:16">
       <c r="A608" s="18"/>
       <c r="B608" s="19"/>
       <c r="C608" s="19"/>
@@ -18408,7 +18544,7 @@
       <c r="O626" s="10"/>
       <c r="P626" s="31"/>
     </row>
-    <row r="627" ht="15.9" spans="1:16">
+    <row r="627" ht="15.3" spans="1:16">
       <c r="A627" s="18"/>
       <c r="B627" s="19"/>
       <c r="C627" s="19"/>
@@ -18428,7 +18564,7 @@
       <c r="O627" s="20"/>
       <c r="P627" s="31"/>
     </row>
-    <row r="628" ht="15.9" spans="1:16">
+    <row r="628" ht="15.3" spans="1:16">
       <c r="A628" s="18" t="s">
         <v>188</v>
       </c>
@@ -18456,7 +18592,7 @@
       <c r="O628" s="34"/>
       <c r="P628" s="31"/>
     </row>
-    <row r="629" ht="15.9" spans="1:16">
+    <row r="629" ht="15.3" spans="1:16">
       <c r="A629" s="18"/>
       <c r="B629" s="19"/>
       <c r="C629" s="19"/>
@@ -18482,7 +18618,7 @@
       <c r="O629" s="37"/>
       <c r="P629" s="31"/>
     </row>
-    <row r="630" ht="15.9" spans="1:16">
+    <row r="630" ht="15.3" spans="1:16">
       <c r="A630" s="18"/>
       <c r="B630" s="19"/>
       <c r="C630" s="19"/>
@@ -18508,7 +18644,7 @@
       <c r="O630" s="37"/>
       <c r="P630" s="31"/>
     </row>
-    <row r="631" ht="15.9" spans="1:16">
+    <row r="631" ht="15.3" spans="1:16">
       <c r="A631" s="18"/>
       <c r="B631" s="19"/>
       <c r="C631" s="19"/>
@@ -18534,7 +18670,7 @@
       <c r="O631" s="37"/>
       <c r="P631" s="31"/>
     </row>
-    <row r="632" ht="15.9" spans="1:16">
+    <row r="632" ht="15.3" spans="1:16">
       <c r="A632" s="18"/>
       <c r="B632" s="19"/>
       <c r="C632" s="19"/>
@@ -18552,7 +18688,7 @@
       <c r="O632" s="37"/>
       <c r="P632" s="31"/>
     </row>
-    <row r="633" ht="15.9" spans="1:16">
+    <row r="633" ht="15.3" spans="1:16">
       <c r="A633" s="18"/>
       <c r="B633" s="19"/>
       <c r="C633" s="19"/>
@@ -18570,7 +18706,7 @@
       <c r="O633" s="37"/>
       <c r="P633" s="31"/>
     </row>
-    <row r="634" ht="15.9" spans="1:16">
+    <row r="634" ht="15.3" spans="1:16">
       <c r="A634" s="18"/>
       <c r="B634" s="19"/>
       <c r="C634" s="19"/>
@@ -18946,7 +19082,7 @@
       <c r="O652" s="10"/>
       <c r="P652" s="31"/>
     </row>
-    <row r="653" ht="15.9" spans="1:16">
+    <row r="653" ht="15.3" spans="1:16">
       <c r="A653" s="18"/>
       <c r="B653" s="19"/>
       <c r="C653" s="19"/>
@@ -18966,7 +19102,7 @@
       <c r="O653" s="20"/>
       <c r="P653" s="31"/>
     </row>
-    <row r="654" ht="15.9" spans="1:16">
+    <row r="654" ht="15.3" spans="1:16">
       <c r="A654" s="18" t="s">
         <v>188</v>
       </c>
@@ -18994,7 +19130,7 @@
       <c r="O654" s="34"/>
       <c r="P654" s="31"/>
     </row>
-    <row r="655" ht="15.9" spans="1:16">
+    <row r="655" ht="15.3" spans="1:16">
       <c r="A655" s="18"/>
       <c r="B655" s="19"/>
       <c r="C655" s="19"/>
@@ -19020,7 +19156,7 @@
       <c r="O655" s="37"/>
       <c r="P655" s="31"/>
     </row>
-    <row r="656" ht="15.9" spans="1:16">
+    <row r="656" ht="15.3" spans="1:16">
       <c r="A656" s="18"/>
       <c r="B656" s="19"/>
       <c r="C656" s="19"/>
@@ -19046,7 +19182,7 @@
       <c r="O656" s="37"/>
       <c r="P656" s="31"/>
     </row>
-    <row r="657" ht="15.9" spans="1:16">
+    <row r="657" ht="15.3" spans="1:16">
       <c r="A657" s="18"/>
       <c r="B657" s="19"/>
       <c r="C657" s="19"/>
@@ -19072,7 +19208,7 @@
       <c r="O657" s="37"/>
       <c r="P657" s="31"/>
     </row>
-    <row r="658" ht="15.9" spans="1:16">
+    <row r="658" ht="15.3" spans="1:16">
       <c r="A658" s="18" t="s">
         <v>142</v>
       </c>
@@ -19092,7 +19228,7 @@
       <c r="O658" s="37"/>
       <c r="P658" s="31"/>
     </row>
-    <row r="659" ht="15.9" spans="1:16">
+    <row r="659" ht="15.3" spans="1:16">
       <c r="A659" s="18"/>
       <c r="B659" s="19"/>
       <c r="C659" s="19"/>
@@ -19110,7 +19246,7 @@
       <c r="O659" s="37"/>
       <c r="P659" s="31"/>
     </row>
-    <row r="660" ht="15.9" spans="1:16">
+    <row r="660" ht="15.3" spans="1:16">
       <c r="A660" s="18"/>
       <c r="B660" s="19"/>
       <c r="C660" s="19"/>
@@ -19488,7 +19624,7 @@
       <c r="O678" s="10"/>
       <c r="P678" s="31"/>
     </row>
-    <row r="679" ht="15.9" spans="1:16">
+    <row r="679" ht="15.3" spans="1:16">
       <c r="A679" s="18"/>
       <c r="B679" s="19"/>
       <c r="C679" s="19"/>
@@ -19508,7 +19644,7 @@
       <c r="O679" s="20"/>
       <c r="P679" s="31"/>
     </row>
-    <row r="680" ht="15.9" spans="1:16">
+    <row r="680" ht="15.3" spans="1:16">
       <c r="A680" s="18" t="s">
         <v>192</v>
       </c>
@@ -19538,7 +19674,7 @@
       <c r="O680" s="34"/>
       <c r="P680" s="31"/>
     </row>
-    <row r="681" ht="15.9" spans="1:16">
+    <row r="681" ht="15.3" spans="1:16">
       <c r="A681" s="18"/>
       <c r="B681" s="19"/>
       <c r="C681" s="19"/>
@@ -19564,7 +19700,7 @@
       <c r="O681" s="37"/>
       <c r="P681" s="31"/>
     </row>
-    <row r="682" ht="15.9" spans="1:16">
+    <row r="682" ht="15.3" spans="1:16">
       <c r="A682" s="18"/>
       <c r="B682" s="19"/>
       <c r="C682" s="19"/>
@@ -19590,7 +19726,7 @@
       <c r="O682" s="37"/>
       <c r="P682" s="31"/>
     </row>
-    <row r="683" ht="15.9" spans="1:16">
+    <row r="683" ht="15.3" spans="1:16">
       <c r="A683" s="18"/>
       <c r="B683" s="19"/>
       <c r="C683" s="19"/>
@@ -19616,7 +19752,7 @@
       <c r="O683" s="37"/>
       <c r="P683" s="31"/>
     </row>
-    <row r="684" ht="15.9" spans="1:16">
+    <row r="684" ht="15.3" spans="1:16">
       <c r="A684" s="18"/>
       <c r="B684" s="19"/>
       <c r="C684" s="19"/>
@@ -19636,7 +19772,7 @@
       <c r="O684" s="37"/>
       <c r="P684" s="31"/>
     </row>
-    <row r="685" ht="15.9" spans="1:16">
+    <row r="685" ht="15.3" spans="1:16">
       <c r="A685" s="18"/>
       <c r="B685" s="19"/>
       <c r="C685" s="19"/>
@@ -19654,7 +19790,7 @@
       <c r="O685" s="37"/>
       <c r="P685" s="31"/>
     </row>
-    <row r="686" ht="15.9" spans="1:16">
+    <row r="686" ht="15.3" spans="1:16">
       <c r="A686" s="18"/>
       <c r="B686" s="19"/>
       <c r="C686" s="19"/>
@@ -20068,7 +20204,7 @@
       <c r="O706" s="10"/>
       <c r="P706" s="31"/>
     </row>
-    <row r="707" ht="15.9" spans="1:16">
+    <row r="707" ht="15.3" spans="1:16">
       <c r="A707" s="18"/>
       <c r="B707" s="19"/>
       <c r="C707" s="19"/>
@@ -20088,7 +20224,7 @@
       <c r="O707" s="20"/>
       <c r="P707" s="31"/>
     </row>
-    <row r="708" ht="15.9" spans="1:16">
+    <row r="708" ht="15.3" spans="1:16">
       <c r="A708" s="18" t="s">
         <v>198</v>
       </c>
@@ -20116,7 +20252,7 @@
       <c r="O708" s="34"/>
       <c r="P708" s="31"/>
     </row>
-    <row r="709" ht="15.9" spans="1:16">
+    <row r="709" ht="15.3" spans="1:16">
       <c r="A709" s="18"/>
       <c r="B709" s="19"/>
       <c r="C709" s="19"/>
@@ -20142,7 +20278,7 @@
       <c r="O709" s="37"/>
       <c r="P709" s="31"/>
     </row>
-    <row r="710" ht="15.9" spans="1:16">
+    <row r="710" ht="15.3" spans="1:16">
       <c r="A710" s="18"/>
       <c r="B710" s="19"/>
       <c r="C710" s="19"/>
@@ -20168,7 +20304,7 @@
       <c r="O710" s="37"/>
       <c r="P710" s="31"/>
     </row>
-    <row r="711" ht="15.9" spans="1:16">
+    <row r="711" ht="15.3" spans="1:16">
       <c r="A711" s="18"/>
       <c r="B711" s="19"/>
       <c r="C711" s="19"/>
@@ -20186,7 +20322,7 @@
       <c r="O711" s="37"/>
       <c r="P711" s="31"/>
     </row>
-    <row r="712" ht="15.9" spans="1:16">
+    <row r="712" ht="15.3" spans="1:16">
       <c r="A712" s="18"/>
       <c r="B712" s="19"/>
       <c r="C712" s="19"/>
@@ -20204,7 +20340,7 @@
       <c r="O712" s="37"/>
       <c r="P712" s="31"/>
     </row>
-    <row r="713" ht="15.9" spans="1:16">
+    <row r="713" ht="15.3" spans="1:16">
       <c r="A713" s="18"/>
       <c r="B713" s="19"/>
       <c r="C713" s="19"/>
@@ -20222,7 +20358,7 @@
       <c r="O713" s="37"/>
       <c r="P713" s="31"/>
     </row>
-    <row r="714" ht="15.9" spans="1:16">
+    <row r="714" ht="15.3" spans="1:16">
       <c r="A714" s="18"/>
       <c r="B714" s="19"/>
       <c r="C714" s="19"/>
@@ -20636,7 +20772,7 @@
       <c r="O734" s="10"/>
       <c r="P734" s="31"/>
     </row>
-    <row r="735" ht="15.9" spans="1:16">
+    <row r="735" ht="15.3" spans="1:16">
       <c r="A735" s="18"/>
       <c r="B735" s="19"/>
       <c r="C735" s="19"/>
@@ -20656,7 +20792,7 @@
       <c r="O735" s="20"/>
       <c r="P735" s="31"/>
     </row>
-    <row r="736" ht="15.9" spans="1:16">
+    <row r="736" ht="15.3" spans="1:16">
       <c r="A736" s="18"/>
       <c r="B736" s="19"/>
       <c r="C736" s="19"/>
@@ -20682,7 +20818,7 @@
       <c r="O736" s="34"/>
       <c r="P736" s="31"/>
     </row>
-    <row r="737" ht="15.9" spans="1:16">
+    <row r="737" ht="15.3" spans="1:16">
       <c r="A737" s="18"/>
       <c r="B737" s="19"/>
       <c r="C737" s="19"/>
@@ -20708,7 +20844,7 @@
       <c r="O737" s="37"/>
       <c r="P737" s="31"/>
     </row>
-    <row r="738" ht="15.9" spans="1:16">
+    <row r="738" ht="15.3" spans="1:16">
       <c r="A738" s="18"/>
       <c r="B738" s="19"/>
       <c r="C738" s="19"/>
@@ -20734,7 +20870,7 @@
       <c r="O738" s="37"/>
       <c r="P738" s="31"/>
     </row>
-    <row r="739" ht="15.9" spans="1:16">
+    <row r="739" ht="15.3" spans="1:16">
       <c r="A739" s="18"/>
       <c r="B739" s="19"/>
       <c r="C739" s="19"/>
@@ -20752,7 +20888,7 @@
       <c r="O739" s="37"/>
       <c r="P739" s="31"/>
     </row>
-    <row r="740" ht="15.9" spans="1:16">
+    <row r="740" ht="15.3" spans="1:16">
       <c r="A740" s="18"/>
       <c r="B740" s="19"/>
       <c r="C740" s="19"/>
@@ -20770,7 +20906,7 @@
       <c r="O740" s="37"/>
       <c r="P740" s="31"/>
     </row>
-    <row r="741" ht="15.9" spans="1:16">
+    <row r="741" ht="15.3" spans="1:16">
       <c r="A741" s="18"/>
       <c r="B741" s="19"/>
       <c r="C741" s="19"/>
@@ -20788,7 +20924,7 @@
       <c r="O741" s="37"/>
       <c r="P741" s="31"/>
     </row>
-    <row r="742" ht="15.9" spans="1:16">
+    <row r="742" ht="15.3" spans="1:16">
       <c r="A742" s="18"/>
       <c r="B742" s="19"/>
       <c r="C742" s="19"/>
@@ -21202,7 +21338,7 @@
       <c r="O762" s="10"/>
       <c r="P762" s="31"/>
     </row>
-    <row r="763" ht="15.9" spans="1:16">
+    <row r="763" ht="15.3" spans="1:16">
       <c r="A763" s="18"/>
       <c r="B763" s="19"/>
       <c r="C763" s="19"/>
@@ -21222,7 +21358,7 @@
       <c r="O763" s="20"/>
       <c r="P763" s="31"/>
     </row>
-    <row r="764" ht="15.9" spans="1:16">
+    <row r="764" ht="15.3" spans="1:16">
       <c r="A764" s="18" t="s">
         <v>213</v>
       </c>
@@ -21252,7 +21388,7 @@
       <c r="O764" s="34"/>
       <c r="P764" s="31"/>
     </row>
-    <row r="765" ht="15.9" spans="1:16">
+    <row r="765" ht="15.3" spans="1:16">
       <c r="A765" s="18"/>
       <c r="B765" s="19"/>
       <c r="C765" s="19"/>
@@ -21278,7 +21414,7 @@
       <c r="O765" s="37"/>
       <c r="P765" s="31"/>
     </row>
-    <row r="766" ht="15.9" spans="1:16">
+    <row r="766" ht="15.3" spans="1:16">
       <c r="A766" s="18"/>
       <c r="B766" s="19"/>
       <c r="C766" s="19"/>
@@ -21304,7 +21440,7 @@
       <c r="O766" s="37"/>
       <c r="P766" s="31"/>
     </row>
-    <row r="767" ht="15.9" spans="1:16">
+    <row r="767" ht="15.3" spans="1:16">
       <c r="A767" s="18"/>
       <c r="B767" s="19"/>
       <c r="C767" s="19"/>
@@ -21330,7 +21466,7 @@
       <c r="O767" s="37"/>
       <c r="P767" s="31"/>
     </row>
-    <row r="768" ht="15.9" spans="1:16">
+    <row r="768" ht="15.3" spans="1:16">
       <c r="A768" s="18" t="s">
         <v>220</v>
       </c>
@@ -21360,7 +21496,7 @@
       <c r="O768" s="37"/>
       <c r="P768" s="31"/>
     </row>
-    <row r="769" ht="15.9" spans="1:16">
+    <row r="769" ht="15.3" spans="1:16">
       <c r="A769" s="18"/>
       <c r="B769" s="19"/>
       <c r="C769" s="19"/>
@@ -21386,7 +21522,7 @@
       <c r="O769" s="37"/>
       <c r="P769" s="31"/>
     </row>
-    <row r="770" ht="15.9" spans="1:16">
+    <row r="770" ht="15.3" spans="1:16">
       <c r="A770" s="18"/>
       <c r="B770" s="19"/>
       <c r="C770" s="19"/>
@@ -21800,7 +21936,7 @@
       <c r="O790" s="10"/>
       <c r="P790" s="31"/>
     </row>
-    <row r="791" ht="15.9" spans="1:16">
+    <row r="791" ht="15.3" spans="1:16">
       <c r="A791" s="18"/>
       <c r="B791" s="19"/>
       <c r="C791" s="19"/>
@@ -21820,7 +21956,7 @@
       <c r="O791" s="20"/>
       <c r="P791" s="31"/>
     </row>
-    <row r="792" ht="15.9" spans="1:16">
+    <row r="792" ht="15.3" spans="1:16">
       <c r="A792" s="18"/>
       <c r="B792" s="19"/>
       <c r="C792" s="19"/>
@@ -21846,7 +21982,7 @@
       <c r="O792" s="34"/>
       <c r="P792" s="31"/>
     </row>
-    <row r="793" ht="15.9" spans="1:16">
+    <row r="793" ht="15.3" spans="1:16">
       <c r="A793" s="18"/>
       <c r="B793" s="19"/>
       <c r="C793" s="19"/>
@@ -21872,7 +22008,7 @@
       <c r="O793" s="37"/>
       <c r="P793" s="31"/>
     </row>
-    <row r="794" ht="15.9" spans="1:16">
+    <row r="794" ht="15.3" spans="1:16">
       <c r="A794" s="18"/>
       <c r="B794" s="19"/>
       <c r="C794" s="19"/>
@@ -21890,7 +22026,7 @@
       <c r="O794" s="37"/>
       <c r="P794" s="31"/>
     </row>
-    <row r="795" ht="15.9" spans="1:16">
+    <row r="795" ht="15.3" spans="1:16">
       <c r="A795" s="18"/>
       <c r="B795" s="19"/>
       <c r="C795" s="19"/>
@@ -21908,7 +22044,7 @@
       <c r="O795" s="37"/>
       <c r="P795" s="31"/>
     </row>
-    <row r="796" ht="15.9" spans="1:16">
+    <row r="796" ht="15.3" spans="1:16">
       <c r="A796" s="18"/>
       <c r="B796" s="19"/>
       <c r="C796" s="19"/>
@@ -21926,7 +22062,7 @@
       <c r="O796" s="37"/>
       <c r="P796" s="31"/>
     </row>
-    <row r="797" ht="15.9" spans="1:16">
+    <row r="797" ht="15.3" spans="1:16">
       <c r="A797" s="18"/>
       <c r="B797" s="19"/>
       <c r="C797" s="19"/>
@@ -21944,7 +22080,7 @@
       <c r="O797" s="37"/>
       <c r="P797" s="31"/>
     </row>
-    <row r="798" ht="15.9" spans="1:16">
+    <row r="798" ht="15.3" spans="1:16">
       <c r="A798" s="18"/>
       <c r="B798" s="19"/>
       <c r="C798" s="19"/>
@@ -22358,7 +22494,7 @@
       <c r="O818" s="10"/>
       <c r="P818" s="31"/>
     </row>
-    <row r="819" ht="15.9" spans="1:16">
+    <row r="819" ht="15.3" spans="1:16">
       <c r="A819" s="18"/>
       <c r="B819" s="19"/>
       <c r="C819" s="19"/>
@@ -22378,7 +22514,7 @@
       <c r="O819" s="20"/>
       <c r="P819" s="31"/>
     </row>
-    <row r="820" ht="15.9" spans="1:16">
+    <row r="820" ht="15.3" spans="1:16">
       <c r="A820" s="18" t="s">
         <v>230</v>
       </c>
@@ -22408,7 +22544,7 @@
       <c r="O820" s="34"/>
       <c r="P820" s="31"/>
     </row>
-    <row r="821" ht="15.9" spans="1:16">
+    <row r="821" ht="15.3" spans="1:16">
       <c r="A821" s="18"/>
       <c r="B821" s="19"/>
       <c r="C821" s="19"/>
@@ -22434,7 +22570,7 @@
       <c r="O821" s="37"/>
       <c r="P821" s="31"/>
     </row>
-    <row r="822" ht="15.9" spans="1:16">
+    <row r="822" ht="15.3" spans="1:16">
       <c r="A822" s="18"/>
       <c r="B822" s="19"/>
       <c r="C822" s="19"/>
@@ -22452,7 +22588,7 @@
       <c r="O822" s="37"/>
       <c r="P822" s="31"/>
     </row>
-    <row r="823" ht="15.9" spans="1:16">
+    <row r="823" ht="15.3" spans="1:16">
       <c r="A823" s="18"/>
       <c r="B823" s="19"/>
       <c r="C823" s="19"/>
@@ -22470,7 +22606,7 @@
       <c r="O823" s="37"/>
       <c r="P823" s="31"/>
     </row>
-    <row r="824" ht="15.9" spans="1:16">
+    <row r="824" ht="15.3" spans="1:16">
       <c r="A824" s="18"/>
       <c r="B824" s="19"/>
       <c r="C824" s="19"/>
@@ -22490,7 +22626,7 @@
       <c r="O824" s="37"/>
       <c r="P824" s="31"/>
     </row>
-    <row r="825" ht="15.9" spans="1:16">
+    <row r="825" ht="15.3" spans="1:16">
       <c r="A825" s="18"/>
       <c r="B825" s="19"/>
       <c r="C825" s="19"/>
@@ -22508,7 +22644,7 @@
       <c r="O825" s="37"/>
       <c r="P825" s="31"/>
     </row>
-    <row r="826" ht="15.9" spans="1:16">
+    <row r="826" ht="15.3" spans="1:16">
       <c r="A826" s="18"/>
       <c r="B826" s="19"/>
       <c r="C826" s="19"/>
@@ -22922,7 +23058,7 @@
       <c r="O846" s="10"/>
       <c r="P846" s="31"/>
     </row>
-    <row r="847" ht="15.9" spans="1:16">
+    <row r="847" ht="15.3" spans="1:16">
       <c r="A847" s="18"/>
       <c r="B847" s="19"/>
       <c r="C847" s="19"/>
@@ -22942,7 +23078,7 @@
       <c r="O847" s="20"/>
       <c r="P847" s="31"/>
     </row>
-    <row r="848" ht="15.9" spans="1:16">
+    <row r="848" ht="15.3" spans="1:16">
       <c r="A848" s="18" t="s">
         <v>236</v>
       </c>
@@ -22970,7 +23106,7 @@
       <c r="O848" s="34"/>
       <c r="P848" s="31"/>
     </row>
-    <row r="849" ht="15.9" spans="1:16">
+    <row r="849" ht="15.3" spans="1:16">
       <c r="A849" s="18"/>
       <c r="B849" s="19"/>
       <c r="C849" s="19"/>
@@ -22996,7 +23132,7 @@
       <c r="O849" s="37"/>
       <c r="P849" s="31"/>
     </row>
-    <row r="850" ht="15.9" spans="1:16">
+    <row r="850" ht="15.3" spans="1:16">
       <c r="A850" s="18"/>
       <c r="B850" s="19"/>
       <c r="C850" s="19"/>
@@ -23022,7 +23158,7 @@
       <c r="O850" s="37"/>
       <c r="P850" s="31"/>
     </row>
-    <row r="851" ht="15.9" spans="1:16">
+    <row r="851" ht="15.3" spans="1:16">
       <c r="A851" s="18"/>
       <c r="B851" s="19"/>
       <c r="C851" s="19"/>
@@ -23048,7 +23184,7 @@
       <c r="O851" s="37"/>
       <c r="P851" s="31"/>
     </row>
-    <row r="852" ht="15.9" spans="1:16">
+    <row r="852" ht="15.3" spans="1:16">
       <c r="A852" s="18" t="s">
         <v>240</v>
       </c>
@@ -23076,7 +23212,7 @@
       <c r="O852" s="37"/>
       <c r="P852" s="31"/>
     </row>
-    <row r="853" ht="15.9" spans="1:16">
+    <row r="853" ht="15.3" spans="1:16">
       <c r="A853" s="18"/>
       <c r="B853" s="19"/>
       <c r="C853" s="19"/>
@@ -23094,7 +23230,7 @@
       <c r="O853" s="37"/>
       <c r="P853" s="31"/>
     </row>
-    <row r="854" ht="15.9" spans="1:16">
+    <row r="854" ht="15.3" spans="1:16">
       <c r="A854" s="18"/>
       <c r="B854" s="19"/>
       <c r="C854" s="19"/>
@@ -23508,7 +23644,7 @@
       <c r="O874" s="10"/>
       <c r="P874" s="31"/>
     </row>
-    <row r="875" ht="15.9" spans="1:16">
+    <row r="875" ht="15.3" spans="1:16">
       <c r="A875" s="18"/>
       <c r="B875" s="19"/>
       <c r="C875" s="19"/>
@@ -23528,7 +23664,7 @@
       <c r="O875" s="20"/>
       <c r="P875" s="31"/>
     </row>
-    <row r="876" ht="15.9" spans="1:16">
+    <row r="876" ht="15.3" spans="1:16">
       <c r="A876" s="18" t="s">
         <v>236</v>
       </c>
@@ -23558,7 +23694,7 @@
       <c r="O876" s="34"/>
       <c r="P876" s="31"/>
     </row>
-    <row r="877" ht="15.9" spans="1:16">
+    <row r="877" ht="15.3" spans="1:16">
       <c r="A877" s="18"/>
       <c r="B877" s="19"/>
       <c r="C877" s="19"/>
@@ -23584,7 +23720,7 @@
       <c r="O877" s="37"/>
       <c r="P877" s="31"/>
     </row>
-    <row r="878" ht="15.9" spans="1:16">
+    <row r="878" ht="15.3" spans="1:16">
       <c r="A878" s="18"/>
       <c r="B878" s="19"/>
       <c r="C878" s="19"/>
@@ -23610,7 +23746,7 @@
       <c r="O878" s="37"/>
       <c r="P878" s="31"/>
     </row>
-    <row r="879" ht="15.9" spans="1:16">
+    <row r="879" ht="15.3" spans="1:16">
       <c r="A879" s="18"/>
       <c r="B879" s="19"/>
       <c r="C879" s="19"/>
@@ -23636,7 +23772,7 @@
       <c r="O879" s="37"/>
       <c r="P879" s="31"/>
     </row>
-    <row r="880" ht="15.9" spans="1:16">
+    <row r="880" ht="15.3" spans="1:16">
       <c r="A880" s="18" t="s">
         <v>240</v>
       </c>
@@ -23664,7 +23800,7 @@
       <c r="O880" s="37"/>
       <c r="P880" s="31"/>
     </row>
-    <row r="881" ht="15.9" spans="1:16">
+    <row r="881" ht="15.3" spans="1:16">
       <c r="A881" s="18"/>
       <c r="B881" s="19"/>
       <c r="C881" s="19"/>
@@ -23682,7 +23818,7 @@
       <c r="O881" s="37"/>
       <c r="P881" s="31"/>
     </row>
-    <row r="882" ht="15.9" spans="1:16">
+    <row r="882" ht="15.3" spans="1:16">
       <c r="A882" s="18"/>
       <c r="B882" s="19"/>
       <c r="C882" s="19"/>
@@ -24096,7 +24232,7 @@
       <c r="O902" s="10"/>
       <c r="P902" s="31"/>
     </row>
-    <row r="903" ht="15.9" spans="1:16">
+    <row r="903" ht="15.3" spans="1:16">
       <c r="A903" s="18"/>
       <c r="B903" s="19"/>
       <c r="C903" s="19"/>
@@ -24116,7 +24252,7 @@
       <c r="O903" s="20"/>
       <c r="P903" s="31"/>
     </row>
-    <row r="904" ht="15.9" spans="1:16">
+    <row r="904" ht="15.3" spans="1:16">
       <c r="A904" s="18" t="s">
         <v>249</v>
       </c>
@@ -24146,7 +24282,7 @@
       <c r="O904" s="34"/>
       <c r="P904" s="31"/>
     </row>
-    <row r="905" ht="15.9" spans="1:16">
+    <row r="905" ht="15.3" spans="1:16">
       <c r="A905" s="18"/>
       <c r="B905" s="19"/>
       <c r="C905" s="19"/>
@@ -24172,7 +24308,7 @@
       <c r="O905" s="37"/>
       <c r="P905" s="31"/>
     </row>
-    <row r="906" ht="15.9" spans="1:16">
+    <row r="906" ht="15.3" spans="1:16">
       <c r="A906" s="18"/>
       <c r="B906" s="19"/>
       <c r="C906" s="19"/>
@@ -24198,7 +24334,7 @@
       <c r="O906" s="37"/>
       <c r="P906" s="31"/>
     </row>
-    <row r="907" ht="15.9" spans="1:16">
+    <row r="907" ht="15.3" spans="1:16">
       <c r="A907" s="18"/>
       <c r="B907" s="19"/>
       <c r="C907" s="19"/>
@@ -24224,7 +24360,7 @@
       <c r="O907" s="37"/>
       <c r="P907" s="31"/>
     </row>
-    <row r="908" ht="15.9" spans="1:16">
+    <row r="908" ht="15.3" spans="1:16">
       <c r="A908" s="18" t="s">
         <v>250</v>
       </c>
@@ -24254,7 +24390,7 @@
       <c r="O908" s="37"/>
       <c r="P908" s="31"/>
     </row>
-    <row r="909" ht="15.9" spans="1:16">
+    <row r="909" ht="15.3" spans="1:16">
       <c r="A909" s="18"/>
       <c r="B909" s="19"/>
       <c r="C909" s="19"/>
@@ -24272,7 +24408,7 @@
       <c r="O909" s="37"/>
       <c r="P909" s="31"/>
     </row>
-    <row r="910" ht="15.9" spans="1:16">
+    <row r="910" ht="15.3" spans="1:16">
       <c r="A910" s="18"/>
       <c r="B910" s="19"/>
       <c r="C910" s="19"/>
@@ -24686,7 +24822,7 @@
       <c r="O930" s="10"/>
       <c r="P930" s="31"/>
     </row>
-    <row r="931" ht="15.9" spans="1:16">
+    <row r="931" ht="15.3" spans="1:16">
       <c r="A931" s="18"/>
       <c r="B931" s="19"/>
       <c r="C931" s="19"/>
@@ -24706,7 +24842,7 @@
       <c r="O931" s="20"/>
       <c r="P931" s="31"/>
     </row>
-    <row r="932" ht="15.9" spans="1:16">
+    <row r="932" ht="15.3" spans="1:16">
       <c r="A932" s="18"/>
       <c r="B932" s="19"/>
       <c r="C932" s="19"/>
@@ -24734,7 +24870,7 @@
       <c r="O932" s="34"/>
       <c r="P932" s="31"/>
     </row>
-    <row r="933" ht="15.9" spans="1:16">
+    <row r="933" ht="15.3" spans="1:16">
       <c r="A933" s="18"/>
       <c r="B933" s="19"/>
       <c r="C933" s="19"/>
@@ -24760,7 +24896,7 @@
       <c r="O933" s="37"/>
       <c r="P933" s="31"/>
     </row>
-    <row r="934" ht="15.9" spans="1:16">
+    <row r="934" ht="15.3" spans="1:16">
       <c r="A934" s="18"/>
       <c r="B934" s="19"/>
       <c r="C934" s="19"/>
@@ -24786,7 +24922,7 @@
       <c r="O934" s="37"/>
       <c r="P934" s="31"/>
     </row>
-    <row r="935" ht="15.9" spans="1:16">
+    <row r="935" ht="15.3" spans="1:16">
       <c r="A935" s="18"/>
       <c r="B935" s="19"/>
       <c r="C935" s="19"/>
@@ -24812,7 +24948,7 @@
       <c r="O935" s="37"/>
       <c r="P935" s="31"/>
     </row>
-    <row r="936" ht="15.9" spans="1:16">
+    <row r="936" ht="15.3" spans="1:16">
       <c r="A936" s="18"/>
       <c r="B936" s="19"/>
       <c r="C936" s="19"/>
@@ -24838,7 +24974,7 @@
       <c r="O936" s="37"/>
       <c r="P936" s="31"/>
     </row>
-    <row r="937" ht="15.9" spans="1:16">
+    <row r="937" ht="15.3" spans="1:16">
       <c r="A937" s="18"/>
       <c r="B937" s="19"/>
       <c r="C937" s="19"/>
@@ -24856,7 +24992,7 @@
       <c r="O937" s="37"/>
       <c r="P937" s="31"/>
     </row>
-    <row r="938" ht="15.9" spans="1:16">
+    <row r="938" ht="15.3" spans="1:16">
       <c r="A938" s="18"/>
       <c r="B938" s="19"/>
       <c r="C938" s="19"/>
@@ -25270,7 +25406,7 @@
       <c r="O958" s="10"/>
       <c r="P958" s="31"/>
     </row>
-    <row r="959" ht="15.9" spans="1:16">
+    <row r="959" ht="15.3" spans="1:16">
       <c r="A959" s="18"/>
       <c r="B959" s="19"/>
       <c r="C959" s="19"/>
@@ -25290,7 +25426,7 @@
       <c r="O959" s="20"/>
       <c r="P959" s="31"/>
     </row>
-    <row r="960" ht="15.9" spans="1:16">
+    <row r="960" ht="15.3" spans="1:16">
       <c r="A960" s="18"/>
       <c r="B960" s="19"/>
       <c r="C960" s="19"/>
@@ -25318,7 +25454,7 @@
       <c r="O960" s="34"/>
       <c r="P960" s="31"/>
     </row>
-    <row r="961" ht="15.9" spans="1:16">
+    <row r="961" ht="15.3" spans="1:16">
       <c r="A961" s="18"/>
       <c r="B961" s="19"/>
       <c r="C961" s="19"/>
@@ -25344,7 +25480,7 @@
       <c r="O961" s="37"/>
       <c r="P961" s="31"/>
     </row>
-    <row r="962" ht="15.9" spans="1:16">
+    <row r="962" ht="15.3" spans="1:16">
       <c r="A962" s="18"/>
       <c r="B962" s="19"/>
       <c r="C962" s="19"/>
@@ -25370,7 +25506,7 @@
       <c r="O962" s="37"/>
       <c r="P962" s="31"/>
     </row>
-    <row r="963" ht="15.9" spans="1:16">
+    <row r="963" ht="15.3" spans="1:16">
       <c r="A963" s="18"/>
       <c r="B963" s="19"/>
       <c r="C963" s="19"/>
@@ -25396,7 +25532,7 @@
       <c r="O963" s="37"/>
       <c r="P963" s="31"/>
     </row>
-    <row r="964" ht="15.9" spans="1:16">
+    <row r="964" ht="15.3" spans="1:16">
       <c r="A964" s="18"/>
       <c r="B964" s="19"/>
       <c r="C964" s="19"/>
@@ -25422,7 +25558,7 @@
       <c r="O964" s="37"/>
       <c r="P964" s="31"/>
     </row>
-    <row r="965" ht="15.9" spans="1:16">
+    <row r="965" ht="15.3" spans="1:16">
       <c r="A965" s="18"/>
       <c r="B965" s="19"/>
       <c r="C965" s="19"/>
@@ -25440,7 +25576,7 @@
       <c r="O965" s="37"/>
       <c r="P965" s="31"/>
     </row>
-    <row r="966" ht="15.9" spans="1:16">
+    <row r="966" ht="15.3" spans="1:16">
       <c r="A966" s="18"/>
       <c r="B966" s="19"/>
       <c r="C966" s="19"/>
@@ -25854,7 +25990,7 @@
       <c r="O986" s="10"/>
       <c r="P986" s="31"/>
     </row>
-    <row r="987" ht="15.9" spans="1:16">
+    <row r="987" ht="15.3" spans="1:16">
       <c r="A987" s="18"/>
       <c r="B987" s="19"/>
       <c r="C987" s="19"/>
@@ -25874,7 +26010,7 @@
       <c r="O987" s="20"/>
       <c r="P987" s="31"/>
     </row>
-    <row r="988" ht="15.9" spans="1:16">
+    <row r="988" ht="15.3" spans="1:16">
       <c r="A988" s="18"/>
       <c r="B988" s="19"/>
       <c r="C988" s="19"/>
@@ -25900,7 +26036,7 @@
       <c r="O988" s="34"/>
       <c r="P988" s="31"/>
     </row>
-    <row r="989" ht="15.9" spans="1:16">
+    <row r="989" ht="15.3" spans="1:16">
       <c r="A989" s="18"/>
       <c r="B989" s="19"/>
       <c r="C989" s="19"/>
@@ -25926,7 +26062,7 @@
       <c r="O989" s="37"/>
       <c r="P989" s="31"/>
     </row>
-    <row r="990" ht="15.9" spans="1:16">
+    <row r="990" ht="15.3" spans="1:16">
       <c r="A990" s="18"/>
       <c r="B990" s="19"/>
       <c r="C990" s="19"/>
@@ -25952,7 +26088,7 @@
       <c r="O990" s="37"/>
       <c r="P990" s="31"/>
     </row>
-    <row r="991" ht="15.9" spans="1:16">
+    <row r="991" ht="15.3" spans="1:16">
       <c r="A991" s="18"/>
       <c r="B991" s="19"/>
       <c r="C991" s="19"/>
@@ -25978,7 +26114,7 @@
       <c r="O991" s="37"/>
       <c r="P991" s="31"/>
     </row>
-    <row r="992" ht="15.9" spans="1:16">
+    <row r="992" ht="15.3" spans="1:16">
       <c r="A992" s="18"/>
       <c r="B992" s="19"/>
       <c r="C992" s="19"/>
@@ -26004,7 +26140,7 @@
       <c r="O992" s="37"/>
       <c r="P992" s="31"/>
     </row>
-    <row r="993" ht="15.9" spans="1:16">
+    <row r="993" ht="15.3" spans="1:16">
       <c r="A993" s="18"/>
       <c r="B993" s="19"/>
       <c r="C993" s="19"/>
@@ -26022,7 +26158,7 @@
       <c r="O993" s="37"/>
       <c r="P993" s="31"/>
     </row>
-    <row r="994" ht="15.9" spans="1:16">
+    <row r="994" ht="15.3" spans="1:16">
       <c r="A994" s="18"/>
       <c r="B994" s="19"/>
       <c r="C994" s="19"/>
@@ -26436,7 +26572,7 @@
       <c r="O1014" s="10"/>
       <c r="P1014" s="31"/>
     </row>
-    <row r="1015" ht="15.9" spans="1:16">
+    <row r="1015" ht="15.3" spans="1:16">
       <c r="A1015" s="18"/>
       <c r="B1015" s="19"/>
       <c r="C1015" s="19"/>
@@ -26456,7 +26592,7 @@
       <c r="O1015" s="20"/>
       <c r="P1015" s="31"/>
     </row>
-    <row r="1016" ht="15.9" spans="1:16">
+    <row r="1016" ht="15.3" spans="1:16">
       <c r="A1016" s="18"/>
       <c r="B1016" s="19"/>
       <c r="C1016" s="19"/>
@@ -26482,7 +26618,7 @@
       <c r="O1016" s="34"/>
       <c r="P1016" s="31"/>
     </row>
-    <row r="1017" ht="15.9" spans="1:16">
+    <row r="1017" ht="15.3" spans="1:16">
       <c r="A1017" s="18"/>
       <c r="B1017" s="19"/>
       <c r="C1017" s="19"/>
@@ -26508,7 +26644,7 @@
       <c r="O1017" s="37"/>
       <c r="P1017" s="31"/>
     </row>
-    <row r="1018" ht="15.9" spans="1:16">
+    <row r="1018" ht="15.3" spans="1:16">
       <c r="A1018" s="18"/>
       <c r="B1018" s="19"/>
       <c r="C1018" s="19"/>
@@ -26534,7 +26670,7 @@
       <c r="O1018" s="37"/>
       <c r="P1018" s="31"/>
     </row>
-    <row r="1019" ht="15.9" spans="1:16">
+    <row r="1019" ht="15.3" spans="1:16">
       <c r="A1019" s="18"/>
       <c r="B1019" s="19"/>
       <c r="C1019" s="19"/>
@@ -26560,7 +26696,7 @@
       <c r="O1019" s="37"/>
       <c r="P1019" s="31"/>
     </row>
-    <row r="1020" ht="15.9" spans="1:16">
+    <row r="1020" ht="15.3" spans="1:16">
       <c r="A1020" s="18"/>
       <c r="B1020" s="19"/>
       <c r="C1020" s="19"/>
@@ -26586,7 +26722,7 @@
       <c r="O1020" s="37"/>
       <c r="P1020" s="31"/>
     </row>
-    <row r="1021" ht="15.9" spans="1:16">
+    <row r="1021" ht="15.3" spans="1:16">
       <c r="A1021" s="18"/>
       <c r="B1021" s="19"/>
       <c r="C1021" s="19"/>
@@ -26604,7 +26740,7 @@
       <c r="O1021" s="37"/>
       <c r="P1021" s="31"/>
     </row>
-    <row r="1022" ht="15.9" spans="1:16">
+    <row r="1022" ht="15.3" spans="1:16">
       <c r="A1022" s="18"/>
       <c r="B1022" s="19"/>
       <c r="C1022" s="19"/>
@@ -27018,7 +27154,7 @@
       <c r="O1042" s="10"/>
       <c r="P1042" s="31"/>
     </row>
-    <row r="1043" ht="15.9" spans="1:16">
+    <row r="1043" ht="15.3" spans="1:16">
       <c r="A1043" s="18"/>
       <c r="B1043" s="19"/>
       <c r="C1043" s="19"/>
@@ -27038,7 +27174,7 @@
       <c r="O1043" s="20"/>
       <c r="P1043" s="31"/>
     </row>
-    <row r="1044" ht="15.9" spans="1:16">
+    <row r="1044" ht="15.3" spans="1:16">
       <c r="A1044" s="18"/>
       <c r="B1044" s="19"/>
       <c r="C1044" s="19"/>
@@ -27066,7 +27202,7 @@
       <c r="O1044" s="34"/>
       <c r="P1044" s="31"/>
     </row>
-    <row r="1045" ht="15.9" spans="1:16">
+    <row r="1045" ht="15.3" spans="1:16">
       <c r="A1045" s="18"/>
       <c r="B1045" s="19"/>
       <c r="C1045" s="19"/>
@@ -27092,7 +27228,7 @@
       <c r="O1045" s="37"/>
       <c r="P1045" s="31"/>
     </row>
-    <row r="1046" ht="15.9" spans="1:16">
+    <row r="1046" ht="15.3" spans="1:16">
       <c r="A1046" s="18"/>
       <c r="B1046" s="19"/>
       <c r="C1046" s="19"/>
@@ -27118,7 +27254,7 @@
       <c r="O1046" s="37"/>
       <c r="P1046" s="31"/>
     </row>
-    <row r="1047" ht="15.9" spans="1:16">
+    <row r="1047" ht="15.3" spans="1:16">
       <c r="A1047" s="18"/>
       <c r="B1047" s="19"/>
       <c r="C1047" s="19"/>
@@ -27144,7 +27280,7 @@
       <c r="O1047" s="37"/>
       <c r="P1047" s="31"/>
     </row>
-    <row r="1048" ht="15.9" spans="1:16">
+    <row r="1048" ht="15.3" spans="1:16">
       <c r="A1048" s="18"/>
       <c r="B1048" s="19"/>
       <c r="C1048" s="19"/>
@@ -27170,7 +27306,7 @@
       <c r="O1048" s="37"/>
       <c r="P1048" s="31"/>
     </row>
-    <row r="1049" ht="15.9" spans="1:16">
+    <row r="1049" ht="15.3" spans="1:16">
       <c r="A1049" s="18"/>
       <c r="B1049" s="19"/>
       <c r="C1049" s="19"/>
@@ -27188,7 +27324,7 @@
       <c r="O1049" s="37"/>
       <c r="P1049" s="31"/>
     </row>
-    <row r="1050" ht="15.9" spans="1:16">
+    <row r="1050" ht="15.3" spans="1:16">
       <c r="A1050" s="18"/>
       <c r="B1050" s="19"/>
       <c r="C1050" s="19"/>
@@ -27602,7 +27738,7 @@
       <c r="O1070" s="10"/>
       <c r="P1070" s="31"/>
     </row>
-    <row r="1071" ht="15.9" spans="1:16">
+    <row r="1071" ht="15.3" spans="1:16">
       <c r="A1071" s="18"/>
       <c r="B1071" s="19"/>
       <c r="C1071" s="19"/>
@@ -27622,7 +27758,7 @@
       <c r="O1071" s="20"/>
       <c r="P1071" s="31"/>
     </row>
-    <row r="1072" ht="15.9" spans="1:16">
+    <row r="1072" ht="15.3" spans="1:16">
       <c r="A1072" s="18"/>
       <c r="B1072" s="19"/>
       <c r="C1072" s="19"/>
@@ -27650,7 +27786,7 @@
       <c r="O1072" s="34"/>
       <c r="P1072" s="31"/>
     </row>
-    <row r="1073" ht="15.9" spans="1:16">
+    <row r="1073" ht="15.3" spans="1:16">
       <c r="A1073" s="18"/>
       <c r="B1073" s="19"/>
       <c r="C1073" s="19"/>
@@ -27676,7 +27812,7 @@
       <c r="O1073" s="37"/>
       <c r="P1073" s="31"/>
     </row>
-    <row r="1074" ht="15.9" spans="1:16">
+    <row r="1074" ht="15.3" spans="1:16">
       <c r="A1074" s="18"/>
       <c r="B1074" s="19"/>
       <c r="C1074" s="19"/>
@@ -27702,7 +27838,7 @@
       <c r="O1074" s="37"/>
       <c r="P1074" s="31"/>
     </row>
-    <row r="1075" ht="15.9" spans="1:16">
+    <row r="1075" ht="15.3" spans="1:16">
       <c r="A1075" s="18"/>
       <c r="B1075" s="19"/>
       <c r="C1075" s="19"/>
@@ -27728,7 +27864,7 @@
       <c r="O1075" s="37"/>
       <c r="P1075" s="31"/>
     </row>
-    <row r="1076" ht="15.9" spans="1:16">
+    <row r="1076" ht="15.3" spans="1:16">
       <c r="A1076" s="18"/>
       <c r="B1076" s="19"/>
       <c r="C1076" s="19"/>
@@ -27754,7 +27890,7 @@
       <c r="O1076" s="37"/>
       <c r="P1076" s="31"/>
     </row>
-    <row r="1077" ht="15.9" spans="1:16">
+    <row r="1077" ht="15.3" spans="1:16">
       <c r="A1077" s="18"/>
       <c r="B1077" s="19"/>
       <c r="C1077" s="19"/>
@@ -27772,7 +27908,7 @@
       <c r="O1077" s="37"/>
       <c r="P1077" s="31"/>
     </row>
-    <row r="1078" ht="15.9" spans="1:16">
+    <row r="1078" ht="15.3" spans="1:16">
       <c r="A1078" s="18"/>
       <c r="B1078" s="19"/>
       <c r="C1078" s="19"/>
@@ -28186,7 +28322,7 @@
       <c r="O1098" s="10"/>
       <c r="P1098" s="31"/>
     </row>
-    <row r="1099" ht="15.9" spans="1:16">
+    <row r="1099" ht="15.3" spans="1:16">
       <c r="A1099" s="18"/>
       <c r="B1099" s="19"/>
       <c r="C1099" s="19"/>
@@ -28206,7 +28342,7 @@
       <c r="O1099" s="20"/>
       <c r="P1099" s="31"/>
     </row>
-    <row r="1100" ht="15.9" spans="1:16">
+    <row r="1100" ht="15.3" spans="1:16">
       <c r="A1100" s="18"/>
       <c r="B1100" s="19"/>
       <c r="C1100" s="19"/>
@@ -28234,7 +28370,7 @@
       <c r="O1100" s="34"/>
       <c r="P1100" s="31"/>
     </row>
-    <row r="1101" ht="15.9" spans="1:16">
+    <row r="1101" ht="15.3" spans="1:16">
       <c r="A1101" s="18"/>
       <c r="B1101" s="19"/>
       <c r="C1101" s="19"/>
@@ -28260,7 +28396,7 @@
       <c r="O1101" s="37"/>
       <c r="P1101" s="31"/>
     </row>
-    <row r="1102" ht="15.9" spans="1:16">
+    <row r="1102" ht="15.3" spans="1:16">
       <c r="A1102" s="18"/>
       <c r="B1102" s="19"/>
       <c r="C1102" s="19"/>
@@ -28286,7 +28422,7 @@
       <c r="O1102" s="37"/>
       <c r="P1102" s="31"/>
     </row>
-    <row r="1103" ht="15.9" spans="1:16">
+    <row r="1103" ht="15.3" spans="1:16">
       <c r="A1103" s="18"/>
       <c r="B1103" s="19"/>
       <c r="C1103" s="19"/>
@@ -28312,7 +28448,7 @@
       <c r="O1103" s="37"/>
       <c r="P1103" s="31"/>
     </row>
-    <row r="1104" ht="15.9" spans="1:16">
+    <row r="1104" ht="15.3" spans="1:16">
       <c r="A1104" s="18"/>
       <c r="B1104" s="19"/>
       <c r="C1104" s="19"/>
@@ -28338,7 +28474,7 @@
       <c r="O1104" s="37"/>
       <c r="P1104" s="31"/>
     </row>
-    <row r="1105" ht="15.9" spans="1:16">
+    <row r="1105" ht="15.3" spans="1:16">
       <c r="A1105" s="18"/>
       <c r="B1105" s="19"/>
       <c r="C1105" s="19"/>
@@ -28364,7 +28500,7 @@
       <c r="O1105" s="37"/>
       <c r="P1105" s="31"/>
     </row>
-    <row r="1106" ht="15.9" spans="1:16">
+    <row r="1106" ht="15.3" spans="1:16">
       <c r="A1106" s="18"/>
       <c r="B1106" s="19"/>
       <c r="C1106" s="19"/>
@@ -28778,7 +28914,7 @@
       <c r="O1126" s="10"/>
       <c r="P1126" s="31"/>
     </row>
-    <row r="1127" ht="15.9" spans="1:16">
+    <row r="1127" ht="15.3" spans="1:16">
       <c r="A1127" s="18"/>
       <c r="B1127" s="19"/>
       <c r="C1127" s="19"/>
@@ -28798,7 +28934,7 @@
       <c r="O1127" s="20"/>
       <c r="P1127" s="31"/>
     </row>
-    <row r="1128" ht="15.9" spans="1:16">
+    <row r="1128" ht="15.3" spans="1:16">
       <c r="A1128" s="18"/>
       <c r="B1128" s="19"/>
       <c r="C1128" s="19"/>
@@ -28826,7 +28962,7 @@
       <c r="O1128" s="34"/>
       <c r="P1128" s="31"/>
     </row>
-    <row r="1129" ht="15.9" spans="1:16">
+    <row r="1129" ht="15.3" spans="1:16">
       <c r="A1129" s="18"/>
       <c r="B1129" s="19"/>
       <c r="C1129" s="19"/>
@@ -28852,7 +28988,7 @@
       <c r="O1129" s="37"/>
       <c r="P1129" s="31"/>
     </row>
-    <row r="1130" ht="15.9" spans="1:16">
+    <row r="1130" ht="15.3" spans="1:16">
       <c r="A1130" s="18"/>
       <c r="B1130" s="19"/>
       <c r="C1130" s="19"/>
@@ -28878,7 +29014,7 @@
       <c r="O1130" s="37"/>
       <c r="P1130" s="31"/>
     </row>
-    <row r="1131" ht="15.9" spans="1:16">
+    <row r="1131" ht="15.3" spans="1:16">
       <c r="A1131" s="18"/>
       <c r="B1131" s="19"/>
       <c r="C1131" s="19"/>
@@ -28904,7 +29040,7 @@
       <c r="O1131" s="37"/>
       <c r="P1131" s="31"/>
     </row>
-    <row r="1132" ht="15.9" spans="1:16">
+    <row r="1132" ht="15.3" spans="1:16">
       <c r="A1132" s="18"/>
       <c r="B1132" s="19"/>
       <c r="C1132" s="19"/>
@@ -28924,7 +29060,7 @@
       <c r="O1132" s="37"/>
       <c r="P1132" s="31"/>
     </row>
-    <row r="1133" ht="15.9" spans="1:16">
+    <row r="1133" ht="15.3" spans="1:16">
       <c r="A1133" s="18"/>
       <c r="B1133" s="19"/>
       <c r="C1133" s="19"/>
@@ -28942,7 +29078,7 @@
       <c r="O1133" s="37"/>
       <c r="P1133" s="31"/>
     </row>
-    <row r="1134" ht="15.9" spans="1:16">
+    <row r="1134" ht="15.3" spans="1:16">
       <c r="A1134" s="18"/>
       <c r="B1134" s="19"/>
       <c r="C1134" s="19"/>
@@ -29316,7 +29452,7 @@
       <c r="O1152" s="10"/>
       <c r="P1152" s="31"/>
     </row>
-    <row r="1153" ht="15.9" spans="1:16">
+    <row r="1153" ht="15.3" spans="1:16">
       <c r="A1153" s="18"/>
       <c r="B1153" s="19"/>
       <c r="C1153" s="19"/>
@@ -29336,7 +29472,7 @@
       <c r="O1153" s="20"/>
       <c r="P1153" s="31"/>
     </row>
-    <row r="1154" ht="15.9" spans="1:16">
+    <row r="1154" ht="15.3" spans="1:16">
       <c r="A1154" s="18"/>
       <c r="B1154" s="19"/>
       <c r="C1154" s="19"/>
@@ -29362,7 +29498,7 @@
       <c r="O1154" s="34"/>
       <c r="P1154" s="31"/>
     </row>
-    <row r="1155" ht="15.9" spans="1:16">
+    <row r="1155" ht="15.3" spans="1:16">
       <c r="A1155" s="18"/>
       <c r="B1155" s="19"/>
       <c r="C1155" s="19"/>
@@ -29388,7 +29524,7 @@
       <c r="O1155" s="37"/>
       <c r="P1155" s="31"/>
     </row>
-    <row r="1156" ht="15.9" spans="1:16">
+    <row r="1156" ht="15.3" spans="1:16">
       <c r="A1156" s="18"/>
       <c r="B1156" s="19"/>
       <c r="C1156" s="19"/>
@@ -29414,7 +29550,7 @@
       <c r="O1156" s="37"/>
       <c r="P1156" s="31"/>
     </row>
-    <row r="1157" ht="15.9" spans="1:16">
+    <row r="1157" ht="15.3" spans="1:16">
       <c r="A1157" s="18"/>
       <c r="B1157" s="19"/>
       <c r="C1157" s="19"/>
@@ -29440,7 +29576,7 @@
       <c r="O1157" s="37"/>
       <c r="P1157" s="31"/>
     </row>
-    <row r="1158" ht="15.9" spans="1:16">
+    <row r="1158" ht="15.3" spans="1:16">
       <c r="A1158" s="18"/>
       <c r="B1158" s="19"/>
       <c r="C1158" s="19"/>
@@ -29458,7 +29594,7 @@
       <c r="O1158" s="37"/>
       <c r="P1158" s="31"/>
     </row>
-    <row r="1159" ht="15.9" spans="1:16">
+    <row r="1159" ht="15.3" spans="1:16">
       <c r="A1159" s="18"/>
       <c r="B1159" s="19"/>
       <c r="C1159" s="19"/>
@@ -29476,7 +29612,7 @@
       <c r="O1159" s="37"/>
       <c r="P1159" s="31"/>
     </row>
-    <row r="1160" ht="15.9" spans="1:16">
+    <row r="1160" ht="15.3" spans="1:16">
       <c r="A1160" s="18"/>
       <c r="B1160" s="19"/>
       <c r="C1160" s="19"/>
@@ -29852,7 +29988,7 @@
       <c r="O1178" s="10"/>
       <c r="P1178" s="31"/>
     </row>
-    <row r="1179" ht="15.9" spans="1:16">
+    <row r="1179" ht="15.3" spans="1:16">
       <c r="A1179" s="19"/>
       <c r="B1179" s="19"/>
       <c r="C1179" s="19"/>
@@ -29872,7 +30008,7 @@
       <c r="O1179" s="20"/>
       <c r="P1179" s="31"/>
     </row>
-    <row r="1180" ht="15.9" spans="1:16">
+    <row r="1180" ht="15.3" spans="1:16">
       <c r="A1180" s="19" t="s">
         <v>281</v>
       </c>
@@ -29900,7 +30036,7 @@
       <c r="O1180" s="34"/>
       <c r="P1180" s="31"/>
     </row>
-    <row r="1181" ht="14.7" spans="1:16">
+    <row r="1181" ht="15.3" spans="1:16">
       <c r="A1181" s="19"/>
       <c r="B1181" s="19"/>
       <c r="C1181" s="19"/>
@@ -29926,7 +30062,7 @@
       <c r="O1181" s="37"/>
       <c r="P1181" s="31"/>
     </row>
-    <row r="1182" ht="15.9" spans="1:16">
+    <row r="1182" ht="15.3" spans="1:16">
       <c r="A1182" s="19"/>
       <c r="B1182" s="19"/>
       <c r="C1182" s="19"/>
@@ -29952,7 +30088,7 @@
       <c r="O1182" s="37"/>
       <c r="P1182" s="31"/>
     </row>
-    <row r="1183" ht="15.9" spans="1:16">
+    <row r="1183" ht="15.3" spans="1:16">
       <c r="A1183" s="19"/>
       <c r="B1183" s="19"/>
       <c r="C1183" s="19"/>
@@ -29978,7 +30114,7 @@
       <c r="O1183" s="37"/>
       <c r="P1183" s="31"/>
     </row>
-    <row r="1184" ht="15.9" spans="1:16">
+    <row r="1184" ht="15.3" spans="1:16">
       <c r="A1184" s="19" t="s">
         <v>282</v>
       </c>
@@ -29998,7 +30134,7 @@
       <c r="O1184" s="37"/>
       <c r="P1184" s="31"/>
     </row>
-    <row r="1185" ht="15.9" spans="1:16">
+    <row r="1185" ht="15.3" spans="1:16">
       <c r="A1185" s="19"/>
       <c r="B1185" s="19"/>
       <c r="C1185" s="19"/>
@@ -30016,7 +30152,7 @@
       <c r="O1185" s="37"/>
       <c r="P1185" s="31"/>
     </row>
-    <row r="1186" ht="15.9" spans="1:16">
+    <row r="1186" ht="15.3" spans="1:16">
       <c r="A1186" s="19"/>
       <c r="B1186" s="19"/>
       <c r="C1186" s="19"/>
@@ -30392,7 +30528,7 @@
       <c r="O1204" s="10"/>
       <c r="P1204" s="31"/>
     </row>
-    <row r="1205" ht="15.9" spans="1:16">
+    <row r="1205" ht="15.3" spans="1:16">
       <c r="A1205" s="18"/>
       <c r="B1205" s="19"/>
       <c r="C1205" s="19"/>
@@ -30412,7 +30548,7 @@
       <c r="O1205" s="20"/>
       <c r="P1205" s="31"/>
     </row>
-    <row r="1206" ht="15.9" spans="1:16">
+    <row r="1206" spans="1:16">
       <c r="A1206" s="18" t="s">
         <v>285</v>
       </c>
@@ -30440,7 +30576,7 @@
       <c r="O1206" s="34"/>
       <c r="P1206" s="31"/>
     </row>
-    <row r="1207" ht="14.7" spans="1:16">
+    <row r="1207" spans="1:16">
       <c r="A1207" s="18"/>
       <c r="B1207" s="19"/>
       <c r="C1207" s="19"/>
@@ -30466,7 +30602,7 @@
       <c r="O1207" s="37"/>
       <c r="P1207" s="31"/>
     </row>
-    <row r="1208" ht="14.7" spans="1:16">
+    <row r="1208" spans="1:16">
       <c r="A1208" s="18"/>
       <c r="B1208" s="19"/>
       <c r="C1208" s="19"/>
@@ -30484,7 +30620,7 @@
       <c r="O1208" s="37"/>
       <c r="P1208" s="31"/>
     </row>
-    <row r="1209" ht="14.7" spans="1:16">
+    <row r="1209" spans="1:16">
       <c r="A1209" s="18"/>
       <c r="B1209" s="19"/>
       <c r="C1209" s="19"/>
@@ -30502,7 +30638,7 @@
       <c r="O1209" s="37"/>
       <c r="P1209" s="31"/>
     </row>
-    <row r="1210" ht="15.9" spans="1:16">
+    <row r="1210" ht="15.3" spans="1:16">
       <c r="A1210" s="18" t="s">
         <v>287</v>
       </c>
@@ -30522,7 +30658,7 @@
       <c r="O1210" s="37"/>
       <c r="P1210" s="31"/>
     </row>
-    <row r="1211" ht="15.9" spans="1:16">
+    <row r="1211" ht="15.3" spans="1:16">
       <c r="A1211" s="18"/>
       <c r="B1211" s="19"/>
       <c r="C1211" s="19"/>
@@ -30540,7 +30676,7 @@
       <c r="O1211" s="37"/>
       <c r="P1211" s="31"/>
     </row>
-    <row r="1212" ht="15.9" spans="1:16">
+    <row r="1212" ht="15.3" spans="1:16">
       <c r="A1212" s="18"/>
       <c r="B1212" s="19"/>
       <c r="C1212" s="19"/>
@@ -30612,8 +30748,556 @@
       <c r="O1215" s="29"/>
       <c r="P1215" s="39"/>
     </row>
+    <row r="1216" ht="17.4" spans="1:16">
+      <c r="A1216" s="1"/>
+      <c r="B1216" s="2"/>
+      <c r="C1216" s="2"/>
+      <c r="D1216" s="2"/>
+      <c r="E1216" s="3"/>
+      <c r="F1216" s="4"/>
+      <c r="G1216" s="4"/>
+      <c r="H1216" s="4"/>
+      <c r="I1216" s="4"/>
+      <c r="J1216" s="4"/>
+      <c r="K1216" s="4"/>
+      <c r="L1216" s="4"/>
+      <c r="M1216" s="4"/>
+      <c r="N1216" s="4"/>
+      <c r="O1216" s="4"/>
+      <c r="P1216" s="30"/>
+    </row>
+    <row r="1217" spans="1:16">
+      <c r="A1217" s="5"/>
+      <c r="B1217" s="6"/>
+      <c r="C1217" s="6"/>
+      <c r="D1217" s="6"/>
+      <c r="E1217" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1217" s="65"/>
+      <c r="G1217" s="65"/>
+      <c r="H1217" s="65"/>
+      <c r="I1217" s="65"/>
+      <c r="J1217" s="65"/>
+      <c r="K1217" s="65"/>
+      <c r="L1217" s="65"/>
+      <c r="M1217" s="65"/>
+      <c r="N1217" s="65"/>
+      <c r="O1217" s="65"/>
+      <c r="P1217" s="31"/>
+    </row>
+    <row r="1218" spans="1:16">
+      <c r="A1218" s="5"/>
+      <c r="B1218" s="6"/>
+      <c r="C1218" s="6"/>
+      <c r="D1218" s="6"/>
+      <c r="E1218" s="65"/>
+      <c r="F1218" s="65"/>
+      <c r="G1218" s="65"/>
+      <c r="H1218" s="65"/>
+      <c r="I1218" s="65"/>
+      <c r="J1218" s="65"/>
+      <c r="K1218" s="65"/>
+      <c r="L1218" s="65"/>
+      <c r="M1218" s="65"/>
+      <c r="N1218" s="65"/>
+      <c r="O1218" s="65"/>
+      <c r="P1218" s="31"/>
+    </row>
+    <row r="1219" spans="1:16">
+      <c r="A1219" s="5"/>
+      <c r="B1219" s="6"/>
+      <c r="C1219" s="6"/>
+      <c r="D1219" s="6"/>
+      <c r="E1219" s="65"/>
+      <c r="F1219" s="65"/>
+      <c r="G1219" s="65"/>
+      <c r="H1219" s="65"/>
+      <c r="I1219" s="65"/>
+      <c r="J1219" s="65"/>
+      <c r="K1219" s="65"/>
+      <c r="L1219" s="65"/>
+      <c r="M1219" s="65"/>
+      <c r="N1219" s="65"/>
+      <c r="O1219" s="65"/>
+      <c r="P1219" s="31"/>
+    </row>
+    <row r="1220" spans="1:16">
+      <c r="A1220" s="5"/>
+      <c r="B1220" s="6"/>
+      <c r="C1220" s="6"/>
+      <c r="D1220" s="6"/>
+      <c r="E1220" s="65"/>
+      <c r="F1220" s="65"/>
+      <c r="G1220" s="65"/>
+      <c r="H1220" s="65"/>
+      <c r="I1220" s="65"/>
+      <c r="J1220" s="65"/>
+      <c r="K1220" s="65"/>
+      <c r="L1220" s="65"/>
+      <c r="M1220" s="65"/>
+      <c r="N1220" s="65"/>
+      <c r="O1220" s="65"/>
+      <c r="P1220" s="31"/>
+    </row>
+    <row r="1221" ht="17.4" spans="1:16">
+      <c r="A1221" s="5"/>
+      <c r="B1221" s="6"/>
+      <c r="C1221" s="6"/>
+      <c r="D1221" s="6"/>
+      <c r="E1221" s="8"/>
+      <c r="F1221" s="8"/>
+      <c r="G1221" s="8"/>
+      <c r="H1221" s="8"/>
+      <c r="I1221" s="8"/>
+      <c r="J1221" s="8"/>
+      <c r="K1221" s="8"/>
+      <c r="L1221" s="8"/>
+      <c r="M1221" s="8"/>
+      <c r="N1221" s="8"/>
+      <c r="O1221" s="8"/>
+      <c r="P1221" s="31"/>
+    </row>
+    <row r="1222" ht="17.4" spans="1:16">
+      <c r="A1222" s="5"/>
+      <c r="B1222" s="6"/>
+      <c r="C1222" s="6"/>
+      <c r="D1222" s="6"/>
+      <c r="E1222" s="69" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1222" s="9"/>
+      <c r="G1222" s="9"/>
+      <c r="H1222" s="9"/>
+      <c r="I1222" s="9"/>
+      <c r="J1222" s="9"/>
+      <c r="K1222" s="9"/>
+      <c r="L1222" s="9"/>
+      <c r="M1222" s="9"/>
+      <c r="N1222" s="9"/>
+      <c r="O1222" s="9"/>
+      <c r="P1222" s="31"/>
+    </row>
+    <row r="1223" ht="15" spans="1:16">
+      <c r="A1223" s="5"/>
+      <c r="B1223" s="6"/>
+      <c r="C1223" s="6"/>
+      <c r="D1223" s="6"/>
+      <c r="E1223" s="10"/>
+      <c r="F1223" s="11"/>
+      <c r="G1223" s="11"/>
+      <c r="H1223" s="11"/>
+      <c r="I1223" s="11"/>
+      <c r="J1223" s="11"/>
+      <c r="K1223" s="11"/>
+      <c r="L1223" s="11"/>
+      <c r="M1223" s="11"/>
+      <c r="N1223" s="11"/>
+      <c r="O1223" s="11"/>
+      <c r="P1223" s="31"/>
+    </row>
+    <row r="1224" ht="15.75" spans="1:16">
+      <c r="A1224" s="5"/>
+      <c r="B1224" s="6"/>
+      <c r="C1224" s="6"/>
+      <c r="D1224" s="6"/>
+      <c r="E1224" s="10"/>
+      <c r="F1224" s="10"/>
+      <c r="G1224" s="10"/>
+      <c r="H1224" s="10"/>
+      <c r="I1224" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1224" s="10"/>
+      <c r="K1224" s="10"/>
+      <c r="L1224" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1224" s="32"/>
+      <c r="N1224" s="32"/>
+      <c r="O1224" s="32"/>
+      <c r="P1224" s="31"/>
+    </row>
+    <row r="1225" ht="15.75" spans="1:16">
+      <c r="A1225" s="12"/>
+      <c r="B1225" s="13"/>
+      <c r="C1225" s="13"/>
+      <c r="D1225" s="13"/>
+      <c r="E1225" s="10"/>
+      <c r="F1225" s="10"/>
+      <c r="G1225" s="10"/>
+      <c r="H1225" s="10"/>
+      <c r="I1225" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1225" s="10"/>
+      <c r="K1225" s="10"/>
+      <c r="L1225" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1225" s="32"/>
+      <c r="N1225" s="32"/>
+      <c r="O1225" s="32"/>
+      <c r="P1225" s="31"/>
+    </row>
+    <row r="1226" ht="15.75" spans="1:16">
+      <c r="A1226" s="12"/>
+      <c r="B1226" s="13"/>
+      <c r="C1226" s="13"/>
+      <c r="D1226" s="13"/>
+      <c r="E1226" s="10"/>
+      <c r="F1226" s="10"/>
+      <c r="G1226" s="10"/>
+      <c r="H1226" s="10"/>
+      <c r="I1226" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1226" s="10"/>
+      <c r="K1226" s="10"/>
+      <c r="L1226" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1226" s="40"/>
+      <c r="N1226" s="40"/>
+      <c r="O1226" s="40"/>
+      <c r="P1226" s="31"/>
+    </row>
+    <row r="1227" ht="15.75" spans="1:16">
+      <c r="A1227" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1227" s="15"/>
+      <c r="C1227" s="16"/>
+      <c r="D1227" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1227" s="15"/>
+      <c r="F1227" s="16"/>
+      <c r="G1227" s="10"/>
+      <c r="H1227" s="10"/>
+      <c r="I1227" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1227" s="10"/>
+      <c r="K1227" s="10"/>
+      <c r="L1227" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1227" s="71"/>
+      <c r="N1227" s="71"/>
+      <c r="O1227" s="71"/>
+      <c r="P1227" s="31"/>
+    </row>
+    <row r="1228" ht="16.5" spans="1:16">
+      <c r="A1228" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1228" s="19"/>
+      <c r="C1228" s="19"/>
+      <c r="D1228" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1228" s="19"/>
+      <c r="F1228" s="19"/>
+      <c r="G1228" s="10"/>
+      <c r="H1228" s="10"/>
+      <c r="I1228" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1228" s="10"/>
+      <c r="K1228" s="10"/>
+      <c r="L1228" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1228" s="72"/>
+      <c r="N1228" s="72"/>
+      <c r="O1228" s="72"/>
+      <c r="P1228" s="31"/>
+    </row>
+    <row r="1229" ht="16.5" spans="1:16">
+      <c r="A1229" s="18"/>
+      <c r="B1229" s="19"/>
+      <c r="C1229" s="19"/>
+      <c r="D1229" s="19"/>
+      <c r="E1229" s="19"/>
+      <c r="F1229" s="19"/>
+      <c r="G1229" s="10"/>
+      <c r="H1229" s="10"/>
+      <c r="I1229" s="10"/>
+      <c r="J1229" s="10"/>
+      <c r="K1229" s="10"/>
+      <c r="L1229" s="73"/>
+      <c r="M1229" s="74"/>
+      <c r="N1229" s="74"/>
+      <c r="O1229" s="74"/>
+      <c r="P1229" s="31"/>
+    </row>
+    <row r="1230" ht="16.5" spans="1:16">
+      <c r="A1230" s="18"/>
+      <c r="B1230" s="19"/>
+      <c r="C1230" s="19"/>
+      <c r="D1230" s="19"/>
+      <c r="E1230" s="19"/>
+      <c r="F1230" s="19"/>
+      <c r="G1230" s="10"/>
+      <c r="H1230" s="10"/>
+      <c r="I1230" s="10"/>
+      <c r="J1230" s="10"/>
+      <c r="K1230" s="10"/>
+      <c r="L1230" s="10"/>
+      <c r="M1230" s="10"/>
+      <c r="N1230" s="10"/>
+      <c r="O1230" s="10"/>
+      <c r="P1230" s="31"/>
+    </row>
+    <row r="1231" ht="15.3" spans="1:16">
+      <c r="A1231" s="18"/>
+      <c r="B1231" s="19"/>
+      <c r="C1231" s="19"/>
+      <c r="D1231" s="19"/>
+      <c r="E1231" s="19"/>
+      <c r="F1231" s="19"/>
+      <c r="G1231" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1231" s="20"/>
+      <c r="I1231" s="20"/>
+      <c r="J1231" s="20"/>
+      <c r="K1231" s="20"/>
+      <c r="L1231" s="20"/>
+      <c r="M1231" s="20"/>
+      <c r="N1231" s="20"/>
+      <c r="O1231" s="20"/>
+      <c r="P1231" s="31"/>
+    </row>
+    <row r="1232" ht="15.3" spans="1:16">
+      <c r="A1232" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1232" s="19"/>
+      <c r="C1232" s="19"/>
+      <c r="D1232" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1232" s="19"/>
+      <c r="F1232" s="19"/>
+      <c r="G1232" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1232" s="22"/>
+      <c r="I1232" s="33"/>
+      <c r="J1232" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1232" s="34"/>
+      <c r="L1232" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1232" s="34"/>
+      <c r="N1232" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1232" s="34"/>
+      <c r="P1232" s="31"/>
+    </row>
+    <row r="1233" ht="15.3" spans="1:16">
+      <c r="A1233" s="18"/>
+      <c r="B1233" s="19"/>
+      <c r="C1233" s="19"/>
+      <c r="D1233" s="19"/>
+      <c r="E1233" s="19"/>
+      <c r="F1233" s="19"/>
+      <c r="G1233" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1233" s="67"/>
+      <c r="I1233" s="68"/>
+      <c r="J1233" s="36">
+        <v>45614</v>
+      </c>
+      <c r="K1233" s="37"/>
+      <c r="L1233" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="M1233" s="37"/>
+      <c r="N1233" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1233" s="37"/>
+      <c r="P1233" s="31"/>
+    </row>
+    <row r="1234" ht="14.7" spans="1:16">
+      <c r="A1234" s="18"/>
+      <c r="B1234" s="19"/>
+      <c r="C1234" s="19"/>
+      <c r="D1234" s="19"/>
+      <c r="E1234" s="19"/>
+      <c r="F1234" s="19"/>
+      <c r="G1234" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1234" s="24"/>
+      <c r="I1234" s="35"/>
+      <c r="J1234" s="36">
+        <v>45616</v>
+      </c>
+      <c r="K1234" s="37"/>
+      <c r="L1234" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1234" s="37"/>
+      <c r="N1234" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1234" s="37"/>
+      <c r="P1234" s="31"/>
+    </row>
+    <row r="1235" ht="14.7" spans="1:16">
+      <c r="A1235" s="18"/>
+      <c r="B1235" s="19"/>
+      <c r="C1235" s="19"/>
+      <c r="D1235" s="19"/>
+      <c r="E1235" s="19"/>
+      <c r="F1235" s="19"/>
+      <c r="G1235" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1235" s="24"/>
+      <c r="I1235" s="35"/>
+      <c r="J1235" s="36">
+        <v>45616</v>
+      </c>
+      <c r="K1235" s="37"/>
+      <c r="L1235" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1235" s="37"/>
+      <c r="N1235" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1235" s="37"/>
+      <c r="P1235" s="31"/>
+    </row>
+    <row r="1236" ht="14.7" spans="1:16">
+      <c r="A1236" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1236" s="19"/>
+      <c r="C1236" s="19"/>
+      <c r="D1236" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1236" s="19"/>
+      <c r="F1236" s="19"/>
+      <c r="G1236" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1236" s="24"/>
+      <c r="I1236" s="35"/>
+      <c r="J1236" s="36">
+        <v>45616</v>
+      </c>
+      <c r="K1236" s="37"/>
+      <c r="L1236" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="M1236" s="37"/>
+      <c r="N1236" s="37"/>
+      <c r="O1236" s="37"/>
+      <c r="P1236" s="31"/>
+    </row>
+    <row r="1237" ht="15.3" spans="1:16">
+      <c r="A1237" s="18"/>
+      <c r="B1237" s="19"/>
+      <c r="C1237" s="19"/>
+      <c r="D1237" s="19"/>
+      <c r="E1237" s="19"/>
+      <c r="F1237" s="19"/>
+      <c r="G1237" s="23"/>
+      <c r="H1237" s="24"/>
+      <c r="I1237" s="35"/>
+      <c r="J1237" s="36"/>
+      <c r="K1237" s="37"/>
+      <c r="L1237" s="37"/>
+      <c r="M1237" s="37"/>
+      <c r="N1237" s="37"/>
+      <c r="O1237" s="37"/>
+      <c r="P1237" s="31"/>
+    </row>
+    <row r="1238" ht="15.3" spans="1:16">
+      <c r="A1238" s="18"/>
+      <c r="B1238" s="19"/>
+      <c r="C1238" s="19"/>
+      <c r="D1238" s="19"/>
+      <c r="E1238" s="19"/>
+      <c r="F1238" s="19"/>
+      <c r="G1238" s="23"/>
+      <c r="H1238" s="24"/>
+      <c r="I1238" s="35"/>
+      <c r="J1238" s="36"/>
+      <c r="K1238" s="37"/>
+      <c r="L1238" s="37"/>
+      <c r="M1238" s="37"/>
+      <c r="N1238" s="37"/>
+      <c r="O1238" s="37"/>
+      <c r="P1238" s="31"/>
+    </row>
+    <row r="1239" ht="16.5" spans="1:16">
+      <c r="A1239" s="18"/>
+      <c r="B1239" s="19"/>
+      <c r="C1239" s="19"/>
+      <c r="D1239" s="19"/>
+      <c r="E1239" s="19"/>
+      <c r="F1239" s="19"/>
+      <c r="G1239" s="25"/>
+      <c r="H1239" s="26"/>
+      <c r="I1239" s="38"/>
+      <c r="J1239" s="36"/>
+      <c r="K1239" s="37"/>
+      <c r="L1239" s="37"/>
+      <c r="M1239" s="37"/>
+      <c r="N1239" s="37"/>
+      <c r="O1239" s="37"/>
+      <c r="P1239" s="31"/>
+    </row>
+    <row r="1240" ht="15.75" spans="1:16">
+      <c r="A1240" s="12"/>
+      <c r="B1240" s="13"/>
+      <c r="C1240" s="13"/>
+      <c r="D1240" s="13"/>
+      <c r="E1240" s="10"/>
+      <c r="F1240" s="10"/>
+      <c r="G1240" s="10"/>
+      <c r="H1240" s="10"/>
+      <c r="I1240" s="10"/>
+      <c r="J1240" s="10"/>
+      <c r="K1240" s="10"/>
+      <c r="L1240" s="10"/>
+      <c r="M1240" s="10"/>
+      <c r="N1240" s="10"/>
+      <c r="O1240" s="10"/>
+      <c r="P1240" s="31"/>
+    </row>
+    <row r="1241" ht="15" spans="1:16">
+      <c r="A1241" s="27"/>
+      <c r="B1241" s="28"/>
+      <c r="C1241" s="28"/>
+      <c r="D1241" s="28"/>
+      <c r="E1241" s="29"/>
+      <c r="F1241" s="29"/>
+      <c r="G1241" s="29"/>
+      <c r="H1241" s="29"/>
+      <c r="I1241" s="29"/>
+      <c r="J1241" s="29"/>
+      <c r="K1241" s="29"/>
+      <c r="L1241" s="29"/>
+      <c r="M1241" s="29"/>
+      <c r="N1241" s="29"/>
+      <c r="O1241" s="29"/>
+      <c r="P1241" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="2342">
+  <mergeCells count="2393">
     <mergeCell ref="E6:O6"/>
     <mergeCell ref="E7:O7"/>
     <mergeCell ref="L9:O9"/>
@@ -32581,6 +33265,49 @@
     <mergeCell ref="J1213:K1213"/>
     <mergeCell ref="L1213:M1213"/>
     <mergeCell ref="N1213:O1213"/>
+    <mergeCell ref="E1221:O1221"/>
+    <mergeCell ref="E1222:O1222"/>
+    <mergeCell ref="L1224:O1224"/>
+    <mergeCell ref="L1225:O1225"/>
+    <mergeCell ref="L1226:O1226"/>
+    <mergeCell ref="A1227:C1227"/>
+    <mergeCell ref="D1227:F1227"/>
+    <mergeCell ref="L1227:O1227"/>
+    <mergeCell ref="L1228:O1228"/>
+    <mergeCell ref="L1229:O1229"/>
+    <mergeCell ref="G1231:O1231"/>
+    <mergeCell ref="G1232:I1232"/>
+    <mergeCell ref="J1232:K1232"/>
+    <mergeCell ref="L1232:M1232"/>
+    <mergeCell ref="N1232:O1232"/>
+    <mergeCell ref="G1233:I1233"/>
+    <mergeCell ref="J1233:K1233"/>
+    <mergeCell ref="L1233:M1233"/>
+    <mergeCell ref="N1233:O1233"/>
+    <mergeCell ref="G1234:I1234"/>
+    <mergeCell ref="J1234:K1234"/>
+    <mergeCell ref="L1234:M1234"/>
+    <mergeCell ref="N1234:O1234"/>
+    <mergeCell ref="G1235:I1235"/>
+    <mergeCell ref="J1235:K1235"/>
+    <mergeCell ref="L1235:M1235"/>
+    <mergeCell ref="N1235:O1235"/>
+    <mergeCell ref="G1236:I1236"/>
+    <mergeCell ref="J1236:K1236"/>
+    <mergeCell ref="L1236:M1236"/>
+    <mergeCell ref="N1236:O1236"/>
+    <mergeCell ref="G1237:I1237"/>
+    <mergeCell ref="J1237:K1237"/>
+    <mergeCell ref="L1237:M1237"/>
+    <mergeCell ref="N1237:O1237"/>
+    <mergeCell ref="G1238:I1238"/>
+    <mergeCell ref="J1238:K1238"/>
+    <mergeCell ref="L1238:M1238"/>
+    <mergeCell ref="N1238:O1238"/>
+    <mergeCell ref="G1239:I1239"/>
+    <mergeCell ref="J1239:K1239"/>
+    <mergeCell ref="L1239:M1239"/>
+    <mergeCell ref="N1239:O1239"/>
     <mergeCell ref="A1132:C1135"/>
     <mergeCell ref="D1132:F1135"/>
     <mergeCell ref="A1112:D1120"/>
@@ -32956,6 +33683,14 @@
     <mergeCell ref="D1206:F1209"/>
     <mergeCell ref="A1210:C1213"/>
     <mergeCell ref="D1210:F1213"/>
+    <mergeCell ref="A1216:D1224"/>
+    <mergeCell ref="E1217:O1220"/>
+    <mergeCell ref="A1228:C1231"/>
+    <mergeCell ref="D1228:F1231"/>
+    <mergeCell ref="A1232:C1235"/>
+    <mergeCell ref="D1232:F1235"/>
+    <mergeCell ref="A1236:C1239"/>
+    <mergeCell ref="D1236:F1239"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <pageSetup paperSize="9" orientation="portrait"/>
